--- a/storage/PDS.xlsx
+++ b/storage/PDS.xlsx
@@ -38,8 +38,8 @@
     <definedName name="Z_969B47C9_E527_4846_B895_CFB9BE0B9D06_.wvu.PrintArea" localSheetId="2">'C'!$1:$1048576</definedName>
     <definedName name="Z_969B47C9_E527_4846_B895_CFB9BE0B9D06_.wvu.Rows" localSheetId="0">A!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'A'!$A$1:$N$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'B'!$A$1:$M$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'C'!$A$1:$K$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'B'!$A$1:$M$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'C'!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'D'!$A$1:$M$71</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -102,21 +102,12 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>ADDURU</t>
-  </si>
-  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>JESTER</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                           </t>
   </si>
   <si>
-    <t>CHARLES DAY</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
   </si>
   <si>
     <t>MIDDLE NAME</t>
-  </si>
-  <si>
-    <t>CLORES</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -142,9 +130,6 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>03-16-2017</t>
-  </si>
-  <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
@@ -160,15 +145,9 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>IN QUI VOLUPTATES MA</t>
-  </si>
-  <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
   </si>
   <si>
-    <t>Dual Citizenship</t>
-  </si>
-  <si>
     <t>Solo Parent</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>please indicate the details.</t>
   </si>
   <si>
@@ -196,18 +172,9 @@
     <t>CIVIL STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Others: </t>
-  </si>
-  <si>
     <t>17. RESIDENTIAL ADDRESS</t>
   </si>
   <si>
-    <t>QUIA NEMO QUIS BLAND</t>
-  </si>
-  <si>
-    <t>EA AD ET REPELLENDUS</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -220,12 +187,6 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>QUIA QUIS MINUS MOLE</t>
-  </si>
-  <si>
-    <t>ANIM EAQUE ALIQUA S</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -247,15 +208,6 @@
     <t>HEIGHT (m)</t>
   </si>
   <si>
-    <t>ASPERNATUR IN ENIM B</t>
-  </si>
-  <si>
-    <t>SIMILIQUE SINT EA FU</t>
-  </si>
-  <si>
-    <t>NEQUE VOLUPTATE VOLU</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -274,15 +226,9 @@
     <t>WEIGHT (kg)</t>
   </si>
   <si>
-    <t>DO CUPIDITATE ET REC</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZIP CODE    </t>
   </si>
   <si>
-    <t>TENETUR DOLORUM VOLU</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -292,18 +238,9 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
-    <t>VELIT CILLUM ET VELI</t>
-  </si>
-  <si>
     <t>18. PERMANENT ADDRESS</t>
   </si>
   <si>
-    <t>EU NULLA DOLOREMQUE</t>
-  </si>
-  <si>
-    <t>SED CONSECTETUR ENIM</t>
-  </si>
-  <si>
     <t>Bahamas, The</t>
   </si>
   <si>
@@ -316,15 +253,6 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>MAIORES QUI ILLUM Q</t>
-  </si>
-  <si>
-    <t>CULPA NIHIL AT ELIT</t>
-  </si>
-  <si>
-    <t>QUI ALIQUAM ITAQUE R</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -337,15 +265,6 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
-    <t>CONSEQUATUR OMNIS IN</t>
-  </si>
-  <si>
-    <t>CONSEQUATUR QUI PERS</t>
-  </si>
-  <si>
-    <t>POSSIMUS SOLUTA QUA</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -358,9 +277,6 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
-    <t>NECESSITATIBUS VELIT</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -370,45 +286,27 @@
     <t>SSS NO.</t>
   </si>
   <si>
-    <t>AMET ISTE COMMODO Q</t>
-  </si>
-  <si>
     <t>19. TELEPHONE NO.</t>
   </si>
   <si>
-    <t>EOS APERIAM ID PARIA</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>14. TIN NO.</t>
   </si>
   <si>
-    <t>DIGNISSIMOS PORRO ES</t>
-  </si>
-  <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
-    <t>091231234123</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>15. AGENCY EMPLOYEE NO.</t>
   </si>
   <si>
-    <t>OMNIS SINT SUSCIPIT</t>
-  </si>
-  <si>
     <t>21. E-MAIL ADDRESS (if any)</t>
   </si>
   <si>
-    <t>PYLU@MAILINATOR.COM</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -424,9 +322,6 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t>ITAQUE DESERUNT QUO</t>
-  </si>
-  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -439,60 +334,39 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t>RATIONE TEMPOR SIT M</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>QUIA UT QUIS OFFICII</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
-    <t>ALIQUID SIT ALIQUIP</t>
-  </si>
-  <si>
     <t>Brunei </t>
   </si>
   <si>
     <t>OCCUPATION</t>
   </si>
   <si>
-    <t>DOLOREM DEBITIS LABO</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>EMPLOYER/BUSINESS NAME</t>
   </si>
   <si>
-    <t>REICIENDIS VERO AD V</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>BUSINESS ADDRESS</t>
   </si>
   <si>
-    <t>REICIENDIS QUI ALIQU</t>
-  </si>
-  <si>
     <t>Burma</t>
   </si>
   <si>
     <t>TELEPHONE NO.</t>
   </si>
   <si>
-    <t>MOLLIT EXCEPTURI QUI</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -502,27 +376,15 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
-    <t>SED RERUM FUGIT AUT (deceased)</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>VELIT LABORIS IURE</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
-    <t>QUIBUSDAM SINT VITA</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>CORPORIS MOLLITIA ET</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -535,19 +397,10 @@
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>ID LAUDANTIUM NON C (deceased)</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>LABORIS DEBITIS CILL</t>
-  </si>
-  <si>
     <t>Chad</t>
-  </si>
-  <si>
-    <t>VOLUPTATEM VOLUPTAS</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -608,12 +461,6 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
-    <t>23-JUN-2022</t>
-  </si>
-  <si>
-    <t>25-NOV-1987</t>
-  </si>
-  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
@@ -1153,222 +1000,6 @@
 Validity</t>
   </si>
   <si>
-    <t>PERFERENDIS NEMO.</t>
-  </si>
-  <si>
-    <t>IPSAM VOLUPTATEM.</t>
-  </si>
-  <si>
-    <t>05/22/2022</t>
-  </si>
-  <si>
-    <t>KOBEHAVEN</t>
-  </si>
-  <si>
-    <t>IPSA CONSEQUUNTUR.</t>
-  </si>
-  <si>
-    <t>12/20/1978</t>
-  </si>
-  <si>
-    <t>VELIT VOLUPTATES AD.</t>
-  </si>
-  <si>
-    <t>NON VERITATIS.</t>
-  </si>
-  <si>
-    <t>03/17/2009</t>
-  </si>
-  <si>
-    <t>LAKE ALEXZANDER</t>
-  </si>
-  <si>
-    <t>DOLORUM REPELLENDUS.</t>
-  </si>
-  <si>
-    <t>05/05/2000</t>
-  </si>
-  <si>
-    <t>DELENITI TOTAM SED.</t>
-  </si>
-  <si>
-    <t>UT CONSEQUUNTUR.</t>
-  </si>
-  <si>
-    <t>03/05/2006</t>
-  </si>
-  <si>
-    <t>NORTH CHADDHAVEN</t>
-  </si>
-  <si>
-    <t>DISTINCTIO.</t>
-  </si>
-  <si>
-    <t>02/24/1991</t>
-  </si>
-  <si>
-    <t>OFFICIIS DOLOR SED A</t>
-  </si>
-  <si>
-    <t>AD OBCAECATI AUTEM R</t>
-  </si>
-  <si>
-    <t>07/02/2004</t>
-  </si>
-  <si>
-    <t>PERSPICIATIS VENIAM</t>
-  </si>
-  <si>
-    <t>MINIM EST COMMODO EX</t>
-  </si>
-  <si>
-    <t>12/24/2022</t>
-  </si>
-  <si>
-    <t>AUT PERFERENDIS.</t>
-  </si>
-  <si>
-    <t>QUI IUSTO ALIQUID.</t>
-  </si>
-  <si>
-    <t>11/05/2001</t>
-  </si>
-  <si>
-    <t>TORRANCETON</t>
-  </si>
-  <si>
-    <t>EAQUE NEQUE SED.</t>
-  </si>
-  <si>
-    <t>10/06/2022</t>
-  </si>
-  <si>
-    <t>QUASI QUIS.</t>
-  </si>
-  <si>
-    <t>VOLUPTATUM QUIA EUM.</t>
-  </si>
-  <si>
-    <t>07/29/1997</t>
-  </si>
-  <si>
-    <t>LAYNEVILLE</t>
-  </si>
-  <si>
-    <t>OMNIS ET VOLUPTATE.</t>
-  </si>
-  <si>
-    <t>09/11/1995</t>
-  </si>
-  <si>
-    <t>QUI IPSAM AD NEMO.</t>
-  </si>
-  <si>
-    <t>DOLOR EXPLICABO EST.</t>
-  </si>
-  <si>
-    <t>07/10/1996</t>
-  </si>
-  <si>
-    <t>WUCKERTHAVEN</t>
-  </si>
-  <si>
-    <t>BLANDITIIS.</t>
-  </si>
-  <si>
-    <t>04/23/2019</t>
-  </si>
-  <si>
-    <t>ET CORPORIS HIC ET.</t>
-  </si>
-  <si>
-    <t>MAIORES DISTINCTIO.</t>
-  </si>
-  <si>
-    <t>04/15/1992</t>
-  </si>
-  <si>
-    <t>NEW MARLEETON</t>
-  </si>
-  <si>
-    <t>CULPA IURE QUO.</t>
-  </si>
-  <si>
-    <t>01/01/1993</t>
-  </si>
-  <si>
-    <t>DIGNISSIMOS DOLORUM.</t>
-  </si>
-  <si>
-    <t>ESSE NAM DOLOR.</t>
-  </si>
-  <si>
-    <t>07/05/1981</t>
-  </si>
-  <si>
-    <t>CRUICKSHANKVILLE</t>
-  </si>
-  <si>
-    <t>VOLUPTATIBUS.</t>
-  </si>
-  <si>
-    <t>03/23/1999</t>
-  </si>
-  <si>
-    <t>FUGIAT IN PLACEAT.</t>
-  </si>
-  <si>
-    <t>VOLUPTATEM QUIS.</t>
-  </si>
-  <si>
-    <t>10/20/1978</t>
-  </si>
-  <si>
-    <t>SOUTH WILLARD</t>
-  </si>
-  <si>
-    <t>ET CONSEQUUNTUR AUT.</t>
-  </si>
-  <si>
-    <t>07/22/2021</t>
-  </si>
-  <si>
-    <t>ILLUM RERUM AB.</t>
-  </si>
-  <si>
-    <t>ATQUE POSSIMUS VEL.</t>
-  </si>
-  <si>
-    <t>06/02/1971</t>
-  </si>
-  <si>
-    <t>WEST LINDSEYBURGH</t>
-  </si>
-  <si>
-    <t>EST FUGIAT DOLOREM.</t>
-  </si>
-  <si>
-    <t>02/12/1995</t>
-  </si>
-  <si>
-    <t>ATQUE ENIM DELECTUS.</t>
-  </si>
-  <si>
-    <t>INCIDUNT DELENITI.</t>
-  </si>
-  <si>
-    <t>07/05/1970</t>
-  </si>
-  <si>
-    <t>ZBONCAKFORT</t>
-  </si>
-  <si>
-    <t>ITAQUE ARCHITECTO.</t>
-  </si>
-  <si>
-    <t>04/24/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1399,438 +1030,9 @@
     <t>GOV'T SERVICE                                                                                                                                       (Y/ N)</t>
   </si>
   <si>
-    <t>02/28/2024</t>
-  </si>
-  <si>
-    <t>TO PRESENT</t>
-  </si>
-  <si>
-    <t>PHOTOENGRAVER</t>
-  </si>
-  <si>
-    <t>WALKER, BUCKRIDGE AND COLE</t>
-  </si>
-  <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>01/27/2023</t>
-  </si>
-  <si>
-    <t>04/02/1999</t>
-  </si>
-  <si>
-    <t>FLIGHT ATTENDANT</t>
-  </si>
-  <si>
-    <t>MEDHURST-O'KON</t>
-  </si>
-  <si>
-    <t>06/18/2022</t>
-  </si>
-  <si>
-    <t>ARMORED ASSAULT VEHICLE CREW MEMBER</t>
-  </si>
-  <si>
-    <t>BLANDA LLC</t>
-  </si>
-  <si>
-    <t>07/15/2021</t>
-  </si>
-  <si>
-    <t>10/30/1999</t>
-  </si>
-  <si>
-    <t>EDUCATION ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>SCHUMM, SCHULIST AND SPORER</t>
-  </si>
-  <si>
-    <t>CASUAL</t>
-  </si>
-  <si>
-    <t>09/08/2018</t>
-  </si>
-  <si>
-    <t>05/02/1985</t>
-  </si>
-  <si>
-    <t>LOCKER ROOM ATTENDANT</t>
-  </si>
-  <si>
-    <t>JACOBI GROUP</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
-    <t>08/27/2017</t>
-  </si>
-  <si>
-    <t>ASSEMBLER</t>
-  </si>
-  <si>
-    <t>BECKER, LUEILWITZ AND VEUM</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>10/22/2016</t>
-  </si>
-  <si>
-    <t>FILE CLERK</t>
-  </si>
-  <si>
-    <t>HAGENES, DICKI AND ANDERSON</t>
-  </si>
-  <si>
     <t xml:space="preserve">                               CS FORM 212 (Revised 2017), Page 2 of 4</t>
   </si>
   <si>
-    <t>GRANT AND SONS</t>
-  </si>
-  <si>
-    <t>ORDER CLERK</t>
-  </si>
-  <si>
-    <t>02/19/1970</t>
-  </si>
-  <si>
-    <t>POUROS-DICKINSON</t>
-  </si>
-  <si>
-    <t>FISH HATCHERY MANAGER</t>
-  </si>
-  <si>
-    <t>11/01/1971</t>
-  </si>
-  <si>
-    <t>PRICE-ADAMS</t>
-  </si>
-  <si>
-    <t>SINGER</t>
-  </si>
-  <si>
-    <t>07/23/1983</t>
-  </si>
-  <si>
-    <t>05/03/1973</t>
-  </si>
-  <si>
-    <t>WISOZK PLC</t>
-  </si>
-  <si>
-    <t>LOAN COUNSELOR</t>
-  </si>
-  <si>
-    <t>05/14/1971</t>
-  </si>
-  <si>
-    <t>03/30/1974</t>
-  </si>
-  <si>
-    <t>ROGAHN LLC</t>
-  </si>
-  <si>
-    <t>COMMUNICATIONS EQUIPMENT OPERATOR</t>
-  </si>
-  <si>
-    <t>04/11/1974</t>
-  </si>
-  <si>
-    <t>CASPER-RUNOLFSSON</t>
-  </si>
-  <si>
-    <t>LAY-OUT WORKER</t>
-  </si>
-  <si>
-    <t>06/08/1971</t>
-  </si>
-  <si>
-    <t>11/16/1974</t>
-  </si>
-  <si>
-    <t>SCHOEN, KLOCKO AND WILLMS</t>
-  </si>
-  <si>
-    <t>PSYCHIATRIC TECHNICIAN</t>
-  </si>
-  <si>
-    <t>05/21/1987</t>
-  </si>
-  <si>
-    <t>05/21/1975</t>
-  </si>
-  <si>
-    <t>STOLTENBERG PLC</t>
-  </si>
-  <si>
-    <t>POET OR LYRICIST</t>
-  </si>
-  <si>
-    <t>09/17/2003</t>
-  </si>
-  <si>
-    <t>05/21/1976</t>
-  </si>
-  <si>
-    <t>LEHNER AND SONS</t>
-  </si>
-  <si>
-    <t>STONE CUTTER</t>
-  </si>
-  <si>
-    <t>11/13/1993</t>
-  </si>
-  <si>
-    <t>11/29/1978</t>
-  </si>
-  <si>
-    <t>DAUGHERTY INC</t>
-  </si>
-  <si>
-    <t>GROUNDS MAINTENANCE WORKER</t>
-  </si>
-  <si>
-    <t>SENGER, SPINKA AND LEGROS</t>
-  </si>
-  <si>
-    <t>CARTOGRAPHER</t>
-  </si>
-  <si>
-    <t>06/08/1994</t>
-  </si>
-  <si>
-    <t>03/09/1979</t>
-  </si>
-  <si>
-    <t>MUELLER-MRAZ</t>
-  </si>
-  <si>
-    <t>METAL POURER AND CASTER</t>
-  </si>
-  <si>
-    <t>10/17/1992</t>
-  </si>
-  <si>
-    <t>07/29/1981</t>
-  </si>
-  <si>
-    <t>PRICE PLC</t>
-  </si>
-  <si>
-    <t>RADIO OPERATOR</t>
-  </si>
-  <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
-    <t>BAYER, CONN AND YOST</t>
-  </si>
-  <si>
-    <t>MANAGER OF FOOD PREPARATION</t>
-  </si>
-  <si>
-    <t>10/09/1982</t>
-  </si>
-  <si>
-    <t>BAILEY-O'REILLY</t>
-  </si>
-  <si>
-    <t>SOCIAL MEDIA MARKETING MANAGER</t>
-  </si>
-  <si>
-    <t>07/18/1995</t>
-  </si>
-  <si>
-    <t>05/28/1984</t>
-  </si>
-  <si>
-    <t>HAYES, GLOVER AND SCHAEFER</t>
-  </si>
-  <si>
-    <t>MATERIAL MOVING WORKER</t>
-  </si>
-  <si>
-    <t>02/23/1986</t>
-  </si>
-  <si>
-    <t>GIBSON-REYNOLDS</t>
-  </si>
-  <si>
-    <t>MASSAGE THERAPIST</t>
-  </si>
-  <si>
-    <t>08/10/2014</t>
-  </si>
-  <si>
-    <t>07/02/1989</t>
-  </si>
-  <si>
-    <t>WINTHEISER PLC</t>
-  </si>
-  <si>
-    <t>PROTECTIVE SERVICE WORKER</t>
-  </si>
-  <si>
-    <t>08/13/1989</t>
-  </si>
-  <si>
-    <t>CRUICKSHANK-BODE</t>
-  </si>
-  <si>
-    <t>ANESTHESIOLOGIST</t>
-  </si>
-  <si>
-    <t>03/28/1993</t>
-  </si>
-  <si>
-    <t>PFANNERSTILL AND SONS</t>
-  </si>
-  <si>
-    <t>FOOD TOBACCO ROASTING</t>
-  </si>
-  <si>
-    <t>04/21/1972</t>
-  </si>
-  <si>
-    <t>08/30/1993</t>
-  </si>
-  <si>
-    <t>STROSIN LTD</t>
-  </si>
-  <si>
-    <t>MECHANICAL INSPECTOR</t>
-  </si>
-  <si>
-    <t>11/13/1996</t>
-  </si>
-  <si>
-    <t>COLE GROUP</t>
-  </si>
-  <si>
-    <t>ELECTRONIC EQUIPMENT ASSEMBLER</t>
-  </si>
-  <si>
-    <t>05/27/1999</t>
-  </si>
-  <si>
-    <t>ERDMAN-MOORE</t>
-  </si>
-  <si>
-    <t>WELDER</t>
-  </si>
-  <si>
-    <t>12/26/1984</t>
-  </si>
-  <si>
-    <t>07/03/1999</t>
-  </si>
-  <si>
-    <t>SANFORD, DONNELLY AND HOWELL</t>
-  </si>
-  <si>
-    <t>COOLING AND FREEZING EQUIPMENT OPERATOR</t>
-  </si>
-  <si>
-    <t>02/14/2010</t>
-  </si>
-  <si>
-    <t>05/27/2000</t>
-  </si>
-  <si>
-    <t>HAUCK LLC</t>
-  </si>
-  <si>
-    <t>MUSICIAN</t>
-  </si>
-  <si>
-    <t>09/12/2001</t>
-  </si>
-  <si>
-    <t>KESSLER-EFFERTZ</t>
-  </si>
-  <si>
-    <t>MUSIC ARRANGER AND ORCHESTRATOR</t>
-  </si>
-  <si>
-    <t>12/02/2002</t>
-  </si>
-  <si>
-    <t>ALTENWERTH, BINS AND WITTING</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE CLERK</t>
-  </si>
-  <si>
-    <t>08/19/2003</t>
-  </si>
-  <si>
-    <t>SHIELDS, NOLAN AND REINGER</t>
-  </si>
-  <si>
-    <t>INFANTRY</t>
-  </si>
-  <si>
-    <t>04/12/2004</t>
-  </si>
-  <si>
-    <t>BAYER, PADBERG AND MOEN</t>
-  </si>
-  <si>
-    <t>MEDICAL SECRETARY</t>
-  </si>
-  <si>
-    <t>10/03/1988</t>
-  </si>
-  <si>
-    <t>06/27/2005</t>
-  </si>
-  <si>
-    <t>GLOVER, KEEBLER AND HINTZ</t>
-  </si>
-  <si>
-    <t>FIRE FIGHTER</t>
-  </si>
-  <si>
-    <t>08/13/2006</t>
-  </si>
-  <si>
-    <t>KOSS, MAYERT AND NIENOW</t>
-  </si>
-  <si>
-    <t>COPY MACHINE OPERATOR</t>
-  </si>
-  <si>
-    <t>01/27/1989</t>
-  </si>
-  <si>
-    <t>05/08/2009</t>
-  </si>
-  <si>
-    <t>WALSH AND SONS</t>
-  </si>
-  <si>
-    <t>MEDICAL APPLIANCE TECHNICIAN</t>
-  </si>
-  <si>
-    <t>08/07/2012</t>
-  </si>
-  <si>
-    <t>12/21/2012</t>
-  </si>
-  <si>
-    <t>REAL ESTATE SALES AGENT</t>
-  </si>
-  <si>
-    <t>HAHN, DICKI AND WATSICA</t>
-  </si>
-  <si>
     <t>VI. VOLUNTARY WORK OR INVOLVEMENT IN CIVIC / NON-GOVERNMENT / PEOPLE / VOLUNTARY ORGANIZATION/S</t>
   </si>
   <si>
@@ -1847,138 +1049,6 @@
   </si>
   <si>
     <t>POSITION / NATURE OF WORK</t>
-  </si>
-  <si>
-    <t>OPTIO DOLOREM ESSE.</t>
-  </si>
-  <si>
-    <t>12/31/2019</t>
-  </si>
-  <si>
-    <t>01/18/1977</t>
-  </si>
-  <si>
-    <t>FORENSIC INVESTIGATOR</t>
-  </si>
-  <si>
-    <t>CORRUPTI SAPIENTE.</t>
-  </si>
-  <si>
-    <t>03/01/2014</t>
-  </si>
-  <si>
-    <t>10/07/1998</t>
-  </si>
-  <si>
-    <t>PHYSICIAN</t>
-  </si>
-  <si>
-    <t>REM ISTE NON.</t>
-  </si>
-  <si>
-    <t>03/23/2006</t>
-  </si>
-  <si>
-    <t>06/25/2019</t>
-  </si>
-  <si>
-    <t>INFORMATION SYSTEMS MANAGER</t>
-  </si>
-  <si>
-    <t>DOLOREMQUE CUM AD.</t>
-  </si>
-  <si>
-    <t>05/28/2004</t>
-  </si>
-  <si>
-    <t>07/23/2004</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE LAW JUDGE</t>
-  </si>
-  <si>
-    <t>REPREHENDERIT.</t>
-  </si>
-  <si>
-    <t>04/06/2004</t>
-  </si>
-  <si>
-    <t>04/20/1971</t>
-  </si>
-  <si>
-    <t>OPTOMETRIST</t>
-  </si>
-  <si>
-    <t>VOLUPTATEM REPELLAT.</t>
-  </si>
-  <si>
-    <t>11/11/2003</t>
-  </si>
-  <si>
-    <t>02/24/2009</t>
-  </si>
-  <si>
-    <t>MAINTENANCE EQUIPMENT OPERATOR</t>
-  </si>
-  <si>
-    <t>NATUS SUSCIPIT.</t>
-  </si>
-  <si>
-    <t>09/04/1998</t>
-  </si>
-  <si>
-    <t>06/28/1983</t>
-  </si>
-  <si>
-    <t>SUPERVISOR FIRE FIGHTING WORKER</t>
-  </si>
-  <si>
-    <t>LABORUM VEL OMNIS.</t>
-  </si>
-  <si>
-    <t>10/22/1986</t>
-  </si>
-  <si>
-    <t>01/25/1978</t>
-  </si>
-  <si>
-    <t>REFINERY OPERATOR</t>
-  </si>
-  <si>
-    <t>DESERUNT.</t>
-  </si>
-  <si>
-    <t>07/04/1985</t>
-  </si>
-  <si>
-    <t>02/07/2005</t>
-  </si>
-  <si>
-    <t>CAFETERIA COOK</t>
-  </si>
-  <si>
-    <t>RATIONE AUT TEMPORA.</t>
-  </si>
-  <si>
-    <t>06/03/1975</t>
-  </si>
-  <si>
-    <t>08/31/2003</t>
-  </si>
-  <si>
-    <t>SEPTIC TANK SERVICER</t>
-  </si>
-  <si>
-    <t>DICTA NESCIUNT QUOS.</t>
-  </si>
-  <si>
-    <t>10/26/1973</t>
-  </si>
-  <si>
-    <t>02/27/2017</t>
-  </si>
-  <si>
-    <t>TITLE SEARCHER</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -2001,246 +1071,6 @@
     <t xml:space="preserve"> CONDUCTED/ SPONSORED BY                                                               (Write in full)</t>
   </si>
   <si>
-    <t>VEL.</t>
-  </si>
-  <si>
-    <t>06/23/2022</t>
-  </si>
-  <si>
-    <t>10/03/1973</t>
-  </si>
-  <si>
-    <t>MANAGERIAL</t>
-  </si>
-  <si>
-    <t>HERZOG, WEST AND SCHADEN</t>
-  </si>
-  <si>
-    <t>SIT.</t>
-  </si>
-  <si>
-    <t>11/21/2021</t>
-  </si>
-  <si>
-    <t>09/12/1988</t>
-  </si>
-  <si>
-    <t>TECHNICAL</t>
-  </si>
-  <si>
-    <t>BRUEN, WARD AND LEGROS</t>
-  </si>
-  <si>
-    <t>QUOD.</t>
-  </si>
-  <si>
-    <t>08/09/2021</t>
-  </si>
-  <si>
-    <t>07/02/2009</t>
-  </si>
-  <si>
-    <t>SUPERVISORY</t>
-  </si>
-  <si>
-    <t>BLANDA PLC</t>
-  </si>
-  <si>
-    <t>IPSA.</t>
-  </si>
-  <si>
-    <t>05/02/2012</t>
-  </si>
-  <si>
-    <t>02/08/2014</t>
-  </si>
-  <si>
-    <t>WILKINSON GROUP</t>
-  </si>
-  <si>
-    <t>ET.</t>
-  </si>
-  <si>
-    <t>07/06/2010</t>
-  </si>
-  <si>
-    <t>08/25/1987</t>
-  </si>
-  <si>
-    <t>BARTOLETTI, SIPES AND SWIFT</t>
-  </si>
-  <si>
-    <t>AUT.</t>
-  </si>
-  <si>
-    <t>07/18/2007</t>
-  </si>
-  <si>
-    <t>12/07/1981</t>
-  </si>
-  <si>
-    <t>PARISIAN-HIRTHE</t>
-  </si>
-  <si>
-    <t>IURE.</t>
-  </si>
-  <si>
-    <t>07/04/2007</t>
-  </si>
-  <si>
-    <t>04/27/1988</t>
-  </si>
-  <si>
-    <t>DIBBERT-WILDERMAN</t>
-  </si>
-  <si>
-    <t>IN.</t>
-  </si>
-  <si>
-    <t>08/22/2000</t>
-  </si>
-  <si>
-    <t>10/04/2007</t>
-  </si>
-  <si>
-    <t>DURGAN AND SONS</t>
-  </si>
-  <si>
-    <t>ID.</t>
-  </si>
-  <si>
-    <t>11/03/1996</t>
-  </si>
-  <si>
-    <t>02/07/2021</t>
-  </si>
-  <si>
-    <t>WIZA-BAUMBACH</t>
-  </si>
-  <si>
-    <t>EOS.</t>
-  </si>
-  <si>
-    <t>05/03/1996</t>
-  </si>
-  <si>
-    <t>09/06/2014</t>
-  </si>
-  <si>
-    <t>ROLFSON-HACKETT</t>
-  </si>
-  <si>
-    <t>04/25/1992</t>
-  </si>
-  <si>
-    <t>02/27/2021</t>
-  </si>
-  <si>
-    <t>WEISSNAT LTD</t>
-  </si>
-  <si>
-    <t>AMET.</t>
-  </si>
-  <si>
-    <t>12/12/1990</t>
-  </si>
-  <si>
-    <t>02/28/1980</t>
-  </si>
-  <si>
-    <t>BOGAN, REICHEL AND DENESIK</t>
-  </si>
-  <si>
-    <t>NON.</t>
-  </si>
-  <si>
-    <t>06/20/1990</t>
-  </si>
-  <si>
-    <t>08/08/2000</t>
-  </si>
-  <si>
-    <t>ONDRICKA LLC</t>
-  </si>
-  <si>
-    <t>QUIA.</t>
-  </si>
-  <si>
-    <t>02/02/1987</t>
-  </si>
-  <si>
-    <t>11/18/1996</t>
-  </si>
-  <si>
-    <t>HARTMANN, MAYER AND SCHMIDT</t>
-  </si>
-  <si>
-    <t>QUI.</t>
-  </si>
-  <si>
-    <t>05/03/1985</t>
-  </si>
-  <si>
-    <t>06/13/1985</t>
-  </si>
-  <si>
-    <t>DIETRICH-STIEDEMANN</t>
-  </si>
-  <si>
-    <t>EST.</t>
-  </si>
-  <si>
-    <t>12/06/1984</t>
-  </si>
-  <si>
-    <t>03/14/1993</t>
-  </si>
-  <si>
-    <t>BOEHM-VANDERVORT</t>
-  </si>
-  <si>
-    <t>SUNT.</t>
-  </si>
-  <si>
-    <t>09/13/1983</t>
-  </si>
-  <si>
-    <t>08/18/2004</t>
-  </si>
-  <si>
-    <t>KEEBLER-BINS</t>
-  </si>
-  <si>
-    <t>02/03/1981</t>
-  </si>
-  <si>
-    <t>12/23/2019</t>
-  </si>
-  <si>
-    <t>BINS PLC</t>
-  </si>
-  <si>
-    <t>QUO.</t>
-  </si>
-  <si>
-    <t>02/09/1972</t>
-  </si>
-  <si>
-    <t>12/10/1980</t>
-  </si>
-  <si>
-    <t>STREICH-BEIER</t>
-  </si>
-  <si>
-    <t>12/14/1970</t>
-  </si>
-  <si>
-    <t>01/08/1995</t>
-  </si>
-  <si>
-    <t>O'KEEFE-SCHNEIDER</t>
-  </si>
-  <si>
     <t>VIII.  OTHER INFORMATION</t>
   </si>
   <si>
@@ -2262,51 +1092,9 @@
     <t>MEMBERSHIP IN ASSOCIATION/ORGANIZATION                                                                                         (Write in full)</t>
   </si>
   <si>
-    <t>ASDFASDF</t>
-  </si>
-  <si>
-    <t>SDFGSDF</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CS FORM 212 (Revised 2017), Page 3 of 4</t>
   </si>
   <si>
-    <t>AMET ET.</t>
-  </si>
-  <si>
-    <t>CUM.</t>
-  </si>
-  <si>
-    <t>ASDFASDFASD</t>
-  </si>
-  <si>
-    <t>QUIA UT.</t>
-  </si>
-  <si>
-    <t>ANIMI.</t>
-  </si>
-  <si>
-    <t>OPTIO.</t>
-  </si>
-  <si>
-    <t>EUM NISI.</t>
-  </si>
-  <si>
-    <t>ASDFAD</t>
-  </si>
-  <si>
-    <t>ASFASD</t>
-  </si>
-  <si>
-    <t>AASDF</t>
-  </si>
-  <si>
-    <t>QUAM SED.</t>
-  </si>
-  <si>
-    <t>SDGSM</t>
-  </si>
-  <si>
     <t>34.</t>
   </si>
   <si>
@@ -2322,28 +1110,16 @@
     <t>a. within the third degree?</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>b. within the fourth degree (for Local Government Unit - Career Employees)?</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">     If YES, give details: ________________________________  ________________________________</t>
   </si>
   <si>
-    <t>ASD</t>
-  </si>
-  <si>
     <t>35.</t>
   </si>
   <si>
     <t>a. Have you ever been found guilty of any administrative offense?</t>
-  </si>
-  <si>
-    <t>ASDF</t>
   </si>
   <si>
     <t xml:space="preserve">b. Have you been criminally charged before any court?
@@ -2420,9 +1196,6 @@
   </si>
   <si>
     <t>If YES, please specify:</t>
-  </si>
-  <si>
-    <t>ASDASD</t>
   </si>
   <si>
     <t xml:space="preserve">b. </t>
@@ -2469,33 +1242,6 @@
     <t>TEL. NO.</t>
   </si>
   <si>
-    <t>PATRICIA FULLER</t>
-  </si>
-  <si>
-    <t>NEVADA VINSON</t>
-  </si>
-  <si>
-    <t>ELEANOR CHERRY</t>
-  </si>
-  <si>
-    <t>JUSTINA SHARP</t>
-  </si>
-  <si>
-    <t>HAMILTON HENDRICKS</t>
-  </si>
-  <si>
-    <t>HONORATO BISHOP</t>
-  </si>
-  <si>
-    <t>PHOEBE PUGH</t>
-  </si>
-  <si>
-    <t>PASCALE MOODY</t>
-  </si>
-  <si>
-    <t>THANE TURNER</t>
-  </si>
-  <si>
     <t>42.</t>
   </si>
   <si>
@@ -2570,22 +1316,13 @@
     <t xml:space="preserve">Government Issued ID: </t>
   </si>
   <si>
-    <t>JONAS FIELDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID/License/Passport No.: </t>
   </si>
   <si>
-    <t>LEANDRA BURNETT</t>
-  </si>
-  <si>
     <t>Signature (Sign inside the box)</t>
   </si>
   <si>
     <t>Date/Place of Issuance:</t>
-  </si>
-  <si>
-    <t>JOAN LLOYD</t>
   </si>
   <si>
     <t>Date Accomplished</t>
@@ -8197,9 +6934,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="380"/>
-      <c r="D10" s="385" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="385"/>
       <c r="E10" s="385"/>
       <c r="F10" s="385"/>
       <c r="G10" s="385"/>
@@ -8215,12 +6950,10 @@
     <row r="11" spans="1:19" customHeight="1" ht="22.5">
       <c r="A11" s="163"/>
       <c r="B11" s="396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="397"/>
-      <c r="D11" s="197" t="s">
-        <v>15</v>
-      </c>
+      <c r="D11" s="197"/>
       <c r="E11" s="198"/>
       <c r="F11" s="198"/>
       <c r="G11" s="198"/>
@@ -8229,28 +6962,24 @@
       <c r="J11" s="198"/>
       <c r="K11" s="198"/>
       <c r="L11" s="365" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="366"/>
+      <c r="N11" s="252"/>
+      <c r="P11" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="143" t="s">
         <v>16</v>
-      </c>
-      <c r="M11" s="366"/>
-      <c r="N11" s="252" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="143" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="21.75">
       <c r="A12" s="164"/>
       <c r="B12" s="398" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="399"/>
-      <c r="D12" s="194" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="194"/>
       <c r="E12" s="195"/>
       <c r="F12" s="195"/>
       <c r="G12" s="195"/>
@@ -8262,27 +6991,25 @@
       <c r="M12" s="199"/>
       <c r="N12" s="200"/>
       <c r="P12" s="96" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" customHeight="1" ht="24">
       <c r="A13" s="226" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="379" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="380"/>
-      <c r="D13" s="268" t="s">
-        <v>26</v>
-      </c>
+      <c r="D13" s="268"/>
       <c r="E13" s="268"/>
       <c r="F13" s="269"/>
       <c r="G13" s="102" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H13" s="145"/>
       <c r="I13" s="145"/>
@@ -8292,10 +7019,10 @@
       <c r="M13" s="360"/>
       <c r="N13" s="361"/>
       <c r="P13" s="96" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:19" customHeight="1" ht="12">
@@ -8318,51 +7045,45 @@
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="24.75">
       <c r="A15" s="165" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="371" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="371"/>
       <c r="E15" s="371"/>
       <c r="F15" s="372"/>
       <c r="G15" s="273" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15" s="274"/>
       <c r="I15" s="274"/>
-      <c r="J15" s="283" t="s">
-        <v>34</v>
-      </c>
+      <c r="J15" s="283"/>
       <c r="K15" s="284"/>
       <c r="L15" s="284"/>
       <c r="M15" s="284"/>
       <c r="N15" s="285"/>
       <c r="P15" s="96" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="24.75">
       <c r="A16" s="166" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="387" t="s">
-        <v>39</v>
-      </c>
+      <c r="D16" s="387"/>
       <c r="E16" s="387"/>
       <c r="F16" s="320"/>
       <c r="G16" s="270" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="271"/>
       <c r="I16" s="272"/>
@@ -8372,10 +7093,10 @@
       <c r="M16" s="287"/>
       <c r="N16" s="288"/>
       <c r="P16" s="96" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:19" customHeight="1" ht="15.75">
@@ -8383,30 +7104,24 @@
         <v>6</v>
       </c>
       <c r="B17" s="279" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" s="280"/>
-      <c r="D17" s="277" t="s">
-        <v>44</v>
-      </c>
+      <c r="D17" s="277"/>
       <c r="E17" s="277"/>
       <c r="F17" s="277"/>
       <c r="G17" s="103" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H17" s="104"/>
-      <c r="I17" s="354" t="s">
-        <v>46</v>
-      </c>
+      <c r="I17" s="354"/>
       <c r="J17" s="355"/>
       <c r="K17" s="355"/>
-      <c r="L17" s="355" t="s">
-        <v>47</v>
-      </c>
+      <c r="L17" s="355"/>
       <c r="M17" s="355"/>
       <c r="N17" s="362"/>
       <c r="Q17" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="9">
@@ -8419,17 +7134,17 @@
       <c r="G18" s="151"/>
       <c r="H18" s="255"/>
       <c r="I18" s="363" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J18" s="364"/>
       <c r="K18" s="364"/>
       <c r="L18" s="364" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M18" s="364"/>
       <c r="N18" s="367"/>
       <c r="Q18" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" customHeight="1" ht="5.25">
@@ -8441,18 +7156,14 @@
       <c r="F19" s="257"/>
       <c r="G19" s="151"/>
       <c r="H19" s="255"/>
-      <c r="I19" s="377" t="s">
-        <v>52</v>
-      </c>
+      <c r="I19" s="377"/>
       <c r="J19" s="312"/>
       <c r="K19" s="312"/>
-      <c r="L19" s="311" t="s">
-        <v>53</v>
-      </c>
+      <c r="L19" s="311"/>
       <c r="M19" s="312"/>
       <c r="N19" s="313"/>
       <c r="Q19" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:19" customHeight="1" ht="9.75">
@@ -8471,7 +7182,7 @@
       <c r="M20" s="314"/>
       <c r="N20" s="315"/>
       <c r="Q20" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:19" customHeight="1" ht="9">
@@ -8484,46 +7195,40 @@
       <c r="G21" s="149"/>
       <c r="H21" s="251"/>
       <c r="I21" s="316" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J21" s="317"/>
       <c r="K21" s="317"/>
       <c r="L21" s="430" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M21" s="431"/>
       <c r="N21" s="432"/>
       <c r="Q21" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:19" customHeight="1" ht="15.75">
       <c r="A22" s="326" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B22" s="330" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C22" s="331"/>
-      <c r="D22" s="320" t="s">
-        <v>61</v>
-      </c>
+      <c r="D22" s="320"/>
       <c r="E22" s="277"/>
       <c r="F22" s="321"/>
       <c r="G22" s="149"/>
       <c r="H22" s="251"/>
-      <c r="I22" s="354" t="s">
-        <v>62</v>
-      </c>
+      <c r="I22" s="354"/>
       <c r="J22" s="355"/>
       <c r="K22" s="355"/>
-      <c r="L22" s="355" t="s">
-        <v>63</v>
-      </c>
+      <c r="L22" s="355"/>
       <c r="M22" s="355"/>
       <c r="N22" s="362"/>
       <c r="Q22" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:19" customHeight="1" ht="8.25">
@@ -8536,77 +7241,67 @@
       <c r="G23" s="149"/>
       <c r="H23" s="251"/>
       <c r="I23" s="435" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J23" s="436"/>
       <c r="K23" s="436"/>
       <c r="L23" s="433" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M23" s="433"/>
       <c r="N23" s="434"/>
       <c r="Q23" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:19" customHeight="1" ht="22.5">
       <c r="A24" s="163" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B24" s="334" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C24" s="335"/>
-      <c r="D24" s="351" t="s">
-        <v>70</v>
-      </c>
+      <c r="D24" s="351"/>
       <c r="E24" s="352"/>
       <c r="F24" s="353"/>
       <c r="G24" s="400" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H24" s="401"/>
-      <c r="I24" s="368" t="s">
-        <v>72</v>
-      </c>
+      <c r="I24" s="368"/>
       <c r="J24" s="369"/>
       <c r="K24" s="369"/>
       <c r="L24" s="369"/>
       <c r="M24" s="369"/>
       <c r="N24" s="370"/>
       <c r="Q24" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:19" customHeight="1" ht="15.75">
       <c r="A25" s="318" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B25" s="330" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C25" s="331"/>
-      <c r="D25" s="320" t="s">
-        <v>76</v>
-      </c>
+      <c r="D25" s="320"/>
       <c r="E25" s="277"/>
       <c r="F25" s="321"/>
       <c r="G25" s="109" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H25" s="99"/>
-      <c r="I25" s="354" t="s">
-        <v>78</v>
-      </c>
+      <c r="I25" s="354"/>
       <c r="J25" s="355"/>
       <c r="K25" s="355"/>
-      <c r="L25" s="355" t="s">
-        <v>79</v>
-      </c>
+      <c r="L25" s="355"/>
       <c r="M25" s="355"/>
       <c r="N25" s="362"/>
       <c r="Q25" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:19" customHeight="1" ht="9">
@@ -8619,46 +7314,40 @@
       <c r="G26" s="149"/>
       <c r="H26" s="251"/>
       <c r="I26" s="363" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J26" s="364"/>
       <c r="K26" s="364"/>
       <c r="L26" s="364" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M26" s="364"/>
       <c r="N26" s="367"/>
       <c r="Q26" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:19" customHeight="1" ht="15.75">
       <c r="A27" s="318" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B27" s="330" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C27" s="331"/>
-      <c r="D27" s="320" t="s">
-        <v>84</v>
-      </c>
+      <c r="D27" s="320"/>
       <c r="E27" s="277"/>
       <c r="F27" s="321"/>
       <c r="G27" s="151"/>
       <c r="H27" s="255"/>
-      <c r="I27" s="354" t="s">
-        <v>85</v>
-      </c>
+      <c r="I27" s="354"/>
       <c r="J27" s="355"/>
       <c r="K27" s="355"/>
-      <c r="L27" s="355" t="s">
-        <v>86</v>
-      </c>
+      <c r="L27" s="355"/>
       <c r="M27" s="355"/>
       <c r="N27" s="362"/>
       <c r="Q27" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:19" customHeight="1" ht="9">
@@ -8671,46 +7360,40 @@
       <c r="G28" s="151"/>
       <c r="H28" s="255"/>
       <c r="I28" s="412" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J28" s="410"/>
       <c r="K28" s="410"/>
       <c r="L28" s="409" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M28" s="410"/>
       <c r="N28" s="411"/>
       <c r="Q28" s="3" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:19" customHeight="1" ht="15.75">
       <c r="A29" s="318" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B29" s="330" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C29" s="331"/>
-      <c r="D29" s="320" t="s">
-        <v>91</v>
-      </c>
+      <c r="D29" s="320"/>
       <c r="E29" s="277"/>
       <c r="F29" s="321"/>
       <c r="G29" s="151"/>
       <c r="H29" s="156"/>
-      <c r="I29" s="407" t="s">
-        <v>92</v>
-      </c>
+      <c r="I29" s="407"/>
       <c r="J29" s="408"/>
       <c r="K29" s="408"/>
-      <c r="L29" s="408" t="s">
-        <v>93</v>
-      </c>
+      <c r="L29" s="408"/>
       <c r="M29" s="408"/>
       <c r="N29" s="441"/>
       <c r="Q29" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:19" customHeight="1" ht="9.75">
@@ -8723,34 +7406,32 @@
       <c r="G30" s="151"/>
       <c r="H30" s="156"/>
       <c r="I30" s="437" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J30" s="437"/>
       <c r="K30" s="437"/>
       <c r="L30" s="437" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M30" s="437"/>
       <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:19" customHeight="1" ht="24.75">
       <c r="A31" s="165" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C31" s="98"/>
-      <c r="D31" s="351" t="s">
-        <v>98</v>
-      </c>
+      <c r="D31" s="351"/>
       <c r="E31" s="352"/>
       <c r="F31" s="353"/>
       <c r="G31" s="439" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H31" s="440"/>
       <c r="I31" s="356"/>
@@ -8760,95 +7441,83 @@
       <c r="M31" s="357"/>
       <c r="N31" s="358"/>
       <c r="Q31" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:19" customHeight="1" ht="24.75">
       <c r="A32" s="163" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C32" s="98"/>
-      <c r="D32" s="351" t="s">
-        <v>102</v>
-      </c>
+      <c r="D32" s="351"/>
       <c r="E32" s="352"/>
       <c r="F32" s="353"/>
       <c r="G32" s="373" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H32" s="335"/>
-      <c r="I32" s="356" t="s">
-        <v>104</v>
-      </c>
+      <c r="I32" s="356"/>
       <c r="J32" s="357"/>
       <c r="K32" s="357"/>
       <c r="L32" s="357"/>
       <c r="M32" s="357"/>
       <c r="N32" s="358"/>
       <c r="Q32" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:19" customHeight="1" ht="24.75">
       <c r="A33" s="402" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B33" s="335"/>
       <c r="C33" s="403"/>
-      <c r="D33" s="351" t="s">
-        <v>107</v>
-      </c>
+      <c r="D33" s="351"/>
       <c r="E33" s="352"/>
       <c r="F33" s="353"/>
       <c r="G33" s="196" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="H33" s="150"/>
-      <c r="I33" s="356" t="s">
-        <v>109</v>
-      </c>
+      <c r="I33" s="356"/>
       <c r="J33" s="357"/>
       <c r="K33" s="357"/>
       <c r="L33" s="357"/>
       <c r="M33" s="357"/>
       <c r="N33" s="358"/>
       <c r="Q33" s="3" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:19" customHeight="1" ht="24.75">
       <c r="A34" s="168" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B34" s="254"/>
       <c r="C34" s="152"/>
-      <c r="D34" s="390" t="s">
-        <v>112</v>
-      </c>
+      <c r="D34" s="390"/>
       <c r="E34" s="391"/>
       <c r="F34" s="392"/>
       <c r="G34" s="109" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H34" s="99"/>
-      <c r="I34" s="356" t="s">
-        <v>114</v>
-      </c>
+      <c r="I34" s="356"/>
       <c r="J34" s="357"/>
       <c r="K34" s="357"/>
       <c r="L34" s="357"/>
       <c r="M34" s="357"/>
       <c r="N34" s="358"/>
       <c r="Q34" s="3" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
       <c r="A35" s="205" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B35" s="206"/>
       <c r="C35" s="206"/>
@@ -8864,55 +7533,49 @@
       <c r="M35" s="206"/>
       <c r="N35" s="207"/>
       <c r="Q35" s="3" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="102" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B36" s="215" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C36" s="216"/>
-      <c r="D36" s="309" t="s">
-        <v>120</v>
-      </c>
+      <c r="D36" s="309"/>
       <c r="E36" s="309"/>
       <c r="F36" s="309"/>
       <c r="G36" s="309"/>
       <c r="H36" s="309"/>
       <c r="I36" s="291" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="J36" s="291"/>
       <c r="K36" s="291"/>
       <c r="L36" s="292"/>
       <c r="M36" s="328" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="N36" s="329"/>
       <c r="Q36" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
       <c r="A37" s="149"/>
       <c r="B37" s="255" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C37" s="156"/>
-      <c r="D37" s="404" t="s">
-        <v>125</v>
-      </c>
+      <c r="D37" s="404"/>
       <c r="E37" s="405"/>
       <c r="F37" s="406"/>
       <c r="G37" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="248" t="s">
-        <v>127</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H37" s="248"/>
       <c r="I37" s="293"/>
       <c r="J37" s="266"/>
       <c r="K37" s="266"/>
@@ -8920,18 +7583,16 @@
       <c r="M37" s="289"/>
       <c r="N37" s="290"/>
       <c r="Q37" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
       <c r="A38" s="169"/>
       <c r="B38" s="210" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C38" s="209"/>
-      <c r="D38" s="404" t="s">
-        <v>130</v>
-      </c>
+      <c r="D38" s="404"/>
       <c r="E38" s="405"/>
       <c r="F38" s="405"/>
       <c r="G38" s="405"/>
@@ -8943,18 +7604,16 @@
       <c r="M38" s="289"/>
       <c r="N38" s="290"/>
       <c r="Q38" s="3" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
       <c r="A39" s="170"/>
       <c r="B39" s="97" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C39" s="98"/>
-      <c r="D39" s="310" t="s">
-        <v>133</v>
-      </c>
+      <c r="D39" s="310"/>
       <c r="E39" s="310"/>
       <c r="F39" s="310"/>
       <c r="G39" s="310"/>
@@ -8966,18 +7625,16 @@
       <c r="M39" s="289"/>
       <c r="N39" s="290"/>
       <c r="Q39" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:19" customHeight="1" ht="21">
       <c r="A40" s="170"/>
       <c r="B40" s="97" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C40" s="98"/>
-      <c r="D40" s="310" t="s">
-        <v>136</v>
-      </c>
+      <c r="D40" s="310"/>
       <c r="E40" s="310"/>
       <c r="F40" s="310"/>
       <c r="G40" s="310"/>
@@ -8989,18 +7646,16 @@
       <c r="M40" s="289"/>
       <c r="N40" s="290"/>
       <c r="Q40" s="3" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:19" customHeight="1" ht="21">
       <c r="A41" s="170"/>
       <c r="B41" s="97" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C41" s="98"/>
-      <c r="D41" s="310" t="s">
-        <v>139</v>
-      </c>
+      <c r="D41" s="310"/>
       <c r="E41" s="310"/>
       <c r="F41" s="310"/>
       <c r="G41" s="310"/>
@@ -9012,18 +7667,16 @@
       <c r="M41" s="289"/>
       <c r="N41" s="290"/>
       <c r="Q41" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="103"/>
       <c r="B42" s="104" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C42" s="137"/>
-      <c r="D42" s="310" t="s">
-        <v>142</v>
-      </c>
+      <c r="D42" s="310"/>
       <c r="E42" s="310"/>
       <c r="F42" s="310"/>
       <c r="G42" s="310"/>
@@ -9035,20 +7688,18 @@
       <c r="M42" s="289"/>
       <c r="N42" s="290"/>
       <c r="Q42" s="3" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:19" customHeight="1" ht="21">
       <c r="A43" s="208" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="C43" s="104"/>
-      <c r="D43" s="310" t="s">
-        <v>146</v>
-      </c>
+      <c r="D43" s="310"/>
       <c r="E43" s="310"/>
       <c r="F43" s="310"/>
       <c r="G43" s="310"/>
@@ -9060,26 +7711,22 @@
       <c r="M43" s="289"/>
       <c r="N43" s="290"/>
       <c r="Q43" s="3" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:19" customHeight="1" ht="21">
       <c r="A44" s="149"/>
       <c r="B44" s="251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="251"/>
-      <c r="D44" s="404" t="s">
-        <v>148</v>
-      </c>
+      <c r="D44" s="404"/>
       <c r="E44" s="405"/>
       <c r="F44" s="406"/>
       <c r="G44" s="247" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="248" t="s">
-        <v>150</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H44" s="248"/>
       <c r="I44" s="266"/>
       <c r="J44" s="266"/>
       <c r="K44" s="266"/>
@@ -9087,18 +7734,16 @@
       <c r="M44" s="289"/>
       <c r="N44" s="290"/>
       <c r="Q44" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:19" customHeight="1" ht="21">
       <c r="A45" s="169"/>
       <c r="B45" s="203" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C45" s="203"/>
-      <c r="D45" s="404" t="s">
-        <v>152</v>
-      </c>
+      <c r="D45" s="404"/>
       <c r="E45" s="405"/>
       <c r="F45" s="405"/>
       <c r="G45" s="405"/>
@@ -9110,15 +7755,15 @@
       <c r="M45" s="289"/>
       <c r="N45" s="290"/>
       <c r="Q45" s="3" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:19" customHeight="1" ht="21">
       <c r="A46" s="149" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C46" s="104"/>
       <c r="D46" s="308"/>
@@ -9133,7 +7778,7 @@
       <c r="M46" s="289"/>
       <c r="N46" s="290"/>
       <c r="Q46" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:19" customHeight="1" ht="21">
@@ -9142,9 +7787,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="251"/>
-      <c r="D47" s="461" t="s">
-        <v>157</v>
-      </c>
+      <c r="D47" s="461"/>
       <c r="E47" s="461"/>
       <c r="F47" s="461"/>
       <c r="G47" s="461"/>
@@ -9156,18 +7799,16 @@
       <c r="M47" s="289"/>
       <c r="N47" s="290"/>
       <c r="Q47" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:19" customHeight="1" ht="21">
       <c r="A48" s="149"/>
       <c r="B48" s="251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="251"/>
-      <c r="D48" s="461" t="s">
-        <v>159</v>
-      </c>
+      <c r="D48" s="461"/>
       <c r="E48" s="461"/>
       <c r="F48" s="461"/>
       <c r="G48" s="461"/>
@@ -9179,24 +7820,22 @@
       <c r="M48" s="289"/>
       <c r="N48" s="290"/>
       <c r="Q48" s="3" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:19" customHeight="1" ht="21">
       <c r="A49" s="171"/>
       <c r="B49" s="204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" s="204"/>
-      <c r="D49" s="301" t="s">
-        <v>161</v>
-      </c>
+      <c r="D49" s="301"/>
       <c r="E49" s="301"/>
       <c r="F49" s="301"/>
       <c r="G49" s="301"/>
       <c r="H49" s="301"/>
       <c r="I49" s="299" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
@@ -9204,12 +7843,12 @@
       <c r="M49" s="299"/>
       <c r="N49" s="300"/>
       <c r="Q49" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:19" customHeight="1" ht="15.75">
       <c r="A50" s="172" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B50" s="172"/>
       <c r="C50" s="100"/>
@@ -9219,7 +7858,7 @@
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
       <c r="I50" s="388" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="J50" s="388"/>
       <c r="K50" s="388"/>
@@ -9227,42 +7866,42 @@
       <c r="M50" s="388"/>
       <c r="N50" s="389"/>
       <c r="Q50" s="3" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:19" customHeight="1" ht="14.25">
       <c r="A51" s="381" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B51" s="413" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C51" s="413"/>
       <c r="D51" s="416" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E51" s="417"/>
       <c r="F51" s="418"/>
       <c r="G51" s="416" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="H51" s="417"/>
       <c r="I51" s="462"/>
       <c r="J51" s="302" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K51" s="303"/>
       <c r="L51" s="459" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="M51" s="383" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="N51" s="306" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:19" customHeight="1" ht="19.5">
@@ -9281,7 +7920,7 @@
       <c r="M52" s="383"/>
       <c r="N52" s="306"/>
       <c r="Q52" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:19" customHeight="1" ht="14.25">
@@ -9295,10 +7934,10 @@
       <c r="H53" s="423"/>
       <c r="I53" s="464"/>
       <c r="J53" s="105" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="K53" s="106" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="L53" s="460"/>
       <c r="M53" s="384"/>
@@ -9306,46 +7945,34 @@
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="3" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:19" customHeight="1" ht="28.5">
       <c r="A54" s="217"/>
       <c r="B54" s="218" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C54" s="218"/>
-      <c r="D54" s="424" t="s">
-        <v>181</v>
-      </c>
+      <c r="D54" s="424"/>
       <c r="E54" s="425"/>
       <c r="F54" s="426"/>
-      <c r="G54" s="294" t="s">
-        <v>182</v>
-      </c>
+      <c r="G54" s="294"/>
       <c r="H54" s="295"/>
       <c r="I54" s="296"/>
-      <c r="J54" s="157">
-        <v>23</v>
-      </c>
-      <c r="K54" s="260">
-        <v>63</v>
-      </c>
-      <c r="L54" s="157">
-        <v>26</v>
-      </c>
-      <c r="M54" s="18">
-        <v>63</v>
-      </c>
+      <c r="J54" s="157"/>
+      <c r="K54" s="260"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="153"/>
       <c r="Q54" s="3" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:19" customHeight="1" ht="28.5">
       <c r="A55" s="217"/>
       <c r="B55" s="218" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C55" s="218"/>
       <c r="D55" s="424"/>
@@ -9360,13 +7987,13 @@
       <c r="M55" s="19"/>
       <c r="N55" s="153"/>
       <c r="Q55" s="3" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:19" customHeight="1" ht="28.5">
       <c r="A56" s="217"/>
       <c r="B56" s="218" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="C56" s="218"/>
       <c r="D56" s="424"/>
@@ -9381,13 +8008,13 @@
       <c r="M56" s="18"/>
       <c r="N56" s="153"/>
       <c r="Q56" s="3" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:19" customHeight="1" ht="28.5">
       <c r="A57" s="217"/>
       <c r="B57" s="218" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="C57" s="218"/>
       <c r="D57" s="424"/>
@@ -9402,13 +8029,13 @@
       <c r="M57" s="19"/>
       <c r="N57" s="153"/>
       <c r="Q57" s="3" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
       <c r="A58" s="219"/>
       <c r="B58" s="220" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="C58" s="220"/>
       <c r="D58" s="427"/>
@@ -9423,12 +8050,12 @@
       <c r="M58" s="21"/>
       <c r="N58" s="153"/>
       <c r="Q58" s="3" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
       <c r="A59" s="448" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B59" s="449"/>
       <c r="C59" s="449"/>
@@ -9444,12 +8071,12 @@
       <c r="M59" s="449"/>
       <c r="N59" s="450"/>
       <c r="Q59" s="3" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
       <c r="A60" s="445" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B60" s="446"/>
       <c r="C60" s="447"/>
@@ -9460,19 +8087,19 @@
       <c r="H60" s="455"/>
       <c r="I60" s="456"/>
       <c r="J60" s="457" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="K60" s="458"/>
       <c r="L60" s="451"/>
       <c r="M60" s="452"/>
       <c r="N60" s="453"/>
       <c r="Q60" s="3" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:19" customHeight="1" ht="12" s="143" customFormat="1">
       <c r="A61" s="442" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B61" s="443"/>
       <c r="C61" s="443"/>
@@ -9488,7 +8115,7 @@
       <c r="M61" s="443"/>
       <c r="N61" s="444"/>
       <c r="Q61" s="233" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14.25">
@@ -9507,7 +8134,7 @@
       <c r="M62" s="108"/>
       <c r="N62" s="108"/>
       <c r="Q62" s="3" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:19" customHeight="1" ht="14.25">
@@ -9526,7 +8153,7 @@
       <c r="M63" s="108"/>
       <c r="N63" s="108"/>
       <c r="Q63" s="3" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:19" customHeight="1" ht="28.5">
@@ -9545,7 +8172,7 @@
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
       <c r="Q64" s="3" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:19" customHeight="1" ht="14.25">
@@ -9564,7 +8191,7 @@
       <c r="M65" s="108"/>
       <c r="N65" s="108"/>
       <c r="Q65" s="3" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:19" customHeight="1" ht="14.25">
@@ -9583,7 +8210,7 @@
       <c r="M66" s="108"/>
       <c r="N66" s="108"/>
       <c r="Q66" s="3" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:19" customHeight="1" ht="14.25">
@@ -9602,7 +8229,7 @@
       <c r="M67" s="108"/>
       <c r="N67" s="108"/>
       <c r="Q67" s="3" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:19" customHeight="1" ht="14.25">
@@ -9621,7 +8248,7 @@
       <c r="M68" s="108"/>
       <c r="N68" s="108"/>
       <c r="Q68" s="3" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:19" customHeight="1" ht="28.5">
@@ -9640,7 +8267,7 @@
       <c r="M69" s="108"/>
       <c r="N69" s="108"/>
       <c r="Q69" s="3" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="14.25">
@@ -9659,7 +8286,7 @@
       <c r="M70" s="108"/>
       <c r="N70" s="108"/>
       <c r="Q70" s="3" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="14.25">
@@ -9678,7 +8305,7 @@
       <c r="M71" s="108"/>
       <c r="N71" s="108"/>
       <c r="Q71" s="3" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="14.25">
@@ -9697,7 +8324,7 @@
       <c r="M72" s="108"/>
       <c r="N72" s="108"/>
       <c r="Q72" s="3" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="14.25">
@@ -9716,7 +8343,7 @@
       <c r="M73" s="108"/>
       <c r="N73" s="108"/>
       <c r="Q73" s="3" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="14.25">
@@ -9735,7 +8362,7 @@
       <c r="M74" s="108"/>
       <c r="N74" s="108"/>
       <c r="Q74" s="3" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="14.25">
@@ -9754,7 +8381,7 @@
       <c r="M75" s="108"/>
       <c r="N75" s="108"/>
       <c r="Q75" s="3" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="14.25">
@@ -9773,7 +8400,7 @@
       <c r="M76" s="108"/>
       <c r="N76" s="108"/>
       <c r="Q76" s="3" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="14.25">
@@ -9792,7 +8419,7 @@
       <c r="M77" s="108"/>
       <c r="N77" s="108"/>
       <c r="Q77" s="3" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:19" customHeight="1" ht="14.25">
@@ -9811,7 +8438,7 @@
       <c r="M78" s="108"/>
       <c r="N78" s="108"/>
       <c r="Q78" s="3" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:19" customHeight="1" ht="14.25">
@@ -9830,7 +8457,7 @@
       <c r="M79" s="108"/>
       <c r="N79" s="108"/>
       <c r="Q79" s="3" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:19" customHeight="1" ht="14.25">
@@ -9849,7 +8476,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
       <c r="Q80" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:19" customHeight="1" ht="14.25">
@@ -9868,7 +8495,7 @@
       <c r="M81" s="108"/>
       <c r="N81" s="108"/>
       <c r="Q81" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:19" customHeight="1" ht="14.25">
@@ -9887,7 +8514,7 @@
       <c r="M82" s="108"/>
       <c r="N82" s="108"/>
       <c r="Q82" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:19" customHeight="1" ht="14.25">
@@ -9906,7 +8533,7 @@
       <c r="M83" s="108"/>
       <c r="N83" s="108"/>
       <c r="Q83" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:19" customHeight="1" ht="14.25">
@@ -9925,7 +8552,7 @@
       <c r="M84" s="108"/>
       <c r="N84" s="108"/>
       <c r="Q84" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:19" customHeight="1" ht="28.5">
@@ -9944,7 +8571,7 @@
       <c r="M85" s="108"/>
       <c r="N85" s="108"/>
       <c r="Q85" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:19" customHeight="1" ht="14.25">
@@ -9963,7 +8590,7 @@
       <c r="M86" s="108"/>
       <c r="N86" s="108"/>
       <c r="Q86" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:19" customHeight="1" ht="14.25">
@@ -9982,7 +8609,7 @@
       <c r="M87" s="108"/>
       <c r="N87" s="108"/>
       <c r="Q87" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:19" customHeight="1" ht="14.25">
@@ -10001,7 +8628,7 @@
       <c r="M88" s="108"/>
       <c r="N88" s="108"/>
       <c r="Q88" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:19" customHeight="1" ht="14.25">
@@ -10020,7 +8647,7 @@
       <c r="M89" s="108"/>
       <c r="N89" s="108"/>
       <c r="Q89" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:19" customHeight="1" ht="14.25">
@@ -10039,7 +8666,7 @@
       <c r="M90" s="108"/>
       <c r="N90" s="108"/>
       <c r="Q90" s="3" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:19" customHeight="1" ht="14.25">
@@ -10058,7 +8685,7 @@
       <c r="M91" s="108"/>
       <c r="N91" s="108"/>
       <c r="Q91" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:19" customHeight="1" ht="14.25">
@@ -10077,7 +8704,7 @@
       <c r="M92" s="108"/>
       <c r="N92" s="108"/>
       <c r="Q92" s="3" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:19" customHeight="1" ht="14.25">
@@ -10096,7 +8723,7 @@
       <c r="M93" s="108"/>
       <c r="N93" s="108"/>
       <c r="Q93" s="3" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:19" customHeight="1" ht="14.25">
@@ -10115,7 +8742,7 @@
       <c r="M94" s="108"/>
       <c r="N94" s="108"/>
       <c r="Q94" s="3" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:19" customHeight="1" ht="14.25">
@@ -10134,7 +8761,7 @@
       <c r="M95" s="108"/>
       <c r="N95" s="108"/>
       <c r="Q95" s="3" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:19" customHeight="1" ht="14.25">
@@ -10153,7 +8780,7 @@
       <c r="M96" s="108"/>
       <c r="N96" s="108"/>
       <c r="Q96" s="3" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:19" customHeight="1" ht="14.25">
@@ -10172,7 +8799,7 @@
       <c r="M97" s="108"/>
       <c r="N97" s="108"/>
       <c r="Q97" s="3" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:19" customHeight="1" ht="14.25">
@@ -10191,7 +8818,7 @@
       <c r="M98" s="108"/>
       <c r="N98" s="108"/>
       <c r="Q98" s="3" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:19" customHeight="1" ht="14.25">
@@ -10210,7 +8837,7 @@
       <c r="M99" s="108"/>
       <c r="N99" s="108"/>
       <c r="Q99" s="3" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:19" customHeight="1" ht="14.25">
@@ -10229,7 +8856,7 @@
       <c r="M100" s="108"/>
       <c r="N100" s="108"/>
       <c r="Q100" s="3" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:19" customHeight="1" ht="14.25">
@@ -10248,7 +8875,7 @@
       <c r="M101" s="108"/>
       <c r="N101" s="108"/>
       <c r="Q101" s="3" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:19" customHeight="1" ht="14.25">
@@ -10267,7 +8894,7 @@
       <c r="M102" s="108"/>
       <c r="N102" s="108"/>
       <c r="Q102" s="3" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:19" customHeight="1" ht="14.25">
@@ -10286,7 +8913,7 @@
       <c r="M103" s="108"/>
       <c r="N103" s="108"/>
       <c r="Q103" s="3" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:19" customHeight="1" ht="14.25">
@@ -10305,7 +8932,7 @@
       <c r="M104" s="108"/>
       <c r="N104" s="108"/>
       <c r="Q104" s="3" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:19" customHeight="1" ht="14.25">
@@ -10324,7 +8951,7 @@
       <c r="M105" s="108"/>
       <c r="N105" s="108"/>
       <c r="Q105" s="3" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:19" customHeight="1" ht="14.25">
@@ -10343,7 +8970,7 @@
       <c r="M106" s="108"/>
       <c r="N106" s="108"/>
       <c r="Q106" s="3" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:19" customHeight="1" ht="14.25">
@@ -10362,7 +8989,7 @@
       <c r="M107" s="108"/>
       <c r="N107" s="108"/>
       <c r="Q107" s="3" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:19" customHeight="1" ht="14.25">
@@ -10381,7 +9008,7 @@
       <c r="M108" s="108"/>
       <c r="N108" s="108"/>
       <c r="Q108" s="3" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:19" customHeight="1" ht="14.25">
@@ -10400,7 +9027,7 @@
       <c r="M109" s="108"/>
       <c r="N109" s="108"/>
       <c r="Q109" s="3" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:19" customHeight="1" ht="14.25">
@@ -10419,7 +9046,7 @@
       <c r="M110" s="108"/>
       <c r="N110" s="108"/>
       <c r="Q110" s="3" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:19" customHeight="1" ht="14.25">
@@ -10438,7 +9065,7 @@
       <c r="M111" s="108"/>
       <c r="N111" s="108"/>
       <c r="Q111" s="3" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:19" customHeight="1" ht="14.25">
@@ -10457,7 +9084,7 @@
       <c r="M112" s="108"/>
       <c r="N112" s="108"/>
       <c r="Q112" s="3" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:19" customHeight="1" ht="14.25">
@@ -10476,7 +9103,7 @@
       <c r="M113" s="108"/>
       <c r="N113" s="108"/>
       <c r="Q113" s="3" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:19" customHeight="1" ht="14.25">
@@ -10495,7 +9122,7 @@
       <c r="M114" s="108"/>
       <c r="N114" s="108"/>
       <c r="Q114" s="3" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:19" customHeight="1" ht="14.25">
@@ -10514,7 +9141,7 @@
       <c r="M115" s="108"/>
       <c r="N115" s="108"/>
       <c r="Q115" s="3" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:19" customHeight="1" ht="14.25">
@@ -10533,7 +9160,7 @@
       <c r="M116" s="108"/>
       <c r="N116" s="108"/>
       <c r="Q116" s="3" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:19" customHeight="1" ht="14.25">
@@ -10552,7 +9179,7 @@
       <c r="M117" s="108"/>
       <c r="N117" s="108"/>
       <c r="Q117" s="3" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:19" customHeight="1" ht="14.25">
@@ -10571,7 +9198,7 @@
       <c r="M118" s="108"/>
       <c r="N118" s="108"/>
       <c r="Q118" s="3" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:19" customHeight="1" ht="14.25">
@@ -10590,7 +9217,7 @@
       <c r="M119" s="108"/>
       <c r="N119" s="108"/>
       <c r="Q119" s="3" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:19" customHeight="1" ht="14.25">
@@ -10609,7 +9236,7 @@
       <c r="M120" s="108"/>
       <c r="N120" s="108"/>
       <c r="Q120" s="3" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:19" customHeight="1" ht="14.25">
@@ -10628,7 +9255,7 @@
       <c r="M121" s="108"/>
       <c r="N121" s="108"/>
       <c r="Q121" s="3" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:19" customHeight="1" ht="14.25">
@@ -10647,7 +9274,7 @@
       <c r="M122" s="108"/>
       <c r="N122" s="108"/>
       <c r="Q122" s="3" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:19" customHeight="1" ht="14.25">
@@ -10666,7 +9293,7 @@
       <c r="M123" s="108"/>
       <c r="N123" s="108"/>
       <c r="Q123" s="3" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:19" customHeight="1" ht="14.25">
@@ -10685,7 +9312,7 @@
       <c r="M124" s="108"/>
       <c r="N124" s="108"/>
       <c r="Q124" s="3" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:19" customHeight="1" ht="14.25">
@@ -10704,7 +9331,7 @@
       <c r="M125" s="108"/>
       <c r="N125" s="108"/>
       <c r="Q125" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:19" customHeight="1" ht="14.25">
@@ -10723,7 +9350,7 @@
       <c r="M126" s="108"/>
       <c r="N126" s="108"/>
       <c r="Q126" s="3" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:19" customHeight="1" ht="14.25">
@@ -10742,7 +9369,7 @@
       <c r="M127" s="108"/>
       <c r="N127" s="108"/>
       <c r="Q127" s="3" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:19" customHeight="1" ht="28.5">
@@ -10761,7 +9388,7 @@
       <c r="M128" s="108"/>
       <c r="N128" s="108"/>
       <c r="Q128" s="3" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:19" customHeight="1" ht="14.25">
@@ -10780,7 +9407,7 @@
       <c r="M129" s="108"/>
       <c r="N129" s="108"/>
       <c r="Q129" s="3" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:19" customHeight="1" ht="14.25">
@@ -10799,7 +9426,7 @@
       <c r="M130" s="108"/>
       <c r="N130" s="108"/>
       <c r="Q130" s="3" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:19" customHeight="1" ht="14.25">
@@ -10818,7 +9445,7 @@
       <c r="M131" s="108"/>
       <c r="N131" s="108"/>
       <c r="Q131" s="3" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:19" customHeight="1" ht="14.25">
@@ -10837,7 +9464,7 @@
       <c r="M132" s="108"/>
       <c r="N132" s="108"/>
       <c r="Q132" s="3" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:19" customHeight="1" ht="14.25">
@@ -10856,7 +9483,7 @@
       <c r="M133" s="108"/>
       <c r="N133" s="108"/>
       <c r="Q133" s="3" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:19" customHeight="1" ht="14.25">
@@ -10875,7 +9502,7 @@
       <c r="M134" s="108"/>
       <c r="N134" s="108"/>
       <c r="Q134" s="3" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:19" customHeight="1" ht="14.25">
@@ -10894,7 +9521,7 @@
       <c r="M135" s="108"/>
       <c r="N135" s="108"/>
       <c r="Q135" s="3" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:19" customHeight="1" ht="14.25">
@@ -10913,7 +9540,7 @@
       <c r="M136" s="108"/>
       <c r="N136" s="108"/>
       <c r="Q136" s="3" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:19" customHeight="1" ht="14.25">
@@ -10932,7 +9559,7 @@
       <c r="M137" s="108"/>
       <c r="N137" s="108"/>
       <c r="Q137" s="3" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:19" customHeight="1" ht="14.25">
@@ -10951,7 +9578,7 @@
       <c r="M138" s="108"/>
       <c r="N138" s="108"/>
       <c r="Q138" s="3" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:19" customHeight="1" ht="14.25">
@@ -10970,7 +9597,7 @@
       <c r="M139" s="108"/>
       <c r="N139" s="108"/>
       <c r="Q139" s="3" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:19" customHeight="1" ht="14.25">
@@ -10989,7 +9616,7 @@
       <c r="M140" s="108"/>
       <c r="N140" s="108"/>
       <c r="Q140" s="3" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:19" customHeight="1" ht="14.25">
@@ -11008,7 +9635,7 @@
       <c r="M141" s="108"/>
       <c r="N141" s="108"/>
       <c r="Q141" s="3" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:19" customHeight="1" ht="14.25">
@@ -11027,7 +9654,7 @@
       <c r="M142" s="108"/>
       <c r="N142" s="108"/>
       <c r="Q142" s="3" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:19" customHeight="1" ht="28.5">
@@ -11046,7 +9673,7 @@
       <c r="M143" s="108"/>
       <c r="N143" s="108"/>
       <c r="Q143" s="3" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:19" customHeight="1" ht="14.25">
@@ -11065,7 +9692,7 @@
       <c r="M144" s="108"/>
       <c r="N144" s="108"/>
       <c r="Q144" s="3" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:19" customHeight="1" ht="14.25">
@@ -11084,7 +9711,7 @@
       <c r="M145" s="108"/>
       <c r="N145" s="108"/>
       <c r="Q145" s="3" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:19" customHeight="1" ht="14.25">
@@ -11103,7 +9730,7 @@
       <c r="M146" s="108"/>
       <c r="N146" s="108"/>
       <c r="Q146" s="3" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:19" customHeight="1" ht="14.25">
@@ -11122,7 +9749,7 @@
       <c r="M147" s="108"/>
       <c r="N147" s="108"/>
       <c r="Q147" s="3" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:19" customHeight="1" ht="14.25">
@@ -11141,7 +9768,7 @@
       <c r="M148" s="108"/>
       <c r="N148" s="108"/>
       <c r="Q148" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:19" customHeight="1" ht="14.25">
@@ -11160,7 +9787,7 @@
       <c r="M149" s="108"/>
       <c r="N149" s="108"/>
       <c r="Q149" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:19" customHeight="1" ht="14.25">
@@ -11179,7 +9806,7 @@
       <c r="M150" s="108"/>
       <c r="N150" s="108"/>
       <c r="Q150" s="3" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:19" customHeight="1" ht="14.25">
@@ -11198,7 +9825,7 @@
       <c r="M151" s="108"/>
       <c r="N151" s="108"/>
       <c r="Q151" s="3" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:19" customHeight="1" ht="14.25">
@@ -11217,7 +9844,7 @@
       <c r="M152" s="108"/>
       <c r="N152" s="108"/>
       <c r="Q152" s="3" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:19" customHeight="1" ht="28.5">
@@ -11236,7 +9863,7 @@
       <c r="M153" s="108"/>
       <c r="N153" s="108"/>
       <c r="Q153" s="3" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:19" customHeight="1" ht="14.25">
@@ -11255,7 +9882,7 @@
       <c r="M154" s="108"/>
       <c r="N154" s="108"/>
       <c r="Q154" s="3" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:19" customHeight="1" ht="28.5">
@@ -11274,7 +9901,7 @@
       <c r="M155" s="108"/>
       <c r="N155" s="108"/>
       <c r="Q155" s="3" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:19" customHeight="1" ht="14.25">
@@ -11293,7 +9920,7 @@
       <c r="M156" s="108"/>
       <c r="N156" s="108"/>
       <c r="Q156" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:19" customHeight="1" ht="14.25">
@@ -11312,7 +9939,7 @@
       <c r="M157" s="108"/>
       <c r="N157" s="108"/>
       <c r="Q157" s="3" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:19" customHeight="1" ht="14.25">
@@ -11331,7 +9958,7 @@
       <c r="M158" s="108"/>
       <c r="N158" s="108"/>
       <c r="Q158" s="3" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:19" customHeight="1" ht="14.25">
@@ -11350,7 +9977,7 @@
       <c r="M159" s="108"/>
       <c r="N159" s="108"/>
       <c r="Q159" s="3" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:19" customHeight="1" ht="14.25">
@@ -11369,7 +9996,7 @@
       <c r="M160" s="108"/>
       <c r="N160" s="108"/>
       <c r="Q160" s="3" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:19" customHeight="1" ht="14.25">
@@ -11388,7 +10015,7 @@
       <c r="M161" s="108"/>
       <c r="N161" s="108"/>
       <c r="Q161" s="3" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:19" customHeight="1" ht="14.25">
@@ -11407,7 +10034,7 @@
       <c r="M162" s="108"/>
       <c r="N162" s="108"/>
       <c r="Q162" s="3" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:19" customHeight="1" ht="14.25">
@@ -11426,7 +10053,7 @@
       <c r="M163" s="108"/>
       <c r="N163" s="108"/>
       <c r="Q163" s="3" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:19" customHeight="1" ht="14.25">
@@ -11445,7 +10072,7 @@
       <c r="M164" s="108"/>
       <c r="N164" s="108"/>
       <c r="Q164" s="3" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:19" customHeight="1" ht="28.5">
@@ -11464,7 +10091,7 @@
       <c r="M165" s="108"/>
       <c r="N165" s="108"/>
       <c r="Q165" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:19" customHeight="1" ht="14.25">
@@ -11483,7 +10110,7 @@
       <c r="M166" s="108"/>
       <c r="N166" s="108"/>
       <c r="Q166" s="3" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:19" customHeight="1" ht="42.75">
@@ -11502,7 +10129,7 @@
       <c r="M167" s="108"/>
       <c r="N167" s="108"/>
       <c r="Q167" s="3" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:19" customHeight="1" ht="14.25">
@@ -11521,7 +10148,7 @@
       <c r="M168" s="108"/>
       <c r="N168" s="108"/>
       <c r="Q168" s="3" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:19" customHeight="1" ht="14.25">
@@ -11540,7 +10167,7 @@
       <c r="M169" s="108"/>
       <c r="N169" s="108"/>
       <c r="Q169" s="3" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:19" customHeight="1" ht="28.5">
@@ -11559,7 +10186,7 @@
       <c r="M170" s="108"/>
       <c r="N170" s="108"/>
       <c r="Q170" s="3" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:19" customHeight="1" ht="14.25">
@@ -11578,7 +10205,7 @@
       <c r="M171" s="108"/>
       <c r="N171" s="108"/>
       <c r="Q171" s="3" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:19" customHeight="1" ht="14.25">
@@ -11597,7 +10224,7 @@
       <c r="M172" s="108"/>
       <c r="N172" s="108"/>
       <c r="Q172" s="3" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:19" customHeight="1" ht="14.25">
@@ -11616,7 +10243,7 @@
       <c r="M173" s="108"/>
       <c r="N173" s="108"/>
       <c r="Q173" s="3" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:19" customHeight="1" ht="14.25">
@@ -11635,7 +10262,7 @@
       <c r="M174" s="108"/>
       <c r="N174" s="108"/>
       <c r="Q174" s="3" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:19" customHeight="1" ht="14.25">
@@ -11654,7 +10281,7 @@
       <c r="M175" s="108"/>
       <c r="N175" s="108"/>
       <c r="Q175" s="3" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:19" customHeight="1" ht="14.25">
@@ -11673,7 +10300,7 @@
       <c r="M176" s="108"/>
       <c r="N176" s="108"/>
       <c r="Q176" s="3" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:19" customHeight="1" ht="14.25">
@@ -11692,7 +10319,7 @@
       <c r="M177" s="108"/>
       <c r="N177" s="108"/>
       <c r="Q177" s="3" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:19" customHeight="1" ht="14.25">
@@ -11711,7 +10338,7 @@
       <c r="M178" s="108"/>
       <c r="N178" s="108"/>
       <c r="Q178" s="3" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:19" customHeight="1" ht="14.25">
@@ -11730,7 +10357,7 @@
       <c r="M179" s="108"/>
       <c r="N179" s="108"/>
       <c r="Q179" s="3" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180" spans="1:19" customHeight="1" ht="28.5">
@@ -11749,7 +10376,7 @@
       <c r="M180" s="108"/>
       <c r="N180" s="108"/>
       <c r="Q180" s="3" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:19" customHeight="1" ht="14.25">
@@ -11768,7 +10395,7 @@
       <c r="M181" s="108"/>
       <c r="N181" s="108"/>
       <c r="Q181" s="3" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:19" customHeight="1" ht="14.25">
@@ -11787,7 +10414,7 @@
       <c r="M182" s="108"/>
       <c r="N182" s="108"/>
       <c r="Q182" s="3" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:19" customHeight="1" ht="14.25">
@@ -11806,7 +10433,7 @@
       <c r="M183" s="108"/>
       <c r="N183" s="108"/>
       <c r="Q183" s="3" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:19" customHeight="1" ht="14.25">
@@ -11825,7 +10452,7 @@
       <c r="M184" s="108"/>
       <c r="N184" s="108"/>
       <c r="Q184" s="3" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:19" customHeight="1" ht="14.25">
@@ -11844,7 +10471,7 @@
       <c r="M185" s="108"/>
       <c r="N185" s="108"/>
       <c r="Q185" s="3" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:19" customHeight="1" ht="14.25">
@@ -11863,7 +10490,7 @@
       <c r="M186" s="108"/>
       <c r="N186" s="108"/>
       <c r="Q186" s="3" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:19" customHeight="1" ht="14.25">
@@ -11882,7 +10509,7 @@
       <c r="M187" s="108"/>
       <c r="N187" s="108"/>
       <c r="Q187" s="3" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:19" customHeight="1" ht="14.25">
@@ -11901,7 +10528,7 @@
       <c r="M188" s="108"/>
       <c r="N188" s="108"/>
       <c r="Q188" s="3" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:19" customHeight="1" ht="14.25">
@@ -11920,7 +10547,7 @@
       <c r="M189" s="108"/>
       <c r="N189" s="108"/>
       <c r="Q189" s="3" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:19" customHeight="1" ht="14.25">
@@ -11939,7 +10566,7 @@
       <c r="M190" s="108"/>
       <c r="N190" s="108"/>
       <c r="Q190" s="3" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:19" customHeight="1" ht="14.25">
@@ -11958,7 +10585,7 @@
       <c r="M191" s="108"/>
       <c r="N191" s="108"/>
       <c r="Q191" s="3" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:19" customHeight="1" ht="14.25">
@@ -11977,7 +10604,7 @@
       <c r="M192" s="108"/>
       <c r="N192" s="108"/>
       <c r="Q192" s="3" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:19" customHeight="1" ht="14.25">
@@ -11996,7 +10623,7 @@
       <c r="M193" s="108"/>
       <c r="N193" s="108"/>
       <c r="Q193" s="3" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:19" customHeight="1" ht="14.25">
@@ -12015,7 +10642,7 @@
       <c r="M194" s="108"/>
       <c r="N194" s="108"/>
       <c r="Q194" s="3" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:19" customHeight="1" ht="14.25">
@@ -12034,7 +10661,7 @@
       <c r="M195" s="108"/>
       <c r="N195" s="108"/>
       <c r="Q195" s="3" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:19" customHeight="1" ht="14.25">
@@ -12053,7 +10680,7 @@
       <c r="M196" s="108"/>
       <c r="N196" s="108"/>
       <c r="Q196" s="3" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:19" customHeight="1" ht="14.25">
@@ -12072,7 +10699,7 @@
       <c r="M197" s="108"/>
       <c r="N197" s="108"/>
       <c r="Q197" s="3" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:19" customHeight="1" ht="14.25">
@@ -12091,7 +10718,7 @@
       <c r="M198" s="108"/>
       <c r="N198" s="108"/>
       <c r="Q198" s="3" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:19" customHeight="1" ht="14.25">
@@ -12110,7 +10737,7 @@
       <c r="M199" s="108"/>
       <c r="N199" s="108"/>
       <c r="Q199" s="3" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:19" customHeight="1" ht="28.5">
@@ -12129,7 +10756,7 @@
       <c r="M200" s="108"/>
       <c r="N200" s="108"/>
       <c r="Q200" s="3" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:19" customHeight="1" ht="14.25">
@@ -12148,7 +10775,7 @@
       <c r="M201" s="108"/>
       <c r="N201" s="108"/>
       <c r="Q201" s="3" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:19" customHeight="1" ht="14.25">
@@ -12167,7 +10794,7 @@
       <c r="M202" s="108"/>
       <c r="N202" s="108"/>
       <c r="Q202" s="3" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:19" customHeight="1" ht="14.25">
@@ -12186,7 +10813,7 @@
       <c r="M203" s="108"/>
       <c r="N203" s="108"/>
       <c r="Q203" s="3" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:19" customHeight="1" ht="14.25">
@@ -12205,7 +10832,7 @@
       <c r="M204" s="108"/>
       <c r="N204" s="108"/>
       <c r="Q204" s="3" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:19" customHeight="1" ht="14.25">
@@ -12224,7 +10851,7 @@
       <c r="M205" s="108"/>
       <c r="N205" s="108"/>
       <c r="Q205" s="3" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:19" customHeight="1" ht="14.25">
@@ -12243,7 +10870,7 @@
       <c r="M206" s="108"/>
       <c r="N206" s="108"/>
       <c r="Q206" s="3" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:19" customHeight="1" ht="28.5">
@@ -12262,7 +10889,7 @@
       <c r="M207" s="108"/>
       <c r="N207" s="108"/>
       <c r="Q207" s="3" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:19" customHeight="1" ht="28.5">
@@ -12281,7 +10908,7 @@
       <c r="M208" s="108"/>
       <c r="N208" s="108"/>
       <c r="Q208" s="3" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:19" customHeight="1" ht="14.25">
@@ -12300,7 +10927,7 @@
       <c r="M209" s="108"/>
       <c r="N209" s="108"/>
       <c r="Q209" s="3" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:19" customHeight="1" ht="14.25">
@@ -12319,7 +10946,7 @@
       <c r="M210" s="108"/>
       <c r="N210" s="108"/>
       <c r="Q210" s="3" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:19" customHeight="1" ht="14.25">
@@ -12338,7 +10965,7 @@
       <c r="M211" s="108"/>
       <c r="N211" s="108"/>
       <c r="Q211" s="3" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:19" customHeight="1" ht="14.25">
@@ -12357,7 +10984,7 @@
       <c r="M212" s="108"/>
       <c r="N212" s="108"/>
       <c r="Q212" s="3" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
     </row>
     <row r="213" spans="1:19" customHeight="1" ht="14.25">
@@ -12376,7 +11003,7 @@
       <c r="M213" s="108"/>
       <c r="N213" s="108"/>
       <c r="Q213" s="3" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:19" customHeight="1" ht="14.25">
@@ -12395,7 +11022,7 @@
       <c r="M214" s="108"/>
       <c r="N214" s="108"/>
       <c r="Q214" s="3" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:19" customHeight="1" ht="14.25">
@@ -12414,7 +11041,7 @@
       <c r="M215" s="108"/>
       <c r="N215" s="108"/>
       <c r="Q215" s="3" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:19" customHeight="1" ht="14.25">
@@ -12433,7 +11060,7 @@
       <c r="M216" s="108"/>
       <c r="N216" s="108"/>
       <c r="Q216" s="3" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -13575,7 +12202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="130" zoomScaleNormal="110" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="P31" sqref="P31"/>
@@ -13612,11 +12239,10 @@
       <c r="K1" s="505"/>
       <c r="L1" s="505"/>
       <c r="M1" s="506"/>
-      <c r="N1"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
       <c r="A2" s="514" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="B2" s="515"/>
       <c r="C2" s="515"/>
@@ -13630,35 +12256,33 @@
       <c r="K2" s="515"/>
       <c r="L2" s="515"/>
       <c r="M2" s="516"/>
-      <c r="N2"/>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
       <c r="A3" s="140" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="B3" s="507" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="C3" s="507"/>
       <c r="D3" s="507"/>
       <c r="E3" s="508"/>
       <c r="F3" s="512" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="G3" s="509" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="H3" s="508"/>
       <c r="I3" s="509" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="J3" s="507"/>
       <c r="K3" s="508"/>
       <c r="L3" s="510" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="M3" s="511"/>
-      <c r="N3"/>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="25.5">
       <c r="A4" s="4"/>
@@ -13673,1811 +12297,712 @@
       <c r="J4" s="483"/>
       <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="N4"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
-      <c r="A5" s="493" t="s">
-        <v>362</v>
-      </c>
+      <c r="A5" s="493"/>
       <c r="B5" s="468"/>
       <c r="C5" s="468"/>
       <c r="D5" s="468"/>
       <c r="E5" s="468"/>
-      <c r="F5" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G5" s="492" t="s">
-        <v>364</v>
-      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="492"/>
       <c r="H5" s="492"/>
-      <c r="I5" s="496" t="s">
-        <v>365</v>
-      </c>
+      <c r="I5" s="496"/>
       <c r="J5" s="496"/>
       <c r="K5" s="496"/>
-      <c r="L5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="N5"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="27">
-      <c r="A6" s="493" t="s">
-        <v>368</v>
-      </c>
+      <c r="A6" s="493"/>
       <c r="B6" s="468"/>
       <c r="C6" s="468"/>
       <c r="D6" s="468"/>
       <c r="E6" s="468"/>
-      <c r="F6" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="523" t="s">
-        <v>370</v>
-      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="523"/>
       <c r="H6" s="524"/>
-      <c r="I6" s="496" t="s">
-        <v>371</v>
-      </c>
+      <c r="I6" s="496"/>
       <c r="J6" s="496"/>
       <c r="K6" s="496"/>
-      <c r="L6" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="N6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="27">
-      <c r="A7" s="493" t="s">
-        <v>374</v>
-      </c>
+      <c r="A7" s="493"/>
       <c r="B7" s="468"/>
       <c r="C7" s="468"/>
       <c r="D7" s="468"/>
       <c r="E7" s="468"/>
-      <c r="F7" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="492" t="s">
-        <v>376</v>
-      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="492"/>
       <c r="H7" s="492"/>
-      <c r="I7" s="496" t="s">
-        <v>377</v>
-      </c>
+      <c r="I7" s="496"/>
       <c r="J7" s="496"/>
       <c r="K7" s="496"/>
-      <c r="L7" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="N7"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="27">
-      <c r="A8" s="493" t="s">
-        <v>380</v>
-      </c>
+      <c r="A8" s="493"/>
       <c r="B8" s="468"/>
       <c r="C8" s="468"/>
       <c r="D8" s="468"/>
       <c r="E8" s="468"/>
-      <c r="F8" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="G8" s="492" t="s">
-        <v>382</v>
-      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="492"/>
       <c r="H8" s="492"/>
-      <c r="I8" s="496" t="s">
-        <v>383</v>
-      </c>
+      <c r="I8" s="496"/>
       <c r="J8" s="496"/>
       <c r="K8" s="496"/>
-      <c r="L8" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="N8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="27">
-      <c r="A9" s="493" t="s">
-        <v>386</v>
-      </c>
+      <c r="A9" s="493"/>
       <c r="B9" s="468"/>
       <c r="C9" s="468"/>
       <c r="D9" s="468"/>
       <c r="E9" s="468"/>
-      <c r="F9" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="492" t="s">
-        <v>388</v>
-      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="492"/>
       <c r="H9" s="492"/>
-      <c r="I9" s="496" t="s">
-        <v>389</v>
-      </c>
+      <c r="I9" s="496"/>
       <c r="J9" s="496"/>
       <c r="K9" s="496"/>
-      <c r="L9" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="N9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="27">
-      <c r="A10" s="493" t="s">
-        <v>392</v>
-      </c>
+      <c r="A10" s="493"/>
       <c r="B10" s="468"/>
       <c r="C10" s="468"/>
       <c r="D10" s="468"/>
       <c r="E10" s="468"/>
-      <c r="F10" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="492" t="s">
-        <v>394</v>
-      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="492"/>
       <c r="H10" s="492"/>
-      <c r="I10" s="496" t="s">
-        <v>395</v>
-      </c>
+      <c r="I10" s="496"/>
       <c r="J10" s="496"/>
       <c r="K10" s="496"/>
-      <c r="L10" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="N10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="27">
-      <c r="A11" s="493" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" s="468"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="468"/>
-      <c r="E11" s="468"/>
-      <c r="F11" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" s="492" t="s">
-        <v>400</v>
-      </c>
-      <c r="H11" s="492"/>
-      <c r="I11" s="496" t="s">
-        <v>401</v>
-      </c>
-      <c r="J11" s="496"/>
-      <c r="K11" s="496"/>
-      <c r="L11" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" customHeight="1" ht="27">
-      <c r="A12" s="493" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="468"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="468"/>
-      <c r="E12" s="468"/>
-      <c r="F12" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="492" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="492"/>
-      <c r="I12" s="496" t="s">
-        <v>407</v>
-      </c>
-      <c r="J12" s="496"/>
-      <c r="K12" s="496"/>
-      <c r="L12" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="27">
-      <c r="A13" s="493" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="468"/>
-      <c r="C13" s="468"/>
-      <c r="D13" s="468"/>
-      <c r="E13" s="468"/>
-      <c r="F13" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G13" s="492" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13" s="492"/>
-      <c r="I13" s="496" t="s">
-        <v>413</v>
-      </c>
-      <c r="J13" s="496"/>
-      <c r="K13" s="496"/>
-      <c r="L13" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="27">
-      <c r="A14" s="493" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="468"/>
-      <c r="C14" s="468"/>
-      <c r="D14" s="468"/>
-      <c r="E14" s="468"/>
-      <c r="F14" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="G14" s="492" t="s">
-        <v>418</v>
-      </c>
-      <c r="H14" s="492"/>
-      <c r="I14" s="496" t="s">
-        <v>419</v>
-      </c>
-      <c r="J14" s="496"/>
-      <c r="K14" s="496"/>
-      <c r="L14" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="27">
-      <c r="A15" s="493" t="s">
-        <v>422</v>
-      </c>
-      <c r="B15" s="468"/>
-      <c r="C15" s="468"/>
-      <c r="D15" s="468"/>
-      <c r="E15" s="468"/>
-      <c r="F15" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="G15" s="492" t="s">
-        <v>424</v>
-      </c>
-      <c r="H15" s="492"/>
-      <c r="I15" s="496" t="s">
-        <v>425</v>
-      </c>
-      <c r="J15" s="496"/>
-      <c r="K15" s="496"/>
-      <c r="L15" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="27">
-      <c r="A16" s="480" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" s="475"/>
-      <c r="C16" s="475"/>
-      <c r="D16" s="475"/>
-      <c r="E16" s="475"/>
-      <c r="F16" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="G16" s="491" t="s">
-        <v>430</v>
-      </c>
-      <c r="H16" s="491"/>
-      <c r="I16" s="497" t="s">
-        <v>431</v>
-      </c>
-      <c r="J16" s="497"/>
-      <c r="K16" s="497"/>
-      <c r="L16" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="12">
-      <c r="A17" s="485" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="486"/>
-      <c r="C17" s="486"/>
-      <c r="D17" s="486"/>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="486"/>
-      <c r="J17" s="486"/>
-      <c r="K17" s="486"/>
-      <c r="L17" s="486"/>
-      <c r="M17" s="487"/>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="18">
-      <c r="A18" s="488" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="489"/>
-      <c r="C18" s="489"/>
-      <c r="D18" s="489"/>
-      <c r="E18" s="489"/>
-      <c r="F18" s="489"/>
-      <c r="G18" s="489"/>
-      <c r="H18" s="489"/>
-      <c r="I18" s="489"/>
-      <c r="J18" s="489"/>
-      <c r="K18" s="489"/>
-      <c r="L18" s="489"/>
-      <c r="M18" s="490"/>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="12">
-      <c r="A19" s="202" t="s">
-        <v>435</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="201"/>
-      <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14" customHeight="1" ht="18">
-      <c r="A20" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="481" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="482"/>
-      <c r="D20" s="494" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="481"/>
-      <c r="F20" s="482"/>
-      <c r="G20" s="494" t="s">
-        <v>439</v>
-      </c>
-      <c r="H20" s="481"/>
-      <c r="I20" s="482"/>
-      <c r="J20" s="498" t="s">
-        <v>440</v>
-      </c>
-      <c r="K20" s="519" t="s">
-        <v>441</v>
-      </c>
-      <c r="L20" s="473" t="s">
-        <v>442</v>
-      </c>
-      <c r="M20" s="517" t="s">
-        <v>443</v>
-      </c>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14" customHeight="1" ht="15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="483"/>
-      <c r="C21" s="484"/>
-      <c r="D21" s="494"/>
-      <c r="E21" s="481"/>
-      <c r="F21" s="482"/>
-      <c r="G21" s="494"/>
-      <c r="H21" s="481"/>
-      <c r="I21" s="482"/>
-      <c r="J21" s="498"/>
-      <c r="K21" s="519"/>
-      <c r="L21" s="473"/>
-      <c r="M21" s="517"/>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" customHeight="1" ht="18.75">
-      <c r="A22" s="521" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="522"/>
-      <c r="C22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="495"/>
-      <c r="E22" s="483"/>
-      <c r="F22" s="484"/>
-      <c r="G22" s="495"/>
-      <c r="H22" s="483"/>
-      <c r="I22" s="484"/>
-      <c r="J22" s="499"/>
-      <c r="K22" s="520"/>
-      <c r="L22" s="474"/>
-      <c r="M22" s="518"/>
-      <c r="N22"/>
+      <c r="A11" s="480"/>
+      <c r="B11" s="475"/>
+      <c r="C11" s="475"/>
+      <c r="D11" s="475"/>
+      <c r="E11" s="475"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="491"/>
+      <c r="H11" s="491"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="497"/>
+      <c r="K11" s="497"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" customHeight="1" ht="12">
+      <c r="A12" s="485" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="486"/>
+      <c r="C12" s="486"/>
+      <c r="D12" s="486"/>
+      <c r="E12" s="486"/>
+      <c r="F12" s="486"/>
+      <c r="G12" s="486"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="486"/>
+      <c r="K12" s="486"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="487"/>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="18">
+      <c r="A13" s="488" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="489"/>
+      <c r="C13" s="489"/>
+      <c r="D13" s="489"/>
+      <c r="E13" s="489"/>
+      <c r="F13" s="489"/>
+      <c r="G13" s="489"/>
+      <c r="H13" s="489"/>
+      <c r="I13" s="489"/>
+      <c r="J13" s="489"/>
+      <c r="K13" s="489"/>
+      <c r="L13" s="489"/>
+      <c r="M13" s="490"/>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="12">
+      <c r="A14" s="202" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="201"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="18">
+      <c r="A15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="481" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="482"/>
+      <c r="D15" s="494" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="481"/>
+      <c r="F15" s="482"/>
+      <c r="G15" s="494" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="481"/>
+      <c r="I15" s="482"/>
+      <c r="J15" s="498" t="s">
+        <v>317</v>
+      </c>
+      <c r="K15" s="519" t="s">
+        <v>318</v>
+      </c>
+      <c r="L15" s="473" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="517" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="483"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="494"/>
+      <c r="E16" s="481"/>
+      <c r="F16" s="482"/>
+      <c r="G16" s="494"/>
+      <c r="H16" s="481"/>
+      <c r="I16" s="482"/>
+      <c r="J16" s="498"/>
+      <c r="K16" s="519"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="517"/>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="18.75">
+      <c r="A17" s="521" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="522"/>
+      <c r="C17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="495"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="495"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="499"/>
+      <c r="K17" s="520"/>
+      <c r="L17" s="474"/>
+      <c r="M17" s="518"/>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A18" s="469"/>
+      <c r="B18" s="470"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="468"/>
+      <c r="E18" s="468"/>
+      <c r="F18" s="468"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="468"/>
+      <c r="I18" s="468"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A19" s="469"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="468"/>
+      <c r="E19" s="468"/>
+      <c r="F19" s="468"/>
+      <c r="G19" s="468"/>
+      <c r="H19" s="468"/>
+      <c r="I19" s="468"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A20" s="469"/>
+      <c r="B20" s="470"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="468"/>
+      <c r="E20" s="468"/>
+      <c r="F20" s="468"/>
+      <c r="G20" s="468"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="468"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A21" s="469"/>
+      <c r="B21" s="470"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="468"/>
+      <c r="E21" s="468"/>
+      <c r="F21" s="468"/>
+      <c r="G21" s="468"/>
+      <c r="H21" s="468"/>
+      <c r="I21" s="468"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A22" s="469"/>
+      <c r="B22" s="470"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="468"/>
+      <c r="E22" s="468"/>
+      <c r="F22" s="468"/>
+      <c r="G22" s="468"/>
+      <c r="H22" s="468"/>
+      <c r="I22" s="468"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A23" s="469" t="s">
-        <v>444</v>
-      </c>
+      <c r="A23" s="469"/>
       <c r="B23" s="470"/>
-      <c r="C23" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D23" s="468" t="s">
-        <v>446</v>
-      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="468"/>
       <c r="E23" s="468"/>
       <c r="F23" s="468"/>
-      <c r="G23" s="468" t="s">
-        <v>447</v>
-      </c>
+      <c r="G23" s="468"/>
       <c r="H23" s="468"/>
       <c r="I23" s="468"/>
-      <c r="J23" s="14">
-        <v>2423.0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1948116441</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A24" s="469" t="s">
-        <v>450</v>
-      </c>
+      <c r="A24" s="469"/>
       <c r="B24" s="470"/>
-      <c r="C24" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="D24" s="468" t="s">
-        <v>452</v>
-      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="468"/>
       <c r="E24" s="468"/>
       <c r="F24" s="468"/>
-      <c r="G24" s="468" t="s">
-        <v>453</v>
-      </c>
+      <c r="G24" s="468"/>
       <c r="H24" s="468"/>
       <c r="I24" s="468"/>
-      <c r="J24" s="14">
-        <v>2770.0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>689470895</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A25" s="469" t="s">
-        <v>454</v>
-      </c>
+      <c r="A25" s="469"/>
       <c r="B25" s="470"/>
-      <c r="C25" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D25" s="468" t="s">
-        <v>455</v>
-      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="468"/>
       <c r="E25" s="468"/>
       <c r="F25" s="468"/>
-      <c r="G25" s="468" t="s">
-        <v>456</v>
-      </c>
+      <c r="G25" s="468"/>
       <c r="H25" s="468"/>
       <c r="I25" s="468"/>
-      <c r="J25" s="14">
-        <v>4260.0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>258153993</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A26" s="469" t="s">
-        <v>457</v>
-      </c>
+      <c r="A26" s="469"/>
       <c r="B26" s="470"/>
-      <c r="C26" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="D26" s="468" t="s">
-        <v>459</v>
-      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="468"/>
       <c r="E26" s="468"/>
       <c r="F26" s="468"/>
-      <c r="G26" s="468" t="s">
-        <v>460</v>
-      </c>
+      <c r="G26" s="468"/>
       <c r="H26" s="468"/>
       <c r="I26" s="468"/>
-      <c r="J26" s="14">
-        <v>2762.0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1664948698</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A27" s="469" t="s">
-        <v>462</v>
-      </c>
+      <c r="A27" s="469"/>
       <c r="B27" s="470"/>
-      <c r="C27" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="D27" s="468" t="s">
-        <v>464</v>
-      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="468"/>
       <c r="E27" s="468"/>
       <c r="F27" s="468"/>
-      <c r="G27" s="468" t="s">
-        <v>465</v>
-      </c>
+      <c r="G27" s="468"/>
       <c r="H27" s="468"/>
       <c r="I27" s="468"/>
-      <c r="J27" s="14">
-        <v>2221.0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>627493069</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A28" s="469" t="s">
-        <v>467</v>
-      </c>
+      <c r="A28" s="469"/>
       <c r="B28" s="470"/>
-      <c r="C28" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D28" s="468" t="s">
-        <v>468</v>
-      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="468"/>
       <c r="E28" s="468"/>
       <c r="F28" s="468"/>
-      <c r="G28" s="468" t="s">
-        <v>469</v>
-      </c>
+      <c r="G28" s="468"/>
       <c r="H28" s="468"/>
       <c r="I28" s="468"/>
-      <c r="J28" s="14">
-        <v>4805.0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>720965228</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A29" s="469" t="s">
-        <v>471</v>
-      </c>
+      <c r="A29" s="469"/>
       <c r="B29" s="470"/>
-      <c r="C29" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D29" s="468" t="s">
-        <v>472</v>
-      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="468"/>
       <c r="E29" s="468"/>
       <c r="F29" s="468"/>
-      <c r="G29" s="468" t="s">
-        <v>473</v>
-      </c>
+      <c r="G29" s="468"/>
       <c r="H29" s="468"/>
       <c r="I29" s="468"/>
-      <c r="J29" s="14">
-        <v>3748.0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>84169510</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" customHeight="1" ht="24">
-      <c r="A30" s="469" t="s">
-        <v>585</v>
-      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A30" s="469"/>
       <c r="B30" s="470"/>
-      <c r="C30" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D30" s="468" t="s">
-        <v>586</v>
-      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="468"/>
       <c r="E30" s="468"/>
       <c r="F30" s="468"/>
-      <c r="G30" s="468" t="s">
-        <v>587</v>
-      </c>
+      <c r="G30" s="468"/>
       <c r="H30" s="468"/>
       <c r="I30" s="468"/>
-      <c r="J30" s="14">
-        <v>4774.0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>283161915</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" customHeight="1" ht="24">
-      <c r="A31" s="469" t="s">
-        <v>584</v>
-      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A31" s="469"/>
       <c r="B31" s="470"/>
-      <c r="C31" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D31" s="468" t="s">
-        <v>583</v>
-      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="468"/>
       <c r="E31" s="468"/>
       <c r="F31" s="468"/>
-      <c r="G31" s="468" t="s">
-        <v>582</v>
-      </c>
+      <c r="G31" s="468"/>
       <c r="H31" s="468"/>
       <c r="I31" s="468"/>
-      <c r="J31" s="14">
-        <v>3248.0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>697243109</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" customHeight="1" ht="24">
-      <c r="A32" s="469" t="s">
-        <v>581</v>
-      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A32" s="469"/>
       <c r="B32" s="470"/>
-      <c r="C32" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="D32" s="468" t="s">
-        <v>579</v>
-      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="468"/>
       <c r="E32" s="468"/>
       <c r="F32" s="468"/>
-      <c r="G32" s="468" t="s">
-        <v>578</v>
-      </c>
+      <c r="G32" s="468"/>
       <c r="H32" s="468"/>
       <c r="I32" s="468"/>
-      <c r="J32" s="14">
-        <v>2581.0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>904961584</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" customHeight="1" ht="24">
-      <c r="A33" s="469" t="s">
-        <v>577</v>
-      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A33" s="469"/>
       <c r="B33" s="470"/>
-      <c r="C33" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D33" s="468" t="s">
-        <v>576</v>
-      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="468"/>
       <c r="E33" s="468"/>
       <c r="F33" s="468"/>
-      <c r="G33" s="468" t="s">
-        <v>575</v>
-      </c>
+      <c r="G33" s="468"/>
       <c r="H33" s="468"/>
       <c r="I33" s="468"/>
-      <c r="J33" s="14">
-        <v>3475.0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1615426896</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" customHeight="1" ht="24">
-      <c r="A34" s="469" t="s">
-        <v>574</v>
-      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A34" s="469"/>
       <c r="B34" s="470"/>
-      <c r="C34" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="D34" s="468" t="s">
-        <v>572</v>
-      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="468"/>
       <c r="E34" s="468"/>
       <c r="F34" s="468"/>
-      <c r="G34" s="468" t="s">
-        <v>571</v>
-      </c>
+      <c r="G34" s="468"/>
       <c r="H34" s="468"/>
       <c r="I34" s="468"/>
-      <c r="J34" s="14">
-        <v>4106.0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>868858543</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" customHeight="1" ht="24">
-      <c r="A35" s="469" t="s">
-        <v>570</v>
-      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" customHeight="1" ht="24.75" s="13" customFormat="1">
+      <c r="A35" s="469"/>
       <c r="B35" s="470"/>
-      <c r="C35" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D35" s="468" t="s">
-        <v>569</v>
-      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="468"/>
       <c r="E35" s="468"/>
       <c r="F35" s="468"/>
-      <c r="G35" s="468" t="s">
-        <v>568</v>
-      </c>
+      <c r="G35" s="468"/>
       <c r="H35" s="468"/>
       <c r="I35" s="468"/>
-      <c r="J35" s="14">
-        <v>4258.0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>631354047</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" customHeight="1" ht="24">
-      <c r="A36" s="469" t="s">
-        <v>567</v>
-      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A36" s="469"/>
       <c r="B36" s="470"/>
-      <c r="C36" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D36" s="468" t="s">
-        <v>566</v>
-      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="468"/>
       <c r="E36" s="468"/>
       <c r="F36" s="468"/>
-      <c r="G36" s="468" t="s">
-        <v>565</v>
-      </c>
+      <c r="G36" s="468"/>
       <c r="H36" s="468"/>
       <c r="I36" s="468"/>
-      <c r="J36" s="14">
-        <v>4842.0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>1889522224</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" customHeight="1" ht="24">
-      <c r="A37" s="469" t="s">
-        <v>564</v>
-      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A37" s="469"/>
       <c r="B37" s="470"/>
-      <c r="C37" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D37" s="468" t="s">
-        <v>563</v>
-      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="468"/>
       <c r="E37" s="468"/>
       <c r="F37" s="468"/>
-      <c r="G37" s="468" t="s">
-        <v>562</v>
-      </c>
+      <c r="G37" s="468"/>
       <c r="H37" s="468"/>
       <c r="I37" s="468"/>
-      <c r="J37" s="14">
-        <v>3457.0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>368703894</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" customHeight="1" ht="24">
-      <c r="A38" s="469" t="s">
-        <v>561</v>
-      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A38" s="469"/>
       <c r="B38" s="470"/>
-      <c r="C38" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D38" s="468" t="s">
-        <v>560</v>
-      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="468"/>
       <c r="E38" s="468"/>
       <c r="F38" s="468"/>
-      <c r="G38" s="468" t="s">
-        <v>559</v>
-      </c>
+      <c r="G38" s="468"/>
       <c r="H38" s="468"/>
       <c r="I38" s="468"/>
-      <c r="J38" s="14">
-        <v>4809.0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1252341678</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" customHeight="1" ht="24">
-      <c r="A39" s="469" t="s">
-        <v>558</v>
-      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A39" s="469"/>
       <c r="B39" s="470"/>
-      <c r="C39" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="D39" s="468" t="s">
-        <v>556</v>
-      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="468"/>
       <c r="E39" s="468"/>
       <c r="F39" s="468"/>
-      <c r="G39" s="468" t="s">
-        <v>555</v>
-      </c>
+      <c r="G39" s="468"/>
       <c r="H39" s="468"/>
       <c r="I39" s="468"/>
-      <c r="J39" s="14">
-        <v>3297.0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>75947111</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" customHeight="1" ht="24">
-      <c r="A40" s="469" t="s">
-        <v>554</v>
-      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A40" s="469"/>
       <c r="B40" s="470"/>
-      <c r="C40" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="D40" s="468" t="s">
-        <v>552</v>
-      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="468"/>
       <c r="E40" s="468"/>
       <c r="F40" s="468"/>
-      <c r="G40" s="468" t="s">
-        <v>551</v>
-      </c>
+      <c r="G40" s="468"/>
       <c r="H40" s="468"/>
       <c r="I40" s="468"/>
-      <c r="J40" s="14">
-        <v>3189.0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>31472766</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" customHeight="1" ht="24">
-      <c r="A41" s="469" t="s">
-        <v>550</v>
-      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
+      <c r="A41" s="469"/>
       <c r="B41" s="470"/>
-      <c r="C41" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D41" s="468" t="s">
-        <v>549</v>
-      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="468"/>
       <c r="E41" s="468"/>
       <c r="F41" s="468"/>
-      <c r="G41" s="468" t="s">
-        <v>548</v>
-      </c>
+      <c r="G41" s="468"/>
       <c r="H41" s="468"/>
       <c r="I41" s="468"/>
-      <c r="J41" s="14">
-        <v>3470.0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>885285829</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A42" s="469" t="s">
-        <v>547</v>
-      </c>
+      <c r="A42" s="469"/>
       <c r="B42" s="470"/>
-      <c r="C42" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D42" s="468" t="s">
-        <v>546</v>
-      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="468"/>
       <c r="E42" s="468"/>
       <c r="F42" s="468"/>
-      <c r="G42" s="468" t="s">
-        <v>545</v>
-      </c>
+      <c r="G42" s="468"/>
       <c r="H42" s="468"/>
       <c r="I42" s="468"/>
-      <c r="J42" s="14">
-        <v>2426.0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>1949935996</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A43" s="469" t="s">
-        <v>544</v>
-      </c>
+      <c r="A43" s="469"/>
       <c r="B43" s="470"/>
-      <c r="C43" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="D43" s="468" t="s">
-        <v>542</v>
-      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="468"/>
       <c r="E43" s="468"/>
       <c r="F43" s="468"/>
-      <c r="G43" s="468" t="s">
-        <v>541</v>
-      </c>
+      <c r="G43" s="468"/>
       <c r="H43" s="468"/>
       <c r="I43" s="468"/>
-      <c r="J43" s="14">
-        <v>4211.0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>894318017</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A44" s="469" t="s">
-        <v>540</v>
-      </c>
+      <c r="A44" s="469"/>
       <c r="B44" s="470"/>
-      <c r="C44" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D44" s="468" t="s">
-        <v>539</v>
-      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="468"/>
       <c r="E44" s="468"/>
       <c r="F44" s="468"/>
-      <c r="G44" s="468" t="s">
-        <v>538</v>
-      </c>
+      <c r="G44" s="468"/>
       <c r="H44" s="468"/>
       <c r="I44" s="468"/>
-      <c r="J44" s="14">
-        <v>4641.0</v>
-      </c>
-      <c r="K44" s="9">
-        <v>840165556</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A45" s="469" t="s">
-        <v>537</v>
-      </c>
-      <c r="B45" s="470"/>
-      <c r="C45" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D45" s="468" t="s">
-        <v>536</v>
-      </c>
-      <c r="E45" s="468"/>
-      <c r="F45" s="468"/>
-      <c r="G45" s="468" t="s">
-        <v>535</v>
-      </c>
-      <c r="H45" s="468"/>
-      <c r="I45" s="468"/>
-      <c r="J45" s="14">
-        <v>4327.0</v>
-      </c>
-      <c r="K45" s="9">
-        <v>905153645</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A46" s="469" t="s">
-        <v>534</v>
-      </c>
-      <c r="B46" s="470"/>
-      <c r="C46" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D46" s="468" t="s">
-        <v>532</v>
-      </c>
-      <c r="E46" s="468"/>
-      <c r="F46" s="468"/>
-      <c r="G46" s="468" t="s">
-        <v>531</v>
-      </c>
-      <c r="H46" s="468"/>
-      <c r="I46" s="468"/>
-      <c r="J46" s="14">
-        <v>2963.0</v>
-      </c>
-      <c r="K46" s="9">
-        <v>257055806</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A47" s="469" t="s">
-        <v>530</v>
-      </c>
-      <c r="B47" s="470"/>
-      <c r="C47" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D47" s="468" t="s">
-        <v>529</v>
-      </c>
-      <c r="E47" s="468"/>
-      <c r="F47" s="468"/>
-      <c r="G47" s="468" t="s">
-        <v>528</v>
-      </c>
-      <c r="H47" s="468"/>
-      <c r="I47" s="468"/>
-      <c r="J47" s="14">
-        <v>2884.0</v>
-      </c>
-      <c r="K47" s="9">
-        <v>1563825269</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A48" s="469" t="s">
-        <v>527</v>
-      </c>
-      <c r="B48" s="470"/>
-      <c r="C48" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D48" s="468" t="s">
-        <v>525</v>
-      </c>
-      <c r="E48" s="468"/>
-      <c r="F48" s="468"/>
-      <c r="G48" s="468" t="s">
-        <v>524</v>
-      </c>
-      <c r="H48" s="468"/>
-      <c r="I48" s="468"/>
-      <c r="J48" s="14">
-        <v>4394.0</v>
-      </c>
-      <c r="K48" s="9">
-        <v>1212007107</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A49" s="469" t="s">
-        <v>523</v>
-      </c>
-      <c r="B49" s="470"/>
-      <c r="C49" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" s="468" t="s">
-        <v>522</v>
-      </c>
-      <c r="E49" s="468"/>
-      <c r="F49" s="468"/>
-      <c r="G49" s="468" t="s">
-        <v>521</v>
-      </c>
-      <c r="H49" s="468"/>
-      <c r="I49" s="468"/>
-      <c r="J49" s="14">
-        <v>2698.0</v>
-      </c>
-      <c r="K49" s="9">
-        <v>402183108</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A50" s="469" t="s">
-        <v>517</v>
-      </c>
-      <c r="B50" s="470"/>
-      <c r="C50" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D50" s="468" t="s">
-        <v>519</v>
-      </c>
-      <c r="E50" s="468"/>
-      <c r="F50" s="468"/>
-      <c r="G50" s="468" t="s">
-        <v>518</v>
-      </c>
-      <c r="H50" s="468"/>
-      <c r="I50" s="468"/>
-      <c r="J50" s="14">
-        <v>3705.0</v>
-      </c>
-      <c r="K50" s="9">
-        <v>356911781</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A51" s="469" t="s">
-        <v>517</v>
-      </c>
-      <c r="B51" s="470"/>
-      <c r="C51" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="D51" s="468" t="s">
-        <v>515</v>
-      </c>
-      <c r="E51" s="468"/>
-      <c r="F51" s="468"/>
-      <c r="G51" s="468" t="s">
-        <v>514</v>
-      </c>
-      <c r="H51" s="468"/>
-      <c r="I51" s="468"/>
-      <c r="J51" s="14">
-        <v>3460.0</v>
-      </c>
-      <c r="K51" s="9">
-        <v>860856072</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" customHeight="1" ht="24.75" s="13" customFormat="1">
-      <c r="A52" s="469" t="s">
-        <v>513</v>
-      </c>
-      <c r="B52" s="470"/>
-      <c r="C52" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D52" s="468" t="s">
-        <v>511</v>
-      </c>
-      <c r="E52" s="468"/>
-      <c r="F52" s="468"/>
-      <c r="G52" s="468" t="s">
-        <v>510</v>
-      </c>
-      <c r="H52" s="468"/>
-      <c r="I52" s="468"/>
-      <c r="J52" s="14">
-        <v>4710.0</v>
-      </c>
-      <c r="K52" s="9">
-        <v>1538004411</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A53" s="469" t="s">
-        <v>367</v>
-      </c>
-      <c r="B53" s="470"/>
-      <c r="C53" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="468" t="s">
-        <v>509</v>
-      </c>
-      <c r="E53" s="468"/>
-      <c r="F53" s="468"/>
-      <c r="G53" s="468" t="s">
-        <v>508</v>
-      </c>
-      <c r="H53" s="468"/>
-      <c r="I53" s="468"/>
-      <c r="J53" s="14">
-        <v>2273.0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>1318513695</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A54" s="469" t="s">
-        <v>507</v>
-      </c>
-      <c r="B54" s="470"/>
-      <c r="C54" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D54" s="468" t="s">
-        <v>505</v>
-      </c>
-      <c r="E54" s="468"/>
-      <c r="F54" s="468"/>
-      <c r="G54" s="468" t="s">
-        <v>504</v>
-      </c>
-      <c r="H54" s="468"/>
-      <c r="I54" s="468"/>
-      <c r="J54" s="14">
-        <v>2681.0</v>
-      </c>
-      <c r="K54" s="9">
-        <v>1449551191</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A55" s="469" t="s">
-        <v>503</v>
-      </c>
-      <c r="B55" s="470"/>
-      <c r="C55" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="D55" s="468" t="s">
-        <v>501</v>
-      </c>
-      <c r="E55" s="468"/>
-      <c r="F55" s="468"/>
-      <c r="G55" s="468" t="s">
-        <v>500</v>
-      </c>
-      <c r="H55" s="468"/>
-      <c r="I55" s="468"/>
-      <c r="J55" s="14">
-        <v>2419.0</v>
-      </c>
-      <c r="K55" s="9">
-        <v>1969500255</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A56" s="469" t="s">
-        <v>499</v>
-      </c>
-      <c r="B56" s="470"/>
-      <c r="C56" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="D56" s="468" t="s">
-        <v>497</v>
-      </c>
-      <c r="E56" s="468"/>
-      <c r="F56" s="468"/>
-      <c r="G56" s="468" t="s">
-        <v>496</v>
-      </c>
-      <c r="H56" s="468"/>
-      <c r="I56" s="468"/>
-      <c r="J56" s="14">
-        <v>2297.0</v>
-      </c>
-      <c r="K56" s="9">
-        <v>59883872</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A57" s="469" t="s">
-        <v>495</v>
-      </c>
-      <c r="B57" s="470"/>
-      <c r="C57" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="D57" s="468" t="s">
-        <v>493</v>
-      </c>
-      <c r="E57" s="468"/>
-      <c r="F57" s="468"/>
-      <c r="G57" s="468" t="s">
-        <v>492</v>
-      </c>
-      <c r="H57" s="468"/>
-      <c r="I57" s="468"/>
-      <c r="J57" s="14">
-        <v>3646.0</v>
-      </c>
-      <c r="K57" s="9">
-        <v>1600945798</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M57" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A58" s="469" t="s">
-        <v>491</v>
-      </c>
-      <c r="B58" s="470"/>
-      <c r="C58" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="468" t="s">
-        <v>490</v>
-      </c>
-      <c r="E58" s="468"/>
-      <c r="F58" s="468"/>
-      <c r="G58" s="468" t="s">
-        <v>489</v>
-      </c>
-      <c r="H58" s="468"/>
-      <c r="I58" s="468"/>
-      <c r="J58" s="14">
-        <v>4110.0</v>
-      </c>
-      <c r="K58" s="9">
-        <v>1493994791</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A59" s="469" t="s">
-        <v>488</v>
-      </c>
-      <c r="B59" s="470"/>
-      <c r="C59" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="D59" s="468" t="s">
-        <v>486</v>
-      </c>
-      <c r="E59" s="468"/>
-      <c r="F59" s="468"/>
-      <c r="G59" s="468" t="s">
-        <v>485</v>
-      </c>
-      <c r="H59" s="468"/>
-      <c r="I59" s="468"/>
-      <c r="J59" s="14">
-        <v>2890.0</v>
-      </c>
-      <c r="K59" s="9">
-        <v>1761924740</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="M59" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="N59" s="13"/>
-    </row>
-    <row r="60" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A60" s="469" t="s">
-        <v>484</v>
-      </c>
-      <c r="B60" s="470"/>
-      <c r="C60" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="D60" s="468" t="s">
-        <v>482</v>
-      </c>
-      <c r="E60" s="468"/>
-      <c r="F60" s="468"/>
-      <c r="G60" s="468" t="s">
-        <v>481</v>
-      </c>
-      <c r="H60" s="468"/>
-      <c r="I60" s="468"/>
-      <c r="J60" s="14">
-        <v>2347.0</v>
-      </c>
-      <c r="K60" s="9">
-        <v>1538759865</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M60" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N60" s="13"/>
-    </row>
-    <row r="61" spans="1:14" customHeight="1" ht="24" s="13" customFormat="1">
-      <c r="A61" s="469" t="s">
-        <v>480</v>
-      </c>
-      <c r="B61" s="470"/>
-      <c r="C61" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D61" s="468" t="s">
-        <v>479</v>
-      </c>
-      <c r="E61" s="468"/>
-      <c r="F61" s="468"/>
-      <c r="G61" s="468" t="s">
-        <v>478</v>
-      </c>
-      <c r="H61" s="468"/>
-      <c r="I61" s="468"/>
-      <c r="J61" s="14">
-        <v>3452.0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>1438196662</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="N61" s="13"/>
-    </row>
-    <row r="62" spans="1:14" customHeight="1" ht="21.75" s="13" customFormat="1">
-      <c r="A62" s="471" t="s">
-        <v>477</v>
-      </c>
-      <c r="B62" s="472"/>
-      <c r="C62" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="D62" s="475" t="s">
-        <v>476</v>
-      </c>
-      <c r="E62" s="475"/>
-      <c r="F62" s="475"/>
-      <c r="G62" s="475" t="s">
-        <v>475</v>
-      </c>
-      <c r="H62" s="475"/>
-      <c r="I62" s="475"/>
-      <c r="J62" s="15">
-        <v>2618.0</v>
-      </c>
-      <c r="K62" s="11">
-        <v>498412523</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="M62" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="N62" s="13"/>
-    </row>
-    <row r="63" spans="1:14" customHeight="1" ht="9.75">
-      <c r="A63" s="476" t="s">
-        <v>162</v>
-      </c>
-      <c r="B63" s="477"/>
-      <c r="C63" s="477"/>
-      <c r="D63" s="477"/>
-      <c r="E63" s="477"/>
-      <c r="F63" s="477"/>
-      <c r="G63" s="477"/>
-      <c r="H63" s="477"/>
-      <c r="I63" s="477"/>
-      <c r="J63" s="477"/>
-      <c r="K63" s="478"/>
-      <c r="L63" s="478"/>
-      <c r="M63" s="479"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" customHeight="1" ht="27.75">
-      <c r="A64" s="445" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="446"/>
-      <c r="C64" s="447"/>
-      <c r="D64" s="501"/>
-      <c r="E64" s="502"/>
-      <c r="F64" s="502"/>
-      <c r="G64" s="502"/>
-      <c r="H64" s="503"/>
-      <c r="I64" s="228" t="s">
-        <v>194</v>
-      </c>
-      <c r="J64" s="229"/>
-      <c r="K64" s="230"/>
-      <c r="L64" s="230"/>
-      <c r="M64" s="235"/>
-      <c r="N64" s="231"/>
-    </row>
-    <row r="65" spans="1:14" customHeight="1" ht="9">
-      <c r="A65" s="500" t="s">
-        <v>474</v>
-      </c>
-      <c r="B65" s="500"/>
-      <c r="C65" s="500"/>
-      <c r="D65" s="500"/>
-      <c r="E65" s="500"/>
-      <c r="F65" s="500"/>
-      <c r="G65" s="500"/>
-      <c r="H65" s="500"/>
-      <c r="I65" s="500"/>
-      <c r="J65" s="500"/>
-      <c r="K65" s="500"/>
-      <c r="L65" s="500"/>
-      <c r="M65" s="500"/>
-      <c r="N65" s="234"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" customHeight="1" ht="21.75" s="13" customFormat="1">
+      <c r="A45" s="471"/>
+      <c r="B45" s="472"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="475"/>
+      <c r="E45" s="475"/>
+      <c r="F45" s="475"/>
+      <c r="G45" s="475"/>
+      <c r="H45" s="475"/>
+      <c r="I45" s="475"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" customHeight="1" ht="9.75">
+      <c r="A46" s="476" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="477"/>
+      <c r="C46" s="477"/>
+      <c r="D46" s="477"/>
+      <c r="E46" s="477"/>
+      <c r="F46" s="477"/>
+      <c r="G46" s="477"/>
+      <c r="H46" s="477"/>
+      <c r="I46" s="477"/>
+      <c r="J46" s="477"/>
+      <c r="K46" s="478"/>
+      <c r="L46" s="478"/>
+      <c r="M46" s="479"/>
+    </row>
+    <row r="47" spans="1:14" customHeight="1" ht="27.75">
+      <c r="A47" s="445" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="446"/>
+      <c r="C47" s="447"/>
+      <c r="D47" s="501"/>
+      <c r="E47" s="502"/>
+      <c r="F47" s="502"/>
+      <c r="G47" s="502"/>
+      <c r="H47" s="503"/>
+      <c r="I47" s="228" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="229"/>
+      <c r="K47" s="230"/>
+      <c r="L47" s="230"/>
+      <c r="M47" s="235"/>
+      <c r="N47" s="231"/>
+    </row>
+    <row r="48" spans="1:14" customHeight="1" ht="9">
+      <c r="A48" s="500" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="500"/>
+      <c r="C48" s="500"/>
+      <c r="D48" s="500"/>
+      <c r="E48" s="500"/>
+      <c r="F48" s="500"/>
+      <c r="G48" s="500"/>
+      <c r="H48" s="500"/>
+      <c r="I48" s="500"/>
+      <c r="J48" s="500"/>
+      <c r="K48" s="500"/>
+      <c r="L48" s="500"/>
+      <c r="M48" s="500"/>
+      <c r="N48" s="234"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="D47:H47"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="G3:H4"/>
@@ -15485,15 +13010,15 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M15:M17"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A5:E5"/>
@@ -15506,153 +13031,102 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G20:I22"/>
+    <mergeCell ref="G15:I17"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A63:M63"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
     <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.15" right="0" top="0.17" bottom="0" header="0" footer="0"/>
@@ -15675,7 +13149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1" topLeftCell="A8">
       <selection activeCell="A42" sqref="A42:K48"/>
@@ -15710,11 +13184,10 @@
       <c r="I1" s="547"/>
       <c r="J1" s="547"/>
       <c r="K1" s="548"/>
-      <c r="M1"/>
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="22.5">
       <c r="A2" s="571" t="s">
-        <v>588</v>
+        <v>322</v>
       </c>
       <c r="B2" s="572"/>
       <c r="C2" s="572"/>
@@ -15726,31 +13199,29 @@
       <c r="I2" s="572"/>
       <c r="J2" s="572"/>
       <c r="K2" s="573"/>
-      <c r="M2"/>
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="555" t="s">
-        <v>589</v>
+        <v>323</v>
       </c>
       <c r="B3" s="556" t="s">
-        <v>590</v>
+        <v>324</v>
       </c>
       <c r="C3" s="556"/>
       <c r="D3" s="557"/>
       <c r="E3" s="507" t="s">
-        <v>591</v>
+        <v>325</v>
       </c>
       <c r="F3" s="508"/>
       <c r="G3" s="576" t="s">
-        <v>592</v>
+        <v>326</v>
       </c>
       <c r="H3" s="509" t="s">
-        <v>593</v>
+        <v>327</v>
       </c>
       <c r="I3" s="566"/>
       <c r="J3" s="566"/>
       <c r="K3" s="567"/>
-      <c r="M3"/>
     </row>
     <row r="4" spans="1:13" customHeight="1" ht="11.25">
       <c r="A4" s="543"/>
@@ -15764,7 +13235,6 @@
       <c r="I4" s="549"/>
       <c r="J4" s="549"/>
       <c r="K4" s="569"/>
-      <c r="M4"/>
     </row>
     <row r="5" spans="1:13" customHeight="1" ht="13.5">
       <c r="A5" s="26"/>
@@ -15772,1315 +13242,756 @@
       <c r="C5" s="574"/>
       <c r="D5" s="575"/>
       <c r="E5" s="27" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G5" s="520"/>
       <c r="H5" s="570"/>
       <c r="I5" s="431"/>
       <c r="J5" s="431"/>
       <c r="K5" s="432"/>
-      <c r="M5"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A6" s="563" t="s">
-        <v>594</v>
-      </c>
+      <c r="A6" s="563"/>
       <c r="B6" s="564"/>
       <c r="C6" s="564"/>
       <c r="D6" s="565"/>
-      <c r="E6" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" s="34">
-        <v>5</v>
-      </c>
-      <c r="H6" s="552" t="s">
-        <v>597</v>
-      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="552"/>
       <c r="I6" s="553"/>
       <c r="J6" s="553"/>
       <c r="K6" s="554"/>
-      <c r="M6"/>
     </row>
     <row r="7" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A7" s="563" t="s">
-        <v>598</v>
-      </c>
+      <c r="A7" s="563"/>
       <c r="B7" s="564"/>
       <c r="C7" s="564"/>
       <c r="D7" s="565"/>
-      <c r="E7" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="G7" s="34">
-        <v>6</v>
-      </c>
-      <c r="H7" s="552" t="s">
-        <v>601</v>
-      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="552"/>
       <c r="I7" s="553"/>
       <c r="J7" s="553"/>
       <c r="K7" s="554"/>
-      <c r="M7"/>
     </row>
     <row r="8" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A8" s="563" t="s">
-        <v>602</v>
-      </c>
+      <c r="A8" s="563"/>
       <c r="B8" s="564"/>
       <c r="C8" s="564"/>
       <c r="D8" s="565"/>
-      <c r="E8" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="G8" s="34">
-        <v>9</v>
-      </c>
-      <c r="H8" s="552" t="s">
-        <v>605</v>
-      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="552"/>
       <c r="I8" s="553"/>
       <c r="J8" s="553"/>
       <c r="K8" s="554"/>
-      <c r="M8"/>
     </row>
     <row r="9" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A9" s="563" t="s">
-        <v>606</v>
-      </c>
+      <c r="A9" s="563"/>
       <c r="B9" s="564"/>
       <c r="C9" s="564"/>
       <c r="D9" s="565"/>
-      <c r="E9" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="G9" s="34">
-        <v>7</v>
-      </c>
-      <c r="H9" s="552" t="s">
-        <v>609</v>
-      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="552"/>
       <c r="I9" s="553"/>
       <c r="J9" s="553"/>
       <c r="K9" s="554"/>
-      <c r="M9"/>
     </row>
     <row r="10" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A10" s="563" t="s">
-        <v>610</v>
-      </c>
+      <c r="A10" s="563"/>
       <c r="B10" s="564"/>
       <c r="C10" s="564"/>
       <c r="D10" s="565"/>
-      <c r="E10" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="G10" s="34">
-        <v>5</v>
-      </c>
-      <c r="H10" s="552" t="s">
-        <v>613</v>
-      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="552"/>
       <c r="I10" s="553"/>
       <c r="J10" s="553"/>
       <c r="K10" s="554"/>
-      <c r="M10"/>
     </row>
     <row r="11" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A11" s="563" t="s">
-        <v>614</v>
-      </c>
+      <c r="A11" s="563"/>
       <c r="B11" s="564"/>
       <c r="C11" s="564"/>
       <c r="D11" s="565"/>
-      <c r="E11" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="G11" s="34">
-        <v>5</v>
-      </c>
-      <c r="H11" s="552" t="s">
-        <v>617</v>
-      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="552"/>
       <c r="I11" s="553"/>
       <c r="J11" s="553"/>
       <c r="K11" s="554"/>
-      <c r="M11"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A12" s="563" t="s">
-        <v>618</v>
-      </c>
-      <c r="B12" s="564"/>
-      <c r="C12" s="564"/>
-      <c r="D12" s="565"/>
-      <c r="E12" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="G12" s="34">
-        <v>2</v>
-      </c>
-      <c r="H12" s="552" t="s">
-        <v>621</v>
-      </c>
-      <c r="I12" s="553"/>
-      <c r="J12" s="553"/>
-      <c r="K12" s="554"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A13" s="563" t="s">
-        <v>622</v>
-      </c>
-      <c r="B13" s="564"/>
-      <c r="C13" s="564"/>
-      <c r="D13" s="565"/>
-      <c r="E13" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1</v>
-      </c>
-      <c r="H13" s="552" t="s">
-        <v>625</v>
-      </c>
-      <c r="I13" s="553"/>
-      <c r="J13" s="553"/>
-      <c r="K13" s="554"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A14" s="563" t="s">
-        <v>626</v>
-      </c>
-      <c r="B14" s="564"/>
-      <c r="C14" s="564"/>
-      <c r="D14" s="565"/>
-      <c r="E14" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="G14" s="34">
-        <v>2</v>
-      </c>
-      <c r="H14" s="552" t="s">
-        <v>629</v>
-      </c>
-      <c r="I14" s="553"/>
-      <c r="J14" s="553"/>
-      <c r="K14" s="554"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A15" s="563" t="s">
-        <v>630</v>
-      </c>
-      <c r="B15" s="564"/>
-      <c r="C15" s="564"/>
-      <c r="D15" s="565"/>
-      <c r="E15" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="G15" s="34">
-        <v>6</v>
-      </c>
-      <c r="H15" s="552" t="s">
-        <v>633</v>
-      </c>
-      <c r="I15" s="553"/>
-      <c r="J15" s="553"/>
-      <c r="K15" s="554"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A16" s="560" t="s">
-        <v>634</v>
-      </c>
-      <c r="B16" s="561"/>
-      <c r="C16" s="561"/>
-      <c r="D16" s="562"/>
-      <c r="E16" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="G16" s="35">
-        <v>9</v>
-      </c>
-      <c r="H16" s="525" t="s">
-        <v>637</v>
-      </c>
-      <c r="I16" s="526"/>
-      <c r="J16" s="526"/>
-      <c r="K16" s="527"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" customHeight="1" ht="11.25">
-      <c r="A17" s="485" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="486"/>
-      <c r="C17" s="486"/>
-      <c r="D17" s="486"/>
-      <c r="E17" s="486"/>
-      <c r="F17" s="486"/>
-      <c r="G17" s="486"/>
-      <c r="H17" s="486"/>
-      <c r="I17" s="486"/>
-      <c r="J17" s="486"/>
-      <c r="K17" s="487"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" customHeight="1" ht="18">
-      <c r="A18" s="528" t="s">
-        <v>638</v>
-      </c>
-      <c r="B18" s="529"/>
-      <c r="C18" s="529"/>
-      <c r="D18" s="529"/>
-      <c r="E18" s="529"/>
-      <c r="F18" s="529"/>
-      <c r="G18" s="529"/>
-      <c r="H18" s="529"/>
-      <c r="I18" s="529"/>
-      <c r="J18" s="529"/>
-      <c r="K18" s="530"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" customHeight="1" ht="18">
-      <c r="A19" s="543" t="s">
-        <v>639</v>
-      </c>
-      <c r="B19" s="481" t="s">
-        <v>640</v>
-      </c>
-      <c r="C19" s="549"/>
-      <c r="D19" s="550"/>
-      <c r="E19" s="481" t="s">
-        <v>641</v>
-      </c>
-      <c r="F19" s="482"/>
-      <c r="G19" s="519" t="s">
-        <v>592</v>
-      </c>
-      <c r="H19" s="498" t="s">
-        <v>642</v>
-      </c>
-      <c r="I19" s="494" t="s">
-        <v>643</v>
-      </c>
-      <c r="J19" s="549"/>
-      <c r="K19" s="569"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A20" s="543"/>
-      <c r="B20" s="549"/>
-      <c r="C20" s="549"/>
-      <c r="D20" s="550"/>
-      <c r="E20" s="483"/>
-      <c r="F20" s="484"/>
-      <c r="G20" s="519"/>
-      <c r="H20" s="498"/>
-      <c r="I20" s="568"/>
-      <c r="J20" s="549"/>
-      <c r="K20" s="569"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="431"/>
-      <c r="C21" s="431"/>
-      <c r="D21" s="551"/>
-      <c r="E21" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="520"/>
-      <c r="H21" s="499"/>
-      <c r="I21" s="570"/>
-      <c r="J21" s="431"/>
-      <c r="K21" s="432"/>
-      <c r="M21"/>
+      <c r="A12" s="560"/>
+      <c r="B12" s="561"/>
+      <c r="C12" s="561"/>
+      <c r="D12" s="562"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="526"/>
+      <c r="J12" s="526"/>
+      <c r="K12" s="527"/>
+    </row>
+    <row r="13" spans="1:13" customHeight="1" ht="11.25">
+      <c r="A13" s="485" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="486"/>
+      <c r="C13" s="486"/>
+      <c r="D13" s="486"/>
+      <c r="E13" s="486"/>
+      <c r="F13" s="486"/>
+      <c r="G13" s="486"/>
+      <c r="H13" s="486"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="486"/>
+      <c r="K13" s="487"/>
+    </row>
+    <row r="14" spans="1:13" customHeight="1" ht="18">
+      <c r="A14" s="528" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="529"/>
+      <c r="C14" s="529"/>
+      <c r="D14" s="529"/>
+      <c r="E14" s="529"/>
+      <c r="F14" s="529"/>
+      <c r="G14" s="529"/>
+      <c r="H14" s="529"/>
+      <c r="I14" s="529"/>
+      <c r="J14" s="529"/>
+      <c r="K14" s="530"/>
+    </row>
+    <row r="15" spans="1:13" customHeight="1" ht="18">
+      <c r="A15" s="543" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="481" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="549"/>
+      <c r="D15" s="550"/>
+      <c r="E15" s="481" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="482"/>
+      <c r="G15" s="519" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="498" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="494" t="s">
+        <v>333</v>
+      </c>
+      <c r="J15" s="549"/>
+      <c r="K15" s="569"/>
+    </row>
+    <row r="16" spans="1:13" customHeight="1" ht="25.5">
+      <c r="A16" s="543"/>
+      <c r="B16" s="549"/>
+      <c r="C16" s="549"/>
+      <c r="D16" s="550"/>
+      <c r="E16" s="483"/>
+      <c r="F16" s="484"/>
+      <c r="G16" s="519"/>
+      <c r="H16" s="498"/>
+      <c r="I16" s="568"/>
+      <c r="J16" s="549"/>
+      <c r="K16" s="569"/>
+    </row>
+    <row r="17" spans="1:13" customHeight="1" ht="13.5">
+      <c r="A17" s="26"/>
+      <c r="B17" s="431"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="551"/>
+      <c r="E17" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="520"/>
+      <c r="H17" s="499"/>
+      <c r="I17" s="570"/>
+      <c r="J17" s="431"/>
+      <c r="K17" s="432"/>
+    </row>
+    <row r="18" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A18" s="531"/>
+      <c r="B18" s="532"/>
+      <c r="C18" s="532"/>
+      <c r="D18" s="533"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="534"/>
+      <c r="J18" s="535"/>
+      <c r="K18" s="536"/>
+    </row>
+    <row r="19" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A19" s="531"/>
+      <c r="B19" s="532"/>
+      <c r="C19" s="532"/>
+      <c r="D19" s="533"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="534"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="545"/>
+    </row>
+    <row r="20" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A20" s="531"/>
+      <c r="B20" s="532"/>
+      <c r="C20" s="532"/>
+      <c r="D20" s="533"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="534"/>
+      <c r="J20" s="544"/>
+      <c r="K20" s="545"/>
+    </row>
+    <row r="21" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A21" s="531"/>
+      <c r="B21" s="532"/>
+      <c r="C21" s="532"/>
+      <c r="D21" s="533"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="534"/>
+      <c r="J21" s="544"/>
+      <c r="K21" s="545"/>
     </row>
     <row r="22" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A22" s="531" t="s">
-        <v>644</v>
-      </c>
+      <c r="A22" s="531"/>
       <c r="B22" s="532"/>
       <c r="C22" s="532"/>
       <c r="D22" s="533"/>
-      <c r="E22" s="28" t="s">
-        <v>645</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>646</v>
-      </c>
-      <c r="G22" s="30">
-        <v>8981</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="I22" s="534" t="s">
-        <v>648</v>
-      </c>
-      <c r="J22" s="535"/>
-      <c r="K22" s="536"/>
-      <c r="M22"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="544"/>
+      <c r="K22" s="545"/>
     </row>
     <row r="23" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A23" s="531" t="s">
-        <v>649</v>
-      </c>
+      <c r="A23" s="531"/>
       <c r="B23" s="532"/>
       <c r="C23" s="532"/>
       <c r="D23" s="533"/>
-      <c r="E23" s="28" t="s">
-        <v>650</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>651</v>
-      </c>
-      <c r="G23" s="30">
-        <v>6</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I23" s="534" t="s">
-        <v>653</v>
-      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="534"/>
       <c r="J23" s="544"/>
       <c r="K23" s="545"/>
-      <c r="M23"/>
     </row>
     <row r="24" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A24" s="531" t="s">
-        <v>654</v>
-      </c>
+      <c r="A24" s="531"/>
       <c r="B24" s="532"/>
       <c r="C24" s="532"/>
       <c r="D24" s="533"/>
-      <c r="E24" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="G24" s="30">
-        <v>5670</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I24" s="534" t="s">
-        <v>658</v>
-      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="534"/>
       <c r="J24" s="544"/>
       <c r="K24" s="545"/>
-      <c r="M24"/>
     </row>
     <row r="25" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A25" s="531" t="s">
-        <v>659</v>
-      </c>
+      <c r="A25" s="531"/>
       <c r="B25" s="532"/>
       <c r="C25" s="532"/>
       <c r="D25" s="533"/>
-      <c r="E25" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="G25" s="30">
-        <v>8027</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I25" s="534" t="s">
-        <v>662</v>
-      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="534"/>
       <c r="J25" s="544"/>
       <c r="K25" s="545"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A26" s="531" t="s">
-        <v>663</v>
-      </c>
+    </row>
+    <row r="26" spans="1:13" customHeight="1" ht="24">
+      <c r="A26" s="531"/>
       <c r="B26" s="532"/>
       <c r="C26" s="532"/>
       <c r="D26" s="533"/>
-      <c r="E26" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="G26" s="30">
-        <v>588</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I26" s="534" t="s">
-        <v>666</v>
-      </c>
-      <c r="J26" s="544"/>
-      <c r="K26" s="545"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A27" s="531" t="s">
-        <v>667</v>
-      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
+      <c r="K26" s="536"/>
+    </row>
+    <row r="27" spans="1:13" customHeight="1" ht="24">
+      <c r="A27" s="531"/>
       <c r="B27" s="532"/>
       <c r="C27" s="532"/>
       <c r="D27" s="533"/>
-      <c r="E27" s="28" t="s">
-        <v>668</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>669</v>
-      </c>
-      <c r="G27" s="30">
-        <v>18425295</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I27" s="534" t="s">
-        <v>670</v>
-      </c>
-      <c r="J27" s="544"/>
-      <c r="K27" s="545"/>
-      <c r="M27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="534"/>
+      <c r="J27" s="535"/>
+      <c r="K27" s="536"/>
     </row>
     <row r="28" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A28" s="531" t="s">
-        <v>671</v>
-      </c>
+      <c r="A28" s="531"/>
       <c r="B28" s="532"/>
       <c r="C28" s="532"/>
       <c r="D28" s="533"/>
-      <c r="E28" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>673</v>
-      </c>
-      <c r="G28" s="30">
-        <v>2</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I28" s="534" t="s">
-        <v>674</v>
-      </c>
-      <c r="J28" s="544"/>
-      <c r="K28" s="545"/>
-      <c r="M28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
+      <c r="K28" s="536"/>
     </row>
     <row r="29" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A29" s="531" t="s">
-        <v>675</v>
-      </c>
+      <c r="A29" s="531"/>
       <c r="B29" s="532"/>
       <c r="C29" s="532"/>
       <c r="D29" s="533"/>
-      <c r="E29" s="28" t="s">
-        <v>676</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="G29" s="30">
-        <v>413734634</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I29" s="534" t="s">
-        <v>678</v>
-      </c>
-      <c r="J29" s="544"/>
-      <c r="K29" s="545"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" customHeight="1" ht="24">
-      <c r="A30" s="531" t="s">
-        <v>679</v>
-      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="534"/>
+      <c r="J29" s="535"/>
+      <c r="K29" s="536"/>
+    </row>
+    <row r="30" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A30" s="531"/>
       <c r="B30" s="532"/>
       <c r="C30" s="532"/>
       <c r="D30" s="533"/>
-      <c r="E30" s="28" t="s">
-        <v>680</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>681</v>
-      </c>
-      <c r="G30" s="30">
-        <v>96558050</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I30" s="534" t="s">
-        <v>682</v>
-      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="534"/>
       <c r="J30" s="535"/>
       <c r="K30" s="536"/>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" customHeight="1" ht="24">
-      <c r="A31" s="531" t="s">
-        <v>683</v>
-      </c>
+    </row>
+    <row r="31" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A31" s="531"/>
       <c r="B31" s="532"/>
       <c r="C31" s="532"/>
       <c r="D31" s="533"/>
-      <c r="E31" s="28" t="s">
-        <v>684</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>685</v>
-      </c>
-      <c r="G31" s="30">
-        <v>4347293</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I31" s="534" t="s">
-        <v>686</v>
-      </c>
-      <c r="J31" s="535"/>
-      <c r="K31" s="536"/>
-      <c r="M31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="544"/>
+      <c r="K31" s="545"/>
     </row>
     <row r="32" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A32" s="531" t="s">
-        <v>683</v>
-      </c>
+      <c r="A32" s="531"/>
       <c r="B32" s="532"/>
       <c r="C32" s="532"/>
       <c r="D32" s="533"/>
-      <c r="E32" s="28" t="s">
-        <v>687</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>688</v>
-      </c>
-      <c r="G32" s="30">
-        <v>5</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I32" s="534" t="s">
-        <v>689</v>
-      </c>
-      <c r="J32" s="535"/>
-      <c r="K32" s="536"/>
-      <c r="M32"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="544"/>
+      <c r="K32" s="545"/>
     </row>
     <row r="33" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A33" s="531" t="s">
-        <v>690</v>
-      </c>
+      <c r="A33" s="531"/>
       <c r="B33" s="532"/>
       <c r="C33" s="532"/>
       <c r="D33" s="533"/>
-      <c r="E33" s="28" t="s">
-        <v>691</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>692</v>
-      </c>
-      <c r="G33" s="30">
-        <v>451</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I33" s="534" t="s">
-        <v>693</v>
-      </c>
-      <c r="J33" s="535"/>
-      <c r="K33" s="536"/>
-      <c r="M33"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="544"/>
+      <c r="K33" s="545"/>
     </row>
     <row r="34" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A34" s="531" t="s">
-        <v>694</v>
-      </c>
+      <c r="A34" s="531"/>
       <c r="B34" s="532"/>
       <c r="C34" s="532"/>
       <c r="D34" s="533"/>
-      <c r="E34" s="28" t="s">
-        <v>695</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="G34" s="30">
-        <v>3835298</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I34" s="534" t="s">
-        <v>697</v>
-      </c>
-      <c r="J34" s="535"/>
-      <c r="K34" s="536"/>
-      <c r="M34"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="544"/>
+      <c r="K34" s="545"/>
     </row>
     <row r="35" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A35" s="531" t="s">
-        <v>698</v>
-      </c>
+      <c r="A35" s="531"/>
       <c r="B35" s="532"/>
       <c r="C35" s="532"/>
       <c r="D35" s="533"/>
-      <c r="E35" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="G35" s="30">
-        <v>4044865</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="I35" s="534" t="s">
-        <v>701</v>
-      </c>
-      <c r="J35" s="544"/>
-      <c r="K35" s="545"/>
-      <c r="M35"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
+      <c r="K35" s="536"/>
     </row>
     <row r="36" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A36" s="531" t="s">
-        <v>702</v>
-      </c>
+      <c r="A36" s="531"/>
       <c r="B36" s="532"/>
       <c r="C36" s="532"/>
       <c r="D36" s="533"/>
-      <c r="E36" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>704</v>
-      </c>
-      <c r="G36" s="30">
-        <v>180</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="I36" s="534" t="s">
-        <v>705</v>
-      </c>
-      <c r="J36" s="544"/>
-      <c r="K36" s="545"/>
-      <c r="M36"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
+      <c r="K36" s="536"/>
     </row>
     <row r="37" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A37" s="531" t="s">
-        <v>706</v>
-      </c>
+      <c r="A37" s="531"/>
       <c r="B37" s="532"/>
       <c r="C37" s="532"/>
       <c r="D37" s="533"/>
-      <c r="E37" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>708</v>
-      </c>
-      <c r="G37" s="30">
-        <v>72</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I37" s="534" t="s">
-        <v>709</v>
-      </c>
-      <c r="J37" s="544"/>
-      <c r="K37" s="545"/>
-      <c r="M37"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
+      <c r="K37" s="536"/>
     </row>
     <row r="38" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A38" s="531" t="s">
-        <v>710</v>
-      </c>
-      <c r="B38" s="532"/>
-      <c r="C38" s="532"/>
-      <c r="D38" s="533"/>
-      <c r="E38" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>712</v>
-      </c>
-      <c r="G38" s="30">
-        <v>996060</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I38" s="534" t="s">
-        <v>713</v>
-      </c>
-      <c r="J38" s="544"/>
-      <c r="K38" s="545"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A39" s="531" t="s">
-        <v>644</v>
-      </c>
-      <c r="B39" s="532"/>
-      <c r="C39" s="532"/>
-      <c r="D39" s="533"/>
-      <c r="E39" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="G39" s="30">
-        <v>19972348</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="I39" s="534" t="s">
-        <v>716</v>
-      </c>
-      <c r="J39" s="535"/>
-      <c r="K39" s="536"/>
-      <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A40" s="531" t="s">
-        <v>717</v>
-      </c>
-      <c r="B40" s="532"/>
-      <c r="C40" s="532"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="G40" s="30">
-        <v>4</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="I40" s="534" t="s">
-        <v>720</v>
-      </c>
-      <c r="J40" s="535"/>
-      <c r="K40" s="536"/>
-      <c r="M40"/>
-    </row>
-    <row r="41" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A41" s="531" t="s">
-        <v>679</v>
-      </c>
-      <c r="B41" s="532"/>
-      <c r="C41" s="532"/>
-      <c r="D41" s="533"/>
-      <c r="E41" s="28" t="s">
-        <v>721</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="G41" s="30">
-        <v>4588063</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="I41" s="534" t="s">
-        <v>723</v>
-      </c>
-      <c r="J41" s="535"/>
-      <c r="K41" s="536"/>
-      <c r="M41"/>
+      <c r="A38" s="537"/>
+      <c r="B38" s="538"/>
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="541"/>
+      <c r="K38" s="542"/>
+    </row>
+    <row r="39" spans="1:13" customHeight="1" ht="13.5">
+      <c r="A39" s="448" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="449"/>
+      <c r="C39" s="449"/>
+      <c r="D39" s="449"/>
+      <c r="E39" s="449"/>
+      <c r="F39" s="449"/>
+      <c r="G39" s="449"/>
+      <c r="H39" s="449"/>
+      <c r="I39" s="449"/>
+      <c r="J39" s="449"/>
+      <c r="K39" s="450"/>
+    </row>
+    <row r="40" spans="1:13" customHeight="1" ht="22.5">
+      <c r="A40" s="585" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="586"/>
+      <c r="C40" s="586"/>
+      <c r="D40" s="586"/>
+      <c r="E40" s="586"/>
+      <c r="F40" s="586"/>
+      <c r="G40" s="586"/>
+      <c r="H40" s="586"/>
+      <c r="I40" s="586"/>
+      <c r="J40" s="586"/>
+      <c r="K40" s="587"/>
+    </row>
+    <row r="41" spans="1:13" customHeight="1" ht="33.75">
+      <c r="A41" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="142" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="577" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="577"/>
+      <c r="F41" s="577"/>
+      <c r="G41" s="577"/>
+      <c r="H41" s="578"/>
+      <c r="I41" s="142" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" s="577" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" s="584"/>
     </row>
     <row r="42" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A42" s="537"/>
-      <c r="B42" s="538"/>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="540"/>
-      <c r="J42" s="541"/>
-      <c r="K42" s="542"/>
-      <c r="M42"/>
-    </row>
-    <row r="43" spans="1:13" customHeight="1" ht="13.5">
-      <c r="A43" s="448" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="449"/>
-      <c r="C43" s="449"/>
-      <c r="D43" s="449"/>
-      <c r="E43" s="449"/>
-      <c r="F43" s="449"/>
-      <c r="G43" s="449"/>
-      <c r="H43" s="449"/>
-      <c r="I43" s="449"/>
-      <c r="J43" s="449"/>
-      <c r="K43" s="450"/>
-      <c r="M43"/>
-    </row>
-    <row r="44" spans="1:13" customHeight="1" ht="22.5">
-      <c r="A44" s="585" t="s">
-        <v>724</v>
-      </c>
-      <c r="B44" s="586"/>
-      <c r="C44" s="586"/>
-      <c r="D44" s="586"/>
-      <c r="E44" s="586"/>
-      <c r="F44" s="586"/>
-      <c r="G44" s="586"/>
-      <c r="H44" s="586"/>
-      <c r="I44" s="586"/>
-      <c r="J44" s="586"/>
-      <c r="K44" s="587"/>
-      <c r="M44"/>
-    </row>
-    <row r="45" spans="1:13" customHeight="1" ht="33.75">
-      <c r="A45" s="141" t="s">
-        <v>725</v>
-      </c>
-      <c r="B45" s="146" t="s">
-        <v>726</v>
-      </c>
-      <c r="C45" s="142" t="s">
-        <v>727</v>
-      </c>
-      <c r="D45" s="577" t="s">
-        <v>728</v>
-      </c>
-      <c r="E45" s="577"/>
-      <c r="F45" s="577"/>
-      <c r="G45" s="577"/>
-      <c r="H45" s="578"/>
-      <c r="I45" s="142" t="s">
-        <v>729</v>
-      </c>
-      <c r="J45" s="577" t="s">
-        <v>730</v>
-      </c>
-      <c r="K45" s="584"/>
-      <c r="M45"/>
+      <c r="A42" s="582"/>
+      <c r="B42" s="583"/>
+      <c r="C42" s="579"/>
+      <c r="D42" s="580"/>
+      <c r="E42" s="580"/>
+      <c r="F42" s="580"/>
+      <c r="G42" s="580"/>
+      <c r="H42" s="583"/>
+      <c r="I42" s="579"/>
+      <c r="J42" s="580"/>
+      <c r="K42" s="581"/>
+    </row>
+    <row r="43" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A43" s="582"/>
+      <c r="B43" s="583"/>
+      <c r="C43" s="579"/>
+      <c r="D43" s="580"/>
+      <c r="E43" s="580"/>
+      <c r="F43" s="580"/>
+      <c r="G43" s="580"/>
+      <c r="H43" s="583"/>
+      <c r="I43" s="579"/>
+      <c r="J43" s="580"/>
+      <c r="K43" s="581"/>
+    </row>
+    <row r="44" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A44" s="582"/>
+      <c r="B44" s="583"/>
+      <c r="C44" s="579"/>
+      <c r="D44" s="580"/>
+      <c r="E44" s="580"/>
+      <c r="F44" s="580"/>
+      <c r="G44" s="580"/>
+      <c r="H44" s="583"/>
+      <c r="I44" s="579"/>
+      <c r="J44" s="580"/>
+      <c r="K44" s="581"/>
+    </row>
+    <row r="45" spans="1:13" customHeight="1" ht="24.75">
+      <c r="A45" s="582"/>
+      <c r="B45" s="583"/>
+      <c r="C45" s="579"/>
+      <c r="D45" s="580"/>
+      <c r="E45" s="580"/>
+      <c r="F45" s="580"/>
+      <c r="G45" s="580"/>
+      <c r="H45" s="583"/>
+      <c r="I45" s="579"/>
+      <c r="J45" s="580"/>
+      <c r="K45" s="581"/>
     </row>
     <row r="46" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A46" s="582" t="s">
-        <v>731</v>
-      </c>
+      <c r="A46" s="582"/>
       <c r="B46" s="583"/>
-      <c r="C46" s="579" t="s">
-        <v>667</v>
-      </c>
+      <c r="C46" s="579"/>
       <c r="D46" s="580"/>
       <c r="E46" s="580"/>
       <c r="F46" s="580"/>
       <c r="G46" s="580"/>
       <c r="H46" s="583"/>
-      <c r="I46" s="579" t="s">
-        <v>732</v>
-      </c>
+      <c r="I46" s="579"/>
       <c r="J46" s="580"/>
       <c r="K46" s="581"/>
-      <c r="M46"/>
     </row>
     <row r="47" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A47" s="582" t="s">
-        <v>743</v>
-      </c>
+      <c r="A47" s="582"/>
       <c r="B47" s="583"/>
-      <c r="C47" s="579" t="s">
-        <v>744</v>
-      </c>
+      <c r="C47" s="579"/>
       <c r="D47" s="580"/>
       <c r="E47" s="580"/>
       <c r="F47" s="580"/>
       <c r="G47" s="580"/>
       <c r="H47" s="583"/>
-      <c r="I47" s="579" t="s">
-        <v>745</v>
-      </c>
+      <c r="I47" s="579"/>
       <c r="J47" s="580"/>
       <c r="K47" s="581"/>
-      <c r="M47"/>
-    </row>
-    <row r="48" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A48" s="582" t="s">
-        <v>732</v>
-      </c>
+    </row>
+    <row r="48" spans="1:13" customHeight="1" ht="25.5">
+      <c r="A48" s="582"/>
       <c r="B48" s="583"/>
-      <c r="C48" s="579" t="s">
-        <v>667</v>
-      </c>
+      <c r="C48" s="579"/>
       <c r="D48" s="580"/>
       <c r="E48" s="580"/>
       <c r="F48" s="580"/>
       <c r="G48" s="580"/>
       <c r="H48" s="583"/>
-      <c r="I48" s="579" t="s">
-        <v>742</v>
-      </c>
+      <c r="I48" s="579"/>
       <c r="J48" s="580"/>
       <c r="K48" s="581"/>
-      <c r="M48"/>
-    </row>
-    <row r="49" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A49" s="582" t="s">
-        <v>741</v>
-      </c>
-      <c r="B49" s="583"/>
-      <c r="C49" s="579" t="s">
-        <v>740</v>
-      </c>
-      <c r="D49" s="580"/>
-      <c r="E49" s="580"/>
-      <c r="F49" s="580"/>
-      <c r="G49" s="580"/>
-      <c r="H49" s="583"/>
-      <c r="I49" s="579"/>
-      <c r="J49" s="580"/>
-      <c r="K49" s="581"/>
-      <c r="M49"/>
-    </row>
-    <row r="50" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A50" s="582" t="s">
-        <v>731</v>
-      </c>
-      <c r="B50" s="583"/>
-      <c r="C50" s="579" t="s">
-        <v>739</v>
-      </c>
-      <c r="D50" s="580"/>
-      <c r="E50" s="580"/>
-      <c r="F50" s="580"/>
-      <c r="G50" s="580"/>
-      <c r="H50" s="583"/>
-      <c r="I50" s="579"/>
-      <c r="J50" s="580"/>
-      <c r="K50" s="581"/>
-      <c r="M50"/>
-    </row>
-    <row r="51" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A51" s="582" t="s">
-        <v>731</v>
-      </c>
-      <c r="B51" s="583"/>
-      <c r="C51" s="579" t="s">
-        <v>738</v>
-      </c>
-      <c r="D51" s="580"/>
-      <c r="E51" s="580"/>
-      <c r="F51" s="580"/>
-      <c r="G51" s="580"/>
-      <c r="H51" s="583"/>
-      <c r="I51" s="579"/>
-      <c r="J51" s="580"/>
-      <c r="K51" s="581"/>
-      <c r="M51"/>
-    </row>
-    <row r="52" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A52" s="582" t="s">
-        <v>731</v>
-      </c>
-      <c r="B52" s="583"/>
-      <c r="C52" s="579" t="s">
-        <v>737</v>
-      </c>
-      <c r="D52" s="580"/>
-      <c r="E52" s="580"/>
-      <c r="F52" s="580"/>
-      <c r="G52" s="580"/>
-      <c r="H52" s="583"/>
-      <c r="I52" s="579"/>
-      <c r="J52" s="580"/>
-      <c r="K52" s="581"/>
-      <c r="M52"/>
-    </row>
-    <row r="53" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A53" s="582" t="s">
-        <v>736</v>
-      </c>
-      <c r="B53" s="583"/>
-      <c r="C53" s="579" t="s">
-        <v>735</v>
-      </c>
-      <c r="D53" s="580"/>
-      <c r="E53" s="580"/>
-      <c r="F53" s="580"/>
-      <c r="G53" s="580"/>
-      <c r="H53" s="583"/>
-      <c r="I53" s="579"/>
-      <c r="J53" s="580"/>
-      <c r="K53" s="581"/>
-      <c r="M53"/>
-    </row>
-    <row r="54" spans="1:13" customHeight="1" ht="24.75">
-      <c r="A54" s="582" t="s">
-        <v>731</v>
-      </c>
-      <c r="B54" s="583"/>
-      <c r="C54" s="579" t="s">
-        <v>734</v>
-      </c>
-      <c r="D54" s="580"/>
-      <c r="E54" s="580"/>
-      <c r="F54" s="580"/>
-      <c r="G54" s="580"/>
-      <c r="H54" s="583"/>
-      <c r="I54" s="579"/>
-      <c r="J54" s="580"/>
-      <c r="K54" s="581"/>
-      <c r="M54"/>
-    </row>
-    <row r="55" spans="1:13" customHeight="1" ht="25.5">
-      <c r="A55" s="582" t="s">
-        <v>731</v>
-      </c>
-      <c r="B55" s="583"/>
-      <c r="C55" s="579" t="s">
-        <v>698</v>
-      </c>
-      <c r="D55" s="580"/>
-      <c r="E55" s="580"/>
-      <c r="F55" s="580"/>
-      <c r="G55" s="580"/>
-      <c r="H55" s="583"/>
-      <c r="I55" s="579"/>
-      <c r="J55" s="580"/>
-      <c r="K55" s="581"/>
-      <c r="M55"/>
-    </row>
-    <row r="56" spans="1:13" customHeight="1" ht="11.25">
-      <c r="A56" s="448" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="449"/>
-      <c r="C56" s="449"/>
-      <c r="D56" s="449"/>
-      <c r="E56" s="449"/>
-      <c r="F56" s="449"/>
-      <c r="G56" s="449"/>
-      <c r="H56" s="449"/>
-      <c r="I56" s="449"/>
-      <c r="J56" s="449"/>
-      <c r="K56" s="487"/>
-      <c r="M56"/>
-    </row>
-    <row r="57" spans="1:13" customHeight="1" ht="28.5">
-      <c r="A57" s="445" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="447"/>
-      <c r="C57" s="501"/>
-      <c r="D57" s="502"/>
-      <c r="E57" s="502"/>
-      <c r="F57" s="503"/>
-      <c r="G57" s="588" t="s">
-        <v>194</v>
-      </c>
-      <c r="H57" s="589"/>
-      <c r="I57" s="501"/>
-      <c r="J57" s="502"/>
-      <c r="K57" s="503"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="232"/>
-    </row>
-    <row r="58" spans="1:13" customHeight="1" ht="9.75">
-      <c r="K58" s="236" t="s">
-        <v>733</v>
-      </c>
-      <c r="M58"/>
-    </row>
-    <row r="59" spans="1:13" customHeight="1" ht="3">
-      <c r="M59"/>
-    </row>
+    </row>
+    <row r="49" spans="1:13" customHeight="1" ht="11.25">
+      <c r="A49" s="448" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="449"/>
+      <c r="C49" s="449"/>
+      <c r="D49" s="449"/>
+      <c r="E49" s="449"/>
+      <c r="F49" s="449"/>
+      <c r="G49" s="449"/>
+      <c r="H49" s="449"/>
+      <c r="I49" s="449"/>
+      <c r="J49" s="449"/>
+      <c r="K49" s="487"/>
+    </row>
+    <row r="50" spans="1:13" customHeight="1" ht="28.5">
+      <c r="A50" s="445" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="447"/>
+      <c r="C50" s="501"/>
+      <c r="D50" s="502"/>
+      <c r="E50" s="502"/>
+      <c r="F50" s="503"/>
+      <c r="G50" s="588" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="589"/>
+      <c r="I50" s="501"/>
+      <c r="J50" s="502"/>
+      <c r="K50" s="503"/>
+      <c r="L50" s="232"/>
+      <c r="M50" s="232"/>
+    </row>
+    <row r="51" spans="1:13" customHeight="1" ht="9.75">
+      <c r="K51" s="236" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" customHeight="1" ht="3"/>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I40:K40"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="B15:D17"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="H3:K5"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I19:K21"/>
-    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:K47"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.17" right="0" top="0.37" bottom="0" header="0.3" footer="0"/>
@@ -17143,11 +14054,11 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
       <c r="A2" s="624" t="s">
-        <v>746</v>
+        <v>342</v>
       </c>
       <c r="B2" s="625"/>
       <c r="C2" s="603" t="s">
-        <v>747</v>
+        <v>343</v>
       </c>
       <c r="D2" s="603"/>
       <c r="E2" s="603"/>
@@ -17164,7 +14075,7 @@
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="607" t="s">
-        <v>748</v>
+        <v>344</v>
       </c>
       <c r="D3" s="607"/>
       <c r="E3" s="607"/>
@@ -17181,7 +14092,7 @@
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="607" t="s">
-        <v>749</v>
+        <v>345</v>
       </c>
       <c r="D4" s="607"/>
       <c r="E4" s="607"/>
@@ -17207,14 +14118,12 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="607" t="s">
-        <v>750</v>
+        <v>346</v>
       </c>
       <c r="D6" s="607"/>
       <c r="E6" s="607"/>
       <c r="F6" s="608"/>
-      <c r="G6" s="629" t="s">
-        <v>751</v>
-      </c>
+      <c r="G6" s="629"/>
       <c r="H6" s="630"/>
       <c r="I6" s="630"/>
       <c r="J6" s="630"/>
@@ -17241,14 +14150,12 @@
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="607" t="s">
-        <v>752</v>
+        <v>347</v>
       </c>
       <c r="D8" s="607"/>
       <c r="E8" s="607"/>
       <c r="F8" s="608"/>
-      <c r="G8" s="632" t="s">
-        <v>753</v>
-      </c>
+      <c r="G8" s="632"/>
       <c r="H8" s="633"/>
       <c r="I8" s="633"/>
       <c r="J8" s="633"/>
@@ -17273,7 +14180,7 @@
       <c r="E10" s="607"/>
       <c r="F10" s="608"/>
       <c r="G10" s="592" t="s">
-        <v>754</v>
+        <v>348</v>
       </c>
       <c r="H10" s="592"/>
       <c r="I10" s="592"/>
@@ -17290,9 +14197,7 @@
       <c r="E11" s="607"/>
       <c r="F11" s="608"/>
       <c r="G11" s="147"/>
-      <c r="H11" s="635" t="s">
-        <v>755</v>
-      </c>
+      <c r="H11" s="635"/>
       <c r="I11" s="635"/>
       <c r="J11" s="635"/>
       <c r="K11" s="635"/>
@@ -17316,18 +14221,16 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="622" t="s">
-        <v>756</v>
+        <v>349</v>
       </c>
       <c r="B13" s="623"/>
       <c r="C13" s="590" t="s">
-        <v>757</v>
+        <v>350</v>
       </c>
       <c r="D13" s="590"/>
       <c r="E13" s="549"/>
       <c r="F13" s="550"/>
-      <c r="G13" s="594" t="s">
-        <v>751</v>
-      </c>
+      <c r="G13" s="594"/>
       <c r="H13" s="595"/>
       <c r="I13" s="595"/>
       <c r="J13" s="595"/>
@@ -17343,7 +14246,7 @@
       <c r="E14" s="549"/>
       <c r="F14" s="550"/>
       <c r="G14" s="591" t="s">
-        <v>754</v>
+        <v>348</v>
       </c>
       <c r="H14" s="592"/>
       <c r="I14" s="592"/>
@@ -17360,9 +14263,7 @@
       <c r="E15" s="549"/>
       <c r="F15" s="550"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="597" t="s">
-        <v>758</v>
-      </c>
+      <c r="H15" s="597"/>
       <c r="I15" s="597"/>
       <c r="J15" s="597"/>
       <c r="K15" s="597"/>
@@ -17403,14 +14304,12 @@
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="737" t="s">
-        <v>759</v>
+        <v>351</v>
       </c>
       <c r="D18" s="737"/>
       <c r="E18" s="738"/>
       <c r="F18" s="739"/>
-      <c r="G18" s="728" t="s">
-        <v>751</v>
-      </c>
+      <c r="G18" s="728"/>
       <c r="H18" s="729"/>
       <c r="I18" s="729"/>
       <c r="J18" s="729"/>
@@ -17426,7 +14325,7 @@
       <c r="E19" s="738"/>
       <c r="F19" s="739"/>
       <c r="G19" s="591" t="s">
-        <v>754</v>
+        <v>348</v>
       </c>
       <c r="H19" s="592"/>
       <c r="I19" s="592"/>
@@ -17444,13 +14343,11 @@
       <c r="F20" s="739"/>
       <c r="G20" s="56"/>
       <c r="H20" s="733" t="s">
-        <v>760</v>
+        <v>352</v>
       </c>
       <c r="I20" s="733"/>
       <c r="J20" s="246"/>
-      <c r="K20" s="635" t="s">
-        <v>741</v>
-      </c>
+      <c r="K20" s="635"/>
       <c r="L20" s="635"/>
       <c r="M20" s="57"/>
     </row>
@@ -17462,14 +14359,12 @@
       <c r="E21" s="738"/>
       <c r="F21" s="739"/>
       <c r="G21" s="734" t="s">
-        <v>761</v>
+        <v>353</v>
       </c>
       <c r="H21" s="735"/>
       <c r="I21" s="735"/>
       <c r="J21" s="246"/>
-      <c r="K21" s="731" t="s">
-        <v>731</v>
-      </c>
+      <c r="K21" s="731"/>
       <c r="L21" s="731"/>
       <c r="M21" s="57"/>
     </row>
@@ -17481,7 +14376,7 @@
       <c r="E22" s="740"/>
       <c r="F22" s="741"/>
       <c r="G22" s="125" t="s">
-        <v>762</v>
+        <v>354</v>
       </c>
       <c r="H22" s="237"/>
       <c r="I22" s="685"/>
@@ -17492,18 +14387,16 @@
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
       <c r="A23" s="636" t="s">
-        <v>763</v>
+        <v>355</v>
       </c>
       <c r="B23" s="637"/>
       <c r="C23" s="618" t="s">
-        <v>764</v>
+        <v>356</v>
       </c>
       <c r="D23" s="618"/>
       <c r="E23" s="618"/>
       <c r="F23" s="619"/>
-      <c r="G23" s="594" t="s">
-        <v>753</v>
-      </c>
+      <c r="G23" s="594"/>
       <c r="H23" s="595"/>
       <c r="I23" s="595"/>
       <c r="J23" s="595"/>
@@ -17519,7 +14412,7 @@
       <c r="E24" s="610"/>
       <c r="F24" s="609"/>
       <c r="G24" s="591" t="s">
-        <v>754</v>
+        <v>348</v>
       </c>
       <c r="H24" s="592"/>
       <c r="I24" s="592"/>
@@ -17560,18 +14453,16 @@
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
       <c r="A27" s="636" t="s">
-        <v>765</v>
+        <v>357</v>
       </c>
       <c r="B27" s="637"/>
       <c r="C27" s="618" t="s">
-        <v>766</v>
+        <v>358</v>
       </c>
       <c r="D27" s="618"/>
       <c r="E27" s="618"/>
       <c r="F27" s="619"/>
-      <c r="G27" s="594" t="s">
-        <v>753</v>
-      </c>
+      <c r="G27" s="594"/>
       <c r="H27" s="595"/>
       <c r="I27" s="595"/>
       <c r="J27" s="595"/>
@@ -17587,7 +14478,7 @@
       <c r="E28" s="610"/>
       <c r="F28" s="609"/>
       <c r="G28" s="591" t="s">
-        <v>754</v>
+        <v>348</v>
       </c>
       <c r="H28" s="592"/>
       <c r="I28" s="592"/>
@@ -17627,18 +14518,16 @@
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="18">
       <c r="A31" s="636" t="s">
-        <v>767</v>
+        <v>359</v>
       </c>
       <c r="B31" s="637"/>
       <c r="C31" s="618" t="s">
-        <v>768</v>
+        <v>360</v>
       </c>
       <c r="D31" s="618"/>
       <c r="E31" s="618"/>
       <c r="F31" s="619"/>
-      <c r="G31" s="594" t="s">
-        <v>753</v>
-      </c>
+      <c r="G31" s="594"/>
       <c r="H31" s="595"/>
       <c r="I31" s="595"/>
       <c r="J31" s="595"/>
@@ -17654,7 +14543,7 @@
       <c r="E32" s="610"/>
       <c r="F32" s="609"/>
       <c r="G32" s="672" t="s">
-        <v>769</v>
+        <v>361</v>
       </c>
       <c r="H32" s="673"/>
       <c r="I32" s="673"/>
@@ -17682,14 +14571,12 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="610" t="s">
-        <v>770</v>
+        <v>362</v>
       </c>
       <c r="D34" s="610"/>
       <c r="E34" s="610"/>
       <c r="F34" s="609"/>
-      <c r="G34" s="674" t="s">
-        <v>753</v>
-      </c>
+      <c r="G34" s="674"/>
       <c r="H34" s="675"/>
       <c r="I34" s="675"/>
       <c r="J34" s="675"/>
@@ -17705,7 +14592,7 @@
       <c r="E35" s="610"/>
       <c r="F35" s="609"/>
       <c r="G35" s="672" t="s">
-        <v>769</v>
+        <v>361</v>
       </c>
       <c r="H35" s="673"/>
       <c r="I35" s="673"/>
@@ -17730,18 +14617,16 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
       <c r="A37" s="636" t="s">
-        <v>771</v>
+        <v>363</v>
       </c>
       <c r="B37" s="637"/>
       <c r="C37" s="613" t="s">
-        <v>772</v>
+        <v>364</v>
       </c>
       <c r="D37" s="613"/>
       <c r="E37" s="613"/>
       <c r="F37" s="614"/>
-      <c r="G37" s="594" t="s">
-        <v>753</v>
-      </c>
+      <c r="G37" s="594"/>
       <c r="H37" s="595"/>
       <c r="I37" s="595"/>
       <c r="J37" s="595"/>
@@ -17757,7 +14642,7 @@
       <c r="E38" s="590"/>
       <c r="F38" s="615"/>
       <c r="G38" s="591" t="s">
-        <v>773</v>
+        <v>365</v>
       </c>
       <c r="H38" s="592"/>
       <c r="I38" s="592"/>
@@ -17798,11 +14683,11 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
       <c r="A41" s="611" t="s">
-        <v>774</v>
+        <v>366</v>
       </c>
       <c r="B41" s="612"/>
       <c r="C41" s="610" t="s">
-        <v>775</v>
+        <v>367</v>
       </c>
       <c r="D41" s="610"/>
       <c r="E41" s="610"/>
@@ -17832,18 +14717,16 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="64" t="s">
-        <v>776</v>
+        <v>368</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="610" t="s">
-        <v>777</v>
+        <v>369</v>
       </c>
       <c r="D43" s="610"/>
       <c r="E43" s="610"/>
       <c r="F43" s="609"/>
-      <c r="G43" s="632" t="s">
-        <v>751</v>
-      </c>
+      <c r="G43" s="632"/>
       <c r="H43" s="633"/>
       <c r="I43" s="633"/>
       <c r="J43" s="633"/>
@@ -17859,31 +14742,27 @@
       <c r="E44" s="610"/>
       <c r="F44" s="609"/>
       <c r="G44" s="187" t="s">
-        <v>778</v>
+        <v>370</v>
       </c>
       <c r="H44" s="239"/>
       <c r="I44" s="118"/>
       <c r="J44" s="118"/>
-      <c r="L44" s="265" t="s">
-        <v>779</v>
-      </c>
+      <c r="L44" s="265"/>
       <c r="M44" s="119"/>
       <c r="N44" s="71"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="64" t="s">
-        <v>780</v>
+        <v>371</v>
       </c>
       <c r="B45" s="65"/>
       <c r="C45" s="609" t="s">
-        <v>781</v>
+        <v>372</v>
       </c>
       <c r="D45" s="609"/>
       <c r="E45" s="609"/>
       <c r="F45" s="609"/>
-      <c r="G45" s="632" t="s">
-        <v>753</v>
-      </c>
+      <c r="G45" s="632"/>
       <c r="H45" s="633"/>
       <c r="I45" s="633"/>
       <c r="J45" s="633"/>
@@ -17899,7 +14778,7 @@
       <c r="E46" s="609"/>
       <c r="F46" s="609"/>
       <c r="G46" s="188" t="s">
-        <v>782</v>
+        <v>373</v>
       </c>
       <c r="H46" s="240"/>
       <c r="I46" s="118"/>
@@ -17911,18 +14790,16 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="64" t="s">
-        <v>783</v>
+        <v>374</v>
       </c>
       <c r="B47" s="65"/>
       <c r="C47" s="610" t="s">
-        <v>784</v>
+        <v>375</v>
       </c>
       <c r="D47" s="610"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
-      <c r="G47" s="632" t="s">
-        <v>753</v>
-      </c>
+      <c r="G47" s="632"/>
       <c r="H47" s="633"/>
       <c r="I47" s="633"/>
       <c r="J47" s="633"/>
@@ -17938,7 +14815,7 @@
       <c r="E48" s="652"/>
       <c r="F48" s="653"/>
       <c r="G48" s="189" t="s">
-        <v>782</v>
+        <v>373</v>
       </c>
       <c r="H48" s="241"/>
       <c r="I48" s="120"/>
@@ -17966,11 +14843,11 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
       <c r="A50" s="725" t="s">
-        <v>785</v>
+        <v>376</v>
       </c>
       <c r="B50" s="726"/>
       <c r="C50" s="185" t="s">
-        <v>786</v>
+        <v>377</v>
       </c>
       <c r="D50" s="185"/>
       <c r="E50" s="185"/>
@@ -17985,17 +14862,17 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
       <c r="A51" s="648" t="s">
-        <v>787</v>
+        <v>378</v>
       </c>
       <c r="B51" s="649"/>
       <c r="C51" s="649"/>
       <c r="D51" s="649"/>
       <c r="E51" s="650"/>
       <c r="F51" s="177" t="s">
-        <v>788</v>
+        <v>379</v>
       </c>
       <c r="G51" s="657" t="s">
-        <v>789</v>
+        <v>380</v>
       </c>
       <c r="H51" s="577"/>
       <c r="I51" s="584"/>
@@ -18005,19 +14882,13 @@
       <c r="M51" s="644"/>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="24">
-      <c r="A52" s="665" t="s">
-        <v>790</v>
-      </c>
+      <c r="A52" s="665"/>
       <c r="B52" s="666"/>
       <c r="C52" s="668"/>
       <c r="D52" s="668"/>
       <c r="E52" s="669"/>
-      <c r="F52" s="72" t="s">
-        <v>791</v>
-      </c>
-      <c r="G52" s="658" t="s">
-        <v>792</v>
-      </c>
+      <c r="F52" s="72"/>
+      <c r="G52" s="658"/>
       <c r="H52" s="659"/>
       <c r="I52" s="660"/>
       <c r="J52" s="642"/>
@@ -18026,19 +14897,13 @@
       <c r="M52" s="644"/>
     </row>
     <row r="53" spans="1:14" customHeight="1" ht="24">
-      <c r="A53" s="665" t="s">
-        <v>793</v>
-      </c>
+      <c r="A53" s="665"/>
       <c r="B53" s="666"/>
       <c r="C53" s="666"/>
       <c r="D53" s="666"/>
       <c r="E53" s="667"/>
-      <c r="F53" s="72" t="s">
-        <v>794</v>
-      </c>
-      <c r="G53" s="658" t="s">
-        <v>795</v>
-      </c>
+      <c r="F53" s="72"/>
+      <c r="G53" s="658"/>
       <c r="H53" s="659"/>
       <c r="I53" s="660"/>
       <c r="J53" s="642"/>
@@ -18047,19 +14912,13 @@
       <c r="M53" s="644"/>
     </row>
     <row r="54" spans="1:14" customHeight="1" ht="24">
-      <c r="A54" s="661" t="s">
-        <v>796</v>
-      </c>
+      <c r="A54" s="661"/>
       <c r="B54" s="662"/>
       <c r="C54" s="663"/>
       <c r="D54" s="663"/>
       <c r="E54" s="664"/>
-      <c r="F54" s="193" t="s">
-        <v>797</v>
-      </c>
-      <c r="G54" s="645" t="s">
-        <v>798</v>
-      </c>
+      <c r="F54" s="193"/>
+      <c r="G54" s="645"/>
       <c r="H54" s="646"/>
       <c r="I54" s="647"/>
       <c r="J54" s="642"/>
@@ -18069,11 +14928,11 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
       <c r="A55" s="624" t="s">
-        <v>799</v>
+        <v>381</v>
       </c>
       <c r="B55" s="625"/>
       <c r="C55" s="670" t="s">
-        <v>800</v>
+        <v>382</v>
       </c>
       <c r="D55" s="670"/>
       <c r="E55" s="670"/>
@@ -18098,7 +14957,7 @@
       <c r="I56" s="243"/>
       <c r="J56" s="192"/>
       <c r="K56" s="605" t="s">
-        <v>801</v>
+        <v>383</v>
       </c>
       <c r="L56" s="605"/>
       <c r="M56" s="176"/>
@@ -18148,7 +15007,7 @@
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="75"/>
       <c r="B60" s="677" t="s">
-        <v>802</v>
+        <v>384</v>
       </c>
       <c r="C60" s="678"/>
       <c r="D60" s="679"/>
@@ -18163,12 +15022,10 @@
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="75"/>
       <c r="B61" s="712" t="s">
-        <v>803</v>
+        <v>385</v>
       </c>
       <c r="C61" s="713"/>
-      <c r="D61" s="131" t="s">
-        <v>804</v>
-      </c>
+      <c r="D61" s="131"/>
       <c r="F61" s="719"/>
       <c r="G61" s="720"/>
       <c r="H61" s="720"/>
@@ -18180,12 +15037,10 @@
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="75"/>
       <c r="B62" s="701" t="s">
-        <v>805</v>
+        <v>386</v>
       </c>
       <c r="C62" s="702"/>
-      <c r="D62" s="680" t="s">
-        <v>806</v>
-      </c>
+      <c r="D62" s="680"/>
       <c r="F62" s="722"/>
       <c r="G62" s="723"/>
       <c r="H62" s="723"/>
@@ -18200,7 +15055,7 @@
       <c r="C63" s="715"/>
       <c r="D63" s="681"/>
       <c r="F63" s="682" t="s">
-        <v>807</v>
+        <v>387</v>
       </c>
       <c r="G63" s="683"/>
       <c r="H63" s="683"/>
@@ -18212,12 +15067,10 @@
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="75"/>
       <c r="B64" s="701" t="s">
-        <v>808</v>
+        <v>388</v>
       </c>
       <c r="C64" s="702"/>
-      <c r="D64" s="680" t="s">
-        <v>809</v>
-      </c>
+      <c r="D64" s="680"/>
       <c r="F64" s="77"/>
       <c r="G64" s="178"/>
       <c r="H64" s="178"/>
@@ -18233,14 +15086,14 @@
       <c r="C65" s="704"/>
       <c r="D65" s="705"/>
       <c r="F65" s="698" t="s">
-        <v>810</v>
+        <v>389</v>
       </c>
       <c r="G65" s="699"/>
       <c r="H65" s="699"/>
       <c r="I65" s="700"/>
       <c r="J65" s="78"/>
       <c r="K65" s="696" t="s">
-        <v>811</v>
+        <v>390</v>
       </c>
       <c r="L65" s="697"/>
       <c r="M65" s="76"/>
@@ -18262,7 +15115,7 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
       <c r="A67" s="693" t="s">
-        <v>812</v>
+        <v>391</v>
       </c>
       <c r="B67" s="694"/>
       <c r="C67" s="694"/>
@@ -18297,7 +15150,7 @@
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
       <c r="E69" s="687" t="s">
-        <v>813</v>
+        <v>392</v>
       </c>
       <c r="F69" s="688"/>
       <c r="G69" s="688"/>
@@ -18325,7 +15178,7 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
       <c r="A71" s="686" t="s">
-        <v>814</v>
+        <v>393</v>
       </c>
       <c r="B71" s="686"/>
       <c r="C71" s="686"/>
@@ -18504,45 +15357,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>815</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>816</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>817</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>819</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>820</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>822</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>823</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/storage/PDS.xlsx
+++ b/storage/PDS.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -102,12 +102,21 @@
     <t>SURNAME</t>
   </si>
   <si>
+    <t>KIRK</t>
+  </si>
+  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
+    <t>WALTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                           </t>
   </si>
   <si>
+    <t>ALMA BEASLEY</t>
+  </si>
+  <si>
     <t>Married</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
   </si>
   <si>
     <t>MIDDLE NAME</t>
+  </si>
+  <si>
+    <t>LOGAN YORK</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -130,6 +142,9 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
+    <t>03-19-1977</t>
+  </si>
+  <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
@@ -145,6 +160,9 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
+    <t>INVENTORE AD IN QUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t>SEX</t>
   </si>
   <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
     <t>please indicate the details.</t>
   </si>
   <si>
@@ -172,9 +193,18 @@
     <t>CIVIL STATUS</t>
   </si>
   <si>
+    <t xml:space="preserve">Others: </t>
+  </si>
+  <si>
     <t>17. RESIDENTIAL ADDRESS</t>
   </si>
   <si>
+    <t>AMET QUI QUI MOLLIT</t>
+  </si>
+  <si>
+    <t>AUT LABORUM POSSIMUS</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -187,6 +217,12 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>OFFICIA REPELLENDUS</t>
+  </si>
+  <si>
+    <t>CONSECTETUR ET DELE</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -208,6 +244,15 @@
     <t>HEIGHT (m)</t>
   </si>
   <si>
+    <t>LIBERO QUI CUMQUE SA</t>
+  </si>
+  <si>
+    <t>NON EST VERO INCIDID</t>
+  </si>
+  <si>
+    <t>ASPERNATUR UT SIT C</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -226,9 +271,15 @@
     <t>WEIGHT (kg)</t>
   </si>
   <si>
+    <t>NESCIUNT EUM COMMOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIP CODE    </t>
   </si>
   <si>
+    <t>TEMPORE AUT CUPIDIT</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -238,9 +289,18 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
+    <t>SAPIENTE ID IUSTO DE</t>
+  </si>
+  <si>
     <t>18. PERMANENT ADDRESS</t>
   </si>
   <si>
+    <t>AMET NECESSITATIBUS</t>
+  </si>
+  <si>
+    <t>DIGNISSIMOS QUIA COM</t>
+  </si>
+  <si>
     <t>Bahamas, The</t>
   </si>
   <si>
@@ -253,6 +313,15 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
+    <t>UNDE TEMPOR OCCAECAT</t>
+  </si>
+  <si>
+    <t>DUCIMUS LABORE APER</t>
+  </si>
+  <si>
+    <t>FACERE QUI CUMQUE IU</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -265,6 +334,15 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
+    <t>NULLA A ALIQUID OCCA</t>
+  </si>
+  <si>
+    <t>QUIS PARIATUR CONSE</t>
+  </si>
+  <si>
+    <t>EST IPSA DOLOR ASPE</t>
+  </si>
+  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -277,6 +355,9 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
+    <t>AUT UT VOLUPTATE NOS</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -286,27 +367,45 @@
     <t>SSS NO.</t>
   </si>
   <si>
+    <t>MINIMA CONSECTETUR</t>
+  </si>
+  <si>
     <t>19. TELEPHONE NO.</t>
   </si>
   <si>
+    <t>MAIORES CUPIDATAT QU</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>14. TIN NO.</t>
   </si>
   <si>
+    <t>DOLOR IMPEDIT AUTE</t>
+  </si>
+  <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
+    <t>FUGA VEL IPSAM QUIA</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>15. AGENCY EMPLOYEE NO.</t>
   </si>
   <si>
+    <t>VOLUPTAS ESSE QUIA S</t>
+  </si>
+  <si>
     <t>21. E-MAIL ADDRESS (if any)</t>
   </si>
   <si>
+    <t>KOTYTI@MAILINATOR.COM</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -322,6 +421,9 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
+    <t>LABORE VOLUPTATE CUP (deceased)</t>
+  </si>
+  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -334,39 +436,60 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
+    <t>IPSA ODIO EX AUT EX</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
+    <t>NUMQUAM IN ILLUM ET</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
+    <t>AUT DISTINCTIO ULLA</t>
+  </si>
+  <si>
     <t>Brunei </t>
   </si>
   <si>
     <t>OCCUPATION</t>
   </si>
   <si>
+    <t>UT NON DEBITIS ISTE</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>EMPLOYER/BUSINESS NAME</t>
   </si>
   <si>
+    <t>VOLUPTATEM DISTINCTI</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>BUSINESS ADDRESS</t>
   </si>
   <si>
+    <t>REM RERUM ULLAMCO AL</t>
+  </si>
+  <si>
     <t>Burma</t>
   </si>
   <si>
     <t>TELEPHONE NO.</t>
   </si>
   <si>
+    <t>REPREHENDERIT EXPEDI</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -376,15 +499,27 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
+    <t>SUSCIPIT CONSEQUATUR (deceased)</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
+    <t>SED AMET UNDE DOLOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
+    <t>SED DOLORE ADIPISICI</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
+    <t>LABORIOSAM NIHIL FU</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -397,10 +532,19 @@
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>LOREM QUI SAPIENTE M</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>VOLUPTAS COMMODO NON</t>
+  </si>
+  <si>
     <t>Chad</t>
+  </si>
+  <si>
+    <t>NOSTRUM OPTIO ID FA</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -6934,7 +7078,9 @@
         <v>12</v>
       </c>
       <c r="C10" s="380"/>
-      <c r="D10" s="385"/>
+      <c r="D10" s="385" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="385"/>
       <c r="F10" s="385"/>
       <c r="G10" s="385"/>
@@ -6950,10 +7096,12 @@
     <row r="11" spans="1:19" customHeight="1" ht="22.5">
       <c r="A11" s="163"/>
       <c r="B11" s="396" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="397"/>
-      <c r="D11" s="197"/>
+      <c r="D11" s="197" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="198"/>
       <c r="F11" s="198"/>
       <c r="G11" s="198"/>
@@ -6962,24 +7110,28 @@
       <c r="J11" s="198"/>
       <c r="K11" s="198"/>
       <c r="L11" s="365" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11" s="366"/>
-      <c r="N11" s="252"/>
+      <c r="N11" s="252" t="s">
+        <v>17</v>
+      </c>
       <c r="P11" s="96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="143" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="21.75">
       <c r="A12" s="164"/>
       <c r="B12" s="398" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="399"/>
-      <c r="D12" s="194"/>
+      <c r="D12" s="194" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="195"/>
       <c r="F12" s="195"/>
       <c r="G12" s="195"/>
@@ -6991,25 +7143,27 @@
       <c r="M12" s="199"/>
       <c r="N12" s="200"/>
       <c r="P12" s="96" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19" customHeight="1" ht="24">
       <c r="A13" s="226" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="379" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" s="380"/>
-      <c r="D13" s="268"/>
+      <c r="D13" s="268" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="268"/>
       <c r="F13" s="269"/>
       <c r="G13" s="102" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H13" s="145"/>
       <c r="I13" s="145"/>
@@ -7019,10 +7173,10 @@
       <c r="M13" s="360"/>
       <c r="N13" s="361"/>
       <c r="P13" s="96" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" customHeight="1" ht="12">
@@ -7045,17 +7199,19 @@
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="24.75">
       <c r="A15" s="165" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="371"/>
+      <c r="D15" s="371" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="371"/>
       <c r="F15" s="372"/>
       <c r="G15" s="273" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H15" s="274"/>
       <c r="I15" s="274"/>
@@ -7065,25 +7221,27 @@
       <c r="M15" s="284"/>
       <c r="N15" s="285"/>
       <c r="P15" s="96" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="24.75">
       <c r="A16" s="166" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="387"/>
+      <c r="D16" s="387" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="387"/>
       <c r="F16" s="320"/>
       <c r="G16" s="270" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H16" s="271"/>
       <c r="I16" s="272"/>
@@ -7093,10 +7251,10 @@
       <c r="M16" s="287"/>
       <c r="N16" s="288"/>
       <c r="P16" s="96" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:19" customHeight="1" ht="15.75">
@@ -7104,24 +7262,30 @@
         <v>6</v>
       </c>
       <c r="B17" s="279" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C17" s="280"/>
-      <c r="D17" s="277"/>
+      <c r="D17" s="277" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="277"/>
       <c r="F17" s="277"/>
       <c r="G17" s="103" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H17" s="104"/>
-      <c r="I17" s="354"/>
+      <c r="I17" s="354" t="s">
+        <v>45</v>
+      </c>
       <c r="J17" s="355"/>
       <c r="K17" s="355"/>
-      <c r="L17" s="355"/>
+      <c r="L17" s="355" t="s">
+        <v>46</v>
+      </c>
       <c r="M17" s="355"/>
       <c r="N17" s="362"/>
       <c r="Q17" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="9">
@@ -7134,17 +7298,17 @@
       <c r="G18" s="151"/>
       <c r="H18" s="255"/>
       <c r="I18" s="363" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" s="364"/>
       <c r="K18" s="364"/>
       <c r="L18" s="364" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M18" s="364"/>
       <c r="N18" s="367"/>
       <c r="Q18" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:19" customHeight="1" ht="5.25">
@@ -7156,14 +7320,18 @@
       <c r="F19" s="257"/>
       <c r="G19" s="151"/>
       <c r="H19" s="255"/>
-      <c r="I19" s="377"/>
+      <c r="I19" s="377" t="s">
+        <v>51</v>
+      </c>
       <c r="J19" s="312"/>
       <c r="K19" s="312"/>
-      <c r="L19" s="311"/>
+      <c r="L19" s="311" t="s">
+        <v>52</v>
+      </c>
       <c r="M19" s="312"/>
       <c r="N19" s="313"/>
       <c r="Q19" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:19" customHeight="1" ht="9.75">
@@ -7182,7 +7350,7 @@
       <c r="M20" s="314"/>
       <c r="N20" s="315"/>
       <c r="Q20" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:19" customHeight="1" ht="9">
@@ -7195,40 +7363,46 @@
       <c r="G21" s="149"/>
       <c r="H21" s="251"/>
       <c r="I21" s="316" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J21" s="317"/>
       <c r="K21" s="317"/>
       <c r="L21" s="430" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M21" s="431"/>
       <c r="N21" s="432"/>
       <c r="Q21" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:19" customHeight="1" ht="15.75">
       <c r="A22" s="326" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B22" s="330" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C22" s="331"/>
-      <c r="D22" s="320"/>
+      <c r="D22" s="320" t="s">
+        <v>60</v>
+      </c>
       <c r="E22" s="277"/>
       <c r="F22" s="321"/>
       <c r="G22" s="149"/>
       <c r="H22" s="251"/>
-      <c r="I22" s="354"/>
+      <c r="I22" s="354" t="s">
+        <v>61</v>
+      </c>
       <c r="J22" s="355"/>
       <c r="K22" s="355"/>
-      <c r="L22" s="355"/>
+      <c r="L22" s="355" t="s">
+        <v>62</v>
+      </c>
       <c r="M22" s="355"/>
       <c r="N22" s="362"/>
       <c r="Q22" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19" customHeight="1" ht="8.25">
@@ -7241,67 +7415,77 @@
       <c r="G23" s="149"/>
       <c r="H23" s="251"/>
       <c r="I23" s="435" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J23" s="436"/>
       <c r="K23" s="436"/>
       <c r="L23" s="433" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M23" s="433"/>
       <c r="N23" s="434"/>
       <c r="Q23" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:19" customHeight="1" ht="22.5">
       <c r="A24" s="163" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B24" s="334" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C24" s="335"/>
-      <c r="D24" s="351"/>
+      <c r="D24" s="351" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="352"/>
       <c r="F24" s="353"/>
       <c r="G24" s="400" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H24" s="401"/>
-      <c r="I24" s="368"/>
+      <c r="I24" s="368" t="s">
+        <v>71</v>
+      </c>
       <c r="J24" s="369"/>
       <c r="K24" s="369"/>
       <c r="L24" s="369"/>
       <c r="M24" s="369"/>
       <c r="N24" s="370"/>
       <c r="Q24" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:19" customHeight="1" ht="15.75">
       <c r="A25" s="318" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B25" s="330" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C25" s="331"/>
-      <c r="D25" s="320"/>
+      <c r="D25" s="320" t="s">
+        <v>75</v>
+      </c>
       <c r="E25" s="277"/>
       <c r="F25" s="321"/>
       <c r="G25" s="109" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H25" s="99"/>
-      <c r="I25" s="354"/>
+      <c r="I25" s="354" t="s">
+        <v>77</v>
+      </c>
       <c r="J25" s="355"/>
       <c r="K25" s="355"/>
-      <c r="L25" s="355"/>
+      <c r="L25" s="355" t="s">
+        <v>78</v>
+      </c>
       <c r="M25" s="355"/>
       <c r="N25" s="362"/>
       <c r="Q25" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:19" customHeight="1" ht="9">
@@ -7314,40 +7498,46 @@
       <c r="G26" s="149"/>
       <c r="H26" s="251"/>
       <c r="I26" s="363" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J26" s="364"/>
       <c r="K26" s="364"/>
       <c r="L26" s="364" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M26" s="364"/>
       <c r="N26" s="367"/>
       <c r="Q26" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:19" customHeight="1" ht="15.75">
       <c r="A27" s="318" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B27" s="330" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C27" s="331"/>
-      <c r="D27" s="320"/>
+      <c r="D27" s="320" t="s">
+        <v>83</v>
+      </c>
       <c r="E27" s="277"/>
       <c r="F27" s="321"/>
       <c r="G27" s="151"/>
       <c r="H27" s="255"/>
-      <c r="I27" s="354"/>
+      <c r="I27" s="354" t="s">
+        <v>84</v>
+      </c>
       <c r="J27" s="355"/>
       <c r="K27" s="355"/>
-      <c r="L27" s="355"/>
+      <c r="L27" s="355" t="s">
+        <v>85</v>
+      </c>
       <c r="M27" s="355"/>
       <c r="N27" s="362"/>
       <c r="Q27" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:19" customHeight="1" ht="9">
@@ -7360,40 +7550,46 @@
       <c r="G28" s="151"/>
       <c r="H28" s="255"/>
       <c r="I28" s="412" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J28" s="410"/>
       <c r="K28" s="410"/>
       <c r="L28" s="409" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M28" s="410"/>
       <c r="N28" s="411"/>
       <c r="Q28" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:19" customHeight="1" ht="15.75">
       <c r="A29" s="318" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B29" s="330" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C29" s="331"/>
-      <c r="D29" s="320"/>
+      <c r="D29" s="320" t="s">
+        <v>90</v>
+      </c>
       <c r="E29" s="277"/>
       <c r="F29" s="321"/>
       <c r="G29" s="151"/>
       <c r="H29" s="156"/>
-      <c r="I29" s="407"/>
+      <c r="I29" s="407" t="s">
+        <v>91</v>
+      </c>
       <c r="J29" s="408"/>
       <c r="K29" s="408"/>
-      <c r="L29" s="408"/>
+      <c r="L29" s="408" t="s">
+        <v>92</v>
+      </c>
       <c r="M29" s="408"/>
       <c r="N29" s="441"/>
       <c r="Q29" s="3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:19" customHeight="1" ht="9.75">
@@ -7406,32 +7602,34 @@
       <c r="G30" s="151"/>
       <c r="H30" s="156"/>
       <c r="I30" s="437" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J30" s="437"/>
       <c r="K30" s="437"/>
       <c r="L30" s="437" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M30" s="437"/>
       <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:19" customHeight="1" ht="24.75">
       <c r="A31" s="165" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C31" s="98"/>
-      <c r="D31" s="351"/>
+      <c r="D31" s="351" t="s">
+        <v>97</v>
+      </c>
       <c r="E31" s="352"/>
       <c r="F31" s="353"/>
       <c r="G31" s="439" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H31" s="440"/>
       <c r="I31" s="356"/>
@@ -7441,83 +7639,95 @@
       <c r="M31" s="357"/>
       <c r="N31" s="358"/>
       <c r="Q31" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:19" customHeight="1" ht="24.75">
       <c r="A32" s="163" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C32" s="98"/>
-      <c r="D32" s="351"/>
+      <c r="D32" s="351" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" s="352"/>
       <c r="F32" s="353"/>
       <c r="G32" s="373" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H32" s="335"/>
-      <c r="I32" s="356"/>
+      <c r="I32" s="356" t="s">
+        <v>103</v>
+      </c>
       <c r="J32" s="357"/>
       <c r="K32" s="357"/>
       <c r="L32" s="357"/>
       <c r="M32" s="357"/>
       <c r="N32" s="358"/>
       <c r="Q32" s="3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:19" customHeight="1" ht="24.75">
       <c r="A33" s="402" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B33" s="335"/>
       <c r="C33" s="403"/>
-      <c r="D33" s="351"/>
+      <c r="D33" s="351" t="s">
+        <v>106</v>
+      </c>
       <c r="E33" s="352"/>
       <c r="F33" s="353"/>
       <c r="G33" s="196" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="H33" s="150"/>
-      <c r="I33" s="356"/>
+      <c r="I33" s="356" t="s">
+        <v>108</v>
+      </c>
       <c r="J33" s="357"/>
       <c r="K33" s="357"/>
       <c r="L33" s="357"/>
       <c r="M33" s="357"/>
       <c r="N33" s="358"/>
       <c r="Q33" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:19" customHeight="1" ht="24.75">
       <c r="A34" s="168" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B34" s="254"/>
       <c r="C34" s="152"/>
-      <c r="D34" s="390"/>
+      <c r="D34" s="390" t="s">
+        <v>111</v>
+      </c>
       <c r="E34" s="391"/>
       <c r="F34" s="392"/>
       <c r="G34" s="109" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="H34" s="99"/>
-      <c r="I34" s="356"/>
+      <c r="I34" s="356" t="s">
+        <v>113</v>
+      </c>
       <c r="J34" s="357"/>
       <c r="K34" s="357"/>
       <c r="L34" s="357"/>
       <c r="M34" s="357"/>
       <c r="N34" s="358"/>
       <c r="Q34" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
       <c r="A35" s="205" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B35" s="206"/>
       <c r="C35" s="206"/>
@@ -7533,49 +7743,55 @@
       <c r="M35" s="206"/>
       <c r="N35" s="207"/>
       <c r="Q35" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="102" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B36" s="215" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C36" s="216"/>
-      <c r="D36" s="309"/>
+      <c r="D36" s="309" t="s">
+        <v>119</v>
+      </c>
       <c r="E36" s="309"/>
       <c r="F36" s="309"/>
       <c r="G36" s="309"/>
       <c r="H36" s="309"/>
       <c r="I36" s="291" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="J36" s="291"/>
       <c r="K36" s="291"/>
       <c r="L36" s="292"/>
       <c r="M36" s="328" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="N36" s="329"/>
       <c r="Q36" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
       <c r="A37" s="149"/>
       <c r="B37" s="255" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C37" s="156"/>
-      <c r="D37" s="404"/>
+      <c r="D37" s="404" t="s">
+        <v>124</v>
+      </c>
       <c r="E37" s="405"/>
       <c r="F37" s="406"/>
       <c r="G37" s="247" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="248"/>
+        <v>125</v>
+      </c>
+      <c r="H37" s="248" t="s">
+        <v>126</v>
+      </c>
       <c r="I37" s="293"/>
       <c r="J37" s="266"/>
       <c r="K37" s="266"/>
@@ -7583,16 +7799,18 @@
       <c r="M37" s="289"/>
       <c r="N37" s="290"/>
       <c r="Q37" s="3" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
       <c r="A38" s="169"/>
       <c r="B38" s="210" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C38" s="209"/>
-      <c r="D38" s="404"/>
+      <c r="D38" s="404" t="s">
+        <v>129</v>
+      </c>
       <c r="E38" s="405"/>
       <c r="F38" s="405"/>
       <c r="G38" s="405"/>
@@ -7604,16 +7822,18 @@
       <c r="M38" s="289"/>
       <c r="N38" s="290"/>
       <c r="Q38" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
       <c r="A39" s="170"/>
       <c r="B39" s="97" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C39" s="98"/>
-      <c r="D39" s="310"/>
+      <c r="D39" s="310" t="s">
+        <v>132</v>
+      </c>
       <c r="E39" s="310"/>
       <c r="F39" s="310"/>
       <c r="G39" s="310"/>
@@ -7625,16 +7845,18 @@
       <c r="M39" s="289"/>
       <c r="N39" s="290"/>
       <c r="Q39" s="3" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:19" customHeight="1" ht="21">
       <c r="A40" s="170"/>
       <c r="B40" s="97" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C40" s="98"/>
-      <c r="D40" s="310"/>
+      <c r="D40" s="310" t="s">
+        <v>135</v>
+      </c>
       <c r="E40" s="310"/>
       <c r="F40" s="310"/>
       <c r="G40" s="310"/>
@@ -7646,16 +7868,18 @@
       <c r="M40" s="289"/>
       <c r="N40" s="290"/>
       <c r="Q40" s="3" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:19" customHeight="1" ht="21">
       <c r="A41" s="170"/>
       <c r="B41" s="97" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C41" s="98"/>
-      <c r="D41" s="310"/>
+      <c r="D41" s="310" t="s">
+        <v>138</v>
+      </c>
       <c r="E41" s="310"/>
       <c r="F41" s="310"/>
       <c r="G41" s="310"/>
@@ -7667,16 +7891,18 @@
       <c r="M41" s="289"/>
       <c r="N41" s="290"/>
       <c r="Q41" s="3" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="103"/>
       <c r="B42" s="104" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C42" s="137"/>
-      <c r="D42" s="310"/>
+      <c r="D42" s="310" t="s">
+        <v>141</v>
+      </c>
       <c r="E42" s="310"/>
       <c r="F42" s="310"/>
       <c r="G42" s="310"/>
@@ -7688,18 +7914,20 @@
       <c r="M42" s="289"/>
       <c r="N42" s="290"/>
       <c r="Q42" s="3" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:19" customHeight="1" ht="21">
       <c r="A43" s="208" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C43" s="104"/>
-      <c r="D43" s="310"/>
+      <c r="D43" s="310" t="s">
+        <v>145</v>
+      </c>
       <c r="E43" s="310"/>
       <c r="F43" s="310"/>
       <c r="G43" s="310"/>
@@ -7711,22 +7939,26 @@
       <c r="M43" s="289"/>
       <c r="N43" s="290"/>
       <c r="Q43" s="3" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:19" customHeight="1" ht="21">
       <c r="A44" s="149"/>
       <c r="B44" s="251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" s="251"/>
-      <c r="D44" s="404"/>
+      <c r="D44" s="404" t="s">
+        <v>147</v>
+      </c>
       <c r="E44" s="405"/>
       <c r="F44" s="406"/>
       <c r="G44" s="247" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="248"/>
+        <v>148</v>
+      </c>
+      <c r="H44" s="248" t="s">
+        <v>149</v>
+      </c>
       <c r="I44" s="266"/>
       <c r="J44" s="266"/>
       <c r="K44" s="266"/>
@@ -7734,16 +7966,18 @@
       <c r="M44" s="289"/>
       <c r="N44" s="290"/>
       <c r="Q44" s="3" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:19" customHeight="1" ht="21">
       <c r="A45" s="169"/>
       <c r="B45" s="203" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45" s="203"/>
-      <c r="D45" s="404"/>
+      <c r="D45" s="404" t="s">
+        <v>151</v>
+      </c>
       <c r="E45" s="405"/>
       <c r="F45" s="405"/>
       <c r="G45" s="405"/>
@@ -7755,15 +7989,15 @@
       <c r="M45" s="289"/>
       <c r="N45" s="290"/>
       <c r="Q45" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:19" customHeight="1" ht="21">
       <c r="A46" s="149" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C46" s="104"/>
       <c r="D46" s="308"/>
@@ -7778,7 +8012,7 @@
       <c r="M46" s="289"/>
       <c r="N46" s="290"/>
       <c r="Q46" s="3" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:19" customHeight="1" ht="21">
@@ -7787,7 +8021,9 @@
         <v>12</v>
       </c>
       <c r="C47" s="251"/>
-      <c r="D47" s="461"/>
+      <c r="D47" s="461" t="s">
+        <v>156</v>
+      </c>
       <c r="E47" s="461"/>
       <c r="F47" s="461"/>
       <c r="G47" s="461"/>
@@ -7799,16 +8035,18 @@
       <c r="M47" s="289"/>
       <c r="N47" s="290"/>
       <c r="Q47" s="3" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:19" customHeight="1" ht="21">
       <c r="A48" s="149"/>
       <c r="B48" s="251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="251"/>
-      <c r="D48" s="461"/>
+      <c r="D48" s="461" t="s">
+        <v>158</v>
+      </c>
       <c r="E48" s="461"/>
       <c r="F48" s="461"/>
       <c r="G48" s="461"/>
@@ -7820,22 +8058,24 @@
       <c r="M48" s="289"/>
       <c r="N48" s="290"/>
       <c r="Q48" s="3" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:19" customHeight="1" ht="21">
       <c r="A49" s="171"/>
       <c r="B49" s="204" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C49" s="204"/>
-      <c r="D49" s="301"/>
+      <c r="D49" s="301" t="s">
+        <v>160</v>
+      </c>
       <c r="E49" s="301"/>
       <c r="F49" s="301"/>
       <c r="G49" s="301"/>
       <c r="H49" s="301"/>
       <c r="I49" s="299" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
@@ -7843,12 +8083,12 @@
       <c r="M49" s="299"/>
       <c r="N49" s="300"/>
       <c r="Q49" s="3" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:19" customHeight="1" ht="15.75">
       <c r="A50" s="172" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B50" s="172"/>
       <c r="C50" s="100"/>
@@ -7858,7 +8098,7 @@
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
       <c r="I50" s="388" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J50" s="388"/>
       <c r="K50" s="388"/>
@@ -7866,42 +8106,42 @@
       <c r="M50" s="388"/>
       <c r="N50" s="389"/>
       <c r="Q50" s="3" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:19" customHeight="1" ht="14.25">
       <c r="A51" s="381" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B51" s="413" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C51" s="413"/>
       <c r="D51" s="416" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E51" s="417"/>
       <c r="F51" s="418"/>
       <c r="G51" s="416" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="H51" s="417"/>
       <c r="I51" s="462"/>
       <c r="J51" s="302" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="K51" s="303"/>
       <c r="L51" s="459" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="M51" s="383" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="N51" s="306" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:19" customHeight="1" ht="19.5">
@@ -7920,7 +8160,7 @@
       <c r="M52" s="383"/>
       <c r="N52" s="306"/>
       <c r="Q52" s="3" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:19" customHeight="1" ht="14.25">
@@ -7934,10 +8174,10 @@
       <c r="H53" s="423"/>
       <c r="I53" s="464"/>
       <c r="J53" s="105" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="K53" s="106" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="L53" s="460"/>
       <c r="M53" s="384"/>
@@ -7945,13 +8185,13 @@
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:19" customHeight="1" ht="28.5">
       <c r="A54" s="217"/>
       <c r="B54" s="218" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C54" s="218"/>
       <c r="D54" s="424"/>
@@ -7966,13 +8206,13 @@
       <c r="M54" s="18"/>
       <c r="N54" s="153"/>
       <c r="Q54" s="3" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:19" customHeight="1" ht="28.5">
       <c r="A55" s="217"/>
       <c r="B55" s="218" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="C55" s="218"/>
       <c r="D55" s="424"/>
@@ -7987,13 +8227,13 @@
       <c r="M55" s="19"/>
       <c r="N55" s="153"/>
       <c r="Q55" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:19" customHeight="1" ht="28.5">
       <c r="A56" s="217"/>
       <c r="B56" s="218" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C56" s="218"/>
       <c r="D56" s="424"/>
@@ -8008,13 +8248,13 @@
       <c r="M56" s="18"/>
       <c r="N56" s="153"/>
       <c r="Q56" s="3" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:19" customHeight="1" ht="28.5">
       <c r="A57" s="217"/>
       <c r="B57" s="218" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C57" s="218"/>
       <c r="D57" s="424"/>
@@ -8029,13 +8269,13 @@
       <c r="M57" s="19"/>
       <c r="N57" s="153"/>
       <c r="Q57" s="3" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
       <c r="A58" s="219"/>
       <c r="B58" s="220" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="C58" s="220"/>
       <c r="D58" s="427"/>
@@ -8050,12 +8290,12 @@
       <c r="M58" s="21"/>
       <c r="N58" s="153"/>
       <c r="Q58" s="3" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
       <c r="A59" s="448" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B59" s="449"/>
       <c r="C59" s="449"/>
@@ -8071,12 +8311,12 @@
       <c r="M59" s="449"/>
       <c r="N59" s="450"/>
       <c r="Q59" s="3" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
       <c r="A60" s="445" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B60" s="446"/>
       <c r="C60" s="447"/>
@@ -8087,19 +8327,19 @@
       <c r="H60" s="455"/>
       <c r="I60" s="456"/>
       <c r="J60" s="457" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="K60" s="458"/>
       <c r="L60" s="451"/>
       <c r="M60" s="452"/>
       <c r="N60" s="453"/>
       <c r="Q60" s="3" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:19" customHeight="1" ht="12" s="143" customFormat="1">
       <c r="A61" s="442" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="B61" s="443"/>
       <c r="C61" s="443"/>
@@ -8115,7 +8355,7 @@
       <c r="M61" s="443"/>
       <c r="N61" s="444"/>
       <c r="Q61" s="233" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14.25">
@@ -8134,7 +8374,7 @@
       <c r="M62" s="108"/>
       <c r="N62" s="108"/>
       <c r="Q62" s="3" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:19" customHeight="1" ht="14.25">
@@ -8153,7 +8393,7 @@
       <c r="M63" s="108"/>
       <c r="N63" s="108"/>
       <c r="Q63" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:19" customHeight="1" ht="28.5">
@@ -8172,7 +8412,7 @@
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
       <c r="Q64" s="3" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:19" customHeight="1" ht="14.25">
@@ -8191,7 +8431,7 @@
       <c r="M65" s="108"/>
       <c r="N65" s="108"/>
       <c r="Q65" s="3" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:19" customHeight="1" ht="14.25">
@@ -8210,7 +8450,7 @@
       <c r="M66" s="108"/>
       <c r="N66" s="108"/>
       <c r="Q66" s="3" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:19" customHeight="1" ht="14.25">
@@ -8229,7 +8469,7 @@
       <c r="M67" s="108"/>
       <c r="N67" s="108"/>
       <c r="Q67" s="3" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:19" customHeight="1" ht="14.25">
@@ -8248,7 +8488,7 @@
       <c r="M68" s="108"/>
       <c r="N68" s="108"/>
       <c r="Q68" s="3" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:19" customHeight="1" ht="28.5">
@@ -8267,7 +8507,7 @@
       <c r="M69" s="108"/>
       <c r="N69" s="108"/>
       <c r="Q69" s="3" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="14.25">
@@ -8286,7 +8526,7 @@
       <c r="M70" s="108"/>
       <c r="N70" s="108"/>
       <c r="Q70" s="3" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="14.25">
@@ -8305,7 +8545,7 @@
       <c r="M71" s="108"/>
       <c r="N71" s="108"/>
       <c r="Q71" s="3" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="14.25">
@@ -8324,7 +8564,7 @@
       <c r="M72" s="108"/>
       <c r="N72" s="108"/>
       <c r="Q72" s="3" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="14.25">
@@ -8343,7 +8583,7 @@
       <c r="M73" s="108"/>
       <c r="N73" s="108"/>
       <c r="Q73" s="3" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="14.25">
@@ -8362,7 +8602,7 @@
       <c r="M74" s="108"/>
       <c r="N74" s="108"/>
       <c r="Q74" s="3" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="14.25">
@@ -8381,7 +8621,7 @@
       <c r="M75" s="108"/>
       <c r="N75" s="108"/>
       <c r="Q75" s="3" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="14.25">
@@ -8400,7 +8640,7 @@
       <c r="M76" s="108"/>
       <c r="N76" s="108"/>
       <c r="Q76" s="3" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="14.25">
@@ -8419,7 +8659,7 @@
       <c r="M77" s="108"/>
       <c r="N77" s="108"/>
       <c r="Q77" s="3" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:19" customHeight="1" ht="14.25">
@@ -8438,7 +8678,7 @@
       <c r="M78" s="108"/>
       <c r="N78" s="108"/>
       <c r="Q78" s="3" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:19" customHeight="1" ht="14.25">
@@ -8457,7 +8697,7 @@
       <c r="M79" s="108"/>
       <c r="N79" s="108"/>
       <c r="Q79" s="3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:19" customHeight="1" ht="14.25">
@@ -8476,7 +8716,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
       <c r="Q80" s="3" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:19" customHeight="1" ht="14.25">
@@ -8495,7 +8735,7 @@
       <c r="M81" s="108"/>
       <c r="N81" s="108"/>
       <c r="Q81" s="3" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:19" customHeight="1" ht="14.25">
@@ -8514,7 +8754,7 @@
       <c r="M82" s="108"/>
       <c r="N82" s="108"/>
       <c r="Q82" s="3" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:19" customHeight="1" ht="14.25">
@@ -8533,7 +8773,7 @@
       <c r="M83" s="108"/>
       <c r="N83" s="108"/>
       <c r="Q83" s="3" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:19" customHeight="1" ht="14.25">
@@ -8552,7 +8792,7 @@
       <c r="M84" s="108"/>
       <c r="N84" s="108"/>
       <c r="Q84" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:19" customHeight="1" ht="28.5">
@@ -8571,7 +8811,7 @@
       <c r="M85" s="108"/>
       <c r="N85" s="108"/>
       <c r="Q85" s="3" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:19" customHeight="1" ht="14.25">
@@ -8590,7 +8830,7 @@
       <c r="M86" s="108"/>
       <c r="N86" s="108"/>
       <c r="Q86" s="3" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:19" customHeight="1" ht="14.25">
@@ -8609,7 +8849,7 @@
       <c r="M87" s="108"/>
       <c r="N87" s="108"/>
       <c r="Q87" s="3" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:19" customHeight="1" ht="14.25">
@@ -8628,7 +8868,7 @@
       <c r="M88" s="108"/>
       <c r="N88" s="108"/>
       <c r="Q88" s="3" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:19" customHeight="1" ht="14.25">
@@ -8647,7 +8887,7 @@
       <c r="M89" s="108"/>
       <c r="N89" s="108"/>
       <c r="Q89" s="3" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:19" customHeight="1" ht="14.25">
@@ -8666,7 +8906,7 @@
       <c r="M90" s="108"/>
       <c r="N90" s="108"/>
       <c r="Q90" s="3" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:19" customHeight="1" ht="14.25">
@@ -8685,7 +8925,7 @@
       <c r="M91" s="108"/>
       <c r="N91" s="108"/>
       <c r="Q91" s="3" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:19" customHeight="1" ht="14.25">
@@ -8704,7 +8944,7 @@
       <c r="M92" s="108"/>
       <c r="N92" s="108"/>
       <c r="Q92" s="3" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:19" customHeight="1" ht="14.25">
@@ -8723,7 +8963,7 @@
       <c r="M93" s="108"/>
       <c r="N93" s="108"/>
       <c r="Q93" s="3" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:19" customHeight="1" ht="14.25">
@@ -8742,7 +8982,7 @@
       <c r="M94" s="108"/>
       <c r="N94" s="108"/>
       <c r="Q94" s="3" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:19" customHeight="1" ht="14.25">
@@ -8761,7 +9001,7 @@
       <c r="M95" s="108"/>
       <c r="N95" s="108"/>
       <c r="Q95" s="3" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:19" customHeight="1" ht="14.25">
@@ -8780,7 +9020,7 @@
       <c r="M96" s="108"/>
       <c r="N96" s="108"/>
       <c r="Q96" s="3" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:19" customHeight="1" ht="14.25">
@@ -8799,7 +9039,7 @@
       <c r="M97" s="108"/>
       <c r="N97" s="108"/>
       <c r="Q97" s="3" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:19" customHeight="1" ht="14.25">
@@ -8818,7 +9058,7 @@
       <c r="M98" s="108"/>
       <c r="N98" s="108"/>
       <c r="Q98" s="3" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:19" customHeight="1" ht="14.25">
@@ -8837,7 +9077,7 @@
       <c r="M99" s="108"/>
       <c r="N99" s="108"/>
       <c r="Q99" s="3" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:19" customHeight="1" ht="14.25">
@@ -8856,7 +9096,7 @@
       <c r="M100" s="108"/>
       <c r="N100" s="108"/>
       <c r="Q100" s="3" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:19" customHeight="1" ht="14.25">
@@ -8875,7 +9115,7 @@
       <c r="M101" s="108"/>
       <c r="N101" s="108"/>
       <c r="Q101" s="3" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:19" customHeight="1" ht="14.25">
@@ -8894,7 +9134,7 @@
       <c r="M102" s="108"/>
       <c r="N102" s="108"/>
       <c r="Q102" s="3" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:19" customHeight="1" ht="14.25">
@@ -8913,7 +9153,7 @@
       <c r="M103" s="108"/>
       <c r="N103" s="108"/>
       <c r="Q103" s="3" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:19" customHeight="1" ht="14.25">
@@ -8932,7 +9172,7 @@
       <c r="M104" s="108"/>
       <c r="N104" s="108"/>
       <c r="Q104" s="3" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:19" customHeight="1" ht="14.25">
@@ -8951,7 +9191,7 @@
       <c r="M105" s="108"/>
       <c r="N105" s="108"/>
       <c r="Q105" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:19" customHeight="1" ht="14.25">
@@ -8970,7 +9210,7 @@
       <c r="M106" s="108"/>
       <c r="N106" s="108"/>
       <c r="Q106" s="3" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:19" customHeight="1" ht="14.25">
@@ -8989,7 +9229,7 @@
       <c r="M107" s="108"/>
       <c r="N107" s="108"/>
       <c r="Q107" s="3" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:19" customHeight="1" ht="14.25">
@@ -9008,7 +9248,7 @@
       <c r="M108" s="108"/>
       <c r="N108" s="108"/>
       <c r="Q108" s="3" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:19" customHeight="1" ht="14.25">
@@ -9027,7 +9267,7 @@
       <c r="M109" s="108"/>
       <c r="N109" s="108"/>
       <c r="Q109" s="3" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:19" customHeight="1" ht="14.25">
@@ -9046,7 +9286,7 @@
       <c r="M110" s="108"/>
       <c r="N110" s="108"/>
       <c r="Q110" s="3" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:19" customHeight="1" ht="14.25">
@@ -9065,7 +9305,7 @@
       <c r="M111" s="108"/>
       <c r="N111" s="108"/>
       <c r="Q111" s="3" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:19" customHeight="1" ht="14.25">
@@ -9084,7 +9324,7 @@
       <c r="M112" s="108"/>
       <c r="N112" s="108"/>
       <c r="Q112" s="3" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:19" customHeight="1" ht="14.25">
@@ -9103,7 +9343,7 @@
       <c r="M113" s="108"/>
       <c r="N113" s="108"/>
       <c r="Q113" s="3" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:19" customHeight="1" ht="14.25">
@@ -9122,7 +9362,7 @@
       <c r="M114" s="108"/>
       <c r="N114" s="108"/>
       <c r="Q114" s="3" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:19" customHeight="1" ht="14.25">
@@ -9141,7 +9381,7 @@
       <c r="M115" s="108"/>
       <c r="N115" s="108"/>
       <c r="Q115" s="3" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:19" customHeight="1" ht="14.25">
@@ -9160,7 +9400,7 @@
       <c r="M116" s="108"/>
       <c r="N116" s="108"/>
       <c r="Q116" s="3" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:19" customHeight="1" ht="14.25">
@@ -9179,7 +9419,7 @@
       <c r="M117" s="108"/>
       <c r="N117" s="108"/>
       <c r="Q117" s="3" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:19" customHeight="1" ht="14.25">
@@ -9198,7 +9438,7 @@
       <c r="M118" s="108"/>
       <c r="N118" s="108"/>
       <c r="Q118" s="3" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:19" customHeight="1" ht="14.25">
@@ -9217,7 +9457,7 @@
       <c r="M119" s="108"/>
       <c r="N119" s="108"/>
       <c r="Q119" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:19" customHeight="1" ht="14.25">
@@ -9236,7 +9476,7 @@
       <c r="M120" s="108"/>
       <c r="N120" s="108"/>
       <c r="Q120" s="3" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:19" customHeight="1" ht="14.25">
@@ -9255,7 +9495,7 @@
       <c r="M121" s="108"/>
       <c r="N121" s="108"/>
       <c r="Q121" s="3" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:19" customHeight="1" ht="14.25">
@@ -9274,7 +9514,7 @@
       <c r="M122" s="108"/>
       <c r="N122" s="108"/>
       <c r="Q122" s="3" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:19" customHeight="1" ht="14.25">
@@ -9293,7 +9533,7 @@
       <c r="M123" s="108"/>
       <c r="N123" s="108"/>
       <c r="Q123" s="3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:19" customHeight="1" ht="14.25">
@@ -9312,7 +9552,7 @@
       <c r="M124" s="108"/>
       <c r="N124" s="108"/>
       <c r="Q124" s="3" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:19" customHeight="1" ht="14.25">
@@ -9331,7 +9571,7 @@
       <c r="M125" s="108"/>
       <c r="N125" s="108"/>
       <c r="Q125" s="3" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:19" customHeight="1" ht="14.25">
@@ -9350,7 +9590,7 @@
       <c r="M126" s="108"/>
       <c r="N126" s="108"/>
       <c r="Q126" s="3" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:19" customHeight="1" ht="14.25">
@@ -9369,7 +9609,7 @@
       <c r="M127" s="108"/>
       <c r="N127" s="108"/>
       <c r="Q127" s="3" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:19" customHeight="1" ht="28.5">
@@ -9388,7 +9628,7 @@
       <c r="M128" s="108"/>
       <c r="N128" s="108"/>
       <c r="Q128" s="3" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:19" customHeight="1" ht="14.25">
@@ -9407,7 +9647,7 @@
       <c r="M129" s="108"/>
       <c r="N129" s="108"/>
       <c r="Q129" s="3" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:19" customHeight="1" ht="14.25">
@@ -9426,7 +9666,7 @@
       <c r="M130" s="108"/>
       <c r="N130" s="108"/>
       <c r="Q130" s="3" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:19" customHeight="1" ht="14.25">
@@ -9445,7 +9685,7 @@
       <c r="M131" s="108"/>
       <c r="N131" s="108"/>
       <c r="Q131" s="3" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:19" customHeight="1" ht="14.25">
@@ -9464,7 +9704,7 @@
       <c r="M132" s="108"/>
       <c r="N132" s="108"/>
       <c r="Q132" s="3" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:19" customHeight="1" ht="14.25">
@@ -9483,7 +9723,7 @@
       <c r="M133" s="108"/>
       <c r="N133" s="108"/>
       <c r="Q133" s="3" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:19" customHeight="1" ht="14.25">
@@ -9502,7 +9742,7 @@
       <c r="M134" s="108"/>
       <c r="N134" s="108"/>
       <c r="Q134" s="3" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:19" customHeight="1" ht="14.25">
@@ -9521,7 +9761,7 @@
       <c r="M135" s="108"/>
       <c r="N135" s="108"/>
       <c r="Q135" s="3" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:19" customHeight="1" ht="14.25">
@@ -9540,7 +9780,7 @@
       <c r="M136" s="108"/>
       <c r="N136" s="108"/>
       <c r="Q136" s="3" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:19" customHeight="1" ht="14.25">
@@ -9559,7 +9799,7 @@
       <c r="M137" s="108"/>
       <c r="N137" s="108"/>
       <c r="Q137" s="3" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:19" customHeight="1" ht="14.25">
@@ -9578,7 +9818,7 @@
       <c r="M138" s="108"/>
       <c r="N138" s="108"/>
       <c r="Q138" s="3" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:19" customHeight="1" ht="14.25">
@@ -9597,7 +9837,7 @@
       <c r="M139" s="108"/>
       <c r="N139" s="108"/>
       <c r="Q139" s="3" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:19" customHeight="1" ht="14.25">
@@ -9616,7 +9856,7 @@
       <c r="M140" s="108"/>
       <c r="N140" s="108"/>
       <c r="Q140" s="3" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:19" customHeight="1" ht="14.25">
@@ -9635,7 +9875,7 @@
       <c r="M141" s="108"/>
       <c r="N141" s="108"/>
       <c r="Q141" s="3" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:19" customHeight="1" ht="14.25">
@@ -9654,7 +9894,7 @@
       <c r="M142" s="108"/>
       <c r="N142" s="108"/>
       <c r="Q142" s="3" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:19" customHeight="1" ht="28.5">
@@ -9673,7 +9913,7 @@
       <c r="M143" s="108"/>
       <c r="N143" s="108"/>
       <c r="Q143" s="3" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:19" customHeight="1" ht="14.25">
@@ -9692,7 +9932,7 @@
       <c r="M144" s="108"/>
       <c r="N144" s="108"/>
       <c r="Q144" s="3" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:19" customHeight="1" ht="14.25">
@@ -9711,7 +9951,7 @@
       <c r="M145" s="108"/>
       <c r="N145" s="108"/>
       <c r="Q145" s="3" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:19" customHeight="1" ht="14.25">
@@ -9730,7 +9970,7 @@
       <c r="M146" s="108"/>
       <c r="N146" s="108"/>
       <c r="Q146" s="3" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:19" customHeight="1" ht="14.25">
@@ -9749,7 +9989,7 @@
       <c r="M147" s="108"/>
       <c r="N147" s="108"/>
       <c r="Q147" s="3" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:19" customHeight="1" ht="14.25">
@@ -9768,7 +10008,7 @@
       <c r="M148" s="108"/>
       <c r="N148" s="108"/>
       <c r="Q148" s="3" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:19" customHeight="1" ht="14.25">
@@ -9787,7 +10027,7 @@
       <c r="M149" s="108"/>
       <c r="N149" s="108"/>
       <c r="Q149" s="3" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:19" customHeight="1" ht="14.25">
@@ -9806,7 +10046,7 @@
       <c r="M150" s="108"/>
       <c r="N150" s="108"/>
       <c r="Q150" s="3" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:19" customHeight="1" ht="14.25">
@@ -9825,7 +10065,7 @@
       <c r="M151" s="108"/>
       <c r="N151" s="108"/>
       <c r="Q151" s="3" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:19" customHeight="1" ht="14.25">
@@ -9844,7 +10084,7 @@
       <c r="M152" s="108"/>
       <c r="N152" s="108"/>
       <c r="Q152" s="3" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:19" customHeight="1" ht="28.5">
@@ -9863,7 +10103,7 @@
       <c r="M153" s="108"/>
       <c r="N153" s="108"/>
       <c r="Q153" s="3" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:19" customHeight="1" ht="14.25">
@@ -9882,7 +10122,7 @@
       <c r="M154" s="108"/>
       <c r="N154" s="108"/>
       <c r="Q154" s="3" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:19" customHeight="1" ht="28.5">
@@ -9901,7 +10141,7 @@
       <c r="M155" s="108"/>
       <c r="N155" s="108"/>
       <c r="Q155" s="3" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:19" customHeight="1" ht="14.25">
@@ -9920,7 +10160,7 @@
       <c r="M156" s="108"/>
       <c r="N156" s="108"/>
       <c r="Q156" s="3" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:19" customHeight="1" ht="14.25">
@@ -9939,7 +10179,7 @@
       <c r="M157" s="108"/>
       <c r="N157" s="108"/>
       <c r="Q157" s="3" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:19" customHeight="1" ht="14.25">
@@ -9958,7 +10198,7 @@
       <c r="M158" s="108"/>
       <c r="N158" s="108"/>
       <c r="Q158" s="3" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:19" customHeight="1" ht="14.25">
@@ -9977,7 +10217,7 @@
       <c r="M159" s="108"/>
       <c r="N159" s="108"/>
       <c r="Q159" s="3" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:19" customHeight="1" ht="14.25">
@@ -9996,7 +10236,7 @@
       <c r="M160" s="108"/>
       <c r="N160" s="108"/>
       <c r="Q160" s="3" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:19" customHeight="1" ht="14.25">
@@ -10015,7 +10255,7 @@
       <c r="M161" s="108"/>
       <c r="N161" s="108"/>
       <c r="Q161" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:19" customHeight="1" ht="14.25">
@@ -10034,7 +10274,7 @@
       <c r="M162" s="108"/>
       <c r="N162" s="108"/>
       <c r="Q162" s="3" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:19" customHeight="1" ht="14.25">
@@ -10053,7 +10293,7 @@
       <c r="M163" s="108"/>
       <c r="N163" s="108"/>
       <c r="Q163" s="3" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:19" customHeight="1" ht="14.25">
@@ -10072,7 +10312,7 @@
       <c r="M164" s="108"/>
       <c r="N164" s="108"/>
       <c r="Q164" s="3" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:19" customHeight="1" ht="28.5">
@@ -10091,7 +10331,7 @@
       <c r="M165" s="108"/>
       <c r="N165" s="108"/>
       <c r="Q165" s="3" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:19" customHeight="1" ht="14.25">
@@ -10110,7 +10350,7 @@
       <c r="M166" s="108"/>
       <c r="N166" s="108"/>
       <c r="Q166" s="3" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:19" customHeight="1" ht="42.75">
@@ -10129,7 +10369,7 @@
       <c r="M167" s="108"/>
       <c r="N167" s="108"/>
       <c r="Q167" s="3" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:19" customHeight="1" ht="14.25">
@@ -10148,7 +10388,7 @@
       <c r="M168" s="108"/>
       <c r="N168" s="108"/>
       <c r="Q168" s="3" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:19" customHeight="1" ht="14.25">
@@ -10167,7 +10407,7 @@
       <c r="M169" s="108"/>
       <c r="N169" s="108"/>
       <c r="Q169" s="3" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:19" customHeight="1" ht="28.5">
@@ -10186,7 +10426,7 @@
       <c r="M170" s="108"/>
       <c r="N170" s="108"/>
       <c r="Q170" s="3" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:19" customHeight="1" ht="14.25">
@@ -10205,7 +10445,7 @@
       <c r="M171" s="108"/>
       <c r="N171" s="108"/>
       <c r="Q171" s="3" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:19" customHeight="1" ht="14.25">
@@ -10224,7 +10464,7 @@
       <c r="M172" s="108"/>
       <c r="N172" s="108"/>
       <c r="Q172" s="3" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:19" customHeight="1" ht="14.25">
@@ -10243,7 +10483,7 @@
       <c r="M173" s="108"/>
       <c r="N173" s="108"/>
       <c r="Q173" s="3" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:19" customHeight="1" ht="14.25">
@@ -10262,7 +10502,7 @@
       <c r="M174" s="108"/>
       <c r="N174" s="108"/>
       <c r="Q174" s="3" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:19" customHeight="1" ht="14.25">
@@ -10281,7 +10521,7 @@
       <c r="M175" s="108"/>
       <c r="N175" s="108"/>
       <c r="Q175" s="3" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:19" customHeight="1" ht="14.25">
@@ -10300,7 +10540,7 @@
       <c r="M176" s="108"/>
       <c r="N176" s="108"/>
       <c r="Q176" s="3" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:19" customHeight="1" ht="14.25">
@@ -10319,7 +10559,7 @@
       <c r="M177" s="108"/>
       <c r="N177" s="108"/>
       <c r="Q177" s="3" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:19" customHeight="1" ht="14.25">
@@ -10338,7 +10578,7 @@
       <c r="M178" s="108"/>
       <c r="N178" s="108"/>
       <c r="Q178" s="3" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:19" customHeight="1" ht="14.25">
@@ -10357,7 +10597,7 @@
       <c r="M179" s="108"/>
       <c r="N179" s="108"/>
       <c r="Q179" s="3" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:19" customHeight="1" ht="28.5">
@@ -10376,7 +10616,7 @@
       <c r="M180" s="108"/>
       <c r="N180" s="108"/>
       <c r="Q180" s="3" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:19" customHeight="1" ht="14.25">
@@ -10395,7 +10635,7 @@
       <c r="M181" s="108"/>
       <c r="N181" s="108"/>
       <c r="Q181" s="3" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:19" customHeight="1" ht="14.25">
@@ -10414,7 +10654,7 @@
       <c r="M182" s="108"/>
       <c r="N182" s="108"/>
       <c r="Q182" s="3" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:19" customHeight="1" ht="14.25">
@@ -10433,7 +10673,7 @@
       <c r="M183" s="108"/>
       <c r="N183" s="108"/>
       <c r="Q183" s="3" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:19" customHeight="1" ht="14.25">
@@ -10452,7 +10692,7 @@
       <c r="M184" s="108"/>
       <c r="N184" s="108"/>
       <c r="Q184" s="3" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="1:19" customHeight="1" ht="14.25">
@@ -10471,7 +10711,7 @@
       <c r="M185" s="108"/>
       <c r="N185" s="108"/>
       <c r="Q185" s="3" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:19" customHeight="1" ht="14.25">
@@ -10490,7 +10730,7 @@
       <c r="M186" s="108"/>
       <c r="N186" s="108"/>
       <c r="Q186" s="3" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:19" customHeight="1" ht="14.25">
@@ -10509,7 +10749,7 @@
       <c r="M187" s="108"/>
       <c r="N187" s="108"/>
       <c r="Q187" s="3" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:19" customHeight="1" ht="14.25">
@@ -10528,7 +10768,7 @@
       <c r="M188" s="108"/>
       <c r="N188" s="108"/>
       <c r="Q188" s="3" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:19" customHeight="1" ht="14.25">
@@ -10547,7 +10787,7 @@
       <c r="M189" s="108"/>
       <c r="N189" s="108"/>
       <c r="Q189" s="3" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:19" customHeight="1" ht="14.25">
@@ -10566,7 +10806,7 @@
       <c r="M190" s="108"/>
       <c r="N190" s="108"/>
       <c r="Q190" s="3" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:19" customHeight="1" ht="14.25">
@@ -10585,7 +10825,7 @@
       <c r="M191" s="108"/>
       <c r="N191" s="108"/>
       <c r="Q191" s="3" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
     </row>
     <row r="192" spans="1:19" customHeight="1" ht="14.25">
@@ -10604,7 +10844,7 @@
       <c r="M192" s="108"/>
       <c r="N192" s="108"/>
       <c r="Q192" s="3" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:19" customHeight="1" ht="14.25">
@@ -10623,7 +10863,7 @@
       <c r="M193" s="108"/>
       <c r="N193" s="108"/>
       <c r="Q193" s="3" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
     </row>
     <row r="194" spans="1:19" customHeight="1" ht="14.25">
@@ -10642,7 +10882,7 @@
       <c r="M194" s="108"/>
       <c r="N194" s="108"/>
       <c r="Q194" s="3" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:19" customHeight="1" ht="14.25">
@@ -10661,7 +10901,7 @@
       <c r="M195" s="108"/>
       <c r="N195" s="108"/>
       <c r="Q195" s="3" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:19" customHeight="1" ht="14.25">
@@ -10680,7 +10920,7 @@
       <c r="M196" s="108"/>
       <c r="N196" s="108"/>
       <c r="Q196" s="3" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:19" customHeight="1" ht="14.25">
@@ -10699,7 +10939,7 @@
       <c r="M197" s="108"/>
       <c r="N197" s="108"/>
       <c r="Q197" s="3" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:19" customHeight="1" ht="14.25">
@@ -10718,7 +10958,7 @@
       <c r="M198" s="108"/>
       <c r="N198" s="108"/>
       <c r="Q198" s="3" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:19" customHeight="1" ht="14.25">
@@ -10737,7 +10977,7 @@
       <c r="M199" s="108"/>
       <c r="N199" s="108"/>
       <c r="Q199" s="3" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:19" customHeight="1" ht="28.5">
@@ -10756,7 +10996,7 @@
       <c r="M200" s="108"/>
       <c r="N200" s="108"/>
       <c r="Q200" s="3" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
     </row>
     <row r="201" spans="1:19" customHeight="1" ht="14.25">
@@ -10775,7 +11015,7 @@
       <c r="M201" s="108"/>
       <c r="N201" s="108"/>
       <c r="Q201" s="3" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="202" spans="1:19" customHeight="1" ht="14.25">
@@ -10794,7 +11034,7 @@
       <c r="M202" s="108"/>
       <c r="N202" s="108"/>
       <c r="Q202" s="3" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:19" customHeight="1" ht="14.25">
@@ -10813,7 +11053,7 @@
       <c r="M203" s="108"/>
       <c r="N203" s="108"/>
       <c r="Q203" s="3" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:19" customHeight="1" ht="14.25">
@@ -10832,7 +11072,7 @@
       <c r="M204" s="108"/>
       <c r="N204" s="108"/>
       <c r="Q204" s="3" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="205" spans="1:19" customHeight="1" ht="14.25">
@@ -10851,7 +11091,7 @@
       <c r="M205" s="108"/>
       <c r="N205" s="108"/>
       <c r="Q205" s="3" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:19" customHeight="1" ht="14.25">
@@ -10870,7 +11110,7 @@
       <c r="M206" s="108"/>
       <c r="N206" s="108"/>
       <c r="Q206" s="3" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="1:19" customHeight="1" ht="28.5">
@@ -10889,7 +11129,7 @@
       <c r="M207" s="108"/>
       <c r="N207" s="108"/>
       <c r="Q207" s="3" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
     </row>
     <row r="208" spans="1:19" customHeight="1" ht="28.5">
@@ -10908,7 +11148,7 @@
       <c r="M208" s="108"/>
       <c r="N208" s="108"/>
       <c r="Q208" s="3" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:19" customHeight="1" ht="14.25">
@@ -10927,7 +11167,7 @@
       <c r="M209" s="108"/>
       <c r="N209" s="108"/>
       <c r="Q209" s="3" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:19" customHeight="1" ht="14.25">
@@ -10946,7 +11186,7 @@
       <c r="M210" s="108"/>
       <c r="N210" s="108"/>
       <c r="Q210" s="3" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:19" customHeight="1" ht="14.25">
@@ -10965,7 +11205,7 @@
       <c r="M211" s="108"/>
       <c r="N211" s="108"/>
       <c r="Q211" s="3" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
     </row>
     <row r="212" spans="1:19" customHeight="1" ht="14.25">
@@ -10984,7 +11224,7 @@
       <c r="M212" s="108"/>
       <c r="N212" s="108"/>
       <c r="Q212" s="3" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
     </row>
     <row r="213" spans="1:19" customHeight="1" ht="14.25">
@@ -11003,7 +11243,7 @@
       <c r="M213" s="108"/>
       <c r="N213" s="108"/>
       <c r="Q213" s="3" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:19" customHeight="1" ht="14.25">
@@ -11022,7 +11262,7 @@
       <c r="M214" s="108"/>
       <c r="N214" s="108"/>
       <c r="Q214" s="3" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="215" spans="1:19" customHeight="1" ht="14.25">
@@ -11041,7 +11281,7 @@
       <c r="M215" s="108"/>
       <c r="N215" s="108"/>
       <c r="Q215" s="3" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:19" customHeight="1" ht="14.25">
@@ -11060,7 +11300,7 @@
       <c r="M216" s="108"/>
       <c r="N216" s="108"/>
       <c r="Q216" s="3" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -12242,7 +12482,7 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
       <c r="A2" s="514" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="B2" s="515"/>
       <c r="C2" s="515"/>
@@ -12259,28 +12499,28 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
       <c r="A3" s="140" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="B3" s="507" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C3" s="507"/>
       <c r="D3" s="507"/>
       <c r="E3" s="508"/>
       <c r="F3" s="512" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="G3" s="509" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H3" s="508"/>
       <c r="I3" s="509" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="J3" s="507"/>
       <c r="K3" s="508"/>
       <c r="L3" s="510" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="M3" s="511"/>
     </row>
@@ -12297,10 +12537,10 @@
       <c r="J4" s="483"/>
       <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
@@ -12410,7 +12650,7 @@
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="12">
       <c r="A12" s="485" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B12" s="486"/>
       <c r="C12" s="486"/>
@@ -12427,7 +12667,7 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="488" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="B13" s="489"/>
       <c r="C13" s="489"/>
@@ -12444,7 +12684,7 @@
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="12">
       <c r="A14" s="202" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -12461,33 +12701,33 @@
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
       <c r="A15" s="4" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="C15" s="482"/>
       <c r="D15" s="494" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="E15" s="481"/>
       <c r="F15" s="482"/>
       <c r="G15" s="494" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="H15" s="481"/>
       <c r="I15" s="482"/>
       <c r="J15" s="498" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="K15" s="519" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="L15" s="473" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="M15" s="517" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15">
@@ -12507,11 +12747,11 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18.75">
       <c r="A17" s="521" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="B17" s="522"/>
       <c r="C17" s="8" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D17" s="495"/>
       <c r="E17" s="483"/>
@@ -12946,7 +13186,7 @@
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="9.75">
       <c r="A46" s="476" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B46" s="477"/>
       <c r="C46" s="477"/>
@@ -12963,7 +13203,7 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="27.75">
       <c r="A47" s="445" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B47" s="446"/>
       <c r="C47" s="447"/>
@@ -12973,7 +13213,7 @@
       <c r="G47" s="502"/>
       <c r="H47" s="503"/>
       <c r="I47" s="228" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="J47" s="229"/>
       <c r="K47" s="230"/>
@@ -12983,7 +13223,7 @@
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="9">
       <c r="A48" s="500" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="B48" s="500"/>
       <c r="C48" s="500"/>
@@ -13187,7 +13427,7 @@
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="22.5">
       <c r="A2" s="571" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="B2" s="572"/>
       <c r="C2" s="572"/>
@@ -13202,22 +13442,22 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="555" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="B3" s="556" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="C3" s="556"/>
       <c r="D3" s="557"/>
       <c r="E3" s="507" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="F3" s="508"/>
       <c r="G3" s="576" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="H3" s="509" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="I3" s="566"/>
       <c r="J3" s="566"/>
@@ -13242,10 +13482,10 @@
       <c r="C5" s="574"/>
       <c r="D5" s="575"/>
       <c r="E5" s="27" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G5" s="520"/>
       <c r="H5" s="570"/>
@@ -13346,7 +13586,7 @@
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="11.25">
       <c r="A13" s="485" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B13" s="486"/>
       <c r="C13" s="486"/>
@@ -13361,7 +13601,7 @@
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="18">
       <c r="A14" s="528" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="B14" s="529"/>
       <c r="C14" s="529"/>
@@ -13376,25 +13616,25 @@
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="18">
       <c r="A15" s="543" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C15" s="549"/>
       <c r="D15" s="550"/>
       <c r="E15" s="481" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="F15" s="482"/>
       <c r="G15" s="519" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="H15" s="498" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="I15" s="494" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J15" s="549"/>
       <c r="K15" s="569"/>
@@ -13418,10 +13658,10 @@
       <c r="C17" s="431"/>
       <c r="D17" s="551"/>
       <c r="E17" s="27" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G17" s="520"/>
       <c r="H17" s="499"/>
@@ -13704,7 +13944,7 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="13.5">
       <c r="A39" s="448" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B39" s="449"/>
       <c r="C39" s="449"/>
@@ -13719,7 +13959,7 @@
     </row>
     <row r="40" spans="1:13" customHeight="1" ht="22.5">
       <c r="A40" s="585" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="B40" s="586"/>
       <c r="C40" s="586"/>
@@ -13734,26 +13974,26 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="33.75">
       <c r="A41" s="141" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="B41" s="146" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="D41" s="577" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="E41" s="577"/>
       <c r="F41" s="577"/>
       <c r="G41" s="577"/>
       <c r="H41" s="578"/>
       <c r="I41" s="142" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="J41" s="577" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="K41" s="584"/>
     </row>
@@ -13850,7 +14090,7 @@
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="11.25">
       <c r="A49" s="448" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B49" s="449"/>
       <c r="C49" s="449"/>
@@ -13865,7 +14105,7 @@
     </row>
     <row r="50" spans="1:13" customHeight="1" ht="28.5">
       <c r="A50" s="445" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B50" s="447"/>
       <c r="C50" s="501"/>
@@ -13873,7 +14113,7 @@
       <c r="E50" s="502"/>
       <c r="F50" s="503"/>
       <c r="G50" s="588" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="H50" s="589"/>
       <c r="I50" s="501"/>
@@ -13884,7 +14124,7 @@
     </row>
     <row r="51" spans="1:13" customHeight="1" ht="9.75">
       <c r="K51" s="236" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:13" customHeight="1" ht="3"/>
@@ -14054,11 +14294,11 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
       <c r="A2" s="624" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="B2" s="625"/>
       <c r="C2" s="603" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="D2" s="603"/>
       <c r="E2" s="603"/>
@@ -14075,7 +14315,7 @@
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="607" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="D3" s="607"/>
       <c r="E3" s="607"/>
@@ -14092,7 +14332,7 @@
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="607" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="D4" s="607"/>
       <c r="E4" s="607"/>
@@ -14118,7 +14358,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="607" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="D6" s="607"/>
       <c r="E6" s="607"/>
@@ -14150,7 +14390,7 @@
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="607" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="D8" s="607"/>
       <c r="E8" s="607"/>
@@ -14180,7 +14420,7 @@
       <c r="E10" s="607"/>
       <c r="F10" s="608"/>
       <c r="G10" s="592" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H10" s="592"/>
       <c r="I10" s="592"/>
@@ -14221,11 +14461,11 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="622" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="B13" s="623"/>
       <c r="C13" s="590" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="D13" s="590"/>
       <c r="E13" s="549"/>
@@ -14246,7 +14486,7 @@
       <c r="E14" s="549"/>
       <c r="F14" s="550"/>
       <c r="G14" s="591" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H14" s="592"/>
       <c r="I14" s="592"/>
@@ -14304,7 +14544,7 @@
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="737" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="D18" s="737"/>
       <c r="E18" s="738"/>
@@ -14325,7 +14565,7 @@
       <c r="E19" s="738"/>
       <c r="F19" s="739"/>
       <c r="G19" s="591" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H19" s="592"/>
       <c r="I19" s="592"/>
@@ -14343,7 +14583,7 @@
       <c r="F20" s="739"/>
       <c r="G20" s="56"/>
       <c r="H20" s="733" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="I20" s="733"/>
       <c r="J20" s="246"/>
@@ -14359,7 +14599,7 @@
       <c r="E21" s="738"/>
       <c r="F21" s="739"/>
       <c r="G21" s="734" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="H21" s="735"/>
       <c r="I21" s="735"/>
@@ -14376,7 +14616,7 @@
       <c r="E22" s="740"/>
       <c r="F22" s="741"/>
       <c r="G22" s="125" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="H22" s="237"/>
       <c r="I22" s="685"/>
@@ -14387,11 +14627,11 @@
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
       <c r="A23" s="636" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="B23" s="637"/>
       <c r="C23" s="618" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="D23" s="618"/>
       <c r="E23" s="618"/>
@@ -14412,7 +14652,7 @@
       <c r="E24" s="610"/>
       <c r="F24" s="609"/>
       <c r="G24" s="591" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H24" s="592"/>
       <c r="I24" s="592"/>
@@ -14453,11 +14693,11 @@
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
       <c r="A27" s="636" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="B27" s="637"/>
       <c r="C27" s="618" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="D27" s="618"/>
       <c r="E27" s="618"/>
@@ -14478,7 +14718,7 @@
       <c r="E28" s="610"/>
       <c r="F28" s="609"/>
       <c r="G28" s="591" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="H28" s="592"/>
       <c r="I28" s="592"/>
@@ -14518,11 +14758,11 @@
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="18">
       <c r="A31" s="636" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="B31" s="637"/>
       <c r="C31" s="618" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="D31" s="618"/>
       <c r="E31" s="618"/>
@@ -14543,7 +14783,7 @@
       <c r="E32" s="610"/>
       <c r="F32" s="609"/>
       <c r="G32" s="672" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="H32" s="673"/>
       <c r="I32" s="673"/>
@@ -14571,7 +14811,7 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="610" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="D34" s="610"/>
       <c r="E34" s="610"/>
@@ -14592,7 +14832,7 @@
       <c r="E35" s="610"/>
       <c r="F35" s="609"/>
       <c r="G35" s="672" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="H35" s="673"/>
       <c r="I35" s="673"/>
@@ -14617,11 +14857,11 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
       <c r="A37" s="636" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="B37" s="637"/>
       <c r="C37" s="613" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="D37" s="613"/>
       <c r="E37" s="613"/>
@@ -14642,7 +14882,7 @@
       <c r="E38" s="590"/>
       <c r="F38" s="615"/>
       <c r="G38" s="591" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="H38" s="592"/>
       <c r="I38" s="592"/>
@@ -14683,11 +14923,11 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
       <c r="A41" s="611" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="B41" s="612"/>
       <c r="C41" s="610" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="D41" s="610"/>
       <c r="E41" s="610"/>
@@ -14717,11 +14957,11 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="64" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="610" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="D43" s="610"/>
       <c r="E43" s="610"/>
@@ -14742,7 +14982,7 @@
       <c r="E44" s="610"/>
       <c r="F44" s="609"/>
       <c r="G44" s="187" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="H44" s="239"/>
       <c r="I44" s="118"/>
@@ -14753,11 +14993,11 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="64" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="B45" s="65"/>
       <c r="C45" s="609" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="D45" s="609"/>
       <c r="E45" s="609"/>
@@ -14778,7 +15018,7 @@
       <c r="E46" s="609"/>
       <c r="F46" s="609"/>
       <c r="G46" s="188" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="H46" s="240"/>
       <c r="I46" s="118"/>
@@ -14790,11 +15030,11 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="64" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="B47" s="65"/>
       <c r="C47" s="610" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="D47" s="610"/>
       <c r="E47" s="115"/>
@@ -14815,7 +15055,7 @@
       <c r="E48" s="652"/>
       <c r="F48" s="653"/>
       <c r="G48" s="189" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="H48" s="241"/>
       <c r="I48" s="120"/>
@@ -14843,11 +15083,11 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
       <c r="A50" s="725" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="B50" s="726"/>
       <c r="C50" s="185" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="D50" s="185"/>
       <c r="E50" s="185"/>
@@ -14862,17 +15102,17 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
       <c r="A51" s="648" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="B51" s="649"/>
       <c r="C51" s="649"/>
       <c r="D51" s="649"/>
       <c r="E51" s="650"/>
       <c r="F51" s="177" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="G51" s="657" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="H51" s="577"/>
       <c r="I51" s="584"/>
@@ -14928,11 +15168,11 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
       <c r="A55" s="624" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="B55" s="625"/>
       <c r="C55" s="670" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="D55" s="670"/>
       <c r="E55" s="670"/>
@@ -14957,7 +15197,7 @@
       <c r="I56" s="243"/>
       <c r="J56" s="192"/>
       <c r="K56" s="605" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L56" s="605"/>
       <c r="M56" s="176"/>
@@ -15007,7 +15247,7 @@
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="75"/>
       <c r="B60" s="677" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="C60" s="678"/>
       <c r="D60" s="679"/>
@@ -15022,7 +15262,7 @@
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="75"/>
       <c r="B61" s="712" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="C61" s="713"/>
       <c r="D61" s="131"/>
@@ -15037,7 +15277,7 @@
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="75"/>
       <c r="B62" s="701" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="C62" s="702"/>
       <c r="D62" s="680"/>
@@ -15055,7 +15295,7 @@
       <c r="C63" s="715"/>
       <c r="D63" s="681"/>
       <c r="F63" s="682" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="G63" s="683"/>
       <c r="H63" s="683"/>
@@ -15067,7 +15307,7 @@
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="75"/>
       <c r="B64" s="701" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="C64" s="702"/>
       <c r="D64" s="680"/>
@@ -15086,14 +15326,14 @@
       <c r="C65" s="704"/>
       <c r="D65" s="705"/>
       <c r="F65" s="698" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="G65" s="699"/>
       <c r="H65" s="699"/>
       <c r="I65" s="700"/>
       <c r="J65" s="78"/>
       <c r="K65" s="696" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="L65" s="697"/>
       <c r="M65" s="76"/>
@@ -15115,7 +15355,7 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
       <c r="A67" s="693" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="B67" s="694"/>
       <c r="C67" s="694"/>
@@ -15150,7 +15390,7 @@
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
       <c r="E69" s="687" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="F69" s="688"/>
       <c r="G69" s="688"/>
@@ -15178,7 +15418,7 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
       <c r="A71" s="686" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="B71" s="686"/>
       <c r="C71" s="686"/>
@@ -15357,45 +15597,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/storage/PDS.xlsx
+++ b/storage/PDS.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -102,21 +102,18 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>KIRK</t>
+    <t>JOHNS</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>WALTER</t>
+    <t>ELDORA</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                           </t>
   </si>
   <si>
-    <t>ALMA BEASLEY</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
@@ -126,7 +123,7 @@
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t>LOGAN YORK</t>
+    <t>CRONIN</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -142,12 +139,15 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>03-19-1977</t>
+    <t>02-02-2000</t>
   </si>
   <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
+    <t>Filipino</t>
+  </si>
+  <si>
     <t>Separated</t>
   </si>
   <si>
@@ -160,7 +160,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>INVENTORE AD IN QUID</t>
+    <t>TUGUEGARAO CITY</t>
   </si>
   <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
@@ -178,7 +178,7 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>FEMALE</t>
+    <t>MALE</t>
   </si>
   <si>
     <t>please indicate the details.</t>
@@ -199,10 +199,7 @@
     <t>17. RESIDENTIAL ADDRESS</t>
   </si>
   <si>
-    <t>AMET QUI QUI MOLLIT</t>
-  </si>
-  <si>
-    <t>AUT LABORUM POSSIMUS</t>
+    <t>ASDF</t>
   </si>
   <si>
     <t>Angola</t>
@@ -217,10 +214,10 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>OFFICIA REPELLENDUS</t>
-  </si>
-  <si>
-    <t>CONSECTETUR ET DELE</t>
+    <t>SUBDIVISION</t>
+  </si>
+  <si>
+    <t>ATULAYAN</t>
   </si>
   <si>
     <t>Argentina</t>
@@ -244,13 +241,10 @@
     <t>HEIGHT (m)</t>
   </si>
   <si>
-    <t>LIBERO QUI CUMQUE SA</t>
-  </si>
-  <si>
-    <t>NON EST VERO INCIDID</t>
-  </si>
-  <si>
-    <t>ASPERNATUR UT SIT C</t>
+    <t>TUGUEGARAO</t>
+  </si>
+  <si>
+    <t>CAGAYAN</t>
   </si>
   <si>
     <t>Australia</t>
@@ -271,15 +265,9 @@
     <t>WEIGHT (kg)</t>
   </si>
   <si>
-    <t>NESCIUNT EUM COMMOD</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZIP CODE    </t>
   </si>
   <si>
-    <t>TEMPORE AUT CUPIDIT</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -289,18 +277,12 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
-    <t>SAPIENTE ID IUSTO DE</t>
+    <t>O</t>
   </si>
   <si>
     <t>18. PERMANENT ADDRESS</t>
   </si>
   <si>
-    <t>AMET NECESSITATIBUS</t>
-  </si>
-  <si>
-    <t>DIGNISSIMOS QUIA COM</t>
-  </si>
-  <si>
     <t>Bahamas, The</t>
   </si>
   <si>
@@ -313,15 +295,6 @@
     <t>GSIS ID NO.</t>
   </si>
   <si>
-    <t>UNDE TEMPOR OCCAECAT</t>
-  </si>
-  <si>
-    <t>DUCIMUS LABORE APER</t>
-  </si>
-  <si>
-    <t>FACERE QUI CUMQUE IU</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -334,15 +307,6 @@
     <t>PAG-IBIG ID NO.</t>
   </si>
   <si>
-    <t>NULLA A ALIQUID OCCA</t>
-  </si>
-  <si>
-    <t>QUIS PARIATUR CONSE</t>
-  </si>
-  <si>
-    <t>EST IPSA DOLOR ASPE</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -355,9 +319,6 @@
     <t>PHILHEALTH NO.</t>
   </si>
   <si>
-    <t>AUT UT VOLUPTATE NOS</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -367,43 +328,28 @@
     <t>SSS NO.</t>
   </si>
   <si>
-    <t>MINIMA CONSECTETUR</t>
-  </si>
-  <si>
     <t>19. TELEPHONE NO.</t>
   </si>
   <si>
-    <t>MAIORES CUPIDATAT QU</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>14. TIN NO.</t>
   </si>
   <si>
-    <t>DOLOR IMPEDIT AUTE</t>
-  </si>
-  <si>
     <t>20. MOBILE NO.</t>
   </si>
   <si>
-    <t>FUGA VEL IPSAM QUIA</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
     <t>15. AGENCY EMPLOYEE NO.</t>
   </si>
   <si>
-    <t>VOLUPTAS ESSE QUIA S</t>
-  </si>
-  <si>
     <t>21. E-MAIL ADDRESS (if any)</t>
   </si>
   <si>
-    <t>KOTYTI@MAILINATOR.COM</t>
+    <t>JESTERADDURU@GMAIL.COM</t>
   </si>
   <si>
     <t>Bolivia</t>
@@ -421,7 +367,7 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t>LABORE VOLUPTATE CUP (deceased)</t>
+    <t>DUCIMUS FUGA POSSI</t>
   </si>
   <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
@@ -436,13 +382,13 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t>IPSA ODIO EX AUT EX</t>
+    <t>EXPEDITA REICIENDIS</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>NUMQUAM IN ILLUM ET</t>
+    <t>QUASI REICIENDIS SIM</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -451,7 +397,7 @@
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
-    <t>AUT DISTINCTIO ULLA</t>
+    <t>MOLESTIAE QUI QUI AU</t>
   </si>
   <si>
     <t>Brunei </t>
@@ -460,7 +406,7 @@
     <t>OCCUPATION</t>
   </si>
   <si>
-    <t>UT NON DEBITIS ISTE</t>
+    <t>DOLOR EXPEDITA ET FA</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -469,7 +415,7 @@
     <t>EMPLOYER/BUSINESS NAME</t>
   </si>
   <si>
-    <t>VOLUPTATEM DISTINCTI</t>
+    <t>SINT QUAE SUNT QUIS</t>
   </si>
   <si>
     <t>Burkina Faso</t>
@@ -478,7 +424,7 @@
     <t>BUSINESS ADDRESS</t>
   </si>
   <si>
-    <t>REM RERUM ULLAMCO AL</t>
+    <t>RATIONE HARUM SUNT</t>
   </si>
   <si>
     <t>Burma</t>
@@ -487,7 +433,7 @@
     <t>TELEPHONE NO.</t>
   </si>
   <si>
-    <t>REPREHENDERIT EXPEDI</t>
+    <t>MODI EIUS UT LABORIO</t>
   </si>
   <si>
     <t>Burundi</t>
@@ -499,25 +445,25 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
-    <t>SUSCIPIT CONSEQUATUR (deceased)</t>
+    <t>OFFICIA CORPORIS AUT</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>SED AMET UNDE DOLOR</t>
+    <t>ET ODIT CONSEQUUNTUR</t>
   </si>
   <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
-    <t>SED DOLORE ADIPISICI</t>
+    <t>OFFICIA VENIAM ULLA</t>
   </si>
   <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>LABORIOSAM NIHIL FU</t>
+    <t>IURE PLACEAT LABORE</t>
   </si>
   <si>
     <t>Canada</t>
@@ -532,19 +478,19 @@
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>LOREM QUI SAPIENTE M</t>
+    <t>PROIDENT SIT EIUS N</t>
   </si>
   <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>VOLUPTAS COMMODO NON</t>
+    <t>EARUM ET CORPORIS EA</t>
   </si>
   <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>NOSTRUM OPTIO ID FA</t>
+    <t>CONSEQUUNTUR OFFICIA</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -605,16 +551,31 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
+    <t>TEST SCHOOL</t>
+  </si>
+  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
     <t>SECONDARY</t>
   </si>
   <si>
+    <t>TEST HIGH SCHOOL</t>
+  </si>
+  <si>
+    <t>HIGH SCHOOL</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
     <t>VOCATIONAL /                                                                                                                                                                                                        TRADE COURSE</t>
+  </si>
+  <si>
+    <t>TEST UNIVERSITY</t>
+  </si>
+  <si>
+    <t>BSIT</t>
   </si>
   <si>
     <t>Cote d'Ivoire</t>
@@ -1144,6 +1105,33 @@
 Validity</t>
   </si>
   <si>
+    <t>CS PROF</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>12/31/2024</t>
+  </si>
+  <si>
+    <t>03/01/2020</t>
+  </si>
+  <si>
+    <t>TO PRESENT</t>
+  </si>
+  <si>
+    <t>ECONOMIC DEVELOPMENT SPECIALIST I</t>
+  </si>
+  <si>
+    <t>NEDA</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1193,6 +1181,30 @@
   </si>
   <si>
     <t>POSITION / NATURE OF WORK</t>
+  </si>
+  <si>
+    <t>TEST ORG</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>TEST TRAINING</t>
+  </si>
+  <si>
+    <t>07/29/2024</t>
+  </si>
+  <si>
+    <t>TECHNICAL</t>
+  </si>
+  <si>
+    <t>DICT</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -1236,6 +1248,9 @@
     <t>MEMBERSHIP IN ASSOCIATION/ORGANIZATION                                                                                         (Write in full)</t>
   </si>
   <si>
+    <t>GAWAD NG DIREKTOR</t>
+  </si>
+  <si>
     <t xml:space="preserve"> CS FORM 212 (Revised 2017), Page 3 of 4</t>
   </si>
   <si>
@@ -1252,6 +1267,9 @@
   </si>
   <si>
     <t>a. within the third degree?</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>b. within the fourth degree (for Local Government Unit - Career Employees)?</t>
@@ -1386,6 +1404,33 @@
     <t>TEL. NO.</t>
   </si>
   <si>
+    <t>RIA COOK</t>
+  </si>
+  <si>
+    <t>CHESTER ADKINS</t>
+  </si>
+  <si>
+    <t>DEXTER POPE</t>
+  </si>
+  <si>
+    <t>WARREN SINGLETON</t>
+  </si>
+  <si>
+    <t>HEDWIG GENTRY</t>
+  </si>
+  <si>
+    <t>QUINTESSA HOWARD</t>
+  </si>
+  <si>
+    <t>RAYA GILMORE</t>
+  </si>
+  <si>
+    <t>CAILIN HARRIS</t>
+  </si>
+  <si>
+    <t>ECHO KIRKLAND</t>
+  </si>
+  <si>
     <t>42.</t>
   </si>
   <si>
@@ -1460,6 +1505,9 @@
     <t xml:space="preserve">Government Issued ID: </t>
   </si>
   <si>
+    <t>MATTHEW SHARPE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID/License/Passport No.: </t>
   </si>
   <si>
@@ -1467,6 +1515,9 @@
   </si>
   <si>
     <t>Date/Place of Issuance:</t>
+  </si>
+  <si>
+    <t>DECEMBER 25, 2023</t>
   </si>
   <si>
     <t>Date Accomplished</t>
@@ -7113,24 +7164,22 @@
         <v>16</v>
       </c>
       <c r="M11" s="366"/>
-      <c r="N11" s="252" t="s">
+      <c r="N11" s="252"/>
+      <c r="P11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="96" t="s">
+      <c r="Q11" s="143" t="s">
         <v>18</v>
-      </c>
-      <c r="Q11" s="143" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="21.75">
       <c r="A12" s="164"/>
       <c r="B12" s="398" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="399"/>
       <c r="D12" s="194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="195"/>
       <c r="F12" s="195"/>
@@ -7143,31 +7192,33 @@
       <c r="M12" s="199"/>
       <c r="N12" s="200"/>
       <c r="P12" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19" customHeight="1" ht="24">
       <c r="A13" s="226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="379" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="379" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="380"/>
       <c r="D13" s="268" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="268"/>
       <c r="F13" s="269"/>
       <c r="G13" s="102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="145"/>
       <c r="I13" s="145"/>
-      <c r="J13" s="359"/>
+      <c r="J13" s="359" t="s">
+        <v>27</v>
+      </c>
       <c r="K13" s="360"/>
       <c r="L13" s="360"/>
       <c r="M13" s="360"/>
@@ -7274,18 +7325,18 @@
         <v>44</v>
       </c>
       <c r="H17" s="104"/>
-      <c r="I17" s="354" t="s">
-        <v>45</v>
+      <c r="I17" s="354">
+        <v>321231</v>
       </c>
       <c r="J17" s="355"/>
       <c r="K17" s="355"/>
       <c r="L17" s="355" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" s="355"/>
       <c r="N17" s="362"/>
       <c r="Q17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="9">
@@ -7298,17 +7349,17 @@
       <c r="G18" s="151"/>
       <c r="H18" s="255"/>
       <c r="I18" s="363" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="364"/>
       <c r="K18" s="364"/>
       <c r="L18" s="364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="364"/>
       <c r="N18" s="367"/>
       <c r="Q18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:19" customHeight="1" ht="5.25">
@@ -7321,17 +7372,17 @@
       <c r="G19" s="151"/>
       <c r="H19" s="255"/>
       <c r="I19" s="377" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="312"/>
       <c r="K19" s="312"/>
       <c r="L19" s="311" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="312"/>
       <c r="N19" s="313"/>
       <c r="Q19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:19" customHeight="1" ht="9.75">
@@ -7350,7 +7401,7 @@
       <c r="M20" s="314"/>
       <c r="N20" s="315"/>
       <c r="Q20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:19" customHeight="1" ht="9">
@@ -7363,46 +7414,46 @@
       <c r="G21" s="149"/>
       <c r="H21" s="251"/>
       <c r="I21" s="316" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="317"/>
       <c r="K21" s="317"/>
       <c r="L21" s="430" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="431"/>
       <c r="N21" s="432"/>
       <c r="Q21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:19" customHeight="1" ht="15.75">
       <c r="A22" s="326" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="330" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="330" t="s">
-        <v>59</v>
-      </c>
       <c r="C22" s="331"/>
-      <c r="D22" s="320" t="s">
-        <v>60</v>
+      <c r="D22" s="320">
+        <v>100</v>
       </c>
       <c r="E22" s="277"/>
       <c r="F22" s="321"/>
       <c r="G22" s="149"/>
       <c r="H22" s="251"/>
       <c r="I22" s="354" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J22" s="355"/>
       <c r="K22" s="355"/>
       <c r="L22" s="355" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M22" s="355"/>
       <c r="N22" s="362"/>
       <c r="Q22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:19" customHeight="1" ht="8.25">
@@ -7415,38 +7466,38 @@
       <c r="G23" s="149"/>
       <c r="H23" s="251"/>
       <c r="I23" s="435" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J23" s="436"/>
       <c r="K23" s="436"/>
       <c r="L23" s="433" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M23" s="433"/>
       <c r="N23" s="434"/>
       <c r="Q23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:19" customHeight="1" ht="22.5">
       <c r="A24" s="163" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="334" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="335"/>
-      <c r="D24" s="351" t="s">
-        <v>69</v>
+      <c r="D24" s="351">
+        <v>100</v>
       </c>
       <c r="E24" s="352"/>
       <c r="F24" s="353"/>
       <c r="G24" s="400" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H24" s="401"/>
-      <c r="I24" s="368" t="s">
-        <v>71</v>
+      <c r="I24" s="368">
+        <v>3500</v>
       </c>
       <c r="J24" s="369"/>
       <c r="K24" s="369"/>
@@ -7454,38 +7505,34 @@
       <c r="M24" s="369"/>
       <c r="N24" s="370"/>
       <c r="Q24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:19" customHeight="1" ht="15.75">
       <c r="A25" s="318" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" s="330" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="331"/>
       <c r="D25" s="320" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="277"/>
       <c r="F25" s="321"/>
       <c r="G25" s="109" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H25" s="99"/>
-      <c r="I25" s="354" t="s">
-        <v>77</v>
-      </c>
+      <c r="I25" s="354"/>
       <c r="J25" s="355"/>
       <c r="K25" s="355"/>
-      <c r="L25" s="355" t="s">
-        <v>78</v>
-      </c>
+      <c r="L25" s="355"/>
       <c r="M25" s="355"/>
       <c r="N25" s="362"/>
       <c r="Q25" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:19" customHeight="1" ht="9">
@@ -7498,46 +7545,42 @@
       <c r="G26" s="149"/>
       <c r="H26" s="251"/>
       <c r="I26" s="363" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26" s="364"/>
       <c r="K26" s="364"/>
       <c r="L26" s="364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="364"/>
       <c r="N26" s="367"/>
       <c r="Q26" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:19" customHeight="1" ht="15.75">
       <c r="A27" s="318" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" s="330" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C27" s="331"/>
-      <c r="D27" s="320" t="s">
-        <v>83</v>
+      <c r="D27" s="320">
+        <v>1324</v>
       </c>
       <c r="E27" s="277"/>
       <c r="F27" s="321"/>
       <c r="G27" s="151"/>
       <c r="H27" s="255"/>
-      <c r="I27" s="354" t="s">
-        <v>84</v>
-      </c>
+      <c r="I27" s="354"/>
       <c r="J27" s="355"/>
       <c r="K27" s="355"/>
-      <c r="L27" s="355" t="s">
-        <v>85</v>
-      </c>
+      <c r="L27" s="355"/>
       <c r="M27" s="355"/>
       <c r="N27" s="362"/>
       <c r="Q27" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:19" customHeight="1" ht="9">
@@ -7550,46 +7593,42 @@
       <c r="G28" s="151"/>
       <c r="H28" s="255"/>
       <c r="I28" s="412" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" s="410"/>
       <c r="K28" s="410"/>
       <c r="L28" s="409" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M28" s="410"/>
       <c r="N28" s="411"/>
       <c r="Q28" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:19" customHeight="1" ht="15.75">
       <c r="A29" s="318" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B29" s="330" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C29" s="331"/>
-      <c r="D29" s="320" t="s">
-        <v>90</v>
+      <c r="D29" s="320">
+        <v>1234</v>
       </c>
       <c r="E29" s="277"/>
       <c r="F29" s="321"/>
       <c r="G29" s="151"/>
       <c r="H29" s="156"/>
-      <c r="I29" s="407" t="s">
-        <v>91</v>
-      </c>
+      <c r="I29" s="407"/>
       <c r="J29" s="408"/>
       <c r="K29" s="408"/>
-      <c r="L29" s="408" t="s">
-        <v>92</v>
-      </c>
+      <c r="L29" s="408"/>
       <c r="M29" s="408"/>
       <c r="N29" s="441"/>
       <c r="Q29" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:19" customHeight="1" ht="9.75">
@@ -7602,34 +7641,34 @@
       <c r="G30" s="151"/>
       <c r="H30" s="156"/>
       <c r="I30" s="437" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J30" s="437"/>
       <c r="K30" s="437"/>
       <c r="L30" s="437" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M30" s="437"/>
       <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:19" customHeight="1" ht="24.75">
       <c r="A31" s="165" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C31" s="98"/>
-      <c r="D31" s="351" t="s">
-        <v>97</v>
+      <c r="D31" s="351">
+        <v>12345313</v>
       </c>
       <c r="E31" s="352"/>
       <c r="F31" s="353"/>
       <c r="G31" s="439" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H31" s="440"/>
       <c r="I31" s="356"/>
@@ -7639,28 +7678,28 @@
       <c r="M31" s="357"/>
       <c r="N31" s="358"/>
       <c r="Q31" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:19" customHeight="1" ht="24.75">
       <c r="A32" s="163" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C32" s="98"/>
-      <c r="D32" s="351" t="s">
-        <v>101</v>
+      <c r="D32" s="351">
+        <v>131</v>
       </c>
       <c r="E32" s="352"/>
       <c r="F32" s="353"/>
       <c r="G32" s="373" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H32" s="335"/>
-      <c r="I32" s="356" t="s">
-        <v>103</v>
+      <c r="I32" s="356">
+        <v>99999999</v>
       </c>
       <c r="J32" s="357"/>
       <c r="K32" s="357"/>
@@ -7668,26 +7707,26 @@
       <c r="M32" s="357"/>
       <c r="N32" s="358"/>
       <c r="Q32" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:19" customHeight="1" ht="24.75">
       <c r="A33" s="402" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B33" s="335"/>
       <c r="C33" s="403"/>
-      <c r="D33" s="351" t="s">
-        <v>106</v>
+      <c r="D33" s="351">
+        <v>31331</v>
       </c>
       <c r="E33" s="352"/>
       <c r="F33" s="353"/>
       <c r="G33" s="196" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H33" s="150"/>
-      <c r="I33" s="356" t="s">
-        <v>108</v>
+      <c r="I33" s="356">
+        <v>9999999</v>
       </c>
       <c r="J33" s="357"/>
       <c r="K33" s="357"/>
@@ -7695,26 +7734,26 @@
       <c r="M33" s="357"/>
       <c r="N33" s="358"/>
       <c r="Q33" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:19" customHeight="1" ht="24.75">
       <c r="A34" s="168" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B34" s="254"/>
       <c r="C34" s="152"/>
-      <c r="D34" s="390" t="s">
-        <v>111</v>
+      <c r="D34" s="390">
+        <v>31232</v>
       </c>
       <c r="E34" s="391"/>
       <c r="F34" s="392"/>
       <c r="G34" s="109" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H34" s="99"/>
       <c r="I34" s="356" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J34" s="357"/>
       <c r="K34" s="357"/>
@@ -7722,12 +7761,12 @@
       <c r="M34" s="357"/>
       <c r="N34" s="358"/>
       <c r="Q34" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
       <c r="A35" s="205" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B35" s="206"/>
       <c r="C35" s="206"/>
@@ -7743,54 +7782,54 @@
       <c r="M35" s="206"/>
       <c r="N35" s="207"/>
       <c r="Q35" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="102" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B36" s="215" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C36" s="216"/>
       <c r="D36" s="309" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E36" s="309"/>
       <c r="F36" s="309"/>
       <c r="G36" s="309"/>
       <c r="H36" s="309"/>
       <c r="I36" s="291" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J36" s="291"/>
       <c r="K36" s="291"/>
       <c r="L36" s="292"/>
       <c r="M36" s="328" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="N36" s="329"/>
       <c r="Q36" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
       <c r="A37" s="149"/>
       <c r="B37" s="255" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C37" s="156"/>
       <c r="D37" s="404" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E37" s="405"/>
       <c r="F37" s="406"/>
       <c r="G37" s="247" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H37" s="248" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I37" s="293"/>
       <c r="J37" s="266"/>
@@ -7799,17 +7838,17 @@
       <c r="M37" s="289"/>
       <c r="N37" s="290"/>
       <c r="Q37" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
       <c r="A38" s="169"/>
       <c r="B38" s="210" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C38" s="209"/>
       <c r="D38" s="404" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E38" s="405"/>
       <c r="F38" s="405"/>
@@ -7822,17 +7861,17 @@
       <c r="M38" s="289"/>
       <c r="N38" s="290"/>
       <c r="Q38" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
       <c r="A39" s="170"/>
       <c r="B39" s="97" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C39" s="98"/>
       <c r="D39" s="310" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E39" s="310"/>
       <c r="F39" s="310"/>
@@ -7845,17 +7884,17 @@
       <c r="M39" s="289"/>
       <c r="N39" s="290"/>
       <c r="Q39" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:19" customHeight="1" ht="21">
       <c r="A40" s="170"/>
       <c r="B40" s="97" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C40" s="98"/>
       <c r="D40" s="310" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E40" s="310"/>
       <c r="F40" s="310"/>
@@ -7868,17 +7907,17 @@
       <c r="M40" s="289"/>
       <c r="N40" s="290"/>
       <c r="Q40" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:19" customHeight="1" ht="21">
       <c r="A41" s="170"/>
       <c r="B41" s="97" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C41" s="98"/>
       <c r="D41" s="310" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E41" s="310"/>
       <c r="F41" s="310"/>
@@ -7891,17 +7930,17 @@
       <c r="M41" s="289"/>
       <c r="N41" s="290"/>
       <c r="Q41" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="103"/>
       <c r="B42" s="104" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C42" s="137"/>
       <c r="D42" s="310" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E42" s="310"/>
       <c r="F42" s="310"/>
@@ -7914,19 +7953,19 @@
       <c r="M42" s="289"/>
       <c r="N42" s="290"/>
       <c r="Q42" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:19" customHeight="1" ht="21">
       <c r="A43" s="208" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C43" s="104"/>
       <c r="D43" s="310" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E43" s="310"/>
       <c r="F43" s="310"/>
@@ -7939,7 +7978,7 @@
       <c r="M43" s="289"/>
       <c r="N43" s="290"/>
       <c r="Q43" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:19" customHeight="1" ht="21">
@@ -7949,15 +7988,15 @@
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="404" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E44" s="405"/>
       <c r="F44" s="406"/>
       <c r="G44" s="247" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H44" s="248" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I44" s="266"/>
       <c r="J44" s="266"/>
@@ -7966,17 +8005,17 @@
       <c r="M44" s="289"/>
       <c r="N44" s="290"/>
       <c r="Q44" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:19" customHeight="1" ht="21">
       <c r="A45" s="169"/>
       <c r="B45" s="203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="203"/>
       <c r="D45" s="404" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E45" s="405"/>
       <c r="F45" s="405"/>
@@ -7989,15 +8028,15 @@
       <c r="M45" s="289"/>
       <c r="N45" s="290"/>
       <c r="Q45" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:19" customHeight="1" ht="21">
       <c r="A46" s="149" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C46" s="104"/>
       <c r="D46" s="308"/>
@@ -8012,7 +8051,7 @@
       <c r="M46" s="289"/>
       <c r="N46" s="290"/>
       <c r="Q46" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:19" customHeight="1" ht="21">
@@ -8022,7 +8061,7 @@
       </c>
       <c r="C47" s="251"/>
       <c r="D47" s="461" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E47" s="461"/>
       <c r="F47" s="461"/>
@@ -8035,7 +8074,7 @@
       <c r="M47" s="289"/>
       <c r="N47" s="290"/>
       <c r="Q47" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:19" customHeight="1" ht="21">
@@ -8045,7 +8084,7 @@
       </c>
       <c r="C48" s="251"/>
       <c r="D48" s="461" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E48" s="461"/>
       <c r="F48" s="461"/>
@@ -8058,24 +8097,24 @@
       <c r="M48" s="289"/>
       <c r="N48" s="290"/>
       <c r="Q48" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:19" customHeight="1" ht="21">
       <c r="A49" s="171"/>
       <c r="B49" s="204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="204"/>
       <c r="D49" s="301" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E49" s="301"/>
       <c r="F49" s="301"/>
       <c r="G49" s="301"/>
       <c r="H49" s="301"/>
       <c r="I49" s="299" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
@@ -8083,12 +8122,12 @@
       <c r="M49" s="299"/>
       <c r="N49" s="300"/>
       <c r="Q49" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:19" customHeight="1" ht="15.75">
       <c r="A50" s="172" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B50" s="172"/>
       <c r="C50" s="100"/>
@@ -8098,7 +8137,7 @@
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
       <c r="I50" s="388" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="J50" s="388"/>
       <c r="K50" s="388"/>
@@ -8106,42 +8145,42 @@
       <c r="M50" s="388"/>
       <c r="N50" s="389"/>
       <c r="Q50" s="3" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:19" customHeight="1" ht="14.25">
       <c r="A51" s="381" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B51" s="413" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C51" s="413"/>
       <c r="D51" s="416" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E51" s="417"/>
       <c r="F51" s="418"/>
       <c r="G51" s="416" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H51" s="417"/>
       <c r="I51" s="462"/>
       <c r="J51" s="302" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K51" s="303"/>
       <c r="L51" s="459" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M51" s="383" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="N51" s="306" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:19" customHeight="1" ht="19.5">
@@ -8160,7 +8199,7 @@
       <c r="M52" s="383"/>
       <c r="N52" s="306"/>
       <c r="Q52" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:19" customHeight="1" ht="14.25">
@@ -8174,10 +8213,10 @@
       <c r="H53" s="423"/>
       <c r="I53" s="464"/>
       <c r="J53" s="105" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K53" s="106" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L53" s="460"/>
       <c r="M53" s="384"/>
@@ -8185,76 +8224,106 @@
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:19" customHeight="1" ht="28.5">
       <c r="A54" s="217"/>
       <c r="B54" s="218" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C54" s="218"/>
-      <c r="D54" s="424"/>
+      <c r="D54" s="424" t="s">
+        <v>162</v>
+      </c>
       <c r="E54" s="425"/>
       <c r="F54" s="426"/>
-      <c r="G54" s="294"/>
+      <c r="G54" s="294" t="s">
+        <v>161</v>
+      </c>
       <c r="H54" s="295"/>
       <c r="I54" s="296"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="260"/>
+      <c r="J54" s="157">
+        <v>2000</v>
+      </c>
+      <c r="K54" s="260">
+        <v>2006</v>
+      </c>
       <c r="L54" s="157"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="18">
+        <v>2006</v>
+      </c>
       <c r="N54" s="153"/>
       <c r="Q54" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:19" customHeight="1" ht="28.5">
       <c r="A55" s="217"/>
       <c r="B55" s="218" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C55" s="218"/>
-      <c r="D55" s="424"/>
+      <c r="D55" s="424" t="s">
+        <v>165</v>
+      </c>
       <c r="E55" s="425"/>
       <c r="F55" s="426"/>
-      <c r="G55" s="294"/>
+      <c r="G55" s="294" t="s">
+        <v>166</v>
+      </c>
       <c r="H55" s="295"/>
       <c r="I55" s="296"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="260"/>
+      <c r="J55" s="157">
+        <v>2007</v>
+      </c>
+      <c r="K55" s="260">
+        <v>2011</v>
+      </c>
       <c r="L55" s="157"/>
-      <c r="M55" s="19"/>
+      <c r="M55" s="19">
+        <v>2011</v>
+      </c>
       <c r="N55" s="153"/>
       <c r="Q55" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:19" customHeight="1" ht="28.5">
       <c r="A56" s="217"/>
       <c r="B56" s="218" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C56" s="218"/>
-      <c r="D56" s="424"/>
+      <c r="D56" s="424" t="s">
+        <v>169</v>
+      </c>
       <c r="E56" s="425"/>
       <c r="F56" s="426"/>
-      <c r="G56" s="294"/>
+      <c r="G56" s="294" t="s">
+        <v>170</v>
+      </c>
       <c r="H56" s="295"/>
       <c r="I56" s="296"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="260"/>
+      <c r="J56" s="157">
+        <v>2012</v>
+      </c>
+      <c r="K56" s="260">
+        <v>2016</v>
+      </c>
       <c r="L56" s="157"/>
-      <c r="M56" s="18"/>
+      <c r="M56" s="18">
+        <v>2016</v>
+      </c>
       <c r="N56" s="153"/>
       <c r="Q56" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:19" customHeight="1" ht="28.5">
       <c r="A57" s="217"/>
       <c r="B57" s="218" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C57" s="218"/>
       <c r="D57" s="424"/>
@@ -8269,13 +8338,13 @@
       <c r="M57" s="19"/>
       <c r="N57" s="153"/>
       <c r="Q57" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
       <c r="A58" s="219"/>
       <c r="B58" s="220" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C58" s="220"/>
       <c r="D58" s="427"/>
@@ -8290,12 +8359,12 @@
       <c r="M58" s="21"/>
       <c r="N58" s="153"/>
       <c r="Q58" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
       <c r="A59" s="448" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B59" s="449"/>
       <c r="C59" s="449"/>
@@ -8311,12 +8380,12 @@
       <c r="M59" s="449"/>
       <c r="N59" s="450"/>
       <c r="Q59" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
       <c r="A60" s="445" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B60" s="446"/>
       <c r="C60" s="447"/>
@@ -8327,19 +8396,19 @@
       <c r="H60" s="455"/>
       <c r="I60" s="456"/>
       <c r="J60" s="457" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K60" s="458"/>
       <c r="L60" s="451"/>
       <c r="M60" s="452"/>
       <c r="N60" s="453"/>
       <c r="Q60" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:19" customHeight="1" ht="12" s="143" customFormat="1">
       <c r="A61" s="442" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B61" s="443"/>
       <c r="C61" s="443"/>
@@ -8355,7 +8424,7 @@
       <c r="M61" s="443"/>
       <c r="N61" s="444"/>
       <c r="Q61" s="233" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14.25">
@@ -8374,7 +8443,7 @@
       <c r="M62" s="108"/>
       <c r="N62" s="108"/>
       <c r="Q62" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:19" customHeight="1" ht="14.25">
@@ -8393,7 +8462,7 @@
       <c r="M63" s="108"/>
       <c r="N63" s="108"/>
       <c r="Q63" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:19" customHeight="1" ht="28.5">
@@ -8412,7 +8481,7 @@
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
       <c r="Q64" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:19" customHeight="1" ht="14.25">
@@ -8431,7 +8500,7 @@
       <c r="M65" s="108"/>
       <c r="N65" s="108"/>
       <c r="Q65" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:19" customHeight="1" ht="14.25">
@@ -8450,7 +8519,7 @@
       <c r="M66" s="108"/>
       <c r="N66" s="108"/>
       <c r="Q66" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:19" customHeight="1" ht="14.25">
@@ -8469,7 +8538,7 @@
       <c r="M67" s="108"/>
       <c r="N67" s="108"/>
       <c r="Q67" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:19" customHeight="1" ht="14.25">
@@ -8488,7 +8557,7 @@
       <c r="M68" s="108"/>
       <c r="N68" s="108"/>
       <c r="Q68" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:19" customHeight="1" ht="28.5">
@@ -8507,7 +8576,7 @@
       <c r="M69" s="108"/>
       <c r="N69" s="108"/>
       <c r="Q69" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="14.25">
@@ -8526,7 +8595,7 @@
       <c r="M70" s="108"/>
       <c r="N70" s="108"/>
       <c r="Q70" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="14.25">
@@ -8545,7 +8614,7 @@
       <c r="M71" s="108"/>
       <c r="N71" s="108"/>
       <c r="Q71" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="14.25">
@@ -8564,7 +8633,7 @@
       <c r="M72" s="108"/>
       <c r="N72" s="108"/>
       <c r="Q72" s="3" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="14.25">
@@ -8583,7 +8652,7 @@
       <c r="M73" s="108"/>
       <c r="N73" s="108"/>
       <c r="Q73" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="14.25">
@@ -8602,7 +8671,7 @@
       <c r="M74" s="108"/>
       <c r="N74" s="108"/>
       <c r="Q74" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="14.25">
@@ -8621,7 +8690,7 @@
       <c r="M75" s="108"/>
       <c r="N75" s="108"/>
       <c r="Q75" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="14.25">
@@ -8640,7 +8709,7 @@
       <c r="M76" s="108"/>
       <c r="N76" s="108"/>
       <c r="Q76" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="14.25">
@@ -8659,7 +8728,7 @@
       <c r="M77" s="108"/>
       <c r="N77" s="108"/>
       <c r="Q77" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:19" customHeight="1" ht="14.25">
@@ -8678,7 +8747,7 @@
       <c r="M78" s="108"/>
       <c r="N78" s="108"/>
       <c r="Q78" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:19" customHeight="1" ht="14.25">
@@ -8697,7 +8766,7 @@
       <c r="M79" s="108"/>
       <c r="N79" s="108"/>
       <c r="Q79" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:19" customHeight="1" ht="14.25">
@@ -8716,7 +8785,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
       <c r="Q80" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:19" customHeight="1" ht="14.25">
@@ -8735,7 +8804,7 @@
       <c r="M81" s="108"/>
       <c r="N81" s="108"/>
       <c r="Q81" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:19" customHeight="1" ht="14.25">
@@ -8754,7 +8823,7 @@
       <c r="M82" s="108"/>
       <c r="N82" s="108"/>
       <c r="Q82" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:19" customHeight="1" ht="14.25">
@@ -8773,7 +8842,7 @@
       <c r="M83" s="108"/>
       <c r="N83" s="108"/>
       <c r="Q83" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:19" customHeight="1" ht="14.25">
@@ -8792,7 +8861,7 @@
       <c r="M84" s="108"/>
       <c r="N84" s="108"/>
       <c r="Q84" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:19" customHeight="1" ht="28.5">
@@ -8811,7 +8880,7 @@
       <c r="M85" s="108"/>
       <c r="N85" s="108"/>
       <c r="Q85" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:19" customHeight="1" ht="14.25">
@@ -8830,7 +8899,7 @@
       <c r="M86" s="108"/>
       <c r="N86" s="108"/>
       <c r="Q86" s="3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:19" customHeight="1" ht="14.25">
@@ -8849,7 +8918,7 @@
       <c r="M87" s="108"/>
       <c r="N87" s="108"/>
       <c r="Q87" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:19" customHeight="1" ht="14.25">
@@ -8868,7 +8937,7 @@
       <c r="M88" s="108"/>
       <c r="N88" s="108"/>
       <c r="Q88" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:19" customHeight="1" ht="14.25">
@@ -8887,7 +8956,7 @@
       <c r="M89" s="108"/>
       <c r="N89" s="108"/>
       <c r="Q89" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:19" customHeight="1" ht="14.25">
@@ -8906,7 +8975,7 @@
       <c r="M90" s="108"/>
       <c r="N90" s="108"/>
       <c r="Q90" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:19" customHeight="1" ht="14.25">
@@ -8925,7 +8994,7 @@
       <c r="M91" s="108"/>
       <c r="N91" s="108"/>
       <c r="Q91" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:19" customHeight="1" ht="14.25">
@@ -8944,7 +9013,7 @@
       <c r="M92" s="108"/>
       <c r="N92" s="108"/>
       <c r="Q92" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:19" customHeight="1" ht="14.25">
@@ -8963,7 +9032,7 @@
       <c r="M93" s="108"/>
       <c r="N93" s="108"/>
       <c r="Q93" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:19" customHeight="1" ht="14.25">
@@ -8982,7 +9051,7 @@
       <c r="M94" s="108"/>
       <c r="N94" s="108"/>
       <c r="Q94" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:19" customHeight="1" ht="14.25">
@@ -9001,7 +9070,7 @@
       <c r="M95" s="108"/>
       <c r="N95" s="108"/>
       <c r="Q95" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:19" customHeight="1" ht="14.25">
@@ -9020,7 +9089,7 @@
       <c r="M96" s="108"/>
       <c r="N96" s="108"/>
       <c r="Q96" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:19" customHeight="1" ht="14.25">
@@ -9039,7 +9108,7 @@
       <c r="M97" s="108"/>
       <c r="N97" s="108"/>
       <c r="Q97" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:19" customHeight="1" ht="14.25">
@@ -9058,7 +9127,7 @@
       <c r="M98" s="108"/>
       <c r="N98" s="108"/>
       <c r="Q98" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:19" customHeight="1" ht="14.25">
@@ -9077,7 +9146,7 @@
       <c r="M99" s="108"/>
       <c r="N99" s="108"/>
       <c r="Q99" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:19" customHeight="1" ht="14.25">
@@ -9096,7 +9165,7 @@
       <c r="M100" s="108"/>
       <c r="N100" s="108"/>
       <c r="Q100" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:19" customHeight="1" ht="14.25">
@@ -9115,7 +9184,7 @@
       <c r="M101" s="108"/>
       <c r="N101" s="108"/>
       <c r="Q101" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:19" customHeight="1" ht="14.25">
@@ -9134,7 +9203,7 @@
       <c r="M102" s="108"/>
       <c r="N102" s="108"/>
       <c r="Q102" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:19" customHeight="1" ht="14.25">
@@ -9153,7 +9222,7 @@
       <c r="M103" s="108"/>
       <c r="N103" s="108"/>
       <c r="Q103" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:19" customHeight="1" ht="14.25">
@@ -9172,7 +9241,7 @@
       <c r="M104" s="108"/>
       <c r="N104" s="108"/>
       <c r="Q104" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:19" customHeight="1" ht="14.25">
@@ -9191,7 +9260,7 @@
       <c r="M105" s="108"/>
       <c r="N105" s="108"/>
       <c r="Q105" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:19" customHeight="1" ht="14.25">
@@ -9210,7 +9279,7 @@
       <c r="M106" s="108"/>
       <c r="N106" s="108"/>
       <c r="Q106" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:19" customHeight="1" ht="14.25">
@@ -9229,7 +9298,7 @@
       <c r="M107" s="108"/>
       <c r="N107" s="108"/>
       <c r="Q107" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:19" customHeight="1" ht="14.25">
@@ -9248,7 +9317,7 @@
       <c r="M108" s="108"/>
       <c r="N108" s="108"/>
       <c r="Q108" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:19" customHeight="1" ht="14.25">
@@ -9267,7 +9336,7 @@
       <c r="M109" s="108"/>
       <c r="N109" s="108"/>
       <c r="Q109" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:19" customHeight="1" ht="14.25">
@@ -9286,7 +9355,7 @@
       <c r="M110" s="108"/>
       <c r="N110" s="108"/>
       <c r="Q110" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:19" customHeight="1" ht="14.25">
@@ -9305,7 +9374,7 @@
       <c r="M111" s="108"/>
       <c r="N111" s="108"/>
       <c r="Q111" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:19" customHeight="1" ht="14.25">
@@ -9324,7 +9393,7 @@
       <c r="M112" s="108"/>
       <c r="N112" s="108"/>
       <c r="Q112" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:19" customHeight="1" ht="14.25">
@@ -9343,7 +9412,7 @@
       <c r="M113" s="108"/>
       <c r="N113" s="108"/>
       <c r="Q113" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:19" customHeight="1" ht="14.25">
@@ -9362,7 +9431,7 @@
       <c r="M114" s="108"/>
       <c r="N114" s="108"/>
       <c r="Q114" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:19" customHeight="1" ht="14.25">
@@ -9381,7 +9450,7 @@
       <c r="M115" s="108"/>
       <c r="N115" s="108"/>
       <c r="Q115" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:19" customHeight="1" ht="14.25">
@@ -9400,7 +9469,7 @@
       <c r="M116" s="108"/>
       <c r="N116" s="108"/>
       <c r="Q116" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:19" customHeight="1" ht="14.25">
@@ -9419,7 +9488,7 @@
       <c r="M117" s="108"/>
       <c r="N117" s="108"/>
       <c r="Q117" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:19" customHeight="1" ht="14.25">
@@ -9438,7 +9507,7 @@
       <c r="M118" s="108"/>
       <c r="N118" s="108"/>
       <c r="Q118" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:19" customHeight="1" ht="14.25">
@@ -9457,7 +9526,7 @@
       <c r="M119" s="108"/>
       <c r="N119" s="108"/>
       <c r="Q119" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:19" customHeight="1" ht="14.25">
@@ -9476,7 +9545,7 @@
       <c r="M120" s="108"/>
       <c r="N120" s="108"/>
       <c r="Q120" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:19" customHeight="1" ht="14.25">
@@ -9495,7 +9564,7 @@
       <c r="M121" s="108"/>
       <c r="N121" s="108"/>
       <c r="Q121" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:19" customHeight="1" ht="14.25">
@@ -9514,7 +9583,7 @@
       <c r="M122" s="108"/>
       <c r="N122" s="108"/>
       <c r="Q122" s="3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:19" customHeight="1" ht="14.25">
@@ -9533,7 +9602,7 @@
       <c r="M123" s="108"/>
       <c r="N123" s="108"/>
       <c r="Q123" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:19" customHeight="1" ht="14.25">
@@ -9552,7 +9621,7 @@
       <c r="M124" s="108"/>
       <c r="N124" s="108"/>
       <c r="Q124" s="3" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:19" customHeight="1" ht="14.25">
@@ -9571,7 +9640,7 @@
       <c r="M125" s="108"/>
       <c r="N125" s="108"/>
       <c r="Q125" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:19" customHeight="1" ht="14.25">
@@ -9590,7 +9659,7 @@
       <c r="M126" s="108"/>
       <c r="N126" s="108"/>
       <c r="Q126" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:19" customHeight="1" ht="14.25">
@@ -9609,7 +9678,7 @@
       <c r="M127" s="108"/>
       <c r="N127" s="108"/>
       <c r="Q127" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:19" customHeight="1" ht="28.5">
@@ -9628,7 +9697,7 @@
       <c r="M128" s="108"/>
       <c r="N128" s="108"/>
       <c r="Q128" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:19" customHeight="1" ht="14.25">
@@ -9647,7 +9716,7 @@
       <c r="M129" s="108"/>
       <c r="N129" s="108"/>
       <c r="Q129" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:19" customHeight="1" ht="14.25">
@@ -9666,7 +9735,7 @@
       <c r="M130" s="108"/>
       <c r="N130" s="108"/>
       <c r="Q130" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:19" customHeight="1" ht="14.25">
@@ -9685,7 +9754,7 @@
       <c r="M131" s="108"/>
       <c r="N131" s="108"/>
       <c r="Q131" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:19" customHeight="1" ht="14.25">
@@ -9704,7 +9773,7 @@
       <c r="M132" s="108"/>
       <c r="N132" s="108"/>
       <c r="Q132" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:19" customHeight="1" ht="14.25">
@@ -9723,7 +9792,7 @@
       <c r="M133" s="108"/>
       <c r="N133" s="108"/>
       <c r="Q133" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:19" customHeight="1" ht="14.25">
@@ -9742,7 +9811,7 @@
       <c r="M134" s="108"/>
       <c r="N134" s="108"/>
       <c r="Q134" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:19" customHeight="1" ht="14.25">
@@ -9761,7 +9830,7 @@
       <c r="M135" s="108"/>
       <c r="N135" s="108"/>
       <c r="Q135" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:19" customHeight="1" ht="14.25">
@@ -9780,7 +9849,7 @@
       <c r="M136" s="108"/>
       <c r="N136" s="108"/>
       <c r="Q136" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:19" customHeight="1" ht="14.25">
@@ -9799,7 +9868,7 @@
       <c r="M137" s="108"/>
       <c r="N137" s="108"/>
       <c r="Q137" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:19" customHeight="1" ht="14.25">
@@ -9818,7 +9887,7 @@
       <c r="M138" s="108"/>
       <c r="N138" s="108"/>
       <c r="Q138" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:19" customHeight="1" ht="14.25">
@@ -9837,7 +9906,7 @@
       <c r="M139" s="108"/>
       <c r="N139" s="108"/>
       <c r="Q139" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:19" customHeight="1" ht="14.25">
@@ -9856,7 +9925,7 @@
       <c r="M140" s="108"/>
       <c r="N140" s="108"/>
       <c r="Q140" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:19" customHeight="1" ht="14.25">
@@ -9875,7 +9944,7 @@
       <c r="M141" s="108"/>
       <c r="N141" s="108"/>
       <c r="Q141" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:19" customHeight="1" ht="14.25">
@@ -9894,7 +9963,7 @@
       <c r="M142" s="108"/>
       <c r="N142" s="108"/>
       <c r="Q142" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:19" customHeight="1" ht="28.5">
@@ -9913,7 +9982,7 @@
       <c r="M143" s="108"/>
       <c r="N143" s="108"/>
       <c r="Q143" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:19" customHeight="1" ht="14.25">
@@ -9932,7 +10001,7 @@
       <c r="M144" s="108"/>
       <c r="N144" s="108"/>
       <c r="Q144" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:19" customHeight="1" ht="14.25">
@@ -9951,7 +10020,7 @@
       <c r="M145" s="108"/>
       <c r="N145" s="108"/>
       <c r="Q145" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:19" customHeight="1" ht="14.25">
@@ -9970,7 +10039,7 @@
       <c r="M146" s="108"/>
       <c r="N146" s="108"/>
       <c r="Q146" s="3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:19" customHeight="1" ht="14.25">
@@ -9989,7 +10058,7 @@
       <c r="M147" s="108"/>
       <c r="N147" s="108"/>
       <c r="Q147" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:19" customHeight="1" ht="14.25">
@@ -10008,7 +10077,7 @@
       <c r="M148" s="108"/>
       <c r="N148" s="108"/>
       <c r="Q148" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:19" customHeight="1" ht="14.25">
@@ -10027,7 +10096,7 @@
       <c r="M149" s="108"/>
       <c r="N149" s="108"/>
       <c r="Q149" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:19" customHeight="1" ht="14.25">
@@ -10046,7 +10115,7 @@
       <c r="M150" s="108"/>
       <c r="N150" s="108"/>
       <c r="Q150" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:19" customHeight="1" ht="14.25">
@@ -10065,7 +10134,7 @@
       <c r="M151" s="108"/>
       <c r="N151" s="108"/>
       <c r="Q151" s="3" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:19" customHeight="1" ht="14.25">
@@ -10084,7 +10153,7 @@
       <c r="M152" s="108"/>
       <c r="N152" s="108"/>
       <c r="Q152" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:19" customHeight="1" ht="28.5">
@@ -10103,7 +10172,7 @@
       <c r="M153" s="108"/>
       <c r="N153" s="108"/>
       <c r="Q153" s="3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:19" customHeight="1" ht="14.25">
@@ -10122,7 +10191,7 @@
       <c r="M154" s="108"/>
       <c r="N154" s="108"/>
       <c r="Q154" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:19" customHeight="1" ht="28.5">
@@ -10141,7 +10210,7 @@
       <c r="M155" s="108"/>
       <c r="N155" s="108"/>
       <c r="Q155" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:19" customHeight="1" ht="14.25">
@@ -10160,7 +10229,7 @@
       <c r="M156" s="108"/>
       <c r="N156" s="108"/>
       <c r="Q156" s="3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:19" customHeight="1" ht="14.25">
@@ -10179,7 +10248,7 @@
       <c r="M157" s="108"/>
       <c r="N157" s="108"/>
       <c r="Q157" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:19" customHeight="1" ht="14.25">
@@ -10198,7 +10267,7 @@
       <c r="M158" s="108"/>
       <c r="N158" s="108"/>
       <c r="Q158" s="3" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:19" customHeight="1" ht="14.25">
@@ -10217,7 +10286,7 @@
       <c r="M159" s="108"/>
       <c r="N159" s="108"/>
       <c r="Q159" s="3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:19" customHeight="1" ht="14.25">
@@ -10236,7 +10305,7 @@
       <c r="M160" s="108"/>
       <c r="N160" s="108"/>
       <c r="Q160" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:19" customHeight="1" ht="14.25">
@@ -10255,7 +10324,7 @@
       <c r="M161" s="108"/>
       <c r="N161" s="108"/>
       <c r="Q161" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:19" customHeight="1" ht="14.25">
@@ -10274,7 +10343,7 @@
       <c r="M162" s="108"/>
       <c r="N162" s="108"/>
       <c r="Q162" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:19" customHeight="1" ht="14.25">
@@ -10293,7 +10362,7 @@
       <c r="M163" s="108"/>
       <c r="N163" s="108"/>
       <c r="Q163" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="1:19" customHeight="1" ht="14.25">
@@ -10312,7 +10381,7 @@
       <c r="M164" s="108"/>
       <c r="N164" s="108"/>
       <c r="Q164" s="3" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:19" customHeight="1" ht="28.5">
@@ -10331,7 +10400,7 @@
       <c r="M165" s="108"/>
       <c r="N165" s="108"/>
       <c r="Q165" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:19" customHeight="1" ht="14.25">
@@ -10350,7 +10419,7 @@
       <c r="M166" s="108"/>
       <c r="N166" s="108"/>
       <c r="Q166" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:19" customHeight="1" ht="42.75">
@@ -10369,7 +10438,7 @@
       <c r="M167" s="108"/>
       <c r="N167" s="108"/>
       <c r="Q167" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:19" customHeight="1" ht="14.25">
@@ -10388,7 +10457,7 @@
       <c r="M168" s="108"/>
       <c r="N168" s="108"/>
       <c r="Q168" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:19" customHeight="1" ht="14.25">
@@ -10407,7 +10476,7 @@
       <c r="M169" s="108"/>
       <c r="N169" s="108"/>
       <c r="Q169" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:19" customHeight="1" ht="28.5">
@@ -10426,7 +10495,7 @@
       <c r="M170" s="108"/>
       <c r="N170" s="108"/>
       <c r="Q170" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:19" customHeight="1" ht="14.25">
@@ -10445,7 +10514,7 @@
       <c r="M171" s="108"/>
       <c r="N171" s="108"/>
       <c r="Q171" s="3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:19" customHeight="1" ht="14.25">
@@ -10464,7 +10533,7 @@
       <c r="M172" s="108"/>
       <c r="N172" s="108"/>
       <c r="Q172" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:19" customHeight="1" ht="14.25">
@@ -10483,7 +10552,7 @@
       <c r="M173" s="108"/>
       <c r="N173" s="108"/>
       <c r="Q173" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:19" customHeight="1" ht="14.25">
@@ -10502,7 +10571,7 @@
       <c r="M174" s="108"/>
       <c r="N174" s="108"/>
       <c r="Q174" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="1:19" customHeight="1" ht="14.25">
@@ -10521,7 +10590,7 @@
       <c r="M175" s="108"/>
       <c r="N175" s="108"/>
       <c r="Q175" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:19" customHeight="1" ht="14.25">
@@ -10540,7 +10609,7 @@
       <c r="M176" s="108"/>
       <c r="N176" s="108"/>
       <c r="Q176" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:19" customHeight="1" ht="14.25">
@@ -10559,7 +10628,7 @@
       <c r="M177" s="108"/>
       <c r="N177" s="108"/>
       <c r="Q177" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:19" customHeight="1" ht="14.25">
@@ -10578,7 +10647,7 @@
       <c r="M178" s="108"/>
       <c r="N178" s="108"/>
       <c r="Q178" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:19" customHeight="1" ht="14.25">
@@ -10597,7 +10666,7 @@
       <c r="M179" s="108"/>
       <c r="N179" s="108"/>
       <c r="Q179" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:19" customHeight="1" ht="28.5">
@@ -10616,7 +10685,7 @@
       <c r="M180" s="108"/>
       <c r="N180" s="108"/>
       <c r="Q180" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:19" customHeight="1" ht="14.25">
@@ -10635,7 +10704,7 @@
       <c r="M181" s="108"/>
       <c r="N181" s="108"/>
       <c r="Q181" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:19" customHeight="1" ht="14.25">
@@ -10654,7 +10723,7 @@
       <c r="M182" s="108"/>
       <c r="N182" s="108"/>
       <c r="Q182" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:19" customHeight="1" ht="14.25">
@@ -10673,7 +10742,7 @@
       <c r="M183" s="108"/>
       <c r="N183" s="108"/>
       <c r="Q183" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:19" customHeight="1" ht="14.25">
@@ -10692,7 +10761,7 @@
       <c r="M184" s="108"/>
       <c r="N184" s="108"/>
       <c r="Q184" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:19" customHeight="1" ht="14.25">
@@ -10711,7 +10780,7 @@
       <c r="M185" s="108"/>
       <c r="N185" s="108"/>
       <c r="Q185" s="3" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:19" customHeight="1" ht="14.25">
@@ -10730,7 +10799,7 @@
       <c r="M186" s="108"/>
       <c r="N186" s="108"/>
       <c r="Q186" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:19" customHeight="1" ht="14.25">
@@ -10749,7 +10818,7 @@
       <c r="M187" s="108"/>
       <c r="N187" s="108"/>
       <c r="Q187" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:19" customHeight="1" ht="14.25">
@@ -10768,7 +10837,7 @@
       <c r="M188" s="108"/>
       <c r="N188" s="108"/>
       <c r="Q188" s="3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:19" customHeight="1" ht="14.25">
@@ -10787,7 +10856,7 @@
       <c r="M189" s="108"/>
       <c r="N189" s="108"/>
       <c r="Q189" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:19" customHeight="1" ht="14.25">
@@ -10806,7 +10875,7 @@
       <c r="M190" s="108"/>
       <c r="N190" s="108"/>
       <c r="Q190" s="3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" spans="1:19" customHeight="1" ht="14.25">
@@ -10825,7 +10894,7 @@
       <c r="M191" s="108"/>
       <c r="N191" s="108"/>
       <c r="Q191" s="3" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:19" customHeight="1" ht="14.25">
@@ -10844,7 +10913,7 @@
       <c r="M192" s="108"/>
       <c r="N192" s="108"/>
       <c r="Q192" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:19" customHeight="1" ht="14.25">
@@ -10863,7 +10932,7 @@
       <c r="M193" s="108"/>
       <c r="N193" s="108"/>
       <c r="Q193" s="3" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="194" spans="1:19" customHeight="1" ht="14.25">
@@ -10882,7 +10951,7 @@
       <c r="M194" s="108"/>
       <c r="N194" s="108"/>
       <c r="Q194" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:19" customHeight="1" ht="14.25">
@@ -10901,7 +10970,7 @@
       <c r="M195" s="108"/>
       <c r="N195" s="108"/>
       <c r="Q195" s="3" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:19" customHeight="1" ht="14.25">
@@ -10920,7 +10989,7 @@
       <c r="M196" s="108"/>
       <c r="N196" s="108"/>
       <c r="Q196" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:19" customHeight="1" ht="14.25">
@@ -10939,7 +11008,7 @@
       <c r="M197" s="108"/>
       <c r="N197" s="108"/>
       <c r="Q197" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:19" customHeight="1" ht="14.25">
@@ -10958,7 +11027,7 @@
       <c r="M198" s="108"/>
       <c r="N198" s="108"/>
       <c r="Q198" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:19" customHeight="1" ht="14.25">
@@ -10977,7 +11046,7 @@
       <c r="M199" s="108"/>
       <c r="N199" s="108"/>
       <c r="Q199" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:19" customHeight="1" ht="28.5">
@@ -10996,7 +11065,7 @@
       <c r="M200" s="108"/>
       <c r="N200" s="108"/>
       <c r="Q200" s="3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:19" customHeight="1" ht="14.25">
@@ -11015,7 +11084,7 @@
       <c r="M201" s="108"/>
       <c r="N201" s="108"/>
       <c r="Q201" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:19" customHeight="1" ht="14.25">
@@ -11034,7 +11103,7 @@
       <c r="M202" s="108"/>
       <c r="N202" s="108"/>
       <c r="Q202" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:19" customHeight="1" ht="14.25">
@@ -11053,7 +11122,7 @@
       <c r="M203" s="108"/>
       <c r="N203" s="108"/>
       <c r="Q203" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:19" customHeight="1" ht="14.25">
@@ -11072,7 +11141,7 @@
       <c r="M204" s="108"/>
       <c r="N204" s="108"/>
       <c r="Q204" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:19" customHeight="1" ht="14.25">
@@ -11091,7 +11160,7 @@
       <c r="M205" s="108"/>
       <c r="N205" s="108"/>
       <c r="Q205" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" spans="1:19" customHeight="1" ht="14.25">
@@ -11110,7 +11179,7 @@
       <c r="M206" s="108"/>
       <c r="N206" s="108"/>
       <c r="Q206" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:19" customHeight="1" ht="28.5">
@@ -11129,7 +11198,7 @@
       <c r="M207" s="108"/>
       <c r="N207" s="108"/>
       <c r="Q207" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="208" spans="1:19" customHeight="1" ht="28.5">
@@ -11148,7 +11217,7 @@
       <c r="M208" s="108"/>
       <c r="N208" s="108"/>
       <c r="Q208" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:19" customHeight="1" ht="14.25">
@@ -11167,7 +11236,7 @@
       <c r="M209" s="108"/>
       <c r="N209" s="108"/>
       <c r="Q209" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:19" customHeight="1" ht="14.25">
@@ -11186,7 +11255,7 @@
       <c r="M210" s="108"/>
       <c r="N210" s="108"/>
       <c r="Q210" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:19" customHeight="1" ht="14.25">
@@ -11205,7 +11274,7 @@
       <c r="M211" s="108"/>
       <c r="N211" s="108"/>
       <c r="Q211" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:19" customHeight="1" ht="14.25">
@@ -11224,7 +11293,7 @@
       <c r="M212" s="108"/>
       <c r="N212" s="108"/>
       <c r="Q212" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:19" customHeight="1" ht="14.25">
@@ -11243,7 +11312,7 @@
       <c r="M213" s="108"/>
       <c r="N213" s="108"/>
       <c r="Q213" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:19" customHeight="1" ht="14.25">
@@ -11262,7 +11331,7 @@
       <c r="M214" s="108"/>
       <c r="N214" s="108"/>
       <c r="Q214" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:19" customHeight="1" ht="14.25">
@@ -11281,7 +11350,7 @@
       <c r="M215" s="108"/>
       <c r="N215" s="108"/>
       <c r="Q215" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:19" customHeight="1" ht="14.25">
@@ -11300,7 +11369,7 @@
       <c r="M216" s="108"/>
       <c r="N216" s="108"/>
       <c r="Q216" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -12482,7 +12551,7 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
       <c r="A2" s="514" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B2" s="515"/>
       <c r="C2" s="515"/>
@@ -12499,28 +12568,28 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
       <c r="A3" s="140" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B3" s="507" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C3" s="507"/>
       <c r="D3" s="507"/>
       <c r="E3" s="508"/>
       <c r="F3" s="512" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G3" s="509" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H3" s="508"/>
       <c r="I3" s="509" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J3" s="507"/>
       <c r="K3" s="508"/>
       <c r="L3" s="510" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M3" s="511"/>
     </row>
@@ -12537,26 +12606,36 @@
       <c r="J4" s="483"/>
       <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
-      <c r="A5" s="493"/>
+      <c r="A5" s="493" t="s">
+        <v>346</v>
+      </c>
       <c r="B5" s="468"/>
       <c r="C5" s="468"/>
       <c r="D5" s="468"/>
       <c r="E5" s="468"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="492"/>
+      <c r="F5" s="16">
+        <v>80</v>
+      </c>
+      <c r="G5" s="492" t="s">
+        <v>347</v>
+      </c>
       <c r="H5" s="492"/>
       <c r="I5" s="496"/>
       <c r="J5" s="496"/>
       <c r="K5" s="496"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="9">
+        <v>123456</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="27">
       <c r="A6" s="493"/>
@@ -12650,24 +12729,38 @@
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="12">
       <c r="A12" s="485" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="B12" s="486"/>
-      <c r="C12" s="486"/>
-      <c r="D12" s="486"/>
+      <c r="C12" s="486" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="486" t="s">
+        <v>351</v>
+      </c>
       <c r="E12" s="486"/>
       <c r="F12" s="486"/>
-      <c r="G12" s="486"/>
+      <c r="G12" s="486" t="s">
+        <v>352</v>
+      </c>
       <c r="H12" s="486"/>
       <c r="I12" s="486"/>
-      <c r="J12" s="486"/>
-      <c r="K12" s="486"/>
-      <c r="L12" s="486"/>
-      <c r="M12" s="487"/>
+      <c r="J12" s="486">
+        <v>200000.0</v>
+      </c>
+      <c r="K12" s="486">
+        <v>30</v>
+      </c>
+      <c r="L12" s="486" t="s">
+        <v>353</v>
+      </c>
+      <c r="M12" s="487" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="488" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B13" s="489"/>
       <c r="C13" s="489"/>
@@ -12684,7 +12777,7 @@
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="12">
       <c r="A14" s="202" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -12701,33 +12794,33 @@
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
       <c r="A15" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C15" s="482"/>
       <c r="D15" s="494" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E15" s="481"/>
       <c r="F15" s="482"/>
       <c r="G15" s="494" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H15" s="481"/>
       <c r="I15" s="482"/>
       <c r="J15" s="498" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K15" s="519" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L15" s="473" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M15" s="517" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15">
@@ -12747,11 +12840,11 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18.75">
       <c r="A17" s="521" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B17" s="522"/>
       <c r="C17" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D17" s="495"/>
       <c r="E17" s="483"/>
@@ -13186,7 +13279,7 @@
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="9.75">
       <c r="A46" s="476" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B46" s="477"/>
       <c r="C46" s="477"/>
@@ -13203,7 +13296,7 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="27.75">
       <c r="A47" s="445" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B47" s="446"/>
       <c r="C47" s="447"/>
@@ -13213,7 +13306,7 @@
       <c r="G47" s="502"/>
       <c r="H47" s="503"/>
       <c r="I47" s="228" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J47" s="229"/>
       <c r="K47" s="230"/>
@@ -13223,7 +13316,7 @@
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="9">
       <c r="A48" s="500" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B48" s="500"/>
       <c r="C48" s="500"/>
@@ -13427,7 +13520,7 @@
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="22.5">
       <c r="A2" s="571" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B2" s="572"/>
       <c r="C2" s="572"/>
@@ -13442,22 +13535,22 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="555" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B3" s="556" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C3" s="556"/>
       <c r="D3" s="557"/>
       <c r="E3" s="507" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F3" s="508"/>
       <c r="G3" s="576" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H3" s="509" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I3" s="566"/>
       <c r="J3" s="566"/>
@@ -13482,10 +13575,10 @@
       <c r="C5" s="574"/>
       <c r="D5" s="575"/>
       <c r="E5" s="27" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G5" s="520"/>
       <c r="H5" s="570"/>
@@ -13494,14 +13587,24 @@
       <c r="K5" s="432"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A6" s="563"/>
+      <c r="A6" s="563" t="s">
+        <v>372</v>
+      </c>
       <c r="B6" s="564"/>
       <c r="C6" s="564"/>
       <c r="D6" s="565"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="552"/>
+      <c r="E6" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="G6" s="34">
+        <v>50</v>
+      </c>
+      <c r="H6" s="552" t="s">
+        <v>375</v>
+      </c>
       <c r="I6" s="553"/>
       <c r="J6" s="553"/>
       <c r="K6" s="554"/>
@@ -13572,21 +13675,33 @@
       <c r="K11" s="554"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A12" s="560"/>
+      <c r="A12" s="560" t="s">
+        <v>376</v>
+      </c>
       <c r="B12" s="561"/>
       <c r="C12" s="561"/>
       <c r="D12" s="562"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="526"/>
+      <c r="E12" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="35">
+        <v>50</v>
+      </c>
+      <c r="H12" s="525" t="s">
+        <v>378</v>
+      </c>
+      <c r="I12" s="526" t="s">
+        <v>379</v>
+      </c>
       <c r="J12" s="526"/>
       <c r="K12" s="527"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="11.25">
       <c r="A13" s="485" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B13" s="486"/>
       <c r="C13" s="486"/>
@@ -13601,7 +13716,7 @@
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="18">
       <c r="A14" s="528" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B14" s="529"/>
       <c r="C14" s="529"/>
@@ -13616,25 +13731,25 @@
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="18">
       <c r="A15" s="543" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C15" s="549"/>
       <c r="D15" s="550"/>
       <c r="E15" s="481" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F15" s="482"/>
       <c r="G15" s="519" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H15" s="498" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I15" s="494" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J15" s="549"/>
       <c r="K15" s="569"/>
@@ -13658,10 +13773,10 @@
       <c r="C17" s="431"/>
       <c r="D17" s="551"/>
       <c r="E17" s="27" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G17" s="520"/>
       <c r="H17" s="499"/>
@@ -13944,7 +14059,7 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="13.5">
       <c r="A39" s="448" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B39" s="449"/>
       <c r="C39" s="449"/>
@@ -13959,7 +14074,7 @@
     </row>
     <row r="40" spans="1:13" customHeight="1" ht="22.5">
       <c r="A40" s="585" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B40" s="586"/>
       <c r="C40" s="586"/>
@@ -13974,33 +14089,35 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="33.75">
       <c r="A41" s="141" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B41" s="146" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D41" s="577" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E41" s="577"/>
       <c r="F41" s="577"/>
       <c r="G41" s="577"/>
       <c r="H41" s="578"/>
       <c r="I41" s="142" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J41" s="577" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K41" s="584"/>
     </row>
     <row r="42" spans="1:13" customHeight="1" ht="24.75">
       <c r="A42" s="582"/>
       <c r="B42" s="583"/>
-      <c r="C42" s="579"/>
+      <c r="C42" s="579" t="s">
+        <v>393</v>
+      </c>
       <c r="D42" s="580"/>
       <c r="E42" s="580"/>
       <c r="F42" s="580"/>
@@ -14090,7 +14207,7 @@
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="11.25">
       <c r="A49" s="448" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B49" s="449"/>
       <c r="C49" s="449"/>
@@ -14105,7 +14222,7 @@
     </row>
     <row r="50" spans="1:13" customHeight="1" ht="28.5">
       <c r="A50" s="445" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B50" s="447"/>
       <c r="C50" s="501"/>
@@ -14113,7 +14230,7 @@
       <c r="E50" s="502"/>
       <c r="F50" s="503"/>
       <c r="G50" s="588" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H50" s="589"/>
       <c r="I50" s="501"/>
@@ -14124,7 +14241,7 @@
     </row>
     <row r="51" spans="1:13" customHeight="1" ht="9.75">
       <c r="K51" s="236" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:13" customHeight="1" ht="3"/>
@@ -14294,11 +14411,11 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
       <c r="A2" s="624" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B2" s="625"/>
       <c r="C2" s="603" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D2" s="603"/>
       <c r="E2" s="603"/>
@@ -14315,7 +14432,7 @@
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="607" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D3" s="607"/>
       <c r="E3" s="607"/>
@@ -14332,7 +14449,7 @@
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="607" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D4" s="607"/>
       <c r="E4" s="607"/>
@@ -14358,12 +14475,14 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="607" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D6" s="607"/>
       <c r="E6" s="607"/>
       <c r="F6" s="608"/>
-      <c r="G6" s="629"/>
+      <c r="G6" s="629" t="s">
+        <v>400</v>
+      </c>
       <c r="H6" s="630"/>
       <c r="I6" s="630"/>
       <c r="J6" s="630"/>
@@ -14390,12 +14509,14 @@
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="607" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D8" s="607"/>
       <c r="E8" s="607"/>
       <c r="F8" s="608"/>
-      <c r="G8" s="632"/>
+      <c r="G8" s="632" t="s">
+        <v>400</v>
+      </c>
       <c r="H8" s="633"/>
       <c r="I8" s="633"/>
       <c r="J8" s="633"/>
@@ -14420,7 +14541,7 @@
       <c r="E10" s="607"/>
       <c r="F10" s="608"/>
       <c r="G10" s="592" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H10" s="592"/>
       <c r="I10" s="592"/>
@@ -14461,16 +14582,18 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="622" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B13" s="623"/>
       <c r="C13" s="590" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D13" s="590"/>
       <c r="E13" s="549"/>
       <c r="F13" s="550"/>
-      <c r="G13" s="594"/>
+      <c r="G13" s="594" t="s">
+        <v>400</v>
+      </c>
       <c r="H13" s="595"/>
       <c r="I13" s="595"/>
       <c r="J13" s="595"/>
@@ -14486,7 +14609,7 @@
       <c r="E14" s="549"/>
       <c r="F14" s="550"/>
       <c r="G14" s="591" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H14" s="592"/>
       <c r="I14" s="592"/>
@@ -14544,12 +14667,14 @@
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="737" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D18" s="737"/>
       <c r="E18" s="738"/>
       <c r="F18" s="739"/>
-      <c r="G18" s="728"/>
+      <c r="G18" s="728" t="s">
+        <v>400</v>
+      </c>
       <c r="H18" s="729"/>
       <c r="I18" s="729"/>
       <c r="J18" s="729"/>
@@ -14565,7 +14690,7 @@
       <c r="E19" s="738"/>
       <c r="F19" s="739"/>
       <c r="G19" s="591" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H19" s="592"/>
       <c r="I19" s="592"/>
@@ -14583,7 +14708,7 @@
       <c r="F20" s="739"/>
       <c r="G20" s="56"/>
       <c r="H20" s="733" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="I20" s="733"/>
       <c r="J20" s="246"/>
@@ -14599,7 +14724,7 @@
       <c r="E21" s="738"/>
       <c r="F21" s="739"/>
       <c r="G21" s="734" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H21" s="735"/>
       <c r="I21" s="735"/>
@@ -14616,7 +14741,7 @@
       <c r="E22" s="740"/>
       <c r="F22" s="741"/>
       <c r="G22" s="125" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H22" s="237"/>
       <c r="I22" s="685"/>
@@ -14627,16 +14752,18 @@
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
       <c r="A23" s="636" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B23" s="637"/>
       <c r="C23" s="618" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D23" s="618"/>
       <c r="E23" s="618"/>
       <c r="F23" s="619"/>
-      <c r="G23" s="594"/>
+      <c r="G23" s="594" t="s">
+        <v>400</v>
+      </c>
       <c r="H23" s="595"/>
       <c r="I23" s="595"/>
       <c r="J23" s="595"/>
@@ -14652,7 +14779,7 @@
       <c r="E24" s="610"/>
       <c r="F24" s="609"/>
       <c r="G24" s="591" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H24" s="592"/>
       <c r="I24" s="592"/>
@@ -14693,16 +14820,18 @@
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
       <c r="A27" s="636" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B27" s="637"/>
       <c r="C27" s="618" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D27" s="618"/>
       <c r="E27" s="618"/>
       <c r="F27" s="619"/>
-      <c r="G27" s="594"/>
+      <c r="G27" s="594" t="s">
+        <v>400</v>
+      </c>
       <c r="H27" s="595"/>
       <c r="I27" s="595"/>
       <c r="J27" s="595"/>
@@ -14718,7 +14847,7 @@
       <c r="E28" s="610"/>
       <c r="F28" s="609"/>
       <c r="G28" s="591" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H28" s="592"/>
       <c r="I28" s="592"/>
@@ -14758,16 +14887,18 @@
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="18">
       <c r="A31" s="636" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B31" s="637"/>
       <c r="C31" s="618" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D31" s="618"/>
       <c r="E31" s="618"/>
       <c r="F31" s="619"/>
-      <c r="G31" s="594"/>
+      <c r="G31" s="594" t="s">
+        <v>400</v>
+      </c>
       <c r="H31" s="595"/>
       <c r="I31" s="595"/>
       <c r="J31" s="595"/>
@@ -14783,7 +14914,7 @@
       <c r="E32" s="610"/>
       <c r="F32" s="609"/>
       <c r="G32" s="672" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H32" s="673"/>
       <c r="I32" s="673"/>
@@ -14811,12 +14942,14 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="610" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D34" s="610"/>
       <c r="E34" s="610"/>
       <c r="F34" s="609"/>
-      <c r="G34" s="674"/>
+      <c r="G34" s="674" t="s">
+        <v>400</v>
+      </c>
       <c r="H34" s="675"/>
       <c r="I34" s="675"/>
       <c r="J34" s="675"/>
@@ -14832,7 +14965,7 @@
       <c r="E35" s="610"/>
       <c r="F35" s="609"/>
       <c r="G35" s="672" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H35" s="673"/>
       <c r="I35" s="673"/>
@@ -14857,16 +14990,18 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
       <c r="A37" s="636" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B37" s="637"/>
       <c r="C37" s="613" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D37" s="613"/>
       <c r="E37" s="613"/>
       <c r="F37" s="614"/>
-      <c r="G37" s="594"/>
+      <c r="G37" s="594" t="s">
+        <v>400</v>
+      </c>
       <c r="H37" s="595"/>
       <c r="I37" s="595"/>
       <c r="J37" s="595"/>
@@ -14882,7 +15017,7 @@
       <c r="E38" s="590"/>
       <c r="F38" s="615"/>
       <c r="G38" s="591" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H38" s="592"/>
       <c r="I38" s="592"/>
@@ -14923,11 +15058,11 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
       <c r="A41" s="611" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B41" s="612"/>
       <c r="C41" s="610" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D41" s="610"/>
       <c r="E41" s="610"/>
@@ -14957,16 +15092,18 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="64" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="610" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D43" s="610"/>
       <c r="E43" s="610"/>
       <c r="F43" s="609"/>
-      <c r="G43" s="632"/>
+      <c r="G43" s="632" t="s">
+        <v>400</v>
+      </c>
       <c r="H43" s="633"/>
       <c r="I43" s="633"/>
       <c r="J43" s="633"/>
@@ -14982,7 +15119,7 @@
       <c r="E44" s="610"/>
       <c r="F44" s="609"/>
       <c r="G44" s="187" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H44" s="239"/>
       <c r="I44" s="118"/>
@@ -14993,16 +15130,18 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="64" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B45" s="65"/>
       <c r="C45" s="609" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D45" s="609"/>
       <c r="E45" s="609"/>
       <c r="F45" s="609"/>
-      <c r="G45" s="632"/>
+      <c r="G45" s="632" t="s">
+        <v>400</v>
+      </c>
       <c r="H45" s="633"/>
       <c r="I45" s="633"/>
       <c r="J45" s="633"/>
@@ -15018,7 +15157,7 @@
       <c r="E46" s="609"/>
       <c r="F46" s="609"/>
       <c r="G46" s="188" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H46" s="240"/>
       <c r="I46" s="118"/>
@@ -15030,16 +15169,18 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="64" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B47" s="65"/>
       <c r="C47" s="610" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D47" s="610"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
-      <c r="G47" s="632"/>
+      <c r="G47" s="632" t="s">
+        <v>400</v>
+      </c>
       <c r="H47" s="633"/>
       <c r="I47" s="633"/>
       <c r="J47" s="633"/>
@@ -15055,7 +15196,7 @@
       <c r="E48" s="652"/>
       <c r="F48" s="653"/>
       <c r="G48" s="189" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H48" s="241"/>
       <c r="I48" s="120"/>
@@ -15083,11 +15224,11 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
       <c r="A50" s="725" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B50" s="726"/>
       <c r="C50" s="185" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D50" s="185"/>
       <c r="E50" s="185"/>
@@ -15102,17 +15243,17 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
       <c r="A51" s="648" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B51" s="649"/>
       <c r="C51" s="649"/>
       <c r="D51" s="649"/>
       <c r="E51" s="650"/>
       <c r="F51" s="177" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G51" s="657" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H51" s="577"/>
       <c r="I51" s="584"/>
@@ -15122,13 +15263,19 @@
       <c r="M51" s="644"/>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="24">
-      <c r="A52" s="665"/>
+      <c r="A52" s="665" t="s">
+        <v>435</v>
+      </c>
       <c r="B52" s="666"/>
       <c r="C52" s="668"/>
       <c r="D52" s="668"/>
       <c r="E52" s="669"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="658"/>
+      <c r="F52" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" s="658" t="s">
+        <v>437</v>
+      </c>
       <c r="H52" s="659"/>
       <c r="I52" s="660"/>
       <c r="J52" s="642"/>
@@ -15137,13 +15284,19 @@
       <c r="M52" s="644"/>
     </row>
     <row r="53" spans="1:14" customHeight="1" ht="24">
-      <c r="A53" s="665"/>
+      <c r="A53" s="665" t="s">
+        <v>438</v>
+      </c>
       <c r="B53" s="666"/>
       <c r="C53" s="666"/>
       <c r="D53" s="666"/>
       <c r="E53" s="667"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="658"/>
+      <c r="F53" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" s="658" t="s">
+        <v>440</v>
+      </c>
       <c r="H53" s="659"/>
       <c r="I53" s="660"/>
       <c r="J53" s="642"/>
@@ -15152,13 +15305,19 @@
       <c r="M53" s="644"/>
     </row>
     <row r="54" spans="1:14" customHeight="1" ht="24">
-      <c r="A54" s="661"/>
+      <c r="A54" s="661" t="s">
+        <v>441</v>
+      </c>
       <c r="B54" s="662"/>
       <c r="C54" s="663"/>
       <c r="D54" s="663"/>
       <c r="E54" s="664"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="645"/>
+      <c r="F54" s="193" t="s">
+        <v>442</v>
+      </c>
+      <c r="G54" s="645" t="s">
+        <v>443</v>
+      </c>
       <c r="H54" s="646"/>
       <c r="I54" s="647"/>
       <c r="J54" s="642"/>
@@ -15168,11 +15327,11 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
       <c r="A55" s="624" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="B55" s="625"/>
       <c r="C55" s="670" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D55" s="670"/>
       <c r="E55" s="670"/>
@@ -15197,7 +15356,7 @@
       <c r="I56" s="243"/>
       <c r="J56" s="192"/>
       <c r="K56" s="605" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="L56" s="605"/>
       <c r="M56" s="176"/>
@@ -15247,7 +15406,7 @@
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="75"/>
       <c r="B60" s="677" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C60" s="678"/>
       <c r="D60" s="679"/>
@@ -15262,10 +15421,12 @@
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="75"/>
       <c r="B61" s="712" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C61" s="713"/>
-      <c r="D61" s="131"/>
+      <c r="D61" s="131" t="s">
+        <v>449</v>
+      </c>
       <c r="F61" s="719"/>
       <c r="G61" s="720"/>
       <c r="H61" s="720"/>
@@ -15277,10 +15438,12 @@
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="75"/>
       <c r="B62" s="701" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C62" s="702"/>
-      <c r="D62" s="680"/>
+      <c r="D62" s="680">
+        <v>123123</v>
+      </c>
       <c r="F62" s="722"/>
       <c r="G62" s="723"/>
       <c r="H62" s="723"/>
@@ -15295,7 +15458,7 @@
       <c r="C63" s="715"/>
       <c r="D63" s="681"/>
       <c r="F63" s="682" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="G63" s="683"/>
       <c r="H63" s="683"/>
@@ -15307,10 +15470,12 @@
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="75"/>
       <c r="B64" s="701" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C64" s="702"/>
-      <c r="D64" s="680"/>
+      <c r="D64" s="680" t="s">
+        <v>453</v>
+      </c>
       <c r="F64" s="77"/>
       <c r="G64" s="178"/>
       <c r="H64" s="178"/>
@@ -15326,14 +15491,14 @@
       <c r="C65" s="704"/>
       <c r="D65" s="705"/>
       <c r="F65" s="698" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="G65" s="699"/>
       <c r="H65" s="699"/>
       <c r="I65" s="700"/>
       <c r="J65" s="78"/>
       <c r="K65" s="696" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L65" s="697"/>
       <c r="M65" s="76"/>
@@ -15355,7 +15520,7 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
       <c r="A67" s="693" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="B67" s="694"/>
       <c r="C67" s="694"/>
@@ -15390,7 +15555,7 @@
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
       <c r="E69" s="687" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="F69" s="688"/>
       <c r="G69" s="688"/>
@@ -15418,7 +15583,7 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
       <c r="A71" s="686" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B71" s="686"/>
       <c r="C71" s="686"/>
@@ -15597,35 +15762,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15635,7 +15800,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/storage/PDS.xlsx
+++ b/storage/PDS.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -102,15 +102,9 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>JOHNS</t>
-  </si>
-  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>ELDORA</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                           </t>
   </si>
   <si>
@@ -121,9 +115,6 @@
   </si>
   <si>
     <t>MIDDLE NAME</t>
-  </si>
-  <si>
-    <t>CRONIN</t>
   </si>
   <si>
     <t>Widow/er</t>
@@ -139,15 +130,9 @@
 (mm/dd/yyyy)  </t>
   </si>
   <si>
-    <t>02-02-2000</t>
-  </si>
-  <si>
     <t>16. CITIZENSHIP</t>
   </si>
   <si>
-    <t>Filipino</t>
-  </si>
-  <si>
     <t>Separated</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>TUGUEGARAO CITY</t>
-  </si>
-  <si>
     <t xml:space="preserve">If holder of  dual citizenship, </t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>please indicate the details.</t>
   </si>
   <si>
@@ -193,15 +172,9 @@
     <t>CIVIL STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Others: </t>
-  </si>
-  <si>
     <t>17. RESIDENTIAL ADDRESS</t>
   </si>
   <si>
-    <t>ASDF</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -214,12 +187,6 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>SUBDIVISION</t>
-  </si>
-  <si>
-    <t>ATULAYAN</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -241,12 +208,6 @@
     <t>HEIGHT (m)</t>
   </si>
   <si>
-    <t>TUGUEGARAO</t>
-  </si>
-  <si>
-    <t>CAGAYAN</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -277,9 +238,6 @@
     <t>BLOOD TYPE</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>18. PERMANENT ADDRESS</t>
   </si>
   <si>
@@ -349,9 +307,6 @@
     <t>21. E-MAIL ADDRESS (if any)</t>
   </si>
   <si>
-    <t>JESTERADDURU@GMAIL.COM</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -367,9 +322,6 @@
     <t>SPOUSE'S SURNAME</t>
   </si>
   <si>
-    <t>DUCIMUS FUGA POSSI</t>
-  </si>
-  <si>
     <t>23. NAME of CHILDREN  (Write full name and list all)</t>
   </si>
   <si>
@@ -382,60 +334,39 @@
     <t xml:space="preserve">  FIRST NAME</t>
   </si>
   <si>
-    <t>EXPEDITA REICIENDIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                     </t>
   </si>
   <si>
-    <t>QUASI REICIENDIS SIM</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">  MIDDLE NAME</t>
   </si>
   <si>
-    <t>MOLESTIAE QUI QUI AU</t>
-  </si>
-  <si>
     <t>Brunei </t>
   </si>
   <si>
     <t>OCCUPATION</t>
   </si>
   <si>
-    <t>DOLOR EXPEDITA ET FA</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>EMPLOYER/BUSINESS NAME</t>
   </si>
   <si>
-    <t>SINT QUAE SUNT QUIS</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
     <t>BUSINESS ADDRESS</t>
   </si>
   <si>
-    <t>RATIONE HARUM SUNT</t>
-  </si>
-  <si>
     <t>Burma</t>
   </si>
   <si>
     <t>TELEPHONE NO.</t>
   </si>
   <si>
-    <t>MODI EIUS UT LABORIO</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
@@ -445,27 +376,15 @@
     <t>FATHER'S SURNAME</t>
   </si>
   <si>
-    <t>OFFICIA CORPORIS AUT</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>ET ODIT CONSEQUUNTUR</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME EXTENSION (JR., SR)                                                  </t>
   </si>
   <si>
-    <t>OFFICIA VENIAM ULLA</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>IURE PLACEAT LABORE</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -478,19 +397,10 @@
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>PROIDENT SIT EIUS N</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>EARUM ET CORPORIS EA</t>
-  </si>
-  <si>
     <t>Chad</t>
-  </si>
-  <si>
-    <t>CONSEQUUNTUR OFFICIA</t>
   </si>
   <si>
     <t>(Continue on separate sheet if necessary)</t>
@@ -551,31 +461,16 @@
     <t>ELEMENTARY</t>
   </si>
   <si>
-    <t>TEST SCHOOL</t>
-  </si>
-  <si>
     <t>Congo, Republic of the</t>
   </si>
   <si>
     <t>SECONDARY</t>
   </si>
   <si>
-    <t>TEST HIGH SCHOOL</t>
-  </si>
-  <si>
-    <t>HIGH SCHOOL</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
     <t>VOCATIONAL /                                                                                                                                                                                                        TRADE COURSE</t>
-  </si>
-  <si>
-    <t>TEST UNIVERSITY</t>
-  </si>
-  <si>
-    <t>BSIT</t>
   </si>
   <si>
     <t>Cote d'Ivoire</t>
@@ -1105,33 +1000,6 @@
 Validity</t>
   </si>
   <si>
-    <t>CS PROF</t>
-  </si>
-  <si>
-    <t>12/12/2012</t>
-  </si>
-  <si>
-    <t>12/31/2024</t>
-  </si>
-  <si>
-    <t>03/01/2020</t>
-  </si>
-  <si>
-    <t>TO PRESENT</t>
-  </si>
-  <si>
-    <t>ECONOMIC DEVELOPMENT SPECIALIST I</t>
-  </si>
-  <si>
-    <t>NEDA</t>
-  </si>
-  <si>
-    <t>PERMANENT</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">V.  WORK EXPERIENCE </t>
   </si>
   <si>
@@ -1181,30 +1049,6 @@
   </si>
   <si>
     <t>POSITION / NATURE OF WORK</t>
-  </si>
-  <si>
-    <t>TEST ORG</t>
-  </si>
-  <si>
-    <t>12/31/2018</t>
-  </si>
-  <si>
-    <t>12/31/2021</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>TEST TRAINING</t>
-  </si>
-  <si>
-    <t>07/29/2024</t>
-  </si>
-  <si>
-    <t>TECHNICAL</t>
-  </si>
-  <si>
-    <t>DICT</t>
   </si>
   <si>
     <t>VII.  LEARNING AND DEVELOPMENT (L&amp;D) INTERVENTIONS/TRAINING PROGRAMS ATTENDED</t>
@@ -1248,7 +1092,7 @@
     <t>MEMBERSHIP IN ASSOCIATION/ORGANIZATION                                                                                         (Write in full)</t>
   </si>
   <si>
-    <t>GAWAD NG DIREKTOR</t>
+    <t>GAWAD NG DIREKTOR (TECHNICAL)</t>
   </si>
   <si>
     <t xml:space="preserve"> CS FORM 212 (Revised 2017), Page 3 of 4</t>
@@ -1267,9 +1111,6 @@
   </si>
   <si>
     <t>a. within the third degree?</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>b. within the fourth degree (for Local Government Unit - Career Employees)?</t>
@@ -1404,33 +1245,6 @@
     <t>TEL. NO.</t>
   </si>
   <si>
-    <t>RIA COOK</t>
-  </si>
-  <si>
-    <t>CHESTER ADKINS</t>
-  </si>
-  <si>
-    <t>DEXTER POPE</t>
-  </si>
-  <si>
-    <t>WARREN SINGLETON</t>
-  </si>
-  <si>
-    <t>HEDWIG GENTRY</t>
-  </si>
-  <si>
-    <t>QUINTESSA HOWARD</t>
-  </si>
-  <si>
-    <t>RAYA GILMORE</t>
-  </si>
-  <si>
-    <t>CAILIN HARRIS</t>
-  </si>
-  <si>
-    <t>ECHO KIRKLAND</t>
-  </si>
-  <si>
     <t>42.</t>
   </si>
   <si>
@@ -1505,9 +1319,6 @@
     <t xml:space="preserve">Government Issued ID: </t>
   </si>
   <si>
-    <t>MATTHEW SHARPE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID/License/Passport No.: </t>
   </si>
   <si>
@@ -1515,9 +1326,6 @@
   </si>
   <si>
     <t>Date/Place of Issuance:</t>
-  </si>
-  <si>
-    <t>DECEMBER 25, 2023</t>
   </si>
   <si>
     <t>Date Accomplished</t>
@@ -7129,9 +6937,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="380"/>
-      <c r="D10" s="385" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="385"/>
       <c r="E10" s="385"/>
       <c r="F10" s="385"/>
       <c r="G10" s="385"/>
@@ -7147,12 +6953,10 @@
     <row r="11" spans="1:19" customHeight="1" ht="22.5">
       <c r="A11" s="163"/>
       <c r="B11" s="396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="397"/>
-      <c r="D11" s="197" t="s">
-        <v>15</v>
-      </c>
+      <c r="D11" s="197"/>
       <c r="E11" s="198"/>
       <c r="F11" s="198"/>
       <c r="G11" s="198"/>
@@ -7161,26 +6965,24 @@
       <c r="J11" s="198"/>
       <c r="K11" s="198"/>
       <c r="L11" s="365" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="366"/>
       <c r="N11" s="252"/>
       <c r="P11" s="96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="21.75">
       <c r="A12" s="164"/>
       <c r="B12" s="398" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="399"/>
-      <c r="D12" s="194" t="s">
-        <v>20</v>
-      </c>
+      <c r="D12" s="194"/>
       <c r="E12" s="195"/>
       <c r="F12" s="195"/>
       <c r="G12" s="195"/>
@@ -7192,42 +6994,38 @@
       <c r="M12" s="199"/>
       <c r="N12" s="200"/>
       <c r="P12" s="96" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" customHeight="1" ht="24">
       <c r="A13" s="226" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="379" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="380"/>
-      <c r="D13" s="268" t="s">
-        <v>25</v>
-      </c>
+      <c r="D13" s="268"/>
       <c r="E13" s="268"/>
       <c r="F13" s="269"/>
       <c r="G13" s="102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13" s="145"/>
       <c r="I13" s="145"/>
-      <c r="J13" s="359" t="s">
-        <v>27</v>
-      </c>
+      <c r="J13" s="359"/>
       <c r="K13" s="360"/>
       <c r="L13" s="360"/>
       <c r="M13" s="360"/>
       <c r="N13" s="361"/>
       <c r="P13" s="96" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:19" customHeight="1" ht="12">
@@ -7250,19 +7048,17 @@
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="24.75">
       <c r="A15" s="165" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="371" t="s">
-        <v>32</v>
-      </c>
+      <c r="D15" s="371"/>
       <c r="E15" s="371"/>
       <c r="F15" s="372"/>
       <c r="G15" s="273" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15" s="274"/>
       <c r="I15" s="274"/>
@@ -7272,27 +7068,25 @@
       <c r="M15" s="284"/>
       <c r="N15" s="285"/>
       <c r="P15" s="96" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="24.75">
       <c r="A16" s="166" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="387" t="s">
-        <v>38</v>
-      </c>
+      <c r="D16" s="387"/>
       <c r="E16" s="387"/>
       <c r="F16" s="320"/>
       <c r="G16" s="270" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16" s="271"/>
       <c r="I16" s="272"/>
@@ -7302,10 +7096,10 @@
       <c r="M16" s="287"/>
       <c r="N16" s="288"/>
       <c r="P16" s="96" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:19" customHeight="1" ht="15.75">
@@ -7313,30 +7107,24 @@
         <v>6</v>
       </c>
       <c r="B17" s="279" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C17" s="280"/>
-      <c r="D17" s="277" t="s">
-        <v>43</v>
-      </c>
+      <c r="D17" s="277"/>
       <c r="E17" s="277"/>
       <c r="F17" s="277"/>
       <c r="G17" s="103" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H17" s="104"/>
-      <c r="I17" s="354">
-        <v>321231</v>
-      </c>
+      <c r="I17" s="354"/>
       <c r="J17" s="355"/>
       <c r="K17" s="355"/>
-      <c r="L17" s="355" t="s">
-        <v>45</v>
-      </c>
+      <c r="L17" s="355"/>
       <c r="M17" s="355"/>
       <c r="N17" s="362"/>
       <c r="Q17" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" customHeight="1" ht="9">
@@ -7349,17 +7137,17 @@
       <c r="G18" s="151"/>
       <c r="H18" s="255"/>
       <c r="I18" s="363" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J18" s="364"/>
       <c r="K18" s="364"/>
       <c r="L18" s="364" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M18" s="364"/>
       <c r="N18" s="367"/>
       <c r="Q18" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" customHeight="1" ht="5.25">
@@ -7371,18 +7159,14 @@
       <c r="F19" s="257"/>
       <c r="G19" s="151"/>
       <c r="H19" s="255"/>
-      <c r="I19" s="377" t="s">
-        <v>50</v>
-      </c>
+      <c r="I19" s="377"/>
       <c r="J19" s="312"/>
       <c r="K19" s="312"/>
-      <c r="L19" s="311" t="s">
-        <v>51</v>
-      </c>
+      <c r="L19" s="311"/>
       <c r="M19" s="312"/>
       <c r="N19" s="313"/>
       <c r="Q19" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:19" customHeight="1" ht="9.75">
@@ -7401,7 +7185,7 @@
       <c r="M20" s="314"/>
       <c r="N20" s="315"/>
       <c r="Q20" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:19" customHeight="1" ht="9">
@@ -7414,46 +7198,40 @@
       <c r="G21" s="149"/>
       <c r="H21" s="251"/>
       <c r="I21" s="316" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J21" s="317"/>
       <c r="K21" s="317"/>
       <c r="L21" s="430" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M21" s="431"/>
       <c r="N21" s="432"/>
       <c r="Q21" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:19" customHeight="1" ht="15.75">
       <c r="A22" s="326" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B22" s="330" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C22" s="331"/>
-      <c r="D22" s="320">
-        <v>100</v>
-      </c>
+      <c r="D22" s="320"/>
       <c r="E22" s="277"/>
       <c r="F22" s="321"/>
       <c r="G22" s="149"/>
       <c r="H22" s="251"/>
-      <c r="I22" s="354" t="s">
-        <v>59</v>
-      </c>
+      <c r="I22" s="354"/>
       <c r="J22" s="355"/>
       <c r="K22" s="355"/>
-      <c r="L22" s="355" t="s">
-        <v>60</v>
-      </c>
+      <c r="L22" s="355"/>
       <c r="M22" s="355"/>
       <c r="N22" s="362"/>
       <c r="Q22" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:19" customHeight="1" ht="8.25">
@@ -7466,63 +7244,57 @@
       <c r="G23" s="149"/>
       <c r="H23" s="251"/>
       <c r="I23" s="435" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J23" s="436"/>
       <c r="K23" s="436"/>
       <c r="L23" s="433" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M23" s="433"/>
       <c r="N23" s="434"/>
       <c r="Q23" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:19" customHeight="1" ht="22.5">
       <c r="A24" s="163" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B24" s="334" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C24" s="335"/>
-      <c r="D24" s="351">
-        <v>100</v>
-      </c>
+      <c r="D24" s="351"/>
       <c r="E24" s="352"/>
       <c r="F24" s="353"/>
       <c r="G24" s="400" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H24" s="401"/>
-      <c r="I24" s="368">
-        <v>3500</v>
-      </c>
+      <c r="I24" s="368"/>
       <c r="J24" s="369"/>
       <c r="K24" s="369"/>
       <c r="L24" s="369"/>
       <c r="M24" s="369"/>
       <c r="N24" s="370"/>
       <c r="Q24" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:19" customHeight="1" ht="15.75">
       <c r="A25" s="318" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B25" s="330" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C25" s="331"/>
-      <c r="D25" s="320" t="s">
-        <v>71</v>
-      </c>
+      <c r="D25" s="320"/>
       <c r="E25" s="277"/>
       <c r="F25" s="321"/>
       <c r="G25" s="109" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H25" s="99"/>
       <c r="I25" s="354"/>
@@ -7532,7 +7304,7 @@
       <c r="M25" s="355"/>
       <c r="N25" s="362"/>
       <c r="Q25" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:19" customHeight="1" ht="9">
@@ -7545,30 +7317,28 @@
       <c r="G26" s="149"/>
       <c r="H26" s="251"/>
       <c r="I26" s="363" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J26" s="364"/>
       <c r="K26" s="364"/>
       <c r="L26" s="364" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M26" s="364"/>
       <c r="N26" s="367"/>
       <c r="Q26" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:19" customHeight="1" ht="15.75">
       <c r="A27" s="318" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B27" s="330" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C27" s="331"/>
-      <c r="D27" s="320">
-        <v>1324</v>
-      </c>
+      <c r="D27" s="320"/>
       <c r="E27" s="277"/>
       <c r="F27" s="321"/>
       <c r="G27" s="151"/>
@@ -7580,7 +7350,7 @@
       <c r="M27" s="355"/>
       <c r="N27" s="362"/>
       <c r="Q27" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:19" customHeight="1" ht="9">
@@ -7593,30 +7363,28 @@
       <c r="G28" s="151"/>
       <c r="H28" s="255"/>
       <c r="I28" s="412" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J28" s="410"/>
       <c r="K28" s="410"/>
       <c r="L28" s="409" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M28" s="410"/>
       <c r="N28" s="411"/>
       <c r="Q28" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:19" customHeight="1" ht="15.75">
       <c r="A29" s="318" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B29" s="330" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C29" s="331"/>
-      <c r="D29" s="320">
-        <v>1234</v>
-      </c>
+      <c r="D29" s="320"/>
       <c r="E29" s="277"/>
       <c r="F29" s="321"/>
       <c r="G29" s="151"/>
@@ -7628,7 +7396,7 @@
       <c r="M29" s="408"/>
       <c r="N29" s="441"/>
       <c r="Q29" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:19" customHeight="1" ht="9.75">
@@ -7641,34 +7409,32 @@
       <c r="G30" s="151"/>
       <c r="H30" s="156"/>
       <c r="I30" s="437" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J30" s="437"/>
       <c r="K30" s="437"/>
       <c r="L30" s="437" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M30" s="437"/>
       <c r="N30" s="438"/>
       <c r="Q30" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:19" customHeight="1" ht="24.75">
       <c r="A31" s="165" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C31" s="98"/>
-      <c r="D31" s="351">
-        <v>12345313</v>
-      </c>
+      <c r="D31" s="351"/>
       <c r="E31" s="352"/>
       <c r="F31" s="353"/>
       <c r="G31" s="439" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H31" s="440"/>
       <c r="I31" s="356"/>
@@ -7678,95 +7444,83 @@
       <c r="M31" s="357"/>
       <c r="N31" s="358"/>
       <c r="Q31" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:19" customHeight="1" ht="24.75">
       <c r="A32" s="163" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C32" s="98"/>
-      <c r="D32" s="351">
-        <v>131</v>
-      </c>
+      <c r="D32" s="351"/>
       <c r="E32" s="352"/>
       <c r="F32" s="353"/>
       <c r="G32" s="373" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H32" s="335"/>
-      <c r="I32" s="356">
-        <v>99999999</v>
-      </c>
+      <c r="I32" s="356"/>
       <c r="J32" s="357"/>
       <c r="K32" s="357"/>
       <c r="L32" s="357"/>
       <c r="M32" s="357"/>
       <c r="N32" s="358"/>
       <c r="Q32" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:19" customHeight="1" ht="24.75">
       <c r="A33" s="402" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B33" s="335"/>
       <c r="C33" s="403"/>
-      <c r="D33" s="351">
-        <v>31331</v>
-      </c>
+      <c r="D33" s="351"/>
       <c r="E33" s="352"/>
       <c r="F33" s="353"/>
       <c r="G33" s="196" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H33" s="150"/>
-      <c r="I33" s="356">
-        <v>9999999</v>
-      </c>
+      <c r="I33" s="356"/>
       <c r="J33" s="357"/>
       <c r="K33" s="357"/>
       <c r="L33" s="357"/>
       <c r="M33" s="357"/>
       <c r="N33" s="358"/>
       <c r="Q33" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:19" customHeight="1" ht="24.75">
       <c r="A34" s="168" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B34" s="254"/>
       <c r="C34" s="152"/>
-      <c r="D34" s="390">
-        <v>31232</v>
-      </c>
+      <c r="D34" s="390"/>
       <c r="E34" s="391"/>
       <c r="F34" s="392"/>
       <c r="G34" s="109" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H34" s="99"/>
-      <c r="I34" s="356" t="s">
-        <v>95</v>
-      </c>
+      <c r="I34" s="356"/>
       <c r="J34" s="357"/>
       <c r="K34" s="357"/>
       <c r="L34" s="357"/>
       <c r="M34" s="357"/>
       <c r="N34" s="358"/>
       <c r="Q34" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:19" customHeight="1" ht="16.5">
       <c r="A35" s="205" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B35" s="206"/>
       <c r="C35" s="206"/>
@@ -7782,55 +7536,49 @@
       <c r="M35" s="206"/>
       <c r="N35" s="207"/>
       <c r="Q35" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:19" customHeight="1" ht="21">
       <c r="A36" s="102" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B36" s="215" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C36" s="216"/>
-      <c r="D36" s="309" t="s">
-        <v>101</v>
-      </c>
+      <c r="D36" s="309"/>
       <c r="E36" s="309"/>
       <c r="F36" s="309"/>
       <c r="G36" s="309"/>
       <c r="H36" s="309"/>
       <c r="I36" s="291" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J36" s="291"/>
       <c r="K36" s="291"/>
       <c r="L36" s="292"/>
       <c r="M36" s="328" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N36" s="329"/>
       <c r="Q36" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:19" customHeight="1" ht="21">
       <c r="A37" s="149"/>
       <c r="B37" s="255" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C37" s="156"/>
-      <c r="D37" s="404" t="s">
-        <v>106</v>
-      </c>
+      <c r="D37" s="404"/>
       <c r="E37" s="405"/>
       <c r="F37" s="406"/>
       <c r="G37" s="247" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="248" t="s">
-        <v>108</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H37" s="248"/>
       <c r="I37" s="293"/>
       <c r="J37" s="266"/>
       <c r="K37" s="266"/>
@@ -7838,18 +7586,16 @@
       <c r="M37" s="289"/>
       <c r="N37" s="290"/>
       <c r="Q37" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:19" customHeight="1" ht="21">
       <c r="A38" s="169"/>
       <c r="B38" s="210" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C38" s="209"/>
-      <c r="D38" s="404" t="s">
-        <v>111</v>
-      </c>
+      <c r="D38" s="404"/>
       <c r="E38" s="405"/>
       <c r="F38" s="405"/>
       <c r="G38" s="405"/>
@@ -7861,18 +7607,16 @@
       <c r="M38" s="289"/>
       <c r="N38" s="290"/>
       <c r="Q38" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:19" customHeight="1" ht="21">
       <c r="A39" s="170"/>
       <c r="B39" s="97" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C39" s="98"/>
-      <c r="D39" s="310" t="s">
-        <v>114</v>
-      </c>
+      <c r="D39" s="310"/>
       <c r="E39" s="310"/>
       <c r="F39" s="310"/>
       <c r="G39" s="310"/>
@@ -7884,18 +7628,16 @@
       <c r="M39" s="289"/>
       <c r="N39" s="290"/>
       <c r="Q39" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:19" customHeight="1" ht="21">
       <c r="A40" s="170"/>
       <c r="B40" s="97" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C40" s="98"/>
-      <c r="D40" s="310" t="s">
-        <v>117</v>
-      </c>
+      <c r="D40" s="310"/>
       <c r="E40" s="310"/>
       <c r="F40" s="310"/>
       <c r="G40" s="310"/>
@@ -7907,18 +7649,16 @@
       <c r="M40" s="289"/>
       <c r="N40" s="290"/>
       <c r="Q40" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:19" customHeight="1" ht="21">
       <c r="A41" s="170"/>
       <c r="B41" s="97" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C41" s="98"/>
-      <c r="D41" s="310" t="s">
-        <v>120</v>
-      </c>
+      <c r="D41" s="310"/>
       <c r="E41" s="310"/>
       <c r="F41" s="310"/>
       <c r="G41" s="310"/>
@@ -7930,18 +7670,16 @@
       <c r="M41" s="289"/>
       <c r="N41" s="290"/>
       <c r="Q41" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:19" customHeight="1" ht="21">
       <c r="A42" s="103"/>
       <c r="B42" s="104" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C42" s="137"/>
-      <c r="D42" s="310" t="s">
-        <v>123</v>
-      </c>
+      <c r="D42" s="310"/>
       <c r="E42" s="310"/>
       <c r="F42" s="310"/>
       <c r="G42" s="310"/>
@@ -7953,20 +7691,18 @@
       <c r="M42" s="289"/>
       <c r="N42" s="290"/>
       <c r="Q42" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:19" customHeight="1" ht="21">
       <c r="A43" s="208" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B43" s="213" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C43" s="104"/>
-      <c r="D43" s="310" t="s">
-        <v>127</v>
-      </c>
+      <c r="D43" s="310"/>
       <c r="E43" s="310"/>
       <c r="F43" s="310"/>
       <c r="G43" s="310"/>
@@ -7978,26 +7714,22 @@
       <c r="M43" s="289"/>
       <c r="N43" s="290"/>
       <c r="Q43" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:19" customHeight="1" ht="21">
       <c r="A44" s="149"/>
       <c r="B44" s="251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="251"/>
-      <c r="D44" s="404" t="s">
-        <v>129</v>
-      </c>
+      <c r="D44" s="404"/>
       <c r="E44" s="405"/>
       <c r="F44" s="406"/>
       <c r="G44" s="247" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="248" t="s">
-        <v>131</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H44" s="248"/>
       <c r="I44" s="266"/>
       <c r="J44" s="266"/>
       <c r="K44" s="266"/>
@@ -8005,18 +7737,16 @@
       <c r="M44" s="289"/>
       <c r="N44" s="290"/>
       <c r="Q44" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:19" customHeight="1" ht="21">
       <c r="A45" s="169"/>
       <c r="B45" s="203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="203"/>
-      <c r="D45" s="404" t="s">
-        <v>133</v>
-      </c>
+      <c r="D45" s="404"/>
       <c r="E45" s="405"/>
       <c r="F45" s="405"/>
       <c r="G45" s="405"/>
@@ -8028,15 +7758,15 @@
       <c r="M45" s="289"/>
       <c r="N45" s="290"/>
       <c r="Q45" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:19" customHeight="1" ht="21">
       <c r="A46" s="149" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C46" s="104"/>
       <c r="D46" s="308"/>
@@ -8051,7 +7781,7 @@
       <c r="M46" s="289"/>
       <c r="N46" s="290"/>
       <c r="Q46" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:19" customHeight="1" ht="21">
@@ -8060,9 +7790,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="251"/>
-      <c r="D47" s="461" t="s">
-        <v>138</v>
-      </c>
+      <c r="D47" s="461"/>
       <c r="E47" s="461"/>
       <c r="F47" s="461"/>
       <c r="G47" s="461"/>
@@ -8074,18 +7802,16 @@
       <c r="M47" s="289"/>
       <c r="N47" s="290"/>
       <c r="Q47" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:19" customHeight="1" ht="21">
       <c r="A48" s="149"/>
       <c r="B48" s="251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="251"/>
-      <c r="D48" s="461" t="s">
-        <v>140</v>
-      </c>
+      <c r="D48" s="461"/>
       <c r="E48" s="461"/>
       <c r="F48" s="461"/>
       <c r="G48" s="461"/>
@@ -8097,24 +7823,22 @@
       <c r="M48" s="289"/>
       <c r="N48" s="290"/>
       <c r="Q48" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:19" customHeight="1" ht="21">
       <c r="A49" s="171"/>
       <c r="B49" s="204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" s="204"/>
-      <c r="D49" s="301" t="s">
-        <v>142</v>
-      </c>
+      <c r="D49" s="301"/>
       <c r="E49" s="301"/>
       <c r="F49" s="301"/>
       <c r="G49" s="301"/>
       <c r="H49" s="301"/>
       <c r="I49" s="299" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="J49" s="299"/>
       <c r="K49" s="299"/>
@@ -8122,12 +7846,12 @@
       <c r="M49" s="299"/>
       <c r="N49" s="300"/>
       <c r="Q49" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:19" customHeight="1" ht="15.75">
       <c r="A50" s="172" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B50" s="172"/>
       <c r="C50" s="100"/>
@@ -8137,7 +7861,7 @@
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
       <c r="I50" s="388" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J50" s="388"/>
       <c r="K50" s="388"/>
@@ -8145,42 +7869,42 @@
       <c r="M50" s="388"/>
       <c r="N50" s="389"/>
       <c r="Q50" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:19" customHeight="1" ht="14.25">
       <c r="A51" s="381" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B51" s="413" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C51" s="413"/>
       <c r="D51" s="416" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E51" s="417"/>
       <c r="F51" s="418"/>
       <c r="G51" s="416" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="H51" s="417"/>
       <c r="I51" s="462"/>
       <c r="J51" s="302" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="K51" s="303"/>
       <c r="L51" s="459" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="M51" s="383" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="N51" s="306" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:19" customHeight="1" ht="19.5">
@@ -8199,7 +7923,7 @@
       <c r="M52" s="383"/>
       <c r="N52" s="306"/>
       <c r="Q52" s="3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:19" customHeight="1" ht="14.25">
@@ -8213,10 +7937,10 @@
       <c r="H53" s="423"/>
       <c r="I53" s="464"/>
       <c r="J53" s="105" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="K53" s="106" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="L53" s="460"/>
       <c r="M53" s="384"/>
@@ -8224,106 +7948,76 @@
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:19" customHeight="1" ht="28.5">
       <c r="A54" s="217"/>
       <c r="B54" s="218" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C54" s="218"/>
-      <c r="D54" s="424" t="s">
-        <v>162</v>
-      </c>
+      <c r="D54" s="424"/>
       <c r="E54" s="425"/>
       <c r="F54" s="426"/>
-      <c r="G54" s="294" t="s">
-        <v>161</v>
-      </c>
+      <c r="G54" s="294"/>
       <c r="H54" s="295"/>
       <c r="I54" s="296"/>
-      <c r="J54" s="157">
-        <v>2000</v>
-      </c>
-      <c r="K54" s="260">
-        <v>2006</v>
-      </c>
+      <c r="J54" s="157"/>
+      <c r="K54" s="260"/>
       <c r="L54" s="157"/>
-      <c r="M54" s="18">
-        <v>2006</v>
-      </c>
+      <c r="M54" s="18"/>
       <c r="N54" s="153"/>
       <c r="Q54" s="3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:19" customHeight="1" ht="28.5">
       <c r="A55" s="217"/>
       <c r="B55" s="218" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C55" s="218"/>
-      <c r="D55" s="424" t="s">
-        <v>165</v>
-      </c>
+      <c r="D55" s="424"/>
       <c r="E55" s="425"/>
       <c r="F55" s="426"/>
-      <c r="G55" s="294" t="s">
-        <v>166</v>
-      </c>
+      <c r="G55" s="294"/>
       <c r="H55" s="295"/>
       <c r="I55" s="296"/>
-      <c r="J55" s="157">
-        <v>2007</v>
-      </c>
-      <c r="K55" s="260">
-        <v>2011</v>
-      </c>
+      <c r="J55" s="157"/>
+      <c r="K55" s="260"/>
       <c r="L55" s="157"/>
-      <c r="M55" s="19">
-        <v>2011</v>
-      </c>
+      <c r="M55" s="19"/>
       <c r="N55" s="153"/>
       <c r="Q55" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:19" customHeight="1" ht="28.5">
       <c r="A56" s="217"/>
       <c r="B56" s="218" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C56" s="218"/>
-      <c r="D56" s="424" t="s">
-        <v>169</v>
-      </c>
+      <c r="D56" s="424"/>
       <c r="E56" s="425"/>
       <c r="F56" s="426"/>
-      <c r="G56" s="294" t="s">
-        <v>170</v>
-      </c>
+      <c r="G56" s="294"/>
       <c r="H56" s="295"/>
       <c r="I56" s="296"/>
-      <c r="J56" s="157">
-        <v>2012</v>
-      </c>
-      <c r="K56" s="260">
-        <v>2016</v>
-      </c>
+      <c r="J56" s="157"/>
+      <c r="K56" s="260"/>
       <c r="L56" s="157"/>
-      <c r="M56" s="18">
-        <v>2016</v>
-      </c>
+      <c r="M56" s="18"/>
       <c r="N56" s="153"/>
       <c r="Q56" s="3" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:19" customHeight="1" ht="28.5">
       <c r="A57" s="217"/>
       <c r="B57" s="218" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C57" s="218"/>
       <c r="D57" s="424"/>
@@ -8338,13 +8032,13 @@
       <c r="M57" s="19"/>
       <c r="N57" s="153"/>
       <c r="Q57" s="3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:19" customHeight="1" ht="28.5">
       <c r="A58" s="219"/>
       <c r="B58" s="220" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C58" s="220"/>
       <c r="D58" s="427"/>
@@ -8359,12 +8053,12 @@
       <c r="M58" s="21"/>
       <c r="N58" s="153"/>
       <c r="Q58" s="3" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:19" customHeight="1" ht="12">
       <c r="A59" s="448" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B59" s="449"/>
       <c r="C59" s="449"/>
@@ -8380,12 +8074,12 @@
       <c r="M59" s="449"/>
       <c r="N59" s="450"/>
       <c r="Q59" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:19" customHeight="1" ht="27.75">
       <c r="A60" s="445" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B60" s="446"/>
       <c r="C60" s="447"/>
@@ -8396,19 +8090,19 @@
       <c r="H60" s="455"/>
       <c r="I60" s="456"/>
       <c r="J60" s="457" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="K60" s="458"/>
       <c r="L60" s="451"/>
       <c r="M60" s="452"/>
       <c r="N60" s="453"/>
       <c r="Q60" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:19" customHeight="1" ht="12" s="143" customFormat="1">
       <c r="A61" s="442" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B61" s="443"/>
       <c r="C61" s="443"/>
@@ -8424,7 +8118,7 @@
       <c r="M61" s="443"/>
       <c r="N61" s="444"/>
       <c r="Q61" s="233" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:19" customHeight="1" ht="14.25">
@@ -8443,7 +8137,7 @@
       <c r="M62" s="108"/>
       <c r="N62" s="108"/>
       <c r="Q62" s="3" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:19" customHeight="1" ht="14.25">
@@ -8462,7 +8156,7 @@
       <c r="M63" s="108"/>
       <c r="N63" s="108"/>
       <c r="Q63" s="3" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:19" customHeight="1" ht="28.5">
@@ -8481,7 +8175,7 @@
       <c r="M64" s="108"/>
       <c r="N64" s="108"/>
       <c r="Q64" s="3" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:19" customHeight="1" ht="14.25">
@@ -8500,7 +8194,7 @@
       <c r="M65" s="108"/>
       <c r="N65" s="108"/>
       <c r="Q65" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:19" customHeight="1" ht="14.25">
@@ -8519,7 +8213,7 @@
       <c r="M66" s="108"/>
       <c r="N66" s="108"/>
       <c r="Q66" s="3" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:19" customHeight="1" ht="14.25">
@@ -8538,7 +8232,7 @@
       <c r="M67" s="108"/>
       <c r="N67" s="108"/>
       <c r="Q67" s="3" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:19" customHeight="1" ht="14.25">
@@ -8557,7 +8251,7 @@
       <c r="M68" s="108"/>
       <c r="N68" s="108"/>
       <c r="Q68" s="3" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:19" customHeight="1" ht="28.5">
@@ -8576,7 +8270,7 @@
       <c r="M69" s="108"/>
       <c r="N69" s="108"/>
       <c r="Q69" s="3" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="14.25">
@@ -8595,7 +8289,7 @@
       <c r="M70" s="108"/>
       <c r="N70" s="108"/>
       <c r="Q70" s="3" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="14.25">
@@ -8614,7 +8308,7 @@
       <c r="M71" s="108"/>
       <c r="N71" s="108"/>
       <c r="Q71" s="3" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="14.25">
@@ -8633,7 +8327,7 @@
       <c r="M72" s="108"/>
       <c r="N72" s="108"/>
       <c r="Q72" s="3" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="14.25">
@@ -8652,7 +8346,7 @@
       <c r="M73" s="108"/>
       <c r="N73" s="108"/>
       <c r="Q73" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="14.25">
@@ -8671,7 +8365,7 @@
       <c r="M74" s="108"/>
       <c r="N74" s="108"/>
       <c r="Q74" s="3" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="14.25">
@@ -8690,7 +8384,7 @@
       <c r="M75" s="108"/>
       <c r="N75" s="108"/>
       <c r="Q75" s="3" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="14.25">
@@ -8709,7 +8403,7 @@
       <c r="M76" s="108"/>
       <c r="N76" s="108"/>
       <c r="Q76" s="3" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="14.25">
@@ -8728,7 +8422,7 @@
       <c r="M77" s="108"/>
       <c r="N77" s="108"/>
       <c r="Q77" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:19" customHeight="1" ht="14.25">
@@ -8747,7 +8441,7 @@
       <c r="M78" s="108"/>
       <c r="N78" s="108"/>
       <c r="Q78" s="3" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:19" customHeight="1" ht="14.25">
@@ -8766,7 +8460,7 @@
       <c r="M79" s="108"/>
       <c r="N79" s="108"/>
       <c r="Q79" s="3" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:19" customHeight="1" ht="14.25">
@@ -8785,7 +8479,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
       <c r="Q80" s="3" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:19" customHeight="1" ht="14.25">
@@ -8804,7 +8498,7 @@
       <c r="M81" s="108"/>
       <c r="N81" s="108"/>
       <c r="Q81" s="3" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:19" customHeight="1" ht="14.25">
@@ -8823,7 +8517,7 @@
       <c r="M82" s="108"/>
       <c r="N82" s="108"/>
       <c r="Q82" s="3" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:19" customHeight="1" ht="14.25">
@@ -8842,7 +8536,7 @@
       <c r="M83" s="108"/>
       <c r="N83" s="108"/>
       <c r="Q83" s="3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:19" customHeight="1" ht="14.25">
@@ -8861,7 +8555,7 @@
       <c r="M84" s="108"/>
       <c r="N84" s="108"/>
       <c r="Q84" s="3" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:19" customHeight="1" ht="28.5">
@@ -8880,7 +8574,7 @@
       <c r="M85" s="108"/>
       <c r="N85" s="108"/>
       <c r="Q85" s="3" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:19" customHeight="1" ht="14.25">
@@ -8899,7 +8593,7 @@
       <c r="M86" s="108"/>
       <c r="N86" s="108"/>
       <c r="Q86" s="3" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:19" customHeight="1" ht="14.25">
@@ -8918,7 +8612,7 @@
       <c r="M87" s="108"/>
       <c r="N87" s="108"/>
       <c r="Q87" s="3" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:19" customHeight="1" ht="14.25">
@@ -8937,7 +8631,7 @@
       <c r="M88" s="108"/>
       <c r="N88" s="108"/>
       <c r="Q88" s="3" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:19" customHeight="1" ht="14.25">
@@ -8956,7 +8650,7 @@
       <c r="M89" s="108"/>
       <c r="N89" s="108"/>
       <c r="Q89" s="3" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:19" customHeight="1" ht="14.25">
@@ -8975,7 +8669,7 @@
       <c r="M90" s="108"/>
       <c r="N90" s="108"/>
       <c r="Q90" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:19" customHeight="1" ht="14.25">
@@ -8994,7 +8688,7 @@
       <c r="M91" s="108"/>
       <c r="N91" s="108"/>
       <c r="Q91" s="3" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:19" customHeight="1" ht="14.25">
@@ -9013,7 +8707,7 @@
       <c r="M92" s="108"/>
       <c r="N92" s="108"/>
       <c r="Q92" s="3" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:19" customHeight="1" ht="14.25">
@@ -9032,7 +8726,7 @@
       <c r="M93" s="108"/>
       <c r="N93" s="108"/>
       <c r="Q93" s="3" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:19" customHeight="1" ht="14.25">
@@ -9051,7 +8745,7 @@
       <c r="M94" s="108"/>
       <c r="N94" s="108"/>
       <c r="Q94" s="3" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:19" customHeight="1" ht="14.25">
@@ -9070,7 +8764,7 @@
       <c r="M95" s="108"/>
       <c r="N95" s="108"/>
       <c r="Q95" s="3" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:19" customHeight="1" ht="14.25">
@@ -9089,7 +8783,7 @@
       <c r="M96" s="108"/>
       <c r="N96" s="108"/>
       <c r="Q96" s="3" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:19" customHeight="1" ht="14.25">
@@ -9108,7 +8802,7 @@
       <c r="M97" s="108"/>
       <c r="N97" s="108"/>
       <c r="Q97" s="3" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:19" customHeight="1" ht="14.25">
@@ -9127,7 +8821,7 @@
       <c r="M98" s="108"/>
       <c r="N98" s="108"/>
       <c r="Q98" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:19" customHeight="1" ht="14.25">
@@ -9146,7 +8840,7 @@
       <c r="M99" s="108"/>
       <c r="N99" s="108"/>
       <c r="Q99" s="3" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:19" customHeight="1" ht="14.25">
@@ -9165,7 +8859,7 @@
       <c r="M100" s="108"/>
       <c r="N100" s="108"/>
       <c r="Q100" s="3" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:19" customHeight="1" ht="14.25">
@@ -9184,7 +8878,7 @@
       <c r="M101" s="108"/>
       <c r="N101" s="108"/>
       <c r="Q101" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:19" customHeight="1" ht="14.25">
@@ -9203,7 +8897,7 @@
       <c r="M102" s="108"/>
       <c r="N102" s="108"/>
       <c r="Q102" s="3" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:19" customHeight="1" ht="14.25">
@@ -9222,7 +8916,7 @@
       <c r="M103" s="108"/>
       <c r="N103" s="108"/>
       <c r="Q103" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:19" customHeight="1" ht="14.25">
@@ -9241,7 +8935,7 @@
       <c r="M104" s="108"/>
       <c r="N104" s="108"/>
       <c r="Q104" s="3" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:19" customHeight="1" ht="14.25">
@@ -9260,7 +8954,7 @@
       <c r="M105" s="108"/>
       <c r="N105" s="108"/>
       <c r="Q105" s="3" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:19" customHeight="1" ht="14.25">
@@ -9279,7 +8973,7 @@
       <c r="M106" s="108"/>
       <c r="N106" s="108"/>
       <c r="Q106" s="3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:19" customHeight="1" ht="14.25">
@@ -9298,7 +8992,7 @@
       <c r="M107" s="108"/>
       <c r="N107" s="108"/>
       <c r="Q107" s="3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:19" customHeight="1" ht="14.25">
@@ -9317,7 +9011,7 @@
       <c r="M108" s="108"/>
       <c r="N108" s="108"/>
       <c r="Q108" s="3" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:19" customHeight="1" ht="14.25">
@@ -9336,7 +9030,7 @@
       <c r="M109" s="108"/>
       <c r="N109" s="108"/>
       <c r="Q109" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:19" customHeight="1" ht="14.25">
@@ -9355,7 +9049,7 @@
       <c r="M110" s="108"/>
       <c r="N110" s="108"/>
       <c r="Q110" s="3" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:19" customHeight="1" ht="14.25">
@@ -9374,7 +9068,7 @@
       <c r="M111" s="108"/>
       <c r="N111" s="108"/>
       <c r="Q111" s="3" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:19" customHeight="1" ht="14.25">
@@ -9393,7 +9087,7 @@
       <c r="M112" s="108"/>
       <c r="N112" s="108"/>
       <c r="Q112" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:19" customHeight="1" ht="14.25">
@@ -9412,7 +9106,7 @@
       <c r="M113" s="108"/>
       <c r="N113" s="108"/>
       <c r="Q113" s="3" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:19" customHeight="1" ht="14.25">
@@ -9431,7 +9125,7 @@
       <c r="M114" s="108"/>
       <c r="N114" s="108"/>
       <c r="Q114" s="3" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:19" customHeight="1" ht="14.25">
@@ -9450,7 +9144,7 @@
       <c r="M115" s="108"/>
       <c r="N115" s="108"/>
       <c r="Q115" s="3" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:19" customHeight="1" ht="14.25">
@@ -9469,7 +9163,7 @@
       <c r="M116" s="108"/>
       <c r="N116" s="108"/>
       <c r="Q116" s="3" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:19" customHeight="1" ht="14.25">
@@ -9488,7 +9182,7 @@
       <c r="M117" s="108"/>
       <c r="N117" s="108"/>
       <c r="Q117" s="3" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:19" customHeight="1" ht="14.25">
@@ -9507,7 +9201,7 @@
       <c r="M118" s="108"/>
       <c r="N118" s="108"/>
       <c r="Q118" s="3" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:19" customHeight="1" ht="14.25">
@@ -9526,7 +9220,7 @@
       <c r="M119" s="108"/>
       <c r="N119" s="108"/>
       <c r="Q119" s="3" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:19" customHeight="1" ht="14.25">
@@ -9545,7 +9239,7 @@
       <c r="M120" s="108"/>
       <c r="N120" s="108"/>
       <c r="Q120" s="3" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:19" customHeight="1" ht="14.25">
@@ -9564,7 +9258,7 @@
       <c r="M121" s="108"/>
       <c r="N121" s="108"/>
       <c r="Q121" s="3" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:19" customHeight="1" ht="14.25">
@@ -9583,7 +9277,7 @@
       <c r="M122" s="108"/>
       <c r="N122" s="108"/>
       <c r="Q122" s="3" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:19" customHeight="1" ht="14.25">
@@ -9602,7 +9296,7 @@
       <c r="M123" s="108"/>
       <c r="N123" s="108"/>
       <c r="Q123" s="3" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:19" customHeight="1" ht="14.25">
@@ -9621,7 +9315,7 @@
       <c r="M124" s="108"/>
       <c r="N124" s="108"/>
       <c r="Q124" s="3" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:19" customHeight="1" ht="14.25">
@@ -9640,7 +9334,7 @@
       <c r="M125" s="108"/>
       <c r="N125" s="108"/>
       <c r="Q125" s="3" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:19" customHeight="1" ht="14.25">
@@ -9659,7 +9353,7 @@
       <c r="M126" s="108"/>
       <c r="N126" s="108"/>
       <c r="Q126" s="3" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:19" customHeight="1" ht="14.25">
@@ -9678,7 +9372,7 @@
       <c r="M127" s="108"/>
       <c r="N127" s="108"/>
       <c r="Q127" s="3" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" spans="1:19" customHeight="1" ht="28.5">
@@ -9697,7 +9391,7 @@
       <c r="M128" s="108"/>
       <c r="N128" s="108"/>
       <c r="Q128" s="3" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:19" customHeight="1" ht="14.25">
@@ -9716,7 +9410,7 @@
       <c r="M129" s="108"/>
       <c r="N129" s="108"/>
       <c r="Q129" s="3" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:19" customHeight="1" ht="14.25">
@@ -9735,7 +9429,7 @@
       <c r="M130" s="108"/>
       <c r="N130" s="108"/>
       <c r="Q130" s="3" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:19" customHeight="1" ht="14.25">
@@ -9754,7 +9448,7 @@
       <c r="M131" s="108"/>
       <c r="N131" s="108"/>
       <c r="Q131" s="3" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:19" customHeight="1" ht="14.25">
@@ -9773,7 +9467,7 @@
       <c r="M132" s="108"/>
       <c r="N132" s="108"/>
       <c r="Q132" s="3" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:19" customHeight="1" ht="14.25">
@@ -9792,7 +9486,7 @@
       <c r="M133" s="108"/>
       <c r="N133" s="108"/>
       <c r="Q133" s="3" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:19" customHeight="1" ht="14.25">
@@ -9811,7 +9505,7 @@
       <c r="M134" s="108"/>
       <c r="N134" s="108"/>
       <c r="Q134" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:19" customHeight="1" ht="14.25">
@@ -9830,7 +9524,7 @@
       <c r="M135" s="108"/>
       <c r="N135" s="108"/>
       <c r="Q135" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:19" customHeight="1" ht="14.25">
@@ -9849,7 +9543,7 @@
       <c r="M136" s="108"/>
       <c r="N136" s="108"/>
       <c r="Q136" s="3" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:19" customHeight="1" ht="14.25">
@@ -9868,7 +9562,7 @@
       <c r="M137" s="108"/>
       <c r="N137" s="108"/>
       <c r="Q137" s="3" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:19" customHeight="1" ht="14.25">
@@ -9887,7 +9581,7 @@
       <c r="M138" s="108"/>
       <c r="N138" s="108"/>
       <c r="Q138" s="3" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:19" customHeight="1" ht="14.25">
@@ -9906,7 +9600,7 @@
       <c r="M139" s="108"/>
       <c r="N139" s="108"/>
       <c r="Q139" s="3" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:19" customHeight="1" ht="14.25">
@@ -9925,7 +9619,7 @@
       <c r="M140" s="108"/>
       <c r="N140" s="108"/>
       <c r="Q140" s="3" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:19" customHeight="1" ht="14.25">
@@ -9944,7 +9638,7 @@
       <c r="M141" s="108"/>
       <c r="N141" s="108"/>
       <c r="Q141" s="3" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:19" customHeight="1" ht="14.25">
@@ -9963,7 +9657,7 @@
       <c r="M142" s="108"/>
       <c r="N142" s="108"/>
       <c r="Q142" s="3" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:19" customHeight="1" ht="28.5">
@@ -9982,7 +9676,7 @@
       <c r="M143" s="108"/>
       <c r="N143" s="108"/>
       <c r="Q143" s="3" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:19" customHeight="1" ht="14.25">
@@ -10001,7 +9695,7 @@
       <c r="M144" s="108"/>
       <c r="N144" s="108"/>
       <c r="Q144" s="3" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:19" customHeight="1" ht="14.25">
@@ -10020,7 +9714,7 @@
       <c r="M145" s="108"/>
       <c r="N145" s="108"/>
       <c r="Q145" s="3" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:19" customHeight="1" ht="14.25">
@@ -10039,7 +9733,7 @@
       <c r="M146" s="108"/>
       <c r="N146" s="108"/>
       <c r="Q146" s="3" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:19" customHeight="1" ht="14.25">
@@ -10058,7 +9752,7 @@
       <c r="M147" s="108"/>
       <c r="N147" s="108"/>
       <c r="Q147" s="3" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:19" customHeight="1" ht="14.25">
@@ -10077,7 +9771,7 @@
       <c r="M148" s="108"/>
       <c r="N148" s="108"/>
       <c r="Q148" s="3" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:19" customHeight="1" ht="14.25">
@@ -10096,7 +9790,7 @@
       <c r="M149" s="108"/>
       <c r="N149" s="108"/>
       <c r="Q149" s="3" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:19" customHeight="1" ht="14.25">
@@ -10115,7 +9809,7 @@
       <c r="M150" s="108"/>
       <c r="N150" s="108"/>
       <c r="Q150" s="3" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:19" customHeight="1" ht="14.25">
@@ -10134,7 +9828,7 @@
       <c r="M151" s="108"/>
       <c r="N151" s="108"/>
       <c r="Q151" s="3" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:19" customHeight="1" ht="14.25">
@@ -10153,7 +9847,7 @@
       <c r="M152" s="108"/>
       <c r="N152" s="108"/>
       <c r="Q152" s="3" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:19" customHeight="1" ht="28.5">
@@ -10172,7 +9866,7 @@
       <c r="M153" s="108"/>
       <c r="N153" s="108"/>
       <c r="Q153" s="3" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:19" customHeight="1" ht="14.25">
@@ -10191,7 +9885,7 @@
       <c r="M154" s="108"/>
       <c r="N154" s="108"/>
       <c r="Q154" s="3" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:19" customHeight="1" ht="28.5">
@@ -10210,7 +9904,7 @@
       <c r="M155" s="108"/>
       <c r="N155" s="108"/>
       <c r="Q155" s="3" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:19" customHeight="1" ht="14.25">
@@ -10229,7 +9923,7 @@
       <c r="M156" s="108"/>
       <c r="N156" s="108"/>
       <c r="Q156" s="3" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:19" customHeight="1" ht="14.25">
@@ -10248,7 +9942,7 @@
       <c r="M157" s="108"/>
       <c r="N157" s="108"/>
       <c r="Q157" s="3" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:19" customHeight="1" ht="14.25">
@@ -10267,7 +9961,7 @@
       <c r="M158" s="108"/>
       <c r="N158" s="108"/>
       <c r="Q158" s="3" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:19" customHeight="1" ht="14.25">
@@ -10286,7 +9980,7 @@
       <c r="M159" s="108"/>
       <c r="N159" s="108"/>
       <c r="Q159" s="3" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:19" customHeight="1" ht="14.25">
@@ -10305,7 +9999,7 @@
       <c r="M160" s="108"/>
       <c r="N160" s="108"/>
       <c r="Q160" s="3" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:19" customHeight="1" ht="14.25">
@@ -10324,7 +10018,7 @@
       <c r="M161" s="108"/>
       <c r="N161" s="108"/>
       <c r="Q161" s="3" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:19" customHeight="1" ht="14.25">
@@ -10343,7 +10037,7 @@
       <c r="M162" s="108"/>
       <c r="N162" s="108"/>
       <c r="Q162" s="3" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="163" spans="1:19" customHeight="1" ht="14.25">
@@ -10362,7 +10056,7 @@
       <c r="M163" s="108"/>
       <c r="N163" s="108"/>
       <c r="Q163" s="3" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:19" customHeight="1" ht="14.25">
@@ -10381,7 +10075,7 @@
       <c r="M164" s="108"/>
       <c r="N164" s="108"/>
       <c r="Q164" s="3" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:19" customHeight="1" ht="28.5">
@@ -10400,7 +10094,7 @@
       <c r="M165" s="108"/>
       <c r="N165" s="108"/>
       <c r="Q165" s="3" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:19" customHeight="1" ht="14.25">
@@ -10419,7 +10113,7 @@
       <c r="M166" s="108"/>
       <c r="N166" s="108"/>
       <c r="Q166" s="3" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:19" customHeight="1" ht="42.75">
@@ -10438,7 +10132,7 @@
       <c r="M167" s="108"/>
       <c r="N167" s="108"/>
       <c r="Q167" s="3" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:19" customHeight="1" ht="14.25">
@@ -10457,7 +10151,7 @@
       <c r="M168" s="108"/>
       <c r="N168" s="108"/>
       <c r="Q168" s="3" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:19" customHeight="1" ht="14.25">
@@ -10476,7 +10170,7 @@
       <c r="M169" s="108"/>
       <c r="N169" s="108"/>
       <c r="Q169" s="3" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:19" customHeight="1" ht="28.5">
@@ -10495,7 +10189,7 @@
       <c r="M170" s="108"/>
       <c r="N170" s="108"/>
       <c r="Q170" s="3" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:19" customHeight="1" ht="14.25">
@@ -10514,7 +10208,7 @@
       <c r="M171" s="108"/>
       <c r="N171" s="108"/>
       <c r="Q171" s="3" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:19" customHeight="1" ht="14.25">
@@ -10533,7 +10227,7 @@
       <c r="M172" s="108"/>
       <c r="N172" s="108"/>
       <c r="Q172" s="3" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:19" customHeight="1" ht="14.25">
@@ -10552,7 +10246,7 @@
       <c r="M173" s="108"/>
       <c r="N173" s="108"/>
       <c r="Q173" s="3" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:19" customHeight="1" ht="14.25">
@@ -10571,7 +10265,7 @@
       <c r="M174" s="108"/>
       <c r="N174" s="108"/>
       <c r="Q174" s="3" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:19" customHeight="1" ht="14.25">
@@ -10590,7 +10284,7 @@
       <c r="M175" s="108"/>
       <c r="N175" s="108"/>
       <c r="Q175" s="3" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:19" customHeight="1" ht="14.25">
@@ -10609,7 +10303,7 @@
       <c r="M176" s="108"/>
       <c r="N176" s="108"/>
       <c r="Q176" s="3" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:19" customHeight="1" ht="14.25">
@@ -10628,7 +10322,7 @@
       <c r="M177" s="108"/>
       <c r="N177" s="108"/>
       <c r="Q177" s="3" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:19" customHeight="1" ht="14.25">
@@ -10647,7 +10341,7 @@
       <c r="M178" s="108"/>
       <c r="N178" s="108"/>
       <c r="Q178" s="3" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:19" customHeight="1" ht="14.25">
@@ -10666,7 +10360,7 @@
       <c r="M179" s="108"/>
       <c r="N179" s="108"/>
       <c r="Q179" s="3" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180" spans="1:19" customHeight="1" ht="28.5">
@@ -10685,7 +10379,7 @@
       <c r="M180" s="108"/>
       <c r="N180" s="108"/>
       <c r="Q180" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:19" customHeight="1" ht="14.25">
@@ -10704,7 +10398,7 @@
       <c r="M181" s="108"/>
       <c r="N181" s="108"/>
       <c r="Q181" s="3" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:19" customHeight="1" ht="14.25">
@@ -10723,7 +10417,7 @@
       <c r="M182" s="108"/>
       <c r="N182" s="108"/>
       <c r="Q182" s="3" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:19" customHeight="1" ht="14.25">
@@ -10742,7 +10436,7 @@
       <c r="M183" s="108"/>
       <c r="N183" s="108"/>
       <c r="Q183" s="3" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:19" customHeight="1" ht="14.25">
@@ -10761,7 +10455,7 @@
       <c r="M184" s="108"/>
       <c r="N184" s="108"/>
       <c r="Q184" s="3" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:19" customHeight="1" ht="14.25">
@@ -10780,7 +10474,7 @@
       <c r="M185" s="108"/>
       <c r="N185" s="108"/>
       <c r="Q185" s="3" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:19" customHeight="1" ht="14.25">
@@ -10799,7 +10493,7 @@
       <c r="M186" s="108"/>
       <c r="N186" s="108"/>
       <c r="Q186" s="3" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:19" customHeight="1" ht="14.25">
@@ -10818,7 +10512,7 @@
       <c r="M187" s="108"/>
       <c r="N187" s="108"/>
       <c r="Q187" s="3" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:19" customHeight="1" ht="14.25">
@@ -10837,7 +10531,7 @@
       <c r="M188" s="108"/>
       <c r="N188" s="108"/>
       <c r="Q188" s="3" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:19" customHeight="1" ht="14.25">
@@ -10856,7 +10550,7 @@
       <c r="M189" s="108"/>
       <c r="N189" s="108"/>
       <c r="Q189" s="3" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:19" customHeight="1" ht="14.25">
@@ -10875,7 +10569,7 @@
       <c r="M190" s="108"/>
       <c r="N190" s="108"/>
       <c r="Q190" s="3" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:19" customHeight="1" ht="14.25">
@@ -10894,7 +10588,7 @@
       <c r="M191" s="108"/>
       <c r="N191" s="108"/>
       <c r="Q191" s="3" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:19" customHeight="1" ht="14.25">
@@ -10913,7 +10607,7 @@
       <c r="M192" s="108"/>
       <c r="N192" s="108"/>
       <c r="Q192" s="3" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:19" customHeight="1" ht="14.25">
@@ -10932,7 +10626,7 @@
       <c r="M193" s="108"/>
       <c r="N193" s="108"/>
       <c r="Q193" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:19" customHeight="1" ht="14.25">
@@ -10951,7 +10645,7 @@
       <c r="M194" s="108"/>
       <c r="N194" s="108"/>
       <c r="Q194" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:19" customHeight="1" ht="14.25">
@@ -10970,7 +10664,7 @@
       <c r="M195" s="108"/>
       <c r="N195" s="108"/>
       <c r="Q195" s="3" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:19" customHeight="1" ht="14.25">
@@ -10989,7 +10683,7 @@
       <c r="M196" s="108"/>
       <c r="N196" s="108"/>
       <c r="Q196" s="3" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:19" customHeight="1" ht="14.25">
@@ -11008,7 +10702,7 @@
       <c r="M197" s="108"/>
       <c r="N197" s="108"/>
       <c r="Q197" s="3" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:19" customHeight="1" ht="14.25">
@@ -11027,7 +10721,7 @@
       <c r="M198" s="108"/>
       <c r="N198" s="108"/>
       <c r="Q198" s="3" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:19" customHeight="1" ht="14.25">
@@ -11046,7 +10740,7 @@
       <c r="M199" s="108"/>
       <c r="N199" s="108"/>
       <c r="Q199" s="3" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:19" customHeight="1" ht="28.5">
@@ -11065,7 +10759,7 @@
       <c r="M200" s="108"/>
       <c r="N200" s="108"/>
       <c r="Q200" s="3" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:19" customHeight="1" ht="14.25">
@@ -11084,7 +10778,7 @@
       <c r="M201" s="108"/>
       <c r="N201" s="108"/>
       <c r="Q201" s="3" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:19" customHeight="1" ht="14.25">
@@ -11103,7 +10797,7 @@
       <c r="M202" s="108"/>
       <c r="N202" s="108"/>
       <c r="Q202" s="3" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:19" customHeight="1" ht="14.25">
@@ -11122,7 +10816,7 @@
       <c r="M203" s="108"/>
       <c r="N203" s="108"/>
       <c r="Q203" s="3" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:19" customHeight="1" ht="14.25">
@@ -11141,7 +10835,7 @@
       <c r="M204" s="108"/>
       <c r="N204" s="108"/>
       <c r="Q204" s="3" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:19" customHeight="1" ht="14.25">
@@ -11160,7 +10854,7 @@
       <c r="M205" s="108"/>
       <c r="N205" s="108"/>
       <c r="Q205" s="3" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:19" customHeight="1" ht="14.25">
@@ -11179,7 +10873,7 @@
       <c r="M206" s="108"/>
       <c r="N206" s="108"/>
       <c r="Q206" s="3" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:19" customHeight="1" ht="28.5">
@@ -11198,7 +10892,7 @@
       <c r="M207" s="108"/>
       <c r="N207" s="108"/>
       <c r="Q207" s="3" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:19" customHeight="1" ht="28.5">
@@ -11217,7 +10911,7 @@
       <c r="M208" s="108"/>
       <c r="N208" s="108"/>
       <c r="Q208" s="3" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:19" customHeight="1" ht="14.25">
@@ -11236,7 +10930,7 @@
       <c r="M209" s="108"/>
       <c r="N209" s="108"/>
       <c r="Q209" s="3" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:19" customHeight="1" ht="14.25">
@@ -11255,7 +10949,7 @@
       <c r="M210" s="108"/>
       <c r="N210" s="108"/>
       <c r="Q210" s="3" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:19" customHeight="1" ht="14.25">
@@ -11274,7 +10968,7 @@
       <c r="M211" s="108"/>
       <c r="N211" s="108"/>
       <c r="Q211" s="3" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:19" customHeight="1" ht="14.25">
@@ -11293,7 +10987,7 @@
       <c r="M212" s="108"/>
       <c r="N212" s="108"/>
       <c r="Q212" s="3" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="213" spans="1:19" customHeight="1" ht="14.25">
@@ -11312,7 +11006,7 @@
       <c r="M213" s="108"/>
       <c r="N213" s="108"/>
       <c r="Q213" s="3" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:19" customHeight="1" ht="14.25">
@@ -11331,7 +11025,7 @@
       <c r="M214" s="108"/>
       <c r="N214" s="108"/>
       <c r="Q214" s="3" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:19" customHeight="1" ht="14.25">
@@ -11350,7 +11044,7 @@
       <c r="M215" s="108"/>
       <c r="N215" s="108"/>
       <c r="Q215" s="3" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:19" customHeight="1" ht="14.25">
@@ -11369,7 +11063,7 @@
       <c r="M216" s="108"/>
       <c r="N216" s="108"/>
       <c r="Q216" s="3" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -12551,7 +12245,7 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="18">
       <c r="A2" s="514" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="B2" s="515"/>
       <c r="C2" s="515"/>
@@ -12568,28 +12262,28 @@
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
       <c r="A3" s="140" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="B3" s="507" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C3" s="507"/>
       <c r="D3" s="507"/>
       <c r="E3" s="508"/>
       <c r="F3" s="512" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="G3" s="509" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="H3" s="508"/>
       <c r="I3" s="509" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="J3" s="507"/>
       <c r="K3" s="508"/>
       <c r="L3" s="510" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="M3" s="511"/>
     </row>
@@ -12606,36 +12300,26 @@
       <c r="J4" s="483"/>
       <c r="K4" s="484"/>
       <c r="L4" s="5" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="27">
-      <c r="A5" s="493" t="s">
-        <v>346</v>
-      </c>
+      <c r="A5" s="493"/>
       <c r="B5" s="468"/>
       <c r="C5" s="468"/>
       <c r="D5" s="468"/>
       <c r="E5" s="468"/>
-      <c r="F5" s="16">
-        <v>80</v>
-      </c>
-      <c r="G5" s="492" t="s">
-        <v>347</v>
-      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="492"/>
       <c r="H5" s="492"/>
       <c r="I5" s="496"/>
       <c r="J5" s="496"/>
       <c r="K5" s="496"/>
-      <c r="L5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>348</v>
-      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="27">
       <c r="A6" s="493"/>
@@ -12729,38 +12413,24 @@
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="12">
       <c r="A12" s="485" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="B12" s="486"/>
-      <c r="C12" s="486" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="486" t="s">
-        <v>351</v>
-      </c>
+      <c r="C12" s="486"/>
+      <c r="D12" s="486"/>
       <c r="E12" s="486"/>
       <c r="F12" s="486"/>
-      <c r="G12" s="486" t="s">
-        <v>352</v>
-      </c>
+      <c r="G12" s="486"/>
       <c r="H12" s="486"/>
       <c r="I12" s="486"/>
-      <c r="J12" s="486">
-        <v>200000.0</v>
-      </c>
-      <c r="K12" s="486">
-        <v>30</v>
-      </c>
-      <c r="L12" s="486" t="s">
-        <v>353</v>
-      </c>
-      <c r="M12" s="487" t="s">
-        <v>354</v>
-      </c>
+      <c r="J12" s="486"/>
+      <c r="K12" s="486"/>
+      <c r="L12" s="486"/>
+      <c r="M12" s="487"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="488" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="B13" s="489"/>
       <c r="C13" s="489"/>
@@ -12777,7 +12447,7 @@
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="12">
       <c r="A14" s="202" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -12794,33 +12464,33 @@
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="18">
       <c r="A15" s="4" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C15" s="482"/>
       <c r="D15" s="494" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E15" s="481"/>
       <c r="F15" s="482"/>
       <c r="G15" s="494" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="H15" s="481"/>
       <c r="I15" s="482"/>
       <c r="J15" s="498" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="K15" s="519" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="L15" s="473" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M15" s="517" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15">
@@ -12840,11 +12510,11 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18.75">
       <c r="A17" s="521" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B17" s="522"/>
       <c r="C17" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D17" s="495"/>
       <c r="E17" s="483"/>
@@ -13279,7 +12949,7 @@
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="9.75">
       <c r="A46" s="476" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B46" s="477"/>
       <c r="C46" s="477"/>
@@ -13296,7 +12966,7 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="27.75">
       <c r="A47" s="445" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B47" s="446"/>
       <c r="C47" s="447"/>
@@ -13306,7 +12976,7 @@
       <c r="G47" s="502"/>
       <c r="H47" s="503"/>
       <c r="I47" s="228" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="J47" s="229"/>
       <c r="K47" s="230"/>
@@ -13316,7 +12986,7 @@
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="9">
       <c r="A48" s="500" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B48" s="500"/>
       <c r="C48" s="500"/>
@@ -13520,7 +13190,7 @@
     </row>
     <row r="2" spans="1:13" customHeight="1" ht="22.5">
       <c r="A2" s="571" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="B2" s="572"/>
       <c r="C2" s="572"/>
@@ -13535,22 +13205,22 @@
     </row>
     <row r="3" spans="1:13" customHeight="1" ht="15">
       <c r="A3" s="555" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="B3" s="556" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="C3" s="556"/>
       <c r="D3" s="557"/>
       <c r="E3" s="507" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="F3" s="508"/>
       <c r="G3" s="576" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="H3" s="509" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="I3" s="566"/>
       <c r="J3" s="566"/>
@@ -13575,10 +13245,10 @@
       <c r="C5" s="574"/>
       <c r="D5" s="575"/>
       <c r="E5" s="27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G5" s="520"/>
       <c r="H5" s="570"/>
@@ -13587,24 +13257,14 @@
       <c r="K5" s="432"/>
     </row>
     <row r="6" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A6" s="563" t="s">
-        <v>372</v>
-      </c>
+      <c r="A6" s="563"/>
       <c r="B6" s="564"/>
       <c r="C6" s="564"/>
       <c r="D6" s="565"/>
-      <c r="E6" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G6" s="34">
-        <v>50</v>
-      </c>
-      <c r="H6" s="552" t="s">
-        <v>375</v>
-      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="552"/>
       <c r="I6" s="553"/>
       <c r="J6" s="553"/>
       <c r="K6" s="554"/>
@@ -13675,33 +13335,21 @@
       <c r="K11" s="554"/>
     </row>
     <row r="12" spans="1:13" customHeight="1" ht="27.75">
-      <c r="A12" s="560" t="s">
-        <v>376</v>
-      </c>
+      <c r="A12" s="560"/>
       <c r="B12" s="561"/>
       <c r="C12" s="561"/>
       <c r="D12" s="562"/>
-      <c r="E12" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="G12" s="35">
-        <v>50</v>
-      </c>
-      <c r="H12" s="525" t="s">
-        <v>378</v>
-      </c>
-      <c r="I12" s="526" t="s">
-        <v>379</v>
-      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="526"/>
       <c r="J12" s="526"/>
       <c r="K12" s="527"/>
     </row>
     <row r="13" spans="1:13" customHeight="1" ht="11.25">
       <c r="A13" s="485" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B13" s="486"/>
       <c r="C13" s="486"/>
@@ -13716,7 +13364,7 @@
     </row>
     <row r="14" spans="1:13" customHeight="1" ht="18">
       <c r="A14" s="528" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="B14" s="529"/>
       <c r="C14" s="529"/>
@@ -13731,25 +13379,25 @@
     </row>
     <row r="15" spans="1:13" customHeight="1" ht="18">
       <c r="A15" s="543" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="B15" s="481" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="C15" s="549"/>
       <c r="D15" s="550"/>
       <c r="E15" s="481" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="F15" s="482"/>
       <c r="G15" s="519" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="H15" s="498" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="I15" s="494" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="J15" s="549"/>
       <c r="K15" s="569"/>
@@ -13773,10 +13421,10 @@
       <c r="C17" s="431"/>
       <c r="D17" s="551"/>
       <c r="E17" s="27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G17" s="520"/>
       <c r="H17" s="499"/>
@@ -14059,7 +13707,7 @@
     </row>
     <row r="39" spans="1:13" customHeight="1" ht="13.5">
       <c r="A39" s="448" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B39" s="449"/>
       <c r="C39" s="449"/>
@@ -14074,7 +13722,7 @@
     </row>
     <row r="40" spans="1:13" customHeight="1" ht="22.5">
       <c r="A40" s="585" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="B40" s="586"/>
       <c r="C40" s="586"/>
@@ -14089,26 +13737,26 @@
     </row>
     <row r="41" spans="1:13" customHeight="1" ht="33.75">
       <c r="A41" s="141" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="B41" s="146" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="D41" s="577" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="E41" s="577"/>
       <c r="F41" s="577"/>
       <c r="G41" s="577"/>
       <c r="H41" s="578"/>
       <c r="I41" s="142" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="J41" s="577" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="K41" s="584"/>
     </row>
@@ -14116,7 +13764,7 @@
       <c r="A42" s="582"/>
       <c r="B42" s="583"/>
       <c r="C42" s="579" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="D42" s="580"/>
       <c r="E42" s="580"/>
@@ -14207,7 +13855,7 @@
     </row>
     <row r="49" spans="1:13" customHeight="1" ht="11.25">
       <c r="A49" s="448" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B49" s="449"/>
       <c r="C49" s="449"/>
@@ -14222,7 +13870,7 @@
     </row>
     <row r="50" spans="1:13" customHeight="1" ht="28.5">
       <c r="A50" s="445" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B50" s="447"/>
       <c r="C50" s="501"/>
@@ -14230,7 +13878,7 @@
       <c r="E50" s="502"/>
       <c r="F50" s="503"/>
       <c r="G50" s="588" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="H50" s="589"/>
       <c r="I50" s="501"/>
@@ -14241,7 +13889,7 @@
     </row>
     <row r="51" spans="1:13" customHeight="1" ht="9.75">
       <c r="K51" s="236" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:13" customHeight="1" ht="3"/>
@@ -14411,11 +14059,11 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="13.5">
       <c r="A2" s="624" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="B2" s="625"/>
       <c r="C2" s="603" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="D2" s="603"/>
       <c r="E2" s="603"/>
@@ -14432,7 +14080,7 @@
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="607" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="D3" s="607"/>
       <c r="E3" s="607"/>
@@ -14449,7 +14097,7 @@
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="607" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="D4" s="607"/>
       <c r="E4" s="607"/>
@@ -14475,14 +14123,12 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="607" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="D6" s="607"/>
       <c r="E6" s="607"/>
       <c r="F6" s="608"/>
-      <c r="G6" s="629" t="s">
-        <v>400</v>
-      </c>
+      <c r="G6" s="629"/>
       <c r="H6" s="630"/>
       <c r="I6" s="630"/>
       <c r="J6" s="630"/>
@@ -14509,14 +14155,12 @@
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="607" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="D8" s="607"/>
       <c r="E8" s="607"/>
       <c r="F8" s="608"/>
-      <c r="G8" s="632" t="s">
-        <v>400</v>
-      </c>
+      <c r="G8" s="632"/>
       <c r="H8" s="633"/>
       <c r="I8" s="633"/>
       <c r="J8" s="633"/>
@@ -14541,7 +14185,7 @@
       <c r="E10" s="607"/>
       <c r="F10" s="608"/>
       <c r="G10" s="592" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H10" s="592"/>
       <c r="I10" s="592"/>
@@ -14582,18 +14226,16 @@
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="18">
       <c r="A13" s="622" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="B13" s="623"/>
       <c r="C13" s="590" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="D13" s="590"/>
       <c r="E13" s="549"/>
       <c r="F13" s="550"/>
-      <c r="G13" s="594" t="s">
-        <v>400</v>
-      </c>
+      <c r="G13" s="594"/>
       <c r="H13" s="595"/>
       <c r="I13" s="595"/>
       <c r="J13" s="595"/>
@@ -14609,7 +14251,7 @@
       <c r="E14" s="549"/>
       <c r="F14" s="550"/>
       <c r="G14" s="591" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H14" s="592"/>
       <c r="I14" s="592"/>
@@ -14667,14 +14309,12 @@
       <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="737" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D18" s="737"/>
       <c r="E18" s="738"/>
       <c r="F18" s="739"/>
-      <c r="G18" s="728" t="s">
-        <v>400</v>
-      </c>
+      <c r="G18" s="728"/>
       <c r="H18" s="729"/>
       <c r="I18" s="729"/>
       <c r="J18" s="729"/>
@@ -14690,7 +14330,7 @@
       <c r="E19" s="738"/>
       <c r="F19" s="739"/>
       <c r="G19" s="591" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H19" s="592"/>
       <c r="I19" s="592"/>
@@ -14708,7 +14348,7 @@
       <c r="F20" s="739"/>
       <c r="G20" s="56"/>
       <c r="H20" s="733" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="I20" s="733"/>
       <c r="J20" s="246"/>
@@ -14724,7 +14364,7 @@
       <c r="E21" s="738"/>
       <c r="F21" s="739"/>
       <c r="G21" s="734" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H21" s="735"/>
       <c r="I21" s="735"/>
@@ -14741,7 +14381,7 @@
       <c r="E22" s="740"/>
       <c r="F22" s="741"/>
       <c r="G22" s="125" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="H22" s="237"/>
       <c r="I22" s="685"/>
@@ -14752,18 +14392,16 @@
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="18">
       <c r="A23" s="636" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="B23" s="637"/>
       <c r="C23" s="618" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="D23" s="618"/>
       <c r="E23" s="618"/>
       <c r="F23" s="619"/>
-      <c r="G23" s="594" t="s">
-        <v>400</v>
-      </c>
+      <c r="G23" s="594"/>
       <c r="H23" s="595"/>
       <c r="I23" s="595"/>
       <c r="J23" s="595"/>
@@ -14779,7 +14417,7 @@
       <c r="E24" s="610"/>
       <c r="F24" s="609"/>
       <c r="G24" s="591" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H24" s="592"/>
       <c r="I24" s="592"/>
@@ -14820,18 +14458,16 @@
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="14.25">
       <c r="A27" s="636" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B27" s="637"/>
       <c r="C27" s="618" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="D27" s="618"/>
       <c r="E27" s="618"/>
       <c r="F27" s="619"/>
-      <c r="G27" s="594" t="s">
-        <v>400</v>
-      </c>
+      <c r="G27" s="594"/>
       <c r="H27" s="595"/>
       <c r="I27" s="595"/>
       <c r="J27" s="595"/>
@@ -14847,7 +14483,7 @@
       <c r="E28" s="610"/>
       <c r="F28" s="609"/>
       <c r="G28" s="591" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H28" s="592"/>
       <c r="I28" s="592"/>
@@ -14887,18 +14523,16 @@
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="18">
       <c r="A31" s="636" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="B31" s="637"/>
       <c r="C31" s="618" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="D31" s="618"/>
       <c r="E31" s="618"/>
       <c r="F31" s="619"/>
-      <c r="G31" s="594" t="s">
-        <v>400</v>
-      </c>
+      <c r="G31" s="594"/>
       <c r="H31" s="595"/>
       <c r="I31" s="595"/>
       <c r="J31" s="595"/>
@@ -14914,7 +14548,7 @@
       <c r="E32" s="610"/>
       <c r="F32" s="609"/>
       <c r="G32" s="672" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="H32" s="673"/>
       <c r="I32" s="673"/>
@@ -14942,14 +14576,12 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="610" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="D34" s="610"/>
       <c r="E34" s="610"/>
       <c r="F34" s="609"/>
-      <c r="G34" s="674" t="s">
-        <v>400</v>
-      </c>
+      <c r="G34" s="674"/>
       <c r="H34" s="675"/>
       <c r="I34" s="675"/>
       <c r="J34" s="675"/>
@@ -14965,7 +14597,7 @@
       <c r="E35" s="610"/>
       <c r="F35" s="609"/>
       <c r="G35" s="672" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="H35" s="673"/>
       <c r="I35" s="673"/>
@@ -14990,18 +14622,16 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18">
       <c r="A37" s="636" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="B37" s="637"/>
       <c r="C37" s="613" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D37" s="613"/>
       <c r="E37" s="613"/>
       <c r="F37" s="614"/>
-      <c r="G37" s="594" t="s">
-        <v>400</v>
-      </c>
+      <c r="G37" s="594"/>
       <c r="H37" s="595"/>
       <c r="I37" s="595"/>
       <c r="J37" s="595"/>
@@ -15017,7 +14647,7 @@
       <c r="E38" s="590"/>
       <c r="F38" s="615"/>
       <c r="G38" s="591" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="H38" s="592"/>
       <c r="I38" s="592"/>
@@ -15058,11 +14688,11 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="28.5">
       <c r="A41" s="611" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="B41" s="612"/>
       <c r="C41" s="610" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="D41" s="610"/>
       <c r="E41" s="610"/>
@@ -15092,18 +14722,16 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="13.5">
       <c r="A43" s="64" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="B43" s="65"/>
       <c r="C43" s="610" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="D43" s="610"/>
       <c r="E43" s="610"/>
       <c r="F43" s="609"/>
-      <c r="G43" s="632" t="s">
-        <v>400</v>
-      </c>
+      <c r="G43" s="632"/>
       <c r="H43" s="633"/>
       <c r="I43" s="633"/>
       <c r="J43" s="633"/>
@@ -15119,7 +14747,7 @@
       <c r="E44" s="610"/>
       <c r="F44" s="609"/>
       <c r="G44" s="187" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="H44" s="239"/>
       <c r="I44" s="118"/>
@@ -15130,18 +14758,16 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="13.5">
       <c r="A45" s="64" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="B45" s="65"/>
       <c r="C45" s="609" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="D45" s="609"/>
       <c r="E45" s="609"/>
       <c r="F45" s="609"/>
-      <c r="G45" s="632" t="s">
-        <v>400</v>
-      </c>
+      <c r="G45" s="632"/>
       <c r="H45" s="633"/>
       <c r="I45" s="633"/>
       <c r="J45" s="633"/>
@@ -15157,7 +14783,7 @@
       <c r="E46" s="609"/>
       <c r="F46" s="609"/>
       <c r="G46" s="188" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="H46" s="240"/>
       <c r="I46" s="118"/>
@@ -15169,18 +14795,16 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="13.5">
       <c r="A47" s="64" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="B47" s="65"/>
       <c r="C47" s="610" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="D47" s="610"/>
       <c r="E47" s="115"/>
       <c r="F47" s="116"/>
-      <c r="G47" s="632" t="s">
-        <v>400</v>
-      </c>
+      <c r="G47" s="632"/>
       <c r="H47" s="633"/>
       <c r="I47" s="633"/>
       <c r="J47" s="633"/>
@@ -15196,7 +14820,7 @@
       <c r="E48" s="652"/>
       <c r="F48" s="653"/>
       <c r="G48" s="189" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="H48" s="241"/>
       <c r="I48" s="120"/>
@@ -15224,11 +14848,11 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="23.25">
       <c r="A50" s="725" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B50" s="726"/>
       <c r="C50" s="185" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="D50" s="185"/>
       <c r="E50" s="185"/>
@@ -15243,17 +14867,17 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="18">
       <c r="A51" s="648" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="B51" s="649"/>
       <c r="C51" s="649"/>
       <c r="D51" s="649"/>
       <c r="E51" s="650"/>
       <c r="F51" s="177" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="G51" s="657" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="H51" s="577"/>
       <c r="I51" s="584"/>
@@ -15263,19 +14887,13 @@
       <c r="M51" s="644"/>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="24">
-      <c r="A52" s="665" t="s">
-        <v>435</v>
-      </c>
+      <c r="A52" s="665"/>
       <c r="B52" s="666"/>
       <c r="C52" s="668"/>
       <c r="D52" s="668"/>
       <c r="E52" s="669"/>
-      <c r="F52" s="72" t="s">
-        <v>436</v>
-      </c>
-      <c r="G52" s="658" t="s">
-        <v>437</v>
-      </c>
+      <c r="F52" s="72"/>
+      <c r="G52" s="658"/>
       <c r="H52" s="659"/>
       <c r="I52" s="660"/>
       <c r="J52" s="642"/>
@@ -15284,19 +14902,13 @@
       <c r="M52" s="644"/>
     </row>
     <row r="53" spans="1:14" customHeight="1" ht="24">
-      <c r="A53" s="665" t="s">
-        <v>438</v>
-      </c>
+      <c r="A53" s="665"/>
       <c r="B53" s="666"/>
       <c r="C53" s="666"/>
       <c r="D53" s="666"/>
       <c r="E53" s="667"/>
-      <c r="F53" s="72" t="s">
-        <v>439</v>
-      </c>
-      <c r="G53" s="658" t="s">
-        <v>440</v>
-      </c>
+      <c r="F53" s="72"/>
+      <c r="G53" s="658"/>
       <c r="H53" s="659"/>
       <c r="I53" s="660"/>
       <c r="J53" s="642"/>
@@ -15305,19 +14917,13 @@
       <c r="M53" s="644"/>
     </row>
     <row r="54" spans="1:14" customHeight="1" ht="24">
-      <c r="A54" s="661" t="s">
-        <v>441</v>
-      </c>
+      <c r="A54" s="661"/>
       <c r="B54" s="662"/>
       <c r="C54" s="663"/>
       <c r="D54" s="663"/>
       <c r="E54" s="664"/>
-      <c r="F54" s="193" t="s">
-        <v>442</v>
-      </c>
-      <c r="G54" s="645" t="s">
-        <v>443</v>
-      </c>
+      <c r="F54" s="193"/>
+      <c r="G54" s="645"/>
       <c r="H54" s="646"/>
       <c r="I54" s="647"/>
       <c r="J54" s="642"/>
@@ -15327,11 +14933,11 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="39.75">
       <c r="A55" s="624" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="B55" s="625"/>
       <c r="C55" s="670" t="s">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="D55" s="670"/>
       <c r="E55" s="670"/>
@@ -15356,7 +14962,7 @@
       <c r="I56" s="243"/>
       <c r="J56" s="192"/>
       <c r="K56" s="605" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="L56" s="605"/>
       <c r="M56" s="176"/>
@@ -15406,7 +15012,7 @@
     <row r="60" spans="1:14" customHeight="1" ht="25.5">
       <c r="A60" s="75"/>
       <c r="B60" s="677" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="C60" s="678"/>
       <c r="D60" s="679"/>
@@ -15421,12 +15027,10 @@
     <row r="61" spans="1:14" customHeight="1" ht="20.25">
       <c r="A61" s="75"/>
       <c r="B61" s="712" t="s">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="C61" s="713"/>
-      <c r="D61" s="131" t="s">
-        <v>449</v>
-      </c>
+      <c r="D61" s="131"/>
       <c r="F61" s="719"/>
       <c r="G61" s="720"/>
       <c r="H61" s="720"/>
@@ -15438,12 +15042,10 @@
     <row r="62" spans="1:14" customHeight="1" ht="9">
       <c r="A62" s="75"/>
       <c r="B62" s="701" t="s">
-        <v>450</v>
+        <v>387</v>
       </c>
       <c r="C62" s="702"/>
-      <c r="D62" s="680">
-        <v>123123</v>
-      </c>
+      <c r="D62" s="680"/>
       <c r="F62" s="722"/>
       <c r="G62" s="723"/>
       <c r="H62" s="723"/>
@@ -15458,7 +15060,7 @@
       <c r="C63" s="715"/>
       <c r="D63" s="681"/>
       <c r="F63" s="682" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="G63" s="683"/>
       <c r="H63" s="683"/>
@@ -15470,12 +15072,10 @@
     <row r="64" spans="1:14" customHeight="1" ht="10.5">
       <c r="A64" s="75"/>
       <c r="B64" s="701" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="C64" s="702"/>
-      <c r="D64" s="680" t="s">
-        <v>453</v>
-      </c>
+      <c r="D64" s="680"/>
       <c r="F64" s="77"/>
       <c r="G64" s="178"/>
       <c r="H64" s="178"/>
@@ -15491,14 +15091,14 @@
       <c r="C65" s="704"/>
       <c r="D65" s="705"/>
       <c r="F65" s="698" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="G65" s="699"/>
       <c r="H65" s="699"/>
       <c r="I65" s="700"/>
       <c r="J65" s="78"/>
       <c r="K65" s="696" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="L65" s="697"/>
       <c r="M65" s="76"/>
@@ -15520,7 +15120,7 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="28.5">
       <c r="A67" s="693" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="B67" s="694"/>
       <c r="C67" s="694"/>
@@ -15555,7 +15155,7 @@
       <c r="C69" s="227"/>
       <c r="D69" s="227"/>
       <c r="E69" s="687" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="F69" s="688"/>
       <c r="G69" s="688"/>
@@ -15583,7 +15183,7 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="10.5">
       <c r="A71" s="686" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="B71" s="686"/>
       <c r="C71" s="686"/>
@@ -15762,45 +15362,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
